--- a/Brain/Intra-mart/docker/README.xlsx
+++ b/Brain/Intra-mart/docker/README.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Intra-mart\docker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Intra-mart\docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C2373-7134-4397-8D8B-4D677D370005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="59" r:id="rId1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="162">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -1028,11 +1027,42 @@
     <t>copy 4 files from volumes folder to resin folder</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>step 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit file /opt/cassandra/conf/cassandra-env.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replace Xss180k to Xss256k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/opt/resin/conf/resin.properties</t>
+  </si>
+  <si>
+    <t>step 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jvm_args : -Dfile.encoding=UTF-8 -Djava.io.tmpdir=tmp -Xmx1500m -Xms1500m -XX:+UseConcMarkSweepGC -XX:CMSInitiatingOccupancyFraction=30 -XX:NewSize=512m -XX:MaxNewSize=512m -XX:+CMSClassUnloadingEnabled -verbose:gc -XX:+PrintGCDetails -XX:+PrintGCDateStamps -XX:+HeapDumpOnOutOfMemoryError -Xloggc:log/gc.log -XX:+UseGCLogFileRotation -XX:NumberOfGCLogFiles=5 -XX:GCLogFileSize=10M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/imart/system/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replace localhost -&gt; host.docker.internal</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,14 +1590,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1578,19 +1608,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,6 +1665,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1632,80 +1692,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1719,13 +1710,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2244,13 +2274,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131533</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>27678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2320,6 +2350,82 @@
         <a:xfrm>
           <a:off x="685800" y="714375"/>
           <a:ext cx="9895238" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>445390</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>17768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="51435000"/>
+          <a:ext cx="18276190" cy="10257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>445390</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>17768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="62626875"/>
+          <a:ext cx="18276190" cy="10257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6365,11 +6471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4536D942-E5AB-4AAC-8210-DA2E701CF2B0}">
-  <dimension ref="A1:AD215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="Q315" sqref="Q315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6427,25 +6533,55 @@
         <v>149</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
-        <v>150</v>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B182" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B215" t="s">
+      <c r="A215" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B216" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B217" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B263" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B264" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B310" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{D3201822-5101-4BC4-B344-3ACEAAC9AE58}"/>
+    <hyperlink ref="E26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -6453,14 +6589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF90C226"/>
   </sheetPr>
   <dimension ref="C1:AC849"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY215" sqref="AY215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -6476,33 +6612,33 @@
       </c>
     </row>
     <row r="3" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23"/>
     </row>
     <row r="4" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E4" s="16" t="s">
@@ -6563,33 +6699,33 @@
       <c r="AC5" s="18"/>
     </row>
     <row r="6" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="21"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E7" s="16" t="s">
@@ -6737,62 +6873,62 @@
       <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="15"/>
     </row>
     <row r="13" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="21"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="15"/>
     </row>
     <row r="14" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E14" s="16" t="s">
@@ -6864,7 +7000,7 @@
     </row>
     <row r="20" spans="4:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E20" s="8" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.4">
@@ -7003,60 +7139,60 @@
       </c>
     </row>
     <row r="450" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E450" s="22" t="s">
+      <c r="E450" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F450" s="23"/>
-      <c r="G450" s="23"/>
-      <c r="H450" s="23"/>
-      <c r="I450" s="23"/>
-      <c r="J450" s="23"/>
-      <c r="K450" s="23"/>
-      <c r="L450" s="23"/>
-      <c r="M450" s="23"/>
-      <c r="N450" s="23"/>
-      <c r="O450" s="23"/>
-      <c r="P450" s="23"/>
-      <c r="Q450" s="23"/>
-      <c r="R450" s="23"/>
-      <c r="S450" s="23"/>
-      <c r="T450" s="23"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="20"/>
+      <c r="H450" s="20"/>
+      <c r="I450" s="20"/>
+      <c r="J450" s="20"/>
+      <c r="K450" s="20"/>
+      <c r="L450" s="20"/>
+      <c r="M450" s="20"/>
+      <c r="N450" s="20"/>
+      <c r="O450" s="20"/>
+      <c r="P450" s="20"/>
+      <c r="Q450" s="20"/>
+      <c r="R450" s="20"/>
+      <c r="S450" s="20"/>
+      <c r="T450" s="20"/>
     </row>
     <row r="451" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E451" s="23"/>
-      <c r="F451" s="23"/>
-      <c r="G451" s="23"/>
-      <c r="H451" s="23"/>
-      <c r="I451" s="23"/>
-      <c r="J451" s="23"/>
-      <c r="K451" s="23"/>
-      <c r="L451" s="23"/>
-      <c r="M451" s="23"/>
-      <c r="N451" s="23"/>
-      <c r="O451" s="23"/>
-      <c r="P451" s="23"/>
-      <c r="Q451" s="23"/>
-      <c r="R451" s="23"/>
-      <c r="S451" s="23"/>
-      <c r="T451" s="23"/>
+      <c r="E451" s="20"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="20"/>
+      <c r="H451" s="20"/>
+      <c r="I451" s="20"/>
+      <c r="J451" s="20"/>
+      <c r="K451" s="20"/>
+      <c r="L451" s="20"/>
+      <c r="M451" s="20"/>
+      <c r="N451" s="20"/>
+      <c r="O451" s="20"/>
+      <c r="P451" s="20"/>
+      <c r="Q451" s="20"/>
+      <c r="R451" s="20"/>
+      <c r="S451" s="20"/>
+      <c r="T451" s="20"/>
     </row>
     <row r="452" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E452" s="23"/>
-      <c r="F452" s="23"/>
-      <c r="G452" s="23"/>
-      <c r="H452" s="23"/>
-      <c r="I452" s="23"/>
-      <c r="J452" s="23"/>
-      <c r="K452" s="23"/>
-      <c r="L452" s="23"/>
-      <c r="M452" s="23"/>
-      <c r="N452" s="23"/>
-      <c r="O452" s="23"/>
-      <c r="P452" s="23"/>
-      <c r="Q452" s="23"/>
-      <c r="R452" s="23"/>
-      <c r="S452" s="23"/>
-      <c r="T452" s="23"/>
+      <c r="E452" s="20"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="20"/>
+      <c r="H452" s="20"/>
+      <c r="I452" s="20"/>
+      <c r="J452" s="20"/>
+      <c r="K452" s="20"/>
+      <c r="L452" s="20"/>
+      <c r="M452" s="20"/>
+      <c r="N452" s="20"/>
+      <c r="O452" s="20"/>
+      <c r="P452" s="20"/>
+      <c r="Q452" s="20"/>
+      <c r="R452" s="20"/>
+      <c r="S452" s="20"/>
+      <c r="T452" s="20"/>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E466" s="9" t="s">
@@ -7130,6 +7266,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E3:AC3"/>
+    <mergeCell ref="E4:AC4"/>
+    <mergeCell ref="E5:AC5"/>
+    <mergeCell ref="E6:AC6"/>
+    <mergeCell ref="E7:AC7"/>
     <mergeCell ref="E13:AC13"/>
     <mergeCell ref="E14:AC14"/>
     <mergeCell ref="E15:AC15"/>
@@ -7139,17 +7280,12 @@
     <mergeCell ref="E10:AC10"/>
     <mergeCell ref="E11:AC11"/>
     <mergeCell ref="E12:AC12"/>
-    <mergeCell ref="E3:AC3"/>
-    <mergeCell ref="E4:AC4"/>
-    <mergeCell ref="E5:AC5"/>
-    <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="E7:AC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E449" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E522" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId1"/>
+    <hyperlink ref="E449" r:id="rId2"/>
+    <hyperlink ref="E522" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -7158,7 +7294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7240,136 +7376,136 @@
       </c>
     </row>
     <row r="18" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="50"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="42"/>
     </row>
     <row r="19" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="33" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35" t="s">
+      <c r="M19" s="44"/>
+      <c r="N19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="33" t="s">
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="33" t="s">
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="63" t="s">
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="65"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="52"/>
     </row>
     <row r="20" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="37">
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="38">
         <v>1</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38" t="s">
+      <c r="M20" s="38"/>
+      <c r="N20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
       <c r="U20" s="16" t="s">
         <v>30</v>
       </c>
@@ -7404,64 +7540,64 @@
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
       <c r="AV20" s="17"/>
-      <c r="AW20" s="54"/>
+      <c r="AW20" s="53"/>
     </row>
     <row r="21" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="40">
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="26">
         <v>2</v>
       </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41" t="s">
+      <c r="M21" s="26"/>
+      <c r="N21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="58" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="58" t="s">
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="58" t="s">
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="61"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="56"/>
     </row>
     <row r="23" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
@@ -7469,464 +7605,464 @@
       </c>
     </row>
     <row r="24" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="50"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="42"/>
     </row>
     <row r="25" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="38" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="38"/>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="40"/>
     </row>
     <row r="26" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="33" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35" t="s">
+      <c r="M26" s="44"/>
+      <c r="N26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35" t="s">
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35" t="s">
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="36"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="46"/>
     </row>
     <row r="27" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="37">
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="38">
         <v>1</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38" t="s">
+      <c r="M27" s="38"/>
+      <c r="N27" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38" t="s">
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="40"/>
     </row>
     <row r="28" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="37">
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="38">
         <v>2</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38" t="s">
+      <c r="M28" s="38"/>
+      <c r="N28" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38" t="s">
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38" t="s">
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="40"/>
     </row>
     <row r="29" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="33" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35" t="s">
+      <c r="M29" s="44"/>
+      <c r="N29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35" t="s">
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35" t="s">
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="36"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="46"/>
     </row>
     <row r="30" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="37">
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="38">
         <v>1</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="38" t="s">
+      <c r="M30" s="38"/>
+      <c r="N30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38" t="s">
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38" t="s">
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="39"/>
+      <c r="AW30" s="40"/>
     </row>
     <row r="31" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="33" t="s">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35" t="s">
+      <c r="M31" s="44"/>
+      <c r="N31" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35" t="s">
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="35"/>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="36"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="46"/>
     </row>
     <row r="32" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="37">
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="38">
         <v>1</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38" t="s">
+      <c r="M32" s="38"/>
+      <c r="N32" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="4" t="s">
         <v>14</v>
       </c>
@@ -7934,54 +8070,54 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="38" t="s">
+      <c r="Z32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="40"/>
     </row>
     <row r="33" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="40">
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="26">
         <v>2</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41" t="s">
+      <c r="M33" s="26"/>
+      <c r="N33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="5" t="s">
         <v>14</v>
       </c>
@@ -7989,32 +8125,32 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="41" t="s">
+      <c r="Z33" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="42"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27"/>
+      <c r="AW33" s="28"/>
     </row>
     <row r="34" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N34" s="6"/>
@@ -8086,136 +8222,136 @@
       <c r="AW35" s="6"/>
     </row>
     <row r="36" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="49" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="50"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="41"/>
+      <c r="AT36" s="41"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="41"/>
+      <c r="AW36" s="42"/>
     </row>
     <row r="37" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="33" t="s">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35" t="s">
+      <c r="M37" s="44"/>
+      <c r="N37" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="33" t="s">
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="33" t="s">
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="63" t="s">
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="64"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="65"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="52"/>
     </row>
     <row r="38" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="37">
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="38">
         <v>1</v>
       </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="38" t="s">
+      <c r="M38" s="38"/>
+      <c r="N38" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
       <c r="U38" s="16" t="s">
         <v>30</v>
       </c>
@@ -8250,64 +8386,64 @@
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
       <c r="AV38" s="17"/>
-      <c r="AW38" s="54"/>
+      <c r="AW38" s="53"/>
     </row>
     <row r="39" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="40">
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="26">
         <v>2</v>
       </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="41" t="s">
+      <c r="M39" s="26"/>
+      <c r="N39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="58" t="s">
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="58" t="s">
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="58" t="s">
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="59"/>
-      <c r="AO39" s="59"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="59"/>
-      <c r="AR39" s="59"/>
-      <c r="AS39" s="59"/>
-      <c r="AT39" s="59"/>
-      <c r="AU39" s="59"/>
-      <c r="AV39" s="59"/>
-      <c r="AW39" s="61"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="55"/>
+      <c r="AV39" s="55"/>
+      <c r="AW39" s="56"/>
     </row>
     <row r="41" spans="3:49" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
@@ -8645,143 +8781,143 @@
       </c>
     </row>
     <row r="69" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E69" s="47" t="s">
+      <c r="E69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="49" t="s">
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="49"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
-      <c r="AD69" s="49"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="49"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="49"/>
-      <c r="AM69" s="49"/>
-      <c r="AN69" s="49"/>
-      <c r="AO69" s="49"/>
-      <c r="AP69" s="49"/>
-      <c r="AQ69" s="49"/>
-      <c r="AR69" s="49"/>
-      <c r="AS69" s="49"/>
-      <c r="AT69" s="49"/>
-      <c r="AU69" s="49"/>
-      <c r="AV69" s="49"/>
-      <c r="AW69" s="50"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
+      <c r="AB69" s="41"/>
+      <c r="AC69" s="41"/>
+      <c r="AD69" s="41"/>
+      <c r="AE69" s="41"/>
+      <c r="AF69" s="41"/>
+      <c r="AG69" s="41"/>
+      <c r="AH69" s="41"/>
+      <c r="AI69" s="41"/>
+      <c r="AJ69" s="41"/>
+      <c r="AK69" s="41"/>
+      <c r="AL69" s="41"/>
+      <c r="AM69" s="41"/>
+      <c r="AN69" s="41"/>
+      <c r="AO69" s="41"/>
+      <c r="AP69" s="41"/>
+      <c r="AQ69" s="41"/>
+      <c r="AR69" s="41"/>
+      <c r="AS69" s="41"/>
+      <c r="AT69" s="41"/>
+      <c r="AU69" s="41"/>
+      <c r="AV69" s="41"/>
+      <c r="AW69" s="42"/>
     </row>
     <row r="70" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="33" t="s">
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M70" s="34"/>
-      <c r="N70" s="35" t="s">
+      <c r="M70" s="44"/>
+      <c r="N70" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="33" t="s">
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V70" s="62"/>
-      <c r="W70" s="62"/>
-      <c r="X70" s="62"/>
-      <c r="Y70" s="62"/>
-      <c r="Z70" s="33" t="s">
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AA70" s="62"/>
-      <c r="AB70" s="62"/>
-      <c r="AC70" s="62"/>
-      <c r="AD70" s="62"/>
-      <c r="AE70" s="63" t="s">
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF70" s="64"/>
-      <c r="AG70" s="64"/>
-      <c r="AH70" s="64"/>
-      <c r="AI70" s="64"/>
-      <c r="AJ70" s="64"/>
-      <c r="AK70" s="64"/>
-      <c r="AL70" s="64"/>
-      <c r="AM70" s="64"/>
-      <c r="AN70" s="64"/>
-      <c r="AO70" s="64"/>
-      <c r="AP70" s="64"/>
-      <c r="AQ70" s="64"/>
-      <c r="AR70" s="64"/>
-      <c r="AS70" s="64"/>
-      <c r="AT70" s="64"/>
-      <c r="AU70" s="64"/>
-      <c r="AV70" s="64"/>
-      <c r="AW70" s="65"/>
+      <c r="AF70" s="51"/>
+      <c r="AG70" s="51"/>
+      <c r="AH70" s="51"/>
+      <c r="AI70" s="51"/>
+      <c r="AJ70" s="51"/>
+      <c r="AK70" s="51"/>
+      <c r="AL70" s="51"/>
+      <c r="AM70" s="51"/>
+      <c r="AN70" s="51"/>
+      <c r="AO70" s="51"/>
+      <c r="AP70" s="51"/>
+      <c r="AQ70" s="51"/>
+      <c r="AR70" s="51"/>
+      <c r="AS70" s="51"/>
+      <c r="AT70" s="51"/>
+      <c r="AU70" s="51"/>
+      <c r="AV70" s="51"/>
+      <c r="AW70" s="52"/>
     </row>
     <row r="71" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="37">
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="38">
         <v>1</v>
       </c>
-      <c r="M71" s="37"/>
-      <c r="N71" s="38" t="s">
+      <c r="M71" s="38"/>
+      <c r="N71" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="57" t="s">
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="V71" s="57"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="57"/>
-      <c r="Y71" s="57"/>
+      <c r="V71" s="58"/>
+      <c r="W71" s="58"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="58"/>
       <c r="Z71" s="16" t="s">
         <v>49</v>
       </c>
@@ -8809,56 +8945,56 @@
       <c r="AT71" s="17"/>
       <c r="AU71" s="17"/>
       <c r="AV71" s="17"/>
-      <c r="AW71" s="54"/>
+      <c r="AW71" s="53"/>
     </row>
     <row r="72" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="40">
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="26">
         <v>2</v>
       </c>
-      <c r="M72" s="40"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="58"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="60"/>
-      <c r="AE72" s="58"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="59"/>
-      <c r="AQ72" s="59"/>
-      <c r="AR72" s="59"/>
-      <c r="AS72" s="59"/>
-      <c r="AT72" s="59"/>
-      <c r="AU72" s="59"/>
-      <c r="AV72" s="59"/>
-      <c r="AW72" s="61"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="55"/>
+      <c r="X72" s="55"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="55"/>
+      <c r="AB72" s="55"/>
+      <c r="AC72" s="55"/>
+      <c r="AD72" s="57"/>
+      <c r="AE72" s="54"/>
+      <c r="AF72" s="55"/>
+      <c r="AG72" s="55"/>
+      <c r="AH72" s="55"/>
+      <c r="AI72" s="55"/>
+      <c r="AJ72" s="55"/>
+      <c r="AK72" s="55"/>
+      <c r="AL72" s="55"/>
+      <c r="AM72" s="55"/>
+      <c r="AN72" s="55"/>
+      <c r="AO72" s="55"/>
+      <c r="AP72" s="55"/>
+      <c r="AQ72" s="55"/>
+      <c r="AR72" s="55"/>
+      <c r="AS72" s="55"/>
+      <c r="AT72" s="55"/>
+      <c r="AU72" s="55"/>
+      <c r="AV72" s="55"/>
+      <c r="AW72" s="56"/>
     </row>
     <row r="74" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
@@ -8866,540 +9002,540 @@
       </c>
     </row>
     <row r="75" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="49" t="s">
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="49"/>
-      <c r="U75" s="49"/>
-      <c r="V75" s="49"/>
-      <c r="W75" s="49"/>
-      <c r="X75" s="49"/>
-      <c r="Y75" s="49"/>
-      <c r="Z75" s="49"/>
-      <c r="AA75" s="49"/>
-      <c r="AB75" s="49"/>
-      <c r="AC75" s="49"/>
-      <c r="AD75" s="49"/>
-      <c r="AE75" s="49"/>
-      <c r="AF75" s="49"/>
-      <c r="AG75" s="49"/>
-      <c r="AH75" s="49"/>
-      <c r="AI75" s="49"/>
-      <c r="AJ75" s="49"/>
-      <c r="AK75" s="49"/>
-      <c r="AL75" s="49"/>
-      <c r="AM75" s="49"/>
-      <c r="AN75" s="49"/>
-      <c r="AO75" s="49"/>
-      <c r="AP75" s="49"/>
-      <c r="AQ75" s="49"/>
-      <c r="AR75" s="49"/>
-      <c r="AS75" s="49"/>
-      <c r="AT75" s="49"/>
-      <c r="AU75" s="49"/>
-      <c r="AV75" s="49"/>
-      <c r="AW75" s="50"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
+      <c r="AB75" s="41"/>
+      <c r="AC75" s="41"/>
+      <c r="AD75" s="41"/>
+      <c r="AE75" s="41"/>
+      <c r="AF75" s="41"/>
+      <c r="AG75" s="41"/>
+      <c r="AH75" s="41"/>
+      <c r="AI75" s="41"/>
+      <c r="AJ75" s="41"/>
+      <c r="AK75" s="41"/>
+      <c r="AL75" s="41"/>
+      <c r="AM75" s="41"/>
+      <c r="AN75" s="41"/>
+      <c r="AO75" s="41"/>
+      <c r="AP75" s="41"/>
+      <c r="AQ75" s="41"/>
+      <c r="AR75" s="41"/>
+      <c r="AS75" s="41"/>
+      <c r="AT75" s="41"/>
+      <c r="AU75" s="41"/>
+      <c r="AV75" s="41"/>
+      <c r="AW75" s="42"/>
     </row>
     <row r="76" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="38" t="s">
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
-      <c r="AG76" s="38"/>
-      <c r="AH76" s="38"/>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="38"/>
-      <c r="AL76" s="38"/>
-      <c r="AM76" s="38"/>
-      <c r="AN76" s="38"/>
-      <c r="AO76" s="38"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="38"/>
-      <c r="AS76" s="38"/>
-      <c r="AT76" s="38"/>
-      <c r="AU76" s="38"/>
-      <c r="AV76" s="38"/>
-      <c r="AW76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
+      <c r="AB76" s="39"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="39"/>
+      <c r="AE76" s="39"/>
+      <c r="AF76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="39"/>
+      <c r="AL76" s="39"/>
+      <c r="AM76" s="39"/>
+      <c r="AN76" s="39"/>
+      <c r="AO76" s="39"/>
+      <c r="AP76" s="39"/>
+      <c r="AQ76" s="39"/>
+      <c r="AR76" s="39"/>
+      <c r="AS76" s="39"/>
+      <c r="AT76" s="39"/>
+      <c r="AU76" s="39"/>
+      <c r="AV76" s="39"/>
+      <c r="AW76" s="40"/>
     </row>
     <row r="77" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="33" t="s">
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M77" s="34"/>
-      <c r="N77" s="35" t="s">
+      <c r="M77" s="44"/>
+      <c r="N77" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35" t="s">
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35" t="s">
+      <c r="V77" s="45"/>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA77" s="35"/>
-      <c r="AB77" s="35"/>
-      <c r="AC77" s="35"/>
-      <c r="AD77" s="35"/>
-      <c r="AE77" s="35"/>
-      <c r="AF77" s="35"/>
-      <c r="AG77" s="35"/>
-      <c r="AH77" s="35"/>
-      <c r="AI77" s="35"/>
-      <c r="AJ77" s="35"/>
-      <c r="AK77" s="35"/>
-      <c r="AL77" s="35"/>
-      <c r="AM77" s="35"/>
-      <c r="AN77" s="35"/>
-      <c r="AO77" s="35"/>
-      <c r="AP77" s="35"/>
-      <c r="AQ77" s="35"/>
-      <c r="AR77" s="35"/>
-      <c r="AS77" s="35"/>
-      <c r="AT77" s="35"/>
-      <c r="AU77" s="35"/>
-      <c r="AV77" s="35"/>
-      <c r="AW77" s="36"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="45"/>
+      <c r="AF77" s="45"/>
+      <c r="AG77" s="45"/>
+      <c r="AH77" s="45"/>
+      <c r="AI77" s="45"/>
+      <c r="AJ77" s="45"/>
+      <c r="AK77" s="45"/>
+      <c r="AL77" s="45"/>
+      <c r="AM77" s="45"/>
+      <c r="AN77" s="45"/>
+      <c r="AO77" s="45"/>
+      <c r="AP77" s="45"/>
+      <c r="AQ77" s="45"/>
+      <c r="AR77" s="45"/>
+      <c r="AS77" s="45"/>
+      <c r="AT77" s="45"/>
+      <c r="AU77" s="45"/>
+      <c r="AV77" s="45"/>
+      <c r="AW77" s="46"/>
     </row>
     <row r="78" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E78" s="43"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="37">
+      <c r="E78" s="47"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="38">
         <v>1</v>
       </c>
-      <c r="M78" s="37"/>
-      <c r="N78" s="38" t="s">
+      <c r="M78" s="38"/>
+      <c r="N78" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38" t="s">
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38" t="s">
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="38"/>
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="38"/>
-      <c r="AH78" s="38"/>
-      <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="38"/>
-      <c r="AL78" s="38"/>
-      <c r="AM78" s="38"/>
-      <c r="AN78" s="38"/>
-      <c r="AO78" s="38"/>
-      <c r="AP78" s="38"/>
-      <c r="AQ78" s="38"/>
-      <c r="AR78" s="38"/>
-      <c r="AS78" s="38"/>
-      <c r="AT78" s="38"/>
-      <c r="AU78" s="38"/>
-      <c r="AV78" s="38"/>
-      <c r="AW78" s="39"/>
+      <c r="AA78" s="39"/>
+      <c r="AB78" s="39"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="39"/>
+      <c r="AE78" s="39"/>
+      <c r="AF78" s="39"/>
+      <c r="AG78" s="39"/>
+      <c r="AH78" s="39"/>
+      <c r="AI78" s="39"/>
+      <c r="AJ78" s="39"/>
+      <c r="AK78" s="39"/>
+      <c r="AL78" s="39"/>
+      <c r="AM78" s="39"/>
+      <c r="AN78" s="39"/>
+      <c r="AO78" s="39"/>
+      <c r="AP78" s="39"/>
+      <c r="AQ78" s="39"/>
+      <c r="AR78" s="39"/>
+      <c r="AS78" s="39"/>
+      <c r="AT78" s="39"/>
+      <c r="AU78" s="39"/>
+      <c r="AV78" s="39"/>
+      <c r="AW78" s="40"/>
     </row>
     <row r="79" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="37">
+      <c r="E79" s="47"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="38">
         <v>2</v>
       </c>
-      <c r="M79" s="37"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="38"/>
-      <c r="AF79" s="38"/>
-      <c r="AG79" s="38"/>
-      <c r="AH79" s="38"/>
-      <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="38"/>
-      <c r="AL79" s="38"/>
-      <c r="AM79" s="38"/>
-      <c r="AN79" s="38"/>
-      <c r="AO79" s="38"/>
-      <c r="AP79" s="38"/>
-      <c r="AQ79" s="38"/>
-      <c r="AR79" s="38"/>
-      <c r="AS79" s="38"/>
-      <c r="AT79" s="38"/>
-      <c r="AU79" s="38"/>
-      <c r="AV79" s="38"/>
-      <c r="AW79" s="39"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="39"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="39"/>
+      <c r="AL79" s="39"/>
+      <c r="AM79" s="39"/>
+      <c r="AN79" s="39"/>
+      <c r="AO79" s="39"/>
+      <c r="AP79" s="39"/>
+      <c r="AQ79" s="39"/>
+      <c r="AR79" s="39"/>
+      <c r="AS79" s="39"/>
+      <c r="AT79" s="39"/>
+      <c r="AU79" s="39"/>
+      <c r="AV79" s="39"/>
+      <c r="AW79" s="40"/>
     </row>
     <row r="80" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="33" t="s">
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M80" s="34"/>
-      <c r="N80" s="35" t="s">
+      <c r="M80" s="44"/>
+      <c r="N80" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35" t="s">
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35" t="s">
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
-      <c r="AN80" s="35"/>
-      <c r="AO80" s="35"/>
-      <c r="AP80" s="35"/>
-      <c r="AQ80" s="35"/>
-      <c r="AR80" s="35"/>
-      <c r="AS80" s="35"/>
-      <c r="AT80" s="35"/>
-      <c r="AU80" s="35"/>
-      <c r="AV80" s="35"/>
-      <c r="AW80" s="36"/>
+      <c r="AA80" s="45"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="45"/>
+      <c r="AF80" s="45"/>
+      <c r="AG80" s="45"/>
+      <c r="AH80" s="45"/>
+      <c r="AI80" s="45"/>
+      <c r="AJ80" s="45"/>
+      <c r="AK80" s="45"/>
+      <c r="AL80" s="45"/>
+      <c r="AM80" s="45"/>
+      <c r="AN80" s="45"/>
+      <c r="AO80" s="45"/>
+      <c r="AP80" s="45"/>
+      <c r="AQ80" s="45"/>
+      <c r="AR80" s="45"/>
+      <c r="AS80" s="45"/>
+      <c r="AT80" s="45"/>
+      <c r="AU80" s="45"/>
+      <c r="AV80" s="45"/>
+      <c r="AW80" s="46"/>
     </row>
     <row r="81" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="37">
+      <c r="E81" s="47"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="38">
         <v>1</v>
       </c>
-      <c r="M81" s="37"/>
-      <c r="N81" s="38" t="s">
+      <c r="M81" s="38"/>
+      <c r="N81" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="57" t="s">
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="V81" s="57"/>
-      <c r="W81" s="57"/>
-      <c r="X81" s="57"/>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="38" t="s">
+      <c r="V81" s="58"/>
+      <c r="W81" s="58"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="58"/>
+      <c r="Z81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AA81" s="38"/>
-      <c r="AB81" s="38"/>
-      <c r="AC81" s="38"/>
-      <c r="AD81" s="38"/>
-      <c r="AE81" s="38"/>
-      <c r="AF81" s="38"/>
-      <c r="AG81" s="38"/>
-      <c r="AH81" s="38"/>
-      <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
-      <c r="AK81" s="38"/>
-      <c r="AL81" s="38"/>
-      <c r="AM81" s="38"/>
-      <c r="AN81" s="38"/>
-      <c r="AO81" s="38"/>
-      <c r="AP81" s="38"/>
-      <c r="AQ81" s="38"/>
-      <c r="AR81" s="38"/>
-      <c r="AS81" s="38"/>
-      <c r="AT81" s="38"/>
-      <c r="AU81" s="38"/>
-      <c r="AV81" s="38"/>
-      <c r="AW81" s="39"/>
+      <c r="AA81" s="39"/>
+      <c r="AB81" s="39"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AH81" s="39"/>
+      <c r="AI81" s="39"/>
+      <c r="AJ81" s="39"/>
+      <c r="AK81" s="39"/>
+      <c r="AL81" s="39"/>
+      <c r="AM81" s="39"/>
+      <c r="AN81" s="39"/>
+      <c r="AO81" s="39"/>
+      <c r="AP81" s="39"/>
+      <c r="AQ81" s="39"/>
+      <c r="AR81" s="39"/>
+      <c r="AS81" s="39"/>
+      <c r="AT81" s="39"/>
+      <c r="AU81" s="39"/>
+      <c r="AV81" s="39"/>
+      <c r="AW81" s="40"/>
     </row>
     <row r="82" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="33" t="s">
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M82" s="34"/>
-      <c r="N82" s="35" t="s">
+      <c r="M82" s="44"/>
+      <c r="N82" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35" t="s">
+      <c r="O82" s="45"/>
+      <c r="P82" s="45"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35" t="s">
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
+      <c r="Y82" s="45"/>
+      <c r="Z82" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
-      <c r="AN82" s="35"/>
-      <c r="AO82" s="35"/>
-      <c r="AP82" s="35"/>
-      <c r="AQ82" s="35"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="35"/>
-      <c r="AT82" s="35"/>
-      <c r="AU82" s="35"/>
-      <c r="AV82" s="35"/>
-      <c r="AW82" s="36"/>
+      <c r="AA82" s="45"/>
+      <c r="AB82" s="45"/>
+      <c r="AC82" s="45"/>
+      <c r="AD82" s="45"/>
+      <c r="AE82" s="45"/>
+      <c r="AF82" s="45"/>
+      <c r="AG82" s="45"/>
+      <c r="AH82" s="45"/>
+      <c r="AI82" s="45"/>
+      <c r="AJ82" s="45"/>
+      <c r="AK82" s="45"/>
+      <c r="AL82" s="45"/>
+      <c r="AM82" s="45"/>
+      <c r="AN82" s="45"/>
+      <c r="AO82" s="45"/>
+      <c r="AP82" s="45"/>
+      <c r="AQ82" s="45"/>
+      <c r="AR82" s="45"/>
+      <c r="AS82" s="45"/>
+      <c r="AT82" s="45"/>
+      <c r="AU82" s="45"/>
+      <c r="AV82" s="45"/>
+      <c r="AW82" s="46"/>
     </row>
     <row r="83" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E83" s="27"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="37">
+      <c r="E83" s="32"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="38">
         <v>1</v>
       </c>
-      <c r="M83" s="37"/>
-      <c r="N83" s="38" t="s">
+      <c r="M83" s="38"/>
+      <c r="N83" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38" t="s">
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38" t="s">
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="38"/>
-      <c r="AF83" s="38"/>
-      <c r="AG83" s="38"/>
-      <c r="AH83" s="38"/>
-      <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
-      <c r="AK83" s="38"/>
-      <c r="AL83" s="38"/>
-      <c r="AM83" s="38"/>
-      <c r="AN83" s="38"/>
-      <c r="AO83" s="38"/>
-      <c r="AP83" s="38"/>
-      <c r="AQ83" s="38"/>
-      <c r="AR83" s="38"/>
-      <c r="AS83" s="38"/>
-      <c r="AT83" s="38"/>
-      <c r="AU83" s="38"/>
-      <c r="AV83" s="38"/>
-      <c r="AW83" s="39"/>
+      <c r="AA83" s="39"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="39"/>
+      <c r="AH83" s="39"/>
+      <c r="AI83" s="39"/>
+      <c r="AJ83" s="39"/>
+      <c r="AK83" s="39"/>
+      <c r="AL83" s="39"/>
+      <c r="AM83" s="39"/>
+      <c r="AN83" s="39"/>
+      <c r="AO83" s="39"/>
+      <c r="AP83" s="39"/>
+      <c r="AQ83" s="39"/>
+      <c r="AR83" s="39"/>
+      <c r="AS83" s="39"/>
+      <c r="AT83" s="39"/>
+      <c r="AU83" s="39"/>
+      <c r="AV83" s="39"/>
+      <c r="AW83" s="40"/>
     </row>
     <row r="84" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E84" s="30"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="40">
+      <c r="E84" s="35"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="26">
         <v>2</v>
       </c>
-      <c r="M84" s="40"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
-      <c r="V84" s="41"/>
-      <c r="W84" s="41"/>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
-      <c r="AB84" s="41"/>
-      <c r="AC84" s="41"/>
-      <c r="AD84" s="41"/>
-      <c r="AE84" s="41"/>
-      <c r="AF84" s="41"/>
-      <c r="AG84" s="41"/>
-      <c r="AH84" s="41"/>
-      <c r="AI84" s="41"/>
-      <c r="AJ84" s="41"/>
-      <c r="AK84" s="41"/>
-      <c r="AL84" s="41"/>
-      <c r="AM84" s="41"/>
-      <c r="AN84" s="41"/>
-      <c r="AO84" s="41"/>
-      <c r="AP84" s="41"/>
-      <c r="AQ84" s="41"/>
-      <c r="AR84" s="41"/>
-      <c r="AS84" s="41"/>
-      <c r="AT84" s="41"/>
-      <c r="AU84" s="41"/>
-      <c r="AV84" s="41"/>
-      <c r="AW84" s="42"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
+      <c r="AH84" s="27"/>
+      <c r="AI84" s="27"/>
+      <c r="AJ84" s="27"/>
+      <c r="AK84" s="27"/>
+      <c r="AL84" s="27"/>
+      <c r="AM84" s="27"/>
+      <c r="AN84" s="27"/>
+      <c r="AO84" s="27"/>
+      <c r="AP84" s="27"/>
+      <c r="AQ84" s="27"/>
+      <c r="AR84" s="27"/>
+      <c r="AS84" s="27"/>
+      <c r="AT84" s="27"/>
+      <c r="AU84" s="27"/>
+      <c r="AV84" s="27"/>
+      <c r="AW84" s="28"/>
     </row>
     <row r="85" spans="4:49" x14ac:dyDescent="0.4">
       <c r="N85" s="6"/>
@@ -9440,540 +9576,540 @@
       </c>
     </row>
     <row r="87" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E87" s="47" t="s">
+      <c r="E87" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="49" t="s">
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M87" s="49"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="49"/>
-      <c r="R87" s="49"/>
-      <c r="S87" s="49"/>
-      <c r="T87" s="49"/>
-      <c r="U87" s="49"/>
-      <c r="V87" s="49"/>
-      <c r="W87" s="49"/>
-      <c r="X87" s="49"/>
-      <c r="Y87" s="49"/>
-      <c r="Z87" s="49"/>
-      <c r="AA87" s="49"/>
-      <c r="AB87" s="49"/>
-      <c r="AC87" s="49"/>
-      <c r="AD87" s="49"/>
-      <c r="AE87" s="49"/>
-      <c r="AF87" s="49"/>
-      <c r="AG87" s="49"/>
-      <c r="AH87" s="49"/>
-      <c r="AI87" s="49"/>
-      <c r="AJ87" s="49"/>
-      <c r="AK87" s="49"/>
-      <c r="AL87" s="49"/>
-      <c r="AM87" s="49"/>
-      <c r="AN87" s="49"/>
-      <c r="AO87" s="49"/>
-      <c r="AP87" s="49"/>
-      <c r="AQ87" s="49"/>
-      <c r="AR87" s="49"/>
-      <c r="AS87" s="49"/>
-      <c r="AT87" s="49"/>
-      <c r="AU87" s="49"/>
-      <c r="AV87" s="49"/>
-      <c r="AW87" s="50"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
+      <c r="AH87" s="41"/>
+      <c r="AI87" s="41"/>
+      <c r="AJ87" s="41"/>
+      <c r="AK87" s="41"/>
+      <c r="AL87" s="41"/>
+      <c r="AM87" s="41"/>
+      <c r="AN87" s="41"/>
+      <c r="AO87" s="41"/>
+      <c r="AP87" s="41"/>
+      <c r="AQ87" s="41"/>
+      <c r="AR87" s="41"/>
+      <c r="AS87" s="41"/>
+      <c r="AT87" s="41"/>
+      <c r="AU87" s="41"/>
+      <c r="AV87" s="41"/>
+      <c r="AW87" s="42"/>
     </row>
     <row r="88" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="38" t="s">
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="38"/>
-      <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
-      <c r="AN88" s="38"/>
-      <c r="AO88" s="38"/>
-      <c r="AP88" s="38"/>
-      <c r="AQ88" s="38"/>
-      <c r="AR88" s="38"/>
-      <c r="AS88" s="38"/>
-      <c r="AT88" s="38"/>
-      <c r="AU88" s="38"/>
-      <c r="AV88" s="38"/>
-      <c r="AW88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="39"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="39"/>
+      <c r="AM88" s="39"/>
+      <c r="AN88" s="39"/>
+      <c r="AO88" s="39"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="39"/>
+      <c r="AR88" s="39"/>
+      <c r="AS88" s="39"/>
+      <c r="AT88" s="39"/>
+      <c r="AU88" s="39"/>
+      <c r="AV88" s="39"/>
+      <c r="AW88" s="40"/>
     </row>
     <row r="89" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="33" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M89" s="34"/>
-      <c r="N89" s="35" t="s">
+      <c r="M89" s="44"/>
+      <c r="N89" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35" t="s">
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35" t="s">
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="35"/>
-      <c r="AH89" s="35"/>
-      <c r="AI89" s="35"/>
-      <c r="AJ89" s="35"/>
-      <c r="AK89" s="35"/>
-      <c r="AL89" s="35"/>
-      <c r="AM89" s="35"/>
-      <c r="AN89" s="35"/>
-      <c r="AO89" s="35"/>
-      <c r="AP89" s="35"/>
-      <c r="AQ89" s="35"/>
-      <c r="AR89" s="35"/>
-      <c r="AS89" s="35"/>
-      <c r="AT89" s="35"/>
-      <c r="AU89" s="35"/>
-      <c r="AV89" s="35"/>
-      <c r="AW89" s="36"/>
+      <c r="AA89" s="45"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="45"/>
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="45"/>
+      <c r="AG89" s="45"/>
+      <c r="AH89" s="45"/>
+      <c r="AI89" s="45"/>
+      <c r="AJ89" s="45"/>
+      <c r="AK89" s="45"/>
+      <c r="AL89" s="45"/>
+      <c r="AM89" s="45"/>
+      <c r="AN89" s="45"/>
+      <c r="AO89" s="45"/>
+      <c r="AP89" s="45"/>
+      <c r="AQ89" s="45"/>
+      <c r="AR89" s="45"/>
+      <c r="AS89" s="45"/>
+      <c r="AT89" s="45"/>
+      <c r="AU89" s="45"/>
+      <c r="AV89" s="45"/>
+      <c r="AW89" s="46"/>
     </row>
     <row r="90" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E90" s="43"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="37">
+      <c r="E90" s="47"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="38">
         <v>1</v>
       </c>
-      <c r="M90" s="37"/>
-      <c r="N90" s="38" t="s">
+      <c r="M90" s="38"/>
+      <c r="N90" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38" t="s">
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38" t="s">
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AA90" s="38"/>
-      <c r="AB90" s="38"/>
-      <c r="AC90" s="38"/>
-      <c r="AD90" s="38"/>
-      <c r="AE90" s="38"/>
-      <c r="AF90" s="38"/>
-      <c r="AG90" s="38"/>
-      <c r="AH90" s="38"/>
-      <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
-      <c r="AK90" s="38"/>
-      <c r="AL90" s="38"/>
-      <c r="AM90" s="38"/>
-      <c r="AN90" s="38"/>
-      <c r="AO90" s="38"/>
-      <c r="AP90" s="38"/>
-      <c r="AQ90" s="38"/>
-      <c r="AR90" s="38"/>
-      <c r="AS90" s="38"/>
-      <c r="AT90" s="38"/>
-      <c r="AU90" s="38"/>
-      <c r="AV90" s="38"/>
-      <c r="AW90" s="39"/>
+      <c r="AA90" s="39"/>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
+      <c r="AI90" s="39"/>
+      <c r="AJ90" s="39"/>
+      <c r="AK90" s="39"/>
+      <c r="AL90" s="39"/>
+      <c r="AM90" s="39"/>
+      <c r="AN90" s="39"/>
+      <c r="AO90" s="39"/>
+      <c r="AP90" s="39"/>
+      <c r="AQ90" s="39"/>
+      <c r="AR90" s="39"/>
+      <c r="AS90" s="39"/>
+      <c r="AT90" s="39"/>
+      <c r="AU90" s="39"/>
+      <c r="AV90" s="39"/>
+      <c r="AW90" s="40"/>
     </row>
     <row r="91" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E91" s="43"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="37">
+      <c r="E91" s="47"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="38">
         <v>2</v>
       </c>
-      <c r="M91" s="37"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="38"/>
-      <c r="AE91" s="38"/>
-      <c r="AF91" s="38"/>
-      <c r="AG91" s="38"/>
-      <c r="AH91" s="38"/>
-      <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="38"/>
-      <c r="AL91" s="38"/>
-      <c r="AM91" s="38"/>
-      <c r="AN91" s="38"/>
-      <c r="AO91" s="38"/>
-      <c r="AP91" s="38"/>
-      <c r="AQ91" s="38"/>
-      <c r="AR91" s="38"/>
-      <c r="AS91" s="38"/>
-      <c r="AT91" s="38"/>
-      <c r="AU91" s="38"/>
-      <c r="AV91" s="38"/>
-      <c r="AW91" s="39"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="39"/>
+      <c r="AI91" s="39"/>
+      <c r="AJ91" s="39"/>
+      <c r="AK91" s="39"/>
+      <c r="AL91" s="39"/>
+      <c r="AM91" s="39"/>
+      <c r="AN91" s="39"/>
+      <c r="AO91" s="39"/>
+      <c r="AP91" s="39"/>
+      <c r="AQ91" s="39"/>
+      <c r="AR91" s="39"/>
+      <c r="AS91" s="39"/>
+      <c r="AT91" s="39"/>
+      <c r="AU91" s="39"/>
+      <c r="AV91" s="39"/>
+      <c r="AW91" s="40"/>
     </row>
     <row r="92" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="33" t="s">
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M92" s="34"/>
-      <c r="N92" s="35" t="s">
+      <c r="M92" s="44"/>
+      <c r="N92" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35" t="s">
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35" t="s">
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="35"/>
-      <c r="AI92" s="35"/>
-      <c r="AJ92" s="35"/>
-      <c r="AK92" s="35"/>
-      <c r="AL92" s="35"/>
-      <c r="AM92" s="35"/>
-      <c r="AN92" s="35"/>
-      <c r="AO92" s="35"/>
-      <c r="AP92" s="35"/>
-      <c r="AQ92" s="35"/>
-      <c r="AR92" s="35"/>
-      <c r="AS92" s="35"/>
-      <c r="AT92" s="35"/>
-      <c r="AU92" s="35"/>
-      <c r="AV92" s="35"/>
-      <c r="AW92" s="36"/>
+      <c r="AA92" s="45"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="45"/>
+      <c r="AE92" s="45"/>
+      <c r="AF92" s="45"/>
+      <c r="AG92" s="45"/>
+      <c r="AH92" s="45"/>
+      <c r="AI92" s="45"/>
+      <c r="AJ92" s="45"/>
+      <c r="AK92" s="45"/>
+      <c r="AL92" s="45"/>
+      <c r="AM92" s="45"/>
+      <c r="AN92" s="45"/>
+      <c r="AO92" s="45"/>
+      <c r="AP92" s="45"/>
+      <c r="AQ92" s="45"/>
+      <c r="AR92" s="45"/>
+      <c r="AS92" s="45"/>
+      <c r="AT92" s="45"/>
+      <c r="AU92" s="45"/>
+      <c r="AV92" s="45"/>
+      <c r="AW92" s="46"/>
     </row>
     <row r="93" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E93" s="43"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="37">
+      <c r="E93" s="47"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="38">
         <v>1</v>
       </c>
-      <c r="M93" s="37"/>
-      <c r="N93" s="38" t="s">
+      <c r="M93" s="38"/>
+      <c r="N93" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38" t="s">
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-      <c r="Y93" s="38"/>
-      <c r="Z93" s="38" t="s">
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
+      <c r="Z93" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="AA93" s="38"/>
-      <c r="AB93" s="38"/>
-      <c r="AC93" s="38"/>
-      <c r="AD93" s="38"/>
-      <c r="AE93" s="38"/>
-      <c r="AF93" s="38"/>
-      <c r="AG93" s="38"/>
-      <c r="AH93" s="38"/>
-      <c r="AI93" s="38"/>
-      <c r="AJ93" s="38"/>
-      <c r="AK93" s="38"/>
-      <c r="AL93" s="38"/>
-      <c r="AM93" s="38"/>
-      <c r="AN93" s="38"/>
-      <c r="AO93" s="38"/>
-      <c r="AP93" s="38"/>
-      <c r="AQ93" s="38"/>
-      <c r="AR93" s="38"/>
-      <c r="AS93" s="38"/>
-      <c r="AT93" s="38"/>
-      <c r="AU93" s="38"/>
-      <c r="AV93" s="38"/>
-      <c r="AW93" s="39"/>
+      <c r="AA93" s="39"/>
+      <c r="AB93" s="39"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="39"/>
+      <c r="AI93" s="39"/>
+      <c r="AJ93" s="39"/>
+      <c r="AK93" s="39"/>
+      <c r="AL93" s="39"/>
+      <c r="AM93" s="39"/>
+      <c r="AN93" s="39"/>
+      <c r="AO93" s="39"/>
+      <c r="AP93" s="39"/>
+      <c r="AQ93" s="39"/>
+      <c r="AR93" s="39"/>
+      <c r="AS93" s="39"/>
+      <c r="AT93" s="39"/>
+      <c r="AU93" s="39"/>
+      <c r="AV93" s="39"/>
+      <c r="AW93" s="40"/>
     </row>
     <row r="94" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="33" t="s">
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M94" s="34"/>
-      <c r="N94" s="35" t="s">
+      <c r="M94" s="44"/>
+      <c r="N94" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35" t="s">
+      <c r="O94" s="45"/>
+      <c r="P94" s="45"/>
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35" t="s">
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+      <c r="Z94" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA94" s="35"/>
-      <c r="AB94" s="35"/>
-      <c r="AC94" s="35"/>
-      <c r="AD94" s="35"/>
-      <c r="AE94" s="35"/>
-      <c r="AF94" s="35"/>
-      <c r="AG94" s="35"/>
-      <c r="AH94" s="35"/>
-      <c r="AI94" s="35"/>
-      <c r="AJ94" s="35"/>
-      <c r="AK94" s="35"/>
-      <c r="AL94" s="35"/>
-      <c r="AM94" s="35"/>
-      <c r="AN94" s="35"/>
-      <c r="AO94" s="35"/>
-      <c r="AP94" s="35"/>
-      <c r="AQ94" s="35"/>
-      <c r="AR94" s="35"/>
-      <c r="AS94" s="35"/>
-      <c r="AT94" s="35"/>
-      <c r="AU94" s="35"/>
-      <c r="AV94" s="35"/>
-      <c r="AW94" s="36"/>
+      <c r="AA94" s="45"/>
+      <c r="AB94" s="45"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="45"/>
+      <c r="AE94" s="45"/>
+      <c r="AF94" s="45"/>
+      <c r="AG94" s="45"/>
+      <c r="AH94" s="45"/>
+      <c r="AI94" s="45"/>
+      <c r="AJ94" s="45"/>
+      <c r="AK94" s="45"/>
+      <c r="AL94" s="45"/>
+      <c r="AM94" s="45"/>
+      <c r="AN94" s="45"/>
+      <c r="AO94" s="45"/>
+      <c r="AP94" s="45"/>
+      <c r="AQ94" s="45"/>
+      <c r="AR94" s="45"/>
+      <c r="AS94" s="45"/>
+      <c r="AT94" s="45"/>
+      <c r="AU94" s="45"/>
+      <c r="AV94" s="45"/>
+      <c r="AW94" s="46"/>
     </row>
     <row r="95" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="37">
+      <c r="E95" s="32"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="38">
         <v>1</v>
       </c>
-      <c r="M95" s="37"/>
-      <c r="N95" s="38" t="s">
+      <c r="M95" s="38"/>
+      <c r="N95" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38" t="s">
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38" t="s">
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
+      <c r="Z95" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AA95" s="38"/>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="38"/>
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="38"/>
-      <c r="AF95" s="38"/>
-      <c r="AG95" s="38"/>
-      <c r="AH95" s="38"/>
-      <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="38"/>
-      <c r="AL95" s="38"/>
-      <c r="AM95" s="38"/>
-      <c r="AN95" s="38"/>
-      <c r="AO95" s="38"/>
-      <c r="AP95" s="38"/>
-      <c r="AQ95" s="38"/>
-      <c r="AR95" s="38"/>
-      <c r="AS95" s="38"/>
-      <c r="AT95" s="38"/>
-      <c r="AU95" s="38"/>
-      <c r="AV95" s="38"/>
-      <c r="AW95" s="39"/>
+      <c r="AA95" s="39"/>
+      <c r="AB95" s="39"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
+      <c r="AI95" s="39"/>
+      <c r="AJ95" s="39"/>
+      <c r="AK95" s="39"/>
+      <c r="AL95" s="39"/>
+      <c r="AM95" s="39"/>
+      <c r="AN95" s="39"/>
+      <c r="AO95" s="39"/>
+      <c r="AP95" s="39"/>
+      <c r="AQ95" s="39"/>
+      <c r="AR95" s="39"/>
+      <c r="AS95" s="39"/>
+      <c r="AT95" s="39"/>
+      <c r="AU95" s="39"/>
+      <c r="AV95" s="39"/>
+      <c r="AW95" s="40"/>
     </row>
     <row r="96" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E96" s="30"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="40">
+      <c r="E96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="26">
         <v>2</v>
       </c>
-      <c r="M96" s="40"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="41"/>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="41"/>
-      <c r="Z96" s="41"/>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="41"/>
-      <c r="AF96" s="41"/>
-      <c r="AG96" s="41"/>
-      <c r="AH96" s="41"/>
-      <c r="AI96" s="41"/>
-      <c r="AJ96" s="41"/>
-      <c r="AK96" s="41"/>
-      <c r="AL96" s="41"/>
-      <c r="AM96" s="41"/>
-      <c r="AN96" s="41"/>
-      <c r="AO96" s="41"/>
-      <c r="AP96" s="41"/>
-      <c r="AQ96" s="41"/>
-      <c r="AR96" s="41"/>
-      <c r="AS96" s="41"/>
-      <c r="AT96" s="41"/>
-      <c r="AU96" s="41"/>
-      <c r="AV96" s="41"/>
-      <c r="AW96" s="42"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+      <c r="AF96" s="27"/>
+      <c r="AG96" s="27"/>
+      <c r="AH96" s="27"/>
+      <c r="AI96" s="27"/>
+      <c r="AJ96" s="27"/>
+      <c r="AK96" s="27"/>
+      <c r="AL96" s="27"/>
+      <c r="AM96" s="27"/>
+      <c r="AN96" s="27"/>
+      <c r="AO96" s="27"/>
+      <c r="AP96" s="27"/>
+      <c r="AQ96" s="27"/>
+      <c r="AR96" s="27"/>
+      <c r="AS96" s="27"/>
+      <c r="AT96" s="27"/>
+      <c r="AU96" s="27"/>
+      <c r="AV96" s="27"/>
+      <c r="AW96" s="28"/>
     </row>
     <row r="97" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N97" s="6"/>
@@ -10014,546 +10150,546 @@
       </c>
     </row>
     <row r="99" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="49" t="s">
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="49"/>
-      <c r="V99" s="49"/>
-      <c r="W99" s="49"/>
-      <c r="X99" s="49"/>
-      <c r="Y99" s="49"/>
-      <c r="Z99" s="49"/>
-      <c r="AA99" s="49"/>
-      <c r="AB99" s="49"/>
-      <c r="AC99" s="49"/>
-      <c r="AD99" s="49"/>
-      <c r="AE99" s="49"/>
-      <c r="AF99" s="49"/>
-      <c r="AG99" s="49"/>
-      <c r="AH99" s="49"/>
-      <c r="AI99" s="49"/>
-      <c r="AJ99" s="49"/>
-      <c r="AK99" s="49"/>
-      <c r="AL99" s="49"/>
-      <c r="AM99" s="49"/>
-      <c r="AN99" s="49"/>
-      <c r="AO99" s="49"/>
-      <c r="AP99" s="49"/>
-      <c r="AQ99" s="49"/>
-      <c r="AR99" s="49"/>
-      <c r="AS99" s="49"/>
-      <c r="AT99" s="49"/>
-      <c r="AU99" s="49"/>
-      <c r="AV99" s="49"/>
-      <c r="AW99" s="50"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="41"/>
+      <c r="U99" s="41"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="41"/>
+      <c r="X99" s="41"/>
+      <c r="Y99" s="41"/>
+      <c r="Z99" s="41"/>
+      <c r="AA99" s="41"/>
+      <c r="AB99" s="41"/>
+      <c r="AC99" s="41"/>
+      <c r="AD99" s="41"/>
+      <c r="AE99" s="41"/>
+      <c r="AF99" s="41"/>
+      <c r="AG99" s="41"/>
+      <c r="AH99" s="41"/>
+      <c r="AI99" s="41"/>
+      <c r="AJ99" s="41"/>
+      <c r="AK99" s="41"/>
+      <c r="AL99" s="41"/>
+      <c r="AM99" s="41"/>
+      <c r="AN99" s="41"/>
+      <c r="AO99" s="41"/>
+      <c r="AP99" s="41"/>
+      <c r="AQ99" s="41"/>
+      <c r="AR99" s="41"/>
+      <c r="AS99" s="41"/>
+      <c r="AT99" s="41"/>
+      <c r="AU99" s="41"/>
+      <c r="AV99" s="41"/>
+      <c r="AW99" s="42"/>
     </row>
     <row r="100" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="38" t="s">
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="38"/>
-      <c r="Q100" s="38"/>
-      <c r="R100" s="38"/>
-      <c r="S100" s="38"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="38"/>
-      <c r="W100" s="38"/>
-      <c r="X100" s="38"/>
-      <c r="Y100" s="38"/>
-      <c r="Z100" s="38"/>
-      <c r="AA100" s="38"/>
-      <c r="AB100" s="38"/>
-      <c r="AC100" s="38"/>
-      <c r="AD100" s="38"/>
-      <c r="AE100" s="38"/>
-      <c r="AF100" s="38"/>
-      <c r="AG100" s="38"/>
-      <c r="AH100" s="38"/>
-      <c r="AI100" s="38"/>
-      <c r="AJ100" s="38"/>
-      <c r="AK100" s="38"/>
-      <c r="AL100" s="38"/>
-      <c r="AM100" s="38"/>
-      <c r="AN100" s="38"/>
-      <c r="AO100" s="38"/>
-      <c r="AP100" s="38"/>
-      <c r="AQ100" s="38"/>
-      <c r="AR100" s="38"/>
-      <c r="AS100" s="38"/>
-      <c r="AT100" s="38"/>
-      <c r="AU100" s="38"/>
-      <c r="AV100" s="38"/>
-      <c r="AW100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+      <c r="Y100" s="39"/>
+      <c r="Z100" s="39"/>
+      <c r="AA100" s="39"/>
+      <c r="AB100" s="39"/>
+      <c r="AC100" s="39"/>
+      <c r="AD100" s="39"/>
+      <c r="AE100" s="39"/>
+      <c r="AF100" s="39"/>
+      <c r="AG100" s="39"/>
+      <c r="AH100" s="39"/>
+      <c r="AI100" s="39"/>
+      <c r="AJ100" s="39"/>
+      <c r="AK100" s="39"/>
+      <c r="AL100" s="39"/>
+      <c r="AM100" s="39"/>
+      <c r="AN100" s="39"/>
+      <c r="AO100" s="39"/>
+      <c r="AP100" s="39"/>
+      <c r="AQ100" s="39"/>
+      <c r="AR100" s="39"/>
+      <c r="AS100" s="39"/>
+      <c r="AT100" s="39"/>
+      <c r="AU100" s="39"/>
+      <c r="AV100" s="39"/>
+      <c r="AW100" s="40"/>
     </row>
     <row r="101" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="44"/>
-      <c r="L101" s="33" t="s">
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M101" s="34"/>
-      <c r="N101" s="35" t="s">
+      <c r="M101" s="44"/>
+      <c r="N101" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35" t="s">
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V101" s="35"/>
-      <c r="W101" s="35"/>
-      <c r="X101" s="35"/>
-      <c r="Y101" s="35"/>
-      <c r="Z101" s="35" t="s">
+      <c r="V101" s="45"/>
+      <c r="W101" s="45"/>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="45"/>
+      <c r="Z101" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA101" s="35"/>
-      <c r="AB101" s="35"/>
-      <c r="AC101" s="35"/>
-      <c r="AD101" s="35"/>
-      <c r="AE101" s="35"/>
-      <c r="AF101" s="35"/>
-      <c r="AG101" s="35"/>
-      <c r="AH101" s="35"/>
-      <c r="AI101" s="35"/>
-      <c r="AJ101" s="35"/>
-      <c r="AK101" s="35"/>
-      <c r="AL101" s="35"/>
-      <c r="AM101" s="35"/>
-      <c r="AN101" s="35"/>
-      <c r="AO101" s="35"/>
-      <c r="AP101" s="35"/>
-      <c r="AQ101" s="35"/>
-      <c r="AR101" s="35"/>
-      <c r="AS101" s="35"/>
-      <c r="AT101" s="35"/>
-      <c r="AU101" s="35"/>
-      <c r="AV101" s="35"/>
-      <c r="AW101" s="36"/>
+      <c r="AA101" s="45"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="45"/>
+      <c r="AE101" s="45"/>
+      <c r="AF101" s="45"/>
+      <c r="AG101" s="45"/>
+      <c r="AH101" s="45"/>
+      <c r="AI101" s="45"/>
+      <c r="AJ101" s="45"/>
+      <c r="AK101" s="45"/>
+      <c r="AL101" s="45"/>
+      <c r="AM101" s="45"/>
+      <c r="AN101" s="45"/>
+      <c r="AO101" s="45"/>
+      <c r="AP101" s="45"/>
+      <c r="AQ101" s="45"/>
+      <c r="AR101" s="45"/>
+      <c r="AS101" s="45"/>
+      <c r="AT101" s="45"/>
+      <c r="AU101" s="45"/>
+      <c r="AV101" s="45"/>
+      <c r="AW101" s="46"/>
     </row>
     <row r="102" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E102" s="43"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="37">
+      <c r="E102" s="47"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="38">
         <v>1</v>
       </c>
-      <c r="M102" s="37"/>
-      <c r="N102" s="38" t="s">
+      <c r="M102" s="38"/>
+      <c r="N102" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O102" s="38"/>
-      <c r="P102" s="38"/>
-      <c r="Q102" s="38"/>
-      <c r="R102" s="38"/>
-      <c r="S102" s="38"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38" t="s">
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V102" s="38"/>
-      <c r="W102" s="38"/>
-      <c r="X102" s="38"/>
-      <c r="Y102" s="38"/>
-      <c r="Z102" s="38" t="s">
+      <c r="V102" s="39"/>
+      <c r="W102" s="39"/>
+      <c r="X102" s="39"/>
+      <c r="Y102" s="39"/>
+      <c r="Z102" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AA102" s="38"/>
-      <c r="AB102" s="38"/>
-      <c r="AC102" s="38"/>
-      <c r="AD102" s="38"/>
-      <c r="AE102" s="38"/>
-      <c r="AF102" s="38"/>
-      <c r="AG102" s="38"/>
-      <c r="AH102" s="38"/>
-      <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
-      <c r="AK102" s="38"/>
-      <c r="AL102" s="38"/>
-      <c r="AM102" s="38"/>
-      <c r="AN102" s="38"/>
-      <c r="AO102" s="38"/>
-      <c r="AP102" s="38"/>
-      <c r="AQ102" s="38"/>
-      <c r="AR102" s="38"/>
-      <c r="AS102" s="38"/>
-      <c r="AT102" s="38"/>
-      <c r="AU102" s="38"/>
-      <c r="AV102" s="38"/>
-      <c r="AW102" s="39"/>
+      <c r="AA102" s="39"/>
+      <c r="AB102" s="39"/>
+      <c r="AC102" s="39"/>
+      <c r="AD102" s="39"/>
+      <c r="AE102" s="39"/>
+      <c r="AF102" s="39"/>
+      <c r="AG102" s="39"/>
+      <c r="AH102" s="39"/>
+      <c r="AI102" s="39"/>
+      <c r="AJ102" s="39"/>
+      <c r="AK102" s="39"/>
+      <c r="AL102" s="39"/>
+      <c r="AM102" s="39"/>
+      <c r="AN102" s="39"/>
+      <c r="AO102" s="39"/>
+      <c r="AP102" s="39"/>
+      <c r="AQ102" s="39"/>
+      <c r="AR102" s="39"/>
+      <c r="AS102" s="39"/>
+      <c r="AT102" s="39"/>
+      <c r="AU102" s="39"/>
+      <c r="AV102" s="39"/>
+      <c r="AW102" s="40"/>
     </row>
     <row r="103" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E103" s="43"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="37">
+      <c r="E103" s="47"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="38">
         <v>2</v>
       </c>
-      <c r="M103" s="37"/>
-      <c r="N103" s="38" t="s">
+      <c r="M103" s="38"/>
+      <c r="N103" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="O103" s="38"/>
-      <c r="P103" s="38"/>
-      <c r="Q103" s="38"/>
-      <c r="R103" s="38"/>
-      <c r="S103" s="38"/>
-      <c r="T103" s="38"/>
-      <c r="U103" s="38" t="s">
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="39"/>
+      <c r="T103" s="39"/>
+      <c r="U103" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V103" s="38"/>
-      <c r="W103" s="38"/>
-      <c r="X103" s="38"/>
-      <c r="Y103" s="38"/>
-      <c r="Z103" s="38" t="s">
+      <c r="V103" s="39"/>
+      <c r="W103" s="39"/>
+      <c r="X103" s="39"/>
+      <c r="Y103" s="39"/>
+      <c r="Z103" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AA103" s="38"/>
-      <c r="AB103" s="38"/>
-      <c r="AC103" s="38"/>
-      <c r="AD103" s="38"/>
-      <c r="AE103" s="38"/>
-      <c r="AF103" s="38"/>
-      <c r="AG103" s="38"/>
-      <c r="AH103" s="38"/>
-      <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="38"/>
-      <c r="AL103" s="38"/>
-      <c r="AM103" s="38"/>
-      <c r="AN103" s="38"/>
-      <c r="AO103" s="38"/>
-      <c r="AP103" s="38"/>
-      <c r="AQ103" s="38"/>
-      <c r="AR103" s="38"/>
-      <c r="AS103" s="38"/>
-      <c r="AT103" s="38"/>
-      <c r="AU103" s="38"/>
-      <c r="AV103" s="38"/>
-      <c r="AW103" s="39"/>
+      <c r="AA103" s="39"/>
+      <c r="AB103" s="39"/>
+      <c r="AC103" s="39"/>
+      <c r="AD103" s="39"/>
+      <c r="AE103" s="39"/>
+      <c r="AF103" s="39"/>
+      <c r="AG103" s="39"/>
+      <c r="AH103" s="39"/>
+      <c r="AI103" s="39"/>
+      <c r="AJ103" s="39"/>
+      <c r="AK103" s="39"/>
+      <c r="AL103" s="39"/>
+      <c r="AM103" s="39"/>
+      <c r="AN103" s="39"/>
+      <c r="AO103" s="39"/>
+      <c r="AP103" s="39"/>
+      <c r="AQ103" s="39"/>
+      <c r="AR103" s="39"/>
+      <c r="AS103" s="39"/>
+      <c r="AT103" s="39"/>
+      <c r="AU103" s="39"/>
+      <c r="AV103" s="39"/>
+      <c r="AW103" s="40"/>
     </row>
     <row r="104" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="33" t="s">
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M104" s="34"/>
-      <c r="N104" s="35" t="s">
+      <c r="M104" s="44"/>
+      <c r="N104" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="35" t="s">
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V104" s="35"/>
-      <c r="W104" s="35"/>
-      <c r="X104" s="35"/>
-      <c r="Y104" s="35"/>
-      <c r="Z104" s="35" t="s">
+      <c r="V104" s="45"/>
+      <c r="W104" s="45"/>
+      <c r="X104" s="45"/>
+      <c r="Y104" s="45"/>
+      <c r="Z104" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA104" s="35"/>
-      <c r="AB104" s="35"/>
-      <c r="AC104" s="35"/>
-      <c r="AD104" s="35"/>
-      <c r="AE104" s="35"/>
-      <c r="AF104" s="35"/>
-      <c r="AG104" s="35"/>
-      <c r="AH104" s="35"/>
-      <c r="AI104" s="35"/>
-      <c r="AJ104" s="35"/>
-      <c r="AK104" s="35"/>
-      <c r="AL104" s="35"/>
-      <c r="AM104" s="35"/>
-      <c r="AN104" s="35"/>
-      <c r="AO104" s="35"/>
-      <c r="AP104" s="35"/>
-      <c r="AQ104" s="35"/>
-      <c r="AR104" s="35"/>
-      <c r="AS104" s="35"/>
-      <c r="AT104" s="35"/>
-      <c r="AU104" s="35"/>
-      <c r="AV104" s="35"/>
-      <c r="AW104" s="36"/>
+      <c r="AA104" s="45"/>
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="45"/>
+      <c r="AE104" s="45"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="45"/>
+      <c r="AH104" s="45"/>
+      <c r="AI104" s="45"/>
+      <c r="AJ104" s="45"/>
+      <c r="AK104" s="45"/>
+      <c r="AL104" s="45"/>
+      <c r="AM104" s="45"/>
+      <c r="AN104" s="45"/>
+      <c r="AO104" s="45"/>
+      <c r="AP104" s="45"/>
+      <c r="AQ104" s="45"/>
+      <c r="AR104" s="45"/>
+      <c r="AS104" s="45"/>
+      <c r="AT104" s="45"/>
+      <c r="AU104" s="45"/>
+      <c r="AV104" s="45"/>
+      <c r="AW104" s="46"/>
     </row>
     <row r="105" spans="3:49" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E105" s="43"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="37">
+      <c r="E105" s="47"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="38">
         <v>1</v>
       </c>
-      <c r="M105" s="37"/>
-      <c r="N105" s="38" t="s">
+      <c r="M105" s="38"/>
+      <c r="N105" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
-      <c r="Q105" s="38"/>
-      <c r="R105" s="38"/>
-      <c r="S105" s="38"/>
-      <c r="T105" s="38"/>
-      <c r="U105" s="38" t="s">
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="39"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="V105" s="38"/>
-      <c r="W105" s="38"/>
-      <c r="X105" s="38"/>
-      <c r="Y105" s="38"/>
-      <c r="Z105" s="45" t="s">
+      <c r="V105" s="39"/>
+      <c r="W105" s="39"/>
+      <c r="X105" s="39"/>
+      <c r="Y105" s="39"/>
+      <c r="Z105" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AA105" s="45"/>
-      <c r="AB105" s="45"/>
-      <c r="AC105" s="45"/>
-      <c r="AD105" s="45"/>
-      <c r="AE105" s="45"/>
-      <c r="AF105" s="45"/>
-      <c r="AG105" s="45"/>
-      <c r="AH105" s="45"/>
-      <c r="AI105" s="45"/>
-      <c r="AJ105" s="45"/>
-      <c r="AK105" s="45"/>
-      <c r="AL105" s="45"/>
-      <c r="AM105" s="45"/>
-      <c r="AN105" s="45"/>
-      <c r="AO105" s="45"/>
-      <c r="AP105" s="45"/>
-      <c r="AQ105" s="45"/>
-      <c r="AR105" s="45"/>
-      <c r="AS105" s="45"/>
-      <c r="AT105" s="45"/>
-      <c r="AU105" s="45"/>
-      <c r="AV105" s="45"/>
-      <c r="AW105" s="46"/>
+      <c r="AA105" s="59"/>
+      <c r="AB105" s="59"/>
+      <c r="AC105" s="59"/>
+      <c r="AD105" s="59"/>
+      <c r="AE105" s="59"/>
+      <c r="AF105" s="59"/>
+      <c r="AG105" s="59"/>
+      <c r="AH105" s="59"/>
+      <c r="AI105" s="59"/>
+      <c r="AJ105" s="59"/>
+      <c r="AK105" s="59"/>
+      <c r="AL105" s="59"/>
+      <c r="AM105" s="59"/>
+      <c r="AN105" s="59"/>
+      <c r="AO105" s="59"/>
+      <c r="AP105" s="59"/>
+      <c r="AQ105" s="59"/>
+      <c r="AR105" s="59"/>
+      <c r="AS105" s="59"/>
+      <c r="AT105" s="59"/>
+      <c r="AU105" s="59"/>
+      <c r="AV105" s="59"/>
+      <c r="AW105" s="60"/>
     </row>
     <row r="106" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="33" t="s">
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M106" s="34"/>
-      <c r="N106" s="35" t="s">
+      <c r="M106" s="44"/>
+      <c r="N106" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O106" s="35"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35" t="s">
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
+      <c r="Q106" s="45"/>
+      <c r="R106" s="45"/>
+      <c r="S106" s="45"/>
+      <c r="T106" s="45"/>
+      <c r="U106" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V106" s="35"/>
-      <c r="W106" s="35"/>
-      <c r="X106" s="35"/>
-      <c r="Y106" s="35"/>
-      <c r="Z106" s="35" t="s">
+      <c r="V106" s="45"/>
+      <c r="W106" s="45"/>
+      <c r="X106" s="45"/>
+      <c r="Y106" s="45"/>
+      <c r="Z106" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA106" s="35"/>
-      <c r="AB106" s="35"/>
-      <c r="AC106" s="35"/>
-      <c r="AD106" s="35"/>
-      <c r="AE106" s="35"/>
-      <c r="AF106" s="35"/>
-      <c r="AG106" s="35"/>
-      <c r="AH106" s="35"/>
-      <c r="AI106" s="35"/>
-      <c r="AJ106" s="35"/>
-      <c r="AK106" s="35"/>
-      <c r="AL106" s="35"/>
-      <c r="AM106" s="35"/>
-      <c r="AN106" s="35"/>
-      <c r="AO106" s="35"/>
-      <c r="AP106" s="35"/>
-      <c r="AQ106" s="35"/>
-      <c r="AR106" s="35"/>
-      <c r="AS106" s="35"/>
-      <c r="AT106" s="35"/>
-      <c r="AU106" s="35"/>
-      <c r="AV106" s="35"/>
-      <c r="AW106" s="36"/>
+      <c r="AA106" s="45"/>
+      <c r="AB106" s="45"/>
+      <c r="AC106" s="45"/>
+      <c r="AD106" s="45"/>
+      <c r="AE106" s="45"/>
+      <c r="AF106" s="45"/>
+      <c r="AG106" s="45"/>
+      <c r="AH106" s="45"/>
+      <c r="AI106" s="45"/>
+      <c r="AJ106" s="45"/>
+      <c r="AK106" s="45"/>
+      <c r="AL106" s="45"/>
+      <c r="AM106" s="45"/>
+      <c r="AN106" s="45"/>
+      <c r="AO106" s="45"/>
+      <c r="AP106" s="45"/>
+      <c r="AQ106" s="45"/>
+      <c r="AR106" s="45"/>
+      <c r="AS106" s="45"/>
+      <c r="AT106" s="45"/>
+      <c r="AU106" s="45"/>
+      <c r="AV106" s="45"/>
+      <c r="AW106" s="46"/>
     </row>
     <row r="107" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E107" s="27"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="37">
+      <c r="E107" s="32"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="38">
         <v>1</v>
       </c>
-      <c r="M107" s="37"/>
-      <c r="N107" s="38" t="s">
+      <c r="M107" s="38"/>
+      <c r="N107" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O107" s="38"/>
-      <c r="P107" s="38"/>
-      <c r="Q107" s="38"/>
-      <c r="R107" s="38"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="38" t="s">
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="39"/>
+      <c r="T107" s="39"/>
+      <c r="U107" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V107" s="38"/>
-      <c r="W107" s="38"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="38" t="s">
+      <c r="V107" s="39"/>
+      <c r="W107" s="39"/>
+      <c r="X107" s="39"/>
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA107" s="38"/>
-      <c r="AB107" s="38"/>
-      <c r="AC107" s="38"/>
-      <c r="AD107" s="38"/>
-      <c r="AE107" s="38"/>
-      <c r="AF107" s="38"/>
-      <c r="AG107" s="38"/>
-      <c r="AH107" s="38"/>
-      <c r="AI107" s="38"/>
-      <c r="AJ107" s="38"/>
-      <c r="AK107" s="38"/>
-      <c r="AL107" s="38"/>
-      <c r="AM107" s="38"/>
-      <c r="AN107" s="38"/>
-      <c r="AO107" s="38"/>
-      <c r="AP107" s="38"/>
-      <c r="AQ107" s="38"/>
-      <c r="AR107" s="38"/>
-      <c r="AS107" s="38"/>
-      <c r="AT107" s="38"/>
-      <c r="AU107" s="38"/>
-      <c r="AV107" s="38"/>
-      <c r="AW107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="39"/>
+      <c r="AH107" s="39"/>
+      <c r="AI107" s="39"/>
+      <c r="AJ107" s="39"/>
+      <c r="AK107" s="39"/>
+      <c r="AL107" s="39"/>
+      <c r="AM107" s="39"/>
+      <c r="AN107" s="39"/>
+      <c r="AO107" s="39"/>
+      <c r="AP107" s="39"/>
+      <c r="AQ107" s="39"/>
+      <c r="AR107" s="39"/>
+      <c r="AS107" s="39"/>
+      <c r="AT107" s="39"/>
+      <c r="AU107" s="39"/>
+      <c r="AV107" s="39"/>
+      <c r="AW107" s="40"/>
     </row>
     <row r="108" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E108" s="30"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="40">
+      <c r="E108" s="35"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="26">
         <v>2</v>
       </c>
-      <c r="M108" s="40"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="41"/>
-      <c r="X108" s="41"/>
-      <c r="Y108" s="41"/>
-      <c r="Z108" s="41"/>
-      <c r="AA108" s="41"/>
-      <c r="AB108" s="41"/>
-      <c r="AC108" s="41"/>
-      <c r="AD108" s="41"/>
-      <c r="AE108" s="41"/>
-      <c r="AF108" s="41"/>
-      <c r="AG108" s="41"/>
-      <c r="AH108" s="41"/>
-      <c r="AI108" s="41"/>
-      <c r="AJ108" s="41"/>
-      <c r="AK108" s="41"/>
-      <c r="AL108" s="41"/>
-      <c r="AM108" s="41"/>
-      <c r="AN108" s="41"/>
-      <c r="AO108" s="41"/>
-      <c r="AP108" s="41"/>
-      <c r="AQ108" s="41"/>
-      <c r="AR108" s="41"/>
-      <c r="AS108" s="41"/>
-      <c r="AT108" s="41"/>
-      <c r="AU108" s="41"/>
-      <c r="AV108" s="41"/>
-      <c r="AW108" s="42"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="27"/>
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="27"/>
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="27"/>
+      <c r="AO108" s="27"/>
+      <c r="AP108" s="27"/>
+      <c r="AQ108" s="27"/>
+      <c r="AR108" s="27"/>
+      <c r="AS108" s="27"/>
+      <c r="AT108" s="27"/>
+      <c r="AU108" s="27"/>
+      <c r="AV108" s="27"/>
+      <c r="AW108" s="28"/>
     </row>
     <row r="109" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N109" s="6"/>
@@ -11164,66 +11300,66 @@
       </c>
     </row>
     <row r="157" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E157" s="47" t="s">
+      <c r="E157" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F157" s="48"/>
-      <c r="G157" s="48"/>
-      <c r="H157" s="48"/>
-      <c r="I157" s="48"/>
-      <c r="J157" s="48"/>
-      <c r="K157" s="48"/>
-      <c r="L157" s="49" t="s">
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="M157" s="49"/>
-      <c r="N157" s="49"/>
-      <c r="O157" s="49"/>
-      <c r="P157" s="49"/>
-      <c r="Q157" s="49"/>
-      <c r="R157" s="49"/>
-      <c r="S157" s="49"/>
-      <c r="T157" s="49"/>
-      <c r="U157" s="49"/>
-      <c r="V157" s="49"/>
-      <c r="W157" s="49"/>
-      <c r="X157" s="49"/>
-      <c r="Y157" s="49"/>
-      <c r="Z157" s="49"/>
-      <c r="AA157" s="49"/>
-      <c r="AB157" s="49"/>
-      <c r="AC157" s="49"/>
-      <c r="AD157" s="49"/>
-      <c r="AE157" s="49"/>
-      <c r="AF157" s="49"/>
-      <c r="AG157" s="49"/>
-      <c r="AH157" s="49"/>
-      <c r="AI157" s="49"/>
-      <c r="AJ157" s="49"/>
-      <c r="AK157" s="49"/>
-      <c r="AL157" s="49"/>
-      <c r="AM157" s="49"/>
-      <c r="AN157" s="49"/>
-      <c r="AO157" s="49"/>
-      <c r="AP157" s="49"/>
-      <c r="AQ157" s="49"/>
-      <c r="AR157" s="49"/>
-      <c r="AS157" s="49"/>
-      <c r="AT157" s="49"/>
-      <c r="AU157" s="49"/>
-      <c r="AV157" s="49"/>
-      <c r="AW157" s="50"/>
+      <c r="M157" s="41"/>
+      <c r="N157" s="41"/>
+      <c r="O157" s="41"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="41"/>
+      <c r="R157" s="41"/>
+      <c r="S157" s="41"/>
+      <c r="T157" s="41"/>
+      <c r="U157" s="41"/>
+      <c r="V157" s="41"/>
+      <c r="W157" s="41"/>
+      <c r="X157" s="41"/>
+      <c r="Y157" s="41"/>
+      <c r="Z157" s="41"/>
+      <c r="AA157" s="41"/>
+      <c r="AB157" s="41"/>
+      <c r="AC157" s="41"/>
+      <c r="AD157" s="41"/>
+      <c r="AE157" s="41"/>
+      <c r="AF157" s="41"/>
+      <c r="AG157" s="41"/>
+      <c r="AH157" s="41"/>
+      <c r="AI157" s="41"/>
+      <c r="AJ157" s="41"/>
+      <c r="AK157" s="41"/>
+      <c r="AL157" s="41"/>
+      <c r="AM157" s="41"/>
+      <c r="AN157" s="41"/>
+      <c r="AO157" s="41"/>
+      <c r="AP157" s="41"/>
+      <c r="AQ157" s="41"/>
+      <c r="AR157" s="41"/>
+      <c r="AS157" s="41"/>
+      <c r="AT157" s="41"/>
+      <c r="AU157" s="41"/>
+      <c r="AV157" s="41"/>
+      <c r="AW157" s="42"/>
     </row>
     <row r="158" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E158" s="51" t="s">
+      <c r="E158" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F158" s="52"/>
-      <c r="G158" s="52"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="52"/>
-      <c r="K158" s="53"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
+      <c r="I158" s="62"/>
+      <c r="J158" s="62"/>
+      <c r="K158" s="63"/>
       <c r="L158" s="16" t="s">
         <v>83</v>
       </c>
@@ -11263,174 +11399,174 @@
       <c r="AT158" s="17"/>
       <c r="AU158" s="17"/>
       <c r="AV158" s="17"/>
-      <c r="AW158" s="54"/>
+      <c r="AW158" s="53"/>
     </row>
     <row r="159" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E159" s="43" t="s">
+      <c r="E159" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
-      <c r="K159" s="44"/>
-      <c r="L159" s="33" t="s">
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="48"/>
+      <c r="K159" s="48"/>
+      <c r="L159" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M159" s="34"/>
-      <c r="N159" s="35" t="s">
+      <c r="M159" s="44"/>
+      <c r="N159" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O159" s="35"/>
-      <c r="P159" s="35"/>
-      <c r="Q159" s="35"/>
-      <c r="R159" s="35"/>
-      <c r="S159" s="35"/>
-      <c r="T159" s="35"/>
-      <c r="U159" s="35" t="s">
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="45"/>
+      <c r="R159" s="45"/>
+      <c r="S159" s="45"/>
+      <c r="T159" s="45"/>
+      <c r="U159" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V159" s="35"/>
-      <c r="W159" s="35"/>
-      <c r="X159" s="35"/>
-      <c r="Y159" s="35"/>
-      <c r="Z159" s="35" t="s">
+      <c r="V159" s="45"/>
+      <c r="W159" s="45"/>
+      <c r="X159" s="45"/>
+      <c r="Y159" s="45"/>
+      <c r="Z159" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA159" s="35"/>
-      <c r="AB159" s="35"/>
-      <c r="AC159" s="35"/>
-      <c r="AD159" s="35"/>
-      <c r="AE159" s="35"/>
-      <c r="AF159" s="35"/>
-      <c r="AG159" s="35"/>
-      <c r="AH159" s="35"/>
-      <c r="AI159" s="35"/>
-      <c r="AJ159" s="35"/>
-      <c r="AK159" s="35"/>
-      <c r="AL159" s="35"/>
-      <c r="AM159" s="35"/>
-      <c r="AN159" s="35"/>
-      <c r="AO159" s="35"/>
-      <c r="AP159" s="35"/>
-      <c r="AQ159" s="35"/>
-      <c r="AR159" s="35"/>
-      <c r="AS159" s="35"/>
-      <c r="AT159" s="35"/>
-      <c r="AU159" s="35"/>
-      <c r="AV159" s="35"/>
-      <c r="AW159" s="36"/>
+      <c r="AA159" s="45"/>
+      <c r="AB159" s="45"/>
+      <c r="AC159" s="45"/>
+      <c r="AD159" s="45"/>
+      <c r="AE159" s="45"/>
+      <c r="AF159" s="45"/>
+      <c r="AG159" s="45"/>
+      <c r="AH159" s="45"/>
+      <c r="AI159" s="45"/>
+      <c r="AJ159" s="45"/>
+      <c r="AK159" s="45"/>
+      <c r="AL159" s="45"/>
+      <c r="AM159" s="45"/>
+      <c r="AN159" s="45"/>
+      <c r="AO159" s="45"/>
+      <c r="AP159" s="45"/>
+      <c r="AQ159" s="45"/>
+      <c r="AR159" s="45"/>
+      <c r="AS159" s="45"/>
+      <c r="AT159" s="45"/>
+      <c r="AU159" s="45"/>
+      <c r="AV159" s="45"/>
+      <c r="AW159" s="46"/>
     </row>
     <row r="160" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E160" s="43"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="44"/>
-      <c r="L160" s="37">
+      <c r="E160" s="47"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="48"/>
+      <c r="K160" s="48"/>
+      <c r="L160" s="38">
         <v>1</v>
       </c>
-      <c r="M160" s="37"/>
-      <c r="N160" s="38" t="s">
+      <c r="M160" s="38"/>
+      <c r="N160" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O160" s="38"/>
-      <c r="P160" s="38"/>
-      <c r="Q160" s="38"/>
-      <c r="R160" s="38"/>
-      <c r="S160" s="38"/>
-      <c r="T160" s="38"/>
-      <c r="U160" s="38" t="s">
+      <c r="O160" s="39"/>
+      <c r="P160" s="39"/>
+      <c r="Q160" s="39"/>
+      <c r="R160" s="39"/>
+      <c r="S160" s="39"/>
+      <c r="T160" s="39"/>
+      <c r="U160" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="V160" s="38"/>
-      <c r="W160" s="38"/>
-      <c r="X160" s="38"/>
-      <c r="Y160" s="38"/>
-      <c r="Z160" s="38" t="s">
+      <c r="V160" s="39"/>
+      <c r="W160" s="39"/>
+      <c r="X160" s="39"/>
+      <c r="Y160" s="39"/>
+      <c r="Z160" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AA160" s="38"/>
-      <c r="AB160" s="38"/>
-      <c r="AC160" s="38"/>
-      <c r="AD160" s="38"/>
-      <c r="AE160" s="38"/>
-      <c r="AF160" s="38"/>
-      <c r="AG160" s="38"/>
-      <c r="AH160" s="38"/>
-      <c r="AI160" s="38"/>
-      <c r="AJ160" s="38"/>
-      <c r="AK160" s="38"/>
-      <c r="AL160" s="38"/>
-      <c r="AM160" s="38"/>
-      <c r="AN160" s="38"/>
-      <c r="AO160" s="38"/>
-      <c r="AP160" s="38"/>
-      <c r="AQ160" s="38"/>
-      <c r="AR160" s="38"/>
-      <c r="AS160" s="38"/>
-      <c r="AT160" s="38"/>
-      <c r="AU160" s="38"/>
-      <c r="AV160" s="38"/>
-      <c r="AW160" s="39"/>
+      <c r="AA160" s="39"/>
+      <c r="AB160" s="39"/>
+      <c r="AC160" s="39"/>
+      <c r="AD160" s="39"/>
+      <c r="AE160" s="39"/>
+      <c r="AF160" s="39"/>
+      <c r="AG160" s="39"/>
+      <c r="AH160" s="39"/>
+      <c r="AI160" s="39"/>
+      <c r="AJ160" s="39"/>
+      <c r="AK160" s="39"/>
+      <c r="AL160" s="39"/>
+      <c r="AM160" s="39"/>
+      <c r="AN160" s="39"/>
+      <c r="AO160" s="39"/>
+      <c r="AP160" s="39"/>
+      <c r="AQ160" s="39"/>
+      <c r="AR160" s="39"/>
+      <c r="AS160" s="39"/>
+      <c r="AT160" s="39"/>
+      <c r="AU160" s="39"/>
+      <c r="AV160" s="39"/>
+      <c r="AW160" s="40"/>
     </row>
     <row r="161" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E161" s="55"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="56"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-      <c r="L161" s="40">
+      <c r="E161" s="64"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
+      <c r="H161" s="65"/>
+      <c r="I161" s="65"/>
+      <c r="J161" s="65"/>
+      <c r="K161" s="65"/>
+      <c r="L161" s="26">
         <v>2</v>
       </c>
-      <c r="M161" s="40"/>
-      <c r="N161" s="41" t="s">
+      <c r="M161" s="26"/>
+      <c r="N161" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O161" s="41"/>
-      <c r="P161" s="41"/>
-      <c r="Q161" s="41"/>
-      <c r="R161" s="41"/>
-      <c r="S161" s="41"/>
-      <c r="T161" s="41"/>
-      <c r="U161" s="41" t="s">
+      <c r="O161" s="27"/>
+      <c r="P161" s="27"/>
+      <c r="Q161" s="27"/>
+      <c r="R161" s="27"/>
+      <c r="S161" s="27"/>
+      <c r="T161" s="27"/>
+      <c r="U161" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="V161" s="41"/>
-      <c r="W161" s="41"/>
-      <c r="X161" s="41"/>
-      <c r="Y161" s="41"/>
-      <c r="Z161" s="41" t="s">
+      <c r="V161" s="27"/>
+      <c r="W161" s="27"/>
+      <c r="X161" s="27"/>
+      <c r="Y161" s="27"/>
+      <c r="Z161" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AA161" s="41"/>
-      <c r="AB161" s="41"/>
-      <c r="AC161" s="41"/>
-      <c r="AD161" s="41"/>
-      <c r="AE161" s="41"/>
-      <c r="AF161" s="41"/>
-      <c r="AG161" s="41"/>
-      <c r="AH161" s="41"/>
-      <c r="AI161" s="41"/>
-      <c r="AJ161" s="41"/>
-      <c r="AK161" s="41"/>
-      <c r="AL161" s="41"/>
-      <c r="AM161" s="41"/>
-      <c r="AN161" s="41"/>
-      <c r="AO161" s="41"/>
-      <c r="AP161" s="41"/>
-      <c r="AQ161" s="41"/>
-      <c r="AR161" s="41"/>
-      <c r="AS161" s="41"/>
-      <c r="AT161" s="41"/>
-      <c r="AU161" s="41"/>
-      <c r="AV161" s="41"/>
-      <c r="AW161" s="42"/>
+      <c r="AA161" s="27"/>
+      <c r="AB161" s="27"/>
+      <c r="AC161" s="27"/>
+      <c r="AD161" s="27"/>
+      <c r="AE161" s="27"/>
+      <c r="AF161" s="27"/>
+      <c r="AG161" s="27"/>
+      <c r="AH161" s="27"/>
+      <c r="AI161" s="27"/>
+      <c r="AJ161" s="27"/>
+      <c r="AK161" s="27"/>
+      <c r="AL161" s="27"/>
+      <c r="AM161" s="27"/>
+      <c r="AN161" s="27"/>
+      <c r="AO161" s="27"/>
+      <c r="AP161" s="27"/>
+      <c r="AQ161" s="27"/>
+      <c r="AR161" s="27"/>
+      <c r="AS161" s="27"/>
+      <c r="AT161" s="27"/>
+      <c r="AU161" s="27"/>
+      <c r="AV161" s="27"/>
+      <c r="AW161" s="28"/>
     </row>
     <row r="162" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N162" s="6"/>
@@ -11471,546 +11607,546 @@
       </c>
     </row>
     <row r="164" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E164" s="47" t="s">
+      <c r="E164" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48"/>
-      <c r="K164" s="48"/>
-      <c r="L164" s="49" t="s">
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="M164" s="49"/>
-      <c r="N164" s="49"/>
-      <c r="O164" s="49"/>
-      <c r="P164" s="49"/>
-      <c r="Q164" s="49"/>
-      <c r="R164" s="49"/>
-      <c r="S164" s="49"/>
-      <c r="T164" s="49"/>
-      <c r="U164" s="49"/>
-      <c r="V164" s="49"/>
-      <c r="W164" s="49"/>
-      <c r="X164" s="49"/>
-      <c r="Y164" s="49"/>
-      <c r="Z164" s="49"/>
-      <c r="AA164" s="49"/>
-      <c r="AB164" s="49"/>
-      <c r="AC164" s="49"/>
-      <c r="AD164" s="49"/>
-      <c r="AE164" s="49"/>
-      <c r="AF164" s="49"/>
-      <c r="AG164" s="49"/>
-      <c r="AH164" s="49"/>
-      <c r="AI164" s="49"/>
-      <c r="AJ164" s="49"/>
-      <c r="AK164" s="49"/>
-      <c r="AL164" s="49"/>
-      <c r="AM164" s="49"/>
-      <c r="AN164" s="49"/>
-      <c r="AO164" s="49"/>
-      <c r="AP164" s="49"/>
-      <c r="AQ164" s="49"/>
-      <c r="AR164" s="49"/>
-      <c r="AS164" s="49"/>
-      <c r="AT164" s="49"/>
-      <c r="AU164" s="49"/>
-      <c r="AV164" s="49"/>
-      <c r="AW164" s="50"/>
+      <c r="M164" s="41"/>
+      <c r="N164" s="41"/>
+      <c r="O164" s="41"/>
+      <c r="P164" s="41"/>
+      <c r="Q164" s="41"/>
+      <c r="R164" s="41"/>
+      <c r="S164" s="41"/>
+      <c r="T164" s="41"/>
+      <c r="U164" s="41"/>
+      <c r="V164" s="41"/>
+      <c r="W164" s="41"/>
+      <c r="X164" s="41"/>
+      <c r="Y164" s="41"/>
+      <c r="Z164" s="41"/>
+      <c r="AA164" s="41"/>
+      <c r="AB164" s="41"/>
+      <c r="AC164" s="41"/>
+      <c r="AD164" s="41"/>
+      <c r="AE164" s="41"/>
+      <c r="AF164" s="41"/>
+      <c r="AG164" s="41"/>
+      <c r="AH164" s="41"/>
+      <c r="AI164" s="41"/>
+      <c r="AJ164" s="41"/>
+      <c r="AK164" s="41"/>
+      <c r="AL164" s="41"/>
+      <c r="AM164" s="41"/>
+      <c r="AN164" s="41"/>
+      <c r="AO164" s="41"/>
+      <c r="AP164" s="41"/>
+      <c r="AQ164" s="41"/>
+      <c r="AR164" s="41"/>
+      <c r="AS164" s="41"/>
+      <c r="AT164" s="41"/>
+      <c r="AU164" s="41"/>
+      <c r="AV164" s="41"/>
+      <c r="AW164" s="42"/>
     </row>
     <row r="165" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E165" s="43" t="s">
+      <c r="E165" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="44"/>
-      <c r="L165" s="38" t="s">
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48"/>
+      <c r="J165" s="48"/>
+      <c r="K165" s="48"/>
+      <c r="L165" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="M165" s="38"/>
-      <c r="N165" s="38"/>
-      <c r="O165" s="38"/>
-      <c r="P165" s="38"/>
-      <c r="Q165" s="38"/>
-      <c r="R165" s="38"/>
-      <c r="S165" s="38"/>
-      <c r="T165" s="38"/>
-      <c r="U165" s="38"/>
-      <c r="V165" s="38"/>
-      <c r="W165" s="38"/>
-      <c r="X165" s="38"/>
-      <c r="Y165" s="38"/>
-      <c r="Z165" s="38"/>
-      <c r="AA165" s="38"/>
-      <c r="AB165" s="38"/>
-      <c r="AC165" s="38"/>
-      <c r="AD165" s="38"/>
-      <c r="AE165" s="38"/>
-      <c r="AF165" s="38"/>
-      <c r="AG165" s="38"/>
-      <c r="AH165" s="38"/>
-      <c r="AI165" s="38"/>
-      <c r="AJ165" s="38"/>
-      <c r="AK165" s="38"/>
-      <c r="AL165" s="38"/>
-      <c r="AM165" s="38"/>
-      <c r="AN165" s="38"/>
-      <c r="AO165" s="38"/>
-      <c r="AP165" s="38"/>
-      <c r="AQ165" s="38"/>
-      <c r="AR165" s="38"/>
-      <c r="AS165" s="38"/>
-      <c r="AT165" s="38"/>
-      <c r="AU165" s="38"/>
-      <c r="AV165" s="38"/>
-      <c r="AW165" s="39"/>
+      <c r="M165" s="39"/>
+      <c r="N165" s="39"/>
+      <c r="O165" s="39"/>
+      <c r="P165" s="39"/>
+      <c r="Q165" s="39"/>
+      <c r="R165" s="39"/>
+      <c r="S165" s="39"/>
+      <c r="T165" s="39"/>
+      <c r="U165" s="39"/>
+      <c r="V165" s="39"/>
+      <c r="W165" s="39"/>
+      <c r="X165" s="39"/>
+      <c r="Y165" s="39"/>
+      <c r="Z165" s="39"/>
+      <c r="AA165" s="39"/>
+      <c r="AB165" s="39"/>
+      <c r="AC165" s="39"/>
+      <c r="AD165" s="39"/>
+      <c r="AE165" s="39"/>
+      <c r="AF165" s="39"/>
+      <c r="AG165" s="39"/>
+      <c r="AH165" s="39"/>
+      <c r="AI165" s="39"/>
+      <c r="AJ165" s="39"/>
+      <c r="AK165" s="39"/>
+      <c r="AL165" s="39"/>
+      <c r="AM165" s="39"/>
+      <c r="AN165" s="39"/>
+      <c r="AO165" s="39"/>
+      <c r="AP165" s="39"/>
+      <c r="AQ165" s="39"/>
+      <c r="AR165" s="39"/>
+      <c r="AS165" s="39"/>
+      <c r="AT165" s="39"/>
+      <c r="AU165" s="39"/>
+      <c r="AV165" s="39"/>
+      <c r="AW165" s="40"/>
     </row>
     <row r="166" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E166" s="43" t="s">
+      <c r="E166" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="44"/>
-      <c r="I166" s="44"/>
-      <c r="J166" s="44"/>
-      <c r="K166" s="44"/>
-      <c r="L166" s="33" t="s">
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48"/>
+      <c r="J166" s="48"/>
+      <c r="K166" s="48"/>
+      <c r="L166" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M166" s="34"/>
-      <c r="N166" s="35" t="s">
+      <c r="M166" s="44"/>
+      <c r="N166" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="35"/>
-      <c r="S166" s="35"/>
-      <c r="T166" s="35"/>
-      <c r="U166" s="35" t="s">
+      <c r="O166" s="45"/>
+      <c r="P166" s="45"/>
+      <c r="Q166" s="45"/>
+      <c r="R166" s="45"/>
+      <c r="S166" s="45"/>
+      <c r="T166" s="45"/>
+      <c r="U166" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V166" s="35"/>
-      <c r="W166" s="35"/>
-      <c r="X166" s="35"/>
-      <c r="Y166" s="35"/>
-      <c r="Z166" s="35" t="s">
+      <c r="V166" s="45"/>
+      <c r="W166" s="45"/>
+      <c r="X166" s="45"/>
+      <c r="Y166" s="45"/>
+      <c r="Z166" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA166" s="35"/>
-      <c r="AB166" s="35"/>
-      <c r="AC166" s="35"/>
-      <c r="AD166" s="35"/>
-      <c r="AE166" s="35"/>
-      <c r="AF166" s="35"/>
-      <c r="AG166" s="35"/>
-      <c r="AH166" s="35"/>
-      <c r="AI166" s="35"/>
-      <c r="AJ166" s="35"/>
-      <c r="AK166" s="35"/>
-      <c r="AL166" s="35"/>
-      <c r="AM166" s="35"/>
-      <c r="AN166" s="35"/>
-      <c r="AO166" s="35"/>
-      <c r="AP166" s="35"/>
-      <c r="AQ166" s="35"/>
-      <c r="AR166" s="35"/>
-      <c r="AS166" s="35"/>
-      <c r="AT166" s="35"/>
-      <c r="AU166" s="35"/>
-      <c r="AV166" s="35"/>
-      <c r="AW166" s="36"/>
+      <c r="AA166" s="45"/>
+      <c r="AB166" s="45"/>
+      <c r="AC166" s="45"/>
+      <c r="AD166" s="45"/>
+      <c r="AE166" s="45"/>
+      <c r="AF166" s="45"/>
+      <c r="AG166" s="45"/>
+      <c r="AH166" s="45"/>
+      <c r="AI166" s="45"/>
+      <c r="AJ166" s="45"/>
+      <c r="AK166" s="45"/>
+      <c r="AL166" s="45"/>
+      <c r="AM166" s="45"/>
+      <c r="AN166" s="45"/>
+      <c r="AO166" s="45"/>
+      <c r="AP166" s="45"/>
+      <c r="AQ166" s="45"/>
+      <c r="AR166" s="45"/>
+      <c r="AS166" s="45"/>
+      <c r="AT166" s="45"/>
+      <c r="AU166" s="45"/>
+      <c r="AV166" s="45"/>
+      <c r="AW166" s="46"/>
     </row>
     <row r="167" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E167" s="43"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="44"/>
-      <c r="L167" s="37">
+      <c r="E167" s="47"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="48"/>
+      <c r="J167" s="48"/>
+      <c r="K167" s="48"/>
+      <c r="L167" s="38">
         <v>1</v>
       </c>
-      <c r="M167" s="37"/>
-      <c r="N167" s="38" t="s">
+      <c r="M167" s="38"/>
+      <c r="N167" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O167" s="38"/>
-      <c r="P167" s="38"/>
-      <c r="Q167" s="38"/>
-      <c r="R167" s="38"/>
-      <c r="S167" s="38"/>
-      <c r="T167" s="38"/>
-      <c r="U167" s="38" t="s">
+      <c r="O167" s="39"/>
+      <c r="P167" s="39"/>
+      <c r="Q167" s="39"/>
+      <c r="R167" s="39"/>
+      <c r="S167" s="39"/>
+      <c r="T167" s="39"/>
+      <c r="U167" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V167" s="38"/>
-      <c r="W167" s="38"/>
-      <c r="X167" s="38"/>
-      <c r="Y167" s="38"/>
-      <c r="Z167" s="38" t="s">
+      <c r="V167" s="39"/>
+      <c r="W167" s="39"/>
+      <c r="X167" s="39"/>
+      <c r="Y167" s="39"/>
+      <c r="Z167" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AA167" s="38"/>
-      <c r="AB167" s="38"/>
-      <c r="AC167" s="38"/>
-      <c r="AD167" s="38"/>
-      <c r="AE167" s="38"/>
-      <c r="AF167" s="38"/>
-      <c r="AG167" s="38"/>
-      <c r="AH167" s="38"/>
-      <c r="AI167" s="38"/>
-      <c r="AJ167" s="38"/>
-      <c r="AK167" s="38"/>
-      <c r="AL167" s="38"/>
-      <c r="AM167" s="38"/>
-      <c r="AN167" s="38"/>
-      <c r="AO167" s="38"/>
-      <c r="AP167" s="38"/>
-      <c r="AQ167" s="38"/>
-      <c r="AR167" s="38"/>
-      <c r="AS167" s="38"/>
-      <c r="AT167" s="38"/>
-      <c r="AU167" s="38"/>
-      <c r="AV167" s="38"/>
-      <c r="AW167" s="39"/>
+      <c r="AA167" s="39"/>
+      <c r="AB167" s="39"/>
+      <c r="AC167" s="39"/>
+      <c r="AD167" s="39"/>
+      <c r="AE167" s="39"/>
+      <c r="AF167" s="39"/>
+      <c r="AG167" s="39"/>
+      <c r="AH167" s="39"/>
+      <c r="AI167" s="39"/>
+      <c r="AJ167" s="39"/>
+      <c r="AK167" s="39"/>
+      <c r="AL167" s="39"/>
+      <c r="AM167" s="39"/>
+      <c r="AN167" s="39"/>
+      <c r="AO167" s="39"/>
+      <c r="AP167" s="39"/>
+      <c r="AQ167" s="39"/>
+      <c r="AR167" s="39"/>
+      <c r="AS167" s="39"/>
+      <c r="AT167" s="39"/>
+      <c r="AU167" s="39"/>
+      <c r="AV167" s="39"/>
+      <c r="AW167" s="40"/>
     </row>
     <row r="168" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E168" s="43"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="44"/>
-      <c r="I168" s="44"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="44"/>
-      <c r="L168" s="37">
+      <c r="E168" s="47"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="48"/>
+      <c r="I168" s="48"/>
+      <c r="J168" s="48"/>
+      <c r="K168" s="48"/>
+      <c r="L168" s="38">
         <v>2</v>
       </c>
-      <c r="M168" s="37"/>
-      <c r="N168" s="38" t="s">
+      <c r="M168" s="38"/>
+      <c r="N168" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="O168" s="38"/>
-      <c r="P168" s="38"/>
-      <c r="Q168" s="38"/>
-      <c r="R168" s="38"/>
-      <c r="S168" s="38"/>
-      <c r="T168" s="38"/>
-      <c r="U168" s="38" t="s">
+      <c r="O168" s="39"/>
+      <c r="P168" s="39"/>
+      <c r="Q168" s="39"/>
+      <c r="R168" s="39"/>
+      <c r="S168" s="39"/>
+      <c r="T168" s="39"/>
+      <c r="U168" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V168" s="38"/>
-      <c r="W168" s="38"/>
-      <c r="X168" s="38"/>
-      <c r="Y168" s="38"/>
-      <c r="Z168" s="38" t="s">
+      <c r="V168" s="39"/>
+      <c r="W168" s="39"/>
+      <c r="X168" s="39"/>
+      <c r="Y168" s="39"/>
+      <c r="Z168" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AA168" s="38"/>
-      <c r="AB168" s="38"/>
-      <c r="AC168" s="38"/>
-      <c r="AD168" s="38"/>
-      <c r="AE168" s="38"/>
-      <c r="AF168" s="38"/>
-      <c r="AG168" s="38"/>
-      <c r="AH168" s="38"/>
-      <c r="AI168" s="38"/>
-      <c r="AJ168" s="38"/>
-      <c r="AK168" s="38"/>
-      <c r="AL168" s="38"/>
-      <c r="AM168" s="38"/>
-      <c r="AN168" s="38"/>
-      <c r="AO168" s="38"/>
-      <c r="AP168" s="38"/>
-      <c r="AQ168" s="38"/>
-      <c r="AR168" s="38"/>
-      <c r="AS168" s="38"/>
-      <c r="AT168" s="38"/>
-      <c r="AU168" s="38"/>
-      <c r="AV168" s="38"/>
-      <c r="AW168" s="39"/>
+      <c r="AA168" s="39"/>
+      <c r="AB168" s="39"/>
+      <c r="AC168" s="39"/>
+      <c r="AD168" s="39"/>
+      <c r="AE168" s="39"/>
+      <c r="AF168" s="39"/>
+      <c r="AG168" s="39"/>
+      <c r="AH168" s="39"/>
+      <c r="AI168" s="39"/>
+      <c r="AJ168" s="39"/>
+      <c r="AK168" s="39"/>
+      <c r="AL168" s="39"/>
+      <c r="AM168" s="39"/>
+      <c r="AN168" s="39"/>
+      <c r="AO168" s="39"/>
+      <c r="AP168" s="39"/>
+      <c r="AQ168" s="39"/>
+      <c r="AR168" s="39"/>
+      <c r="AS168" s="39"/>
+      <c r="AT168" s="39"/>
+      <c r="AU168" s="39"/>
+      <c r="AV168" s="39"/>
+      <c r="AW168" s="40"/>
     </row>
     <row r="169" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E169" s="43" t="s">
+      <c r="E169" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="44"/>
-      <c r="I169" s="44"/>
-      <c r="J169" s="44"/>
-      <c r="K169" s="44"/>
-      <c r="L169" s="33" t="s">
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48"/>
+      <c r="K169" s="48"/>
+      <c r="L169" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M169" s="34"/>
-      <c r="N169" s="35" t="s">
+      <c r="M169" s="44"/>
+      <c r="N169" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O169" s="35"/>
-      <c r="P169" s="35"/>
-      <c r="Q169" s="35"/>
-      <c r="R169" s="35"/>
-      <c r="S169" s="35"/>
-      <c r="T169" s="35"/>
-      <c r="U169" s="35" t="s">
+      <c r="O169" s="45"/>
+      <c r="P169" s="45"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="45"/>
+      <c r="S169" s="45"/>
+      <c r="T169" s="45"/>
+      <c r="U169" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V169" s="35"/>
-      <c r="W169" s="35"/>
-      <c r="X169" s="35"/>
-      <c r="Y169" s="35"/>
-      <c r="Z169" s="35" t="s">
+      <c r="V169" s="45"/>
+      <c r="W169" s="45"/>
+      <c r="X169" s="45"/>
+      <c r="Y169" s="45"/>
+      <c r="Z169" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA169" s="35"/>
-      <c r="AB169" s="35"/>
-      <c r="AC169" s="35"/>
-      <c r="AD169" s="35"/>
-      <c r="AE169" s="35"/>
-      <c r="AF169" s="35"/>
-      <c r="AG169" s="35"/>
-      <c r="AH169" s="35"/>
-      <c r="AI169" s="35"/>
-      <c r="AJ169" s="35"/>
-      <c r="AK169" s="35"/>
-      <c r="AL169" s="35"/>
-      <c r="AM169" s="35"/>
-      <c r="AN169" s="35"/>
-      <c r="AO169" s="35"/>
-      <c r="AP169" s="35"/>
-      <c r="AQ169" s="35"/>
-      <c r="AR169" s="35"/>
-      <c r="AS169" s="35"/>
-      <c r="AT169" s="35"/>
-      <c r="AU169" s="35"/>
-      <c r="AV169" s="35"/>
-      <c r="AW169" s="36"/>
+      <c r="AA169" s="45"/>
+      <c r="AB169" s="45"/>
+      <c r="AC169" s="45"/>
+      <c r="AD169" s="45"/>
+      <c r="AE169" s="45"/>
+      <c r="AF169" s="45"/>
+      <c r="AG169" s="45"/>
+      <c r="AH169" s="45"/>
+      <c r="AI169" s="45"/>
+      <c r="AJ169" s="45"/>
+      <c r="AK169" s="45"/>
+      <c r="AL169" s="45"/>
+      <c r="AM169" s="45"/>
+      <c r="AN169" s="45"/>
+      <c r="AO169" s="45"/>
+      <c r="AP169" s="45"/>
+      <c r="AQ169" s="45"/>
+      <c r="AR169" s="45"/>
+      <c r="AS169" s="45"/>
+      <c r="AT169" s="45"/>
+      <c r="AU169" s="45"/>
+      <c r="AV169" s="45"/>
+      <c r="AW169" s="46"/>
     </row>
     <row r="170" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E170" s="43"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="44"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="44"/>
-      <c r="L170" s="37">
+      <c r="E170" s="47"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48"/>
+      <c r="K170" s="48"/>
+      <c r="L170" s="38">
         <v>1</v>
       </c>
-      <c r="M170" s="37"/>
-      <c r="N170" s="38" t="s">
+      <c r="M170" s="38"/>
+      <c r="N170" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O170" s="38"/>
-      <c r="P170" s="38"/>
-      <c r="Q170" s="38"/>
-      <c r="R170" s="38"/>
-      <c r="S170" s="38"/>
-      <c r="T170" s="38"/>
-      <c r="U170" s="38" t="s">
+      <c r="O170" s="39"/>
+      <c r="P170" s="39"/>
+      <c r="Q170" s="39"/>
+      <c r="R170" s="39"/>
+      <c r="S170" s="39"/>
+      <c r="T170" s="39"/>
+      <c r="U170" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="V170" s="38"/>
-      <c r="W170" s="38"/>
-      <c r="X170" s="38"/>
-      <c r="Y170" s="38"/>
-      <c r="Z170" s="45" t="s">
+      <c r="V170" s="39"/>
+      <c r="W170" s="39"/>
+      <c r="X170" s="39"/>
+      <c r="Y170" s="39"/>
+      <c r="Z170" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AA170" s="45"/>
-      <c r="AB170" s="45"/>
-      <c r="AC170" s="45"/>
-      <c r="AD170" s="45"/>
-      <c r="AE170" s="45"/>
-      <c r="AF170" s="45"/>
-      <c r="AG170" s="45"/>
-      <c r="AH170" s="45"/>
-      <c r="AI170" s="45"/>
-      <c r="AJ170" s="45"/>
-      <c r="AK170" s="45"/>
-      <c r="AL170" s="45"/>
-      <c r="AM170" s="45"/>
-      <c r="AN170" s="45"/>
-      <c r="AO170" s="45"/>
-      <c r="AP170" s="45"/>
-      <c r="AQ170" s="45"/>
-      <c r="AR170" s="45"/>
-      <c r="AS170" s="45"/>
-      <c r="AT170" s="45"/>
-      <c r="AU170" s="45"/>
-      <c r="AV170" s="45"/>
-      <c r="AW170" s="46"/>
+      <c r="AA170" s="59"/>
+      <c r="AB170" s="59"/>
+      <c r="AC170" s="59"/>
+      <c r="AD170" s="59"/>
+      <c r="AE170" s="59"/>
+      <c r="AF170" s="59"/>
+      <c r="AG170" s="59"/>
+      <c r="AH170" s="59"/>
+      <c r="AI170" s="59"/>
+      <c r="AJ170" s="59"/>
+      <c r="AK170" s="59"/>
+      <c r="AL170" s="59"/>
+      <c r="AM170" s="59"/>
+      <c r="AN170" s="59"/>
+      <c r="AO170" s="59"/>
+      <c r="AP170" s="59"/>
+      <c r="AQ170" s="59"/>
+      <c r="AR170" s="59"/>
+      <c r="AS170" s="59"/>
+      <c r="AT170" s="59"/>
+      <c r="AU170" s="59"/>
+      <c r="AV170" s="59"/>
+      <c r="AW170" s="60"/>
     </row>
     <row r="171" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E171" s="24" t="s">
+      <c r="E171" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
-      <c r="I171" s="25"/>
-      <c r="J171" s="25"/>
-      <c r="K171" s="26"/>
-      <c r="L171" s="33" t="s">
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="31"/>
+      <c r="L171" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M171" s="34"/>
-      <c r="N171" s="35" t="s">
+      <c r="M171" s="44"/>
+      <c r="N171" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O171" s="35"/>
-      <c r="P171" s="35"/>
-      <c r="Q171" s="35"/>
-      <c r="R171" s="35"/>
-      <c r="S171" s="35"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="35" t="s">
+      <c r="O171" s="45"/>
+      <c r="P171" s="45"/>
+      <c r="Q171" s="45"/>
+      <c r="R171" s="45"/>
+      <c r="S171" s="45"/>
+      <c r="T171" s="45"/>
+      <c r="U171" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V171" s="35"/>
-      <c r="W171" s="35"/>
-      <c r="X171" s="35"/>
-      <c r="Y171" s="35"/>
-      <c r="Z171" s="35" t="s">
+      <c r="V171" s="45"/>
+      <c r="W171" s="45"/>
+      <c r="X171" s="45"/>
+      <c r="Y171" s="45"/>
+      <c r="Z171" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA171" s="35"/>
-      <c r="AB171" s="35"/>
-      <c r="AC171" s="35"/>
-      <c r="AD171" s="35"/>
-      <c r="AE171" s="35"/>
-      <c r="AF171" s="35"/>
-      <c r="AG171" s="35"/>
-      <c r="AH171" s="35"/>
-      <c r="AI171" s="35"/>
-      <c r="AJ171" s="35"/>
-      <c r="AK171" s="35"/>
-      <c r="AL171" s="35"/>
-      <c r="AM171" s="35"/>
-      <c r="AN171" s="35"/>
-      <c r="AO171" s="35"/>
-      <c r="AP171" s="35"/>
-      <c r="AQ171" s="35"/>
-      <c r="AR171" s="35"/>
-      <c r="AS171" s="35"/>
-      <c r="AT171" s="35"/>
-      <c r="AU171" s="35"/>
-      <c r="AV171" s="35"/>
-      <c r="AW171" s="36"/>
+      <c r="AA171" s="45"/>
+      <c r="AB171" s="45"/>
+      <c r="AC171" s="45"/>
+      <c r="AD171" s="45"/>
+      <c r="AE171" s="45"/>
+      <c r="AF171" s="45"/>
+      <c r="AG171" s="45"/>
+      <c r="AH171" s="45"/>
+      <c r="AI171" s="45"/>
+      <c r="AJ171" s="45"/>
+      <c r="AK171" s="45"/>
+      <c r="AL171" s="45"/>
+      <c r="AM171" s="45"/>
+      <c r="AN171" s="45"/>
+      <c r="AO171" s="45"/>
+      <c r="AP171" s="45"/>
+      <c r="AQ171" s="45"/>
+      <c r="AR171" s="45"/>
+      <c r="AS171" s="45"/>
+      <c r="AT171" s="45"/>
+      <c r="AU171" s="45"/>
+      <c r="AV171" s="45"/>
+      <c r="AW171" s="46"/>
     </row>
     <row r="172" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E172" s="27"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="37">
+      <c r="E172" s="32"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="34"/>
+      <c r="L172" s="38">
         <v>1</v>
       </c>
-      <c r="M172" s="37"/>
-      <c r="N172" s="38" t="s">
+      <c r="M172" s="38"/>
+      <c r="N172" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O172" s="38"/>
-      <c r="P172" s="38"/>
-      <c r="Q172" s="38"/>
-      <c r="R172" s="38"/>
-      <c r="S172" s="38"/>
-      <c r="T172" s="38"/>
-      <c r="U172" s="38" t="s">
+      <c r="O172" s="39"/>
+      <c r="P172" s="39"/>
+      <c r="Q172" s="39"/>
+      <c r="R172" s="39"/>
+      <c r="S172" s="39"/>
+      <c r="T172" s="39"/>
+      <c r="U172" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V172" s="38"/>
-      <c r="W172" s="38"/>
-      <c r="X172" s="38"/>
-      <c r="Y172" s="38"/>
-      <c r="Z172" s="38" t="s">
+      <c r="V172" s="39"/>
+      <c r="W172" s="39"/>
+      <c r="X172" s="39"/>
+      <c r="Y172" s="39"/>
+      <c r="Z172" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA172" s="38"/>
-      <c r="AB172" s="38"/>
-      <c r="AC172" s="38"/>
-      <c r="AD172" s="38"/>
-      <c r="AE172" s="38"/>
-      <c r="AF172" s="38"/>
-      <c r="AG172" s="38"/>
-      <c r="AH172" s="38"/>
-      <c r="AI172" s="38"/>
-      <c r="AJ172" s="38"/>
-      <c r="AK172" s="38"/>
-      <c r="AL172" s="38"/>
-      <c r="AM172" s="38"/>
-      <c r="AN172" s="38"/>
-      <c r="AO172" s="38"/>
-      <c r="AP172" s="38"/>
-      <c r="AQ172" s="38"/>
-      <c r="AR172" s="38"/>
-      <c r="AS172" s="38"/>
-      <c r="AT172" s="38"/>
-      <c r="AU172" s="38"/>
-      <c r="AV172" s="38"/>
-      <c r="AW172" s="39"/>
+      <c r="AA172" s="39"/>
+      <c r="AB172" s="39"/>
+      <c r="AC172" s="39"/>
+      <c r="AD172" s="39"/>
+      <c r="AE172" s="39"/>
+      <c r="AF172" s="39"/>
+      <c r="AG172" s="39"/>
+      <c r="AH172" s="39"/>
+      <c r="AI172" s="39"/>
+      <c r="AJ172" s="39"/>
+      <c r="AK172" s="39"/>
+      <c r="AL172" s="39"/>
+      <c r="AM172" s="39"/>
+      <c r="AN172" s="39"/>
+      <c r="AO172" s="39"/>
+      <c r="AP172" s="39"/>
+      <c r="AQ172" s="39"/>
+      <c r="AR172" s="39"/>
+      <c r="AS172" s="39"/>
+      <c r="AT172" s="39"/>
+      <c r="AU172" s="39"/>
+      <c r="AV172" s="39"/>
+      <c r="AW172" s="40"/>
     </row>
     <row r="173" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E173" s="30"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="31"/>
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="32"/>
-      <c r="L173" s="40">
+      <c r="E173" s="35"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="37"/>
+      <c r="L173" s="26">
         <v>2</v>
       </c>
-      <c r="M173" s="40"/>
-      <c r="N173" s="41"/>
-      <c r="O173" s="41"/>
-      <c r="P173" s="41"/>
-      <c r="Q173" s="41"/>
-      <c r="R173" s="41"/>
-      <c r="S173" s="41"/>
-      <c r="T173" s="41"/>
-      <c r="U173" s="41"/>
-      <c r="V173" s="41"/>
-      <c r="W173" s="41"/>
-      <c r="X173" s="41"/>
-      <c r="Y173" s="41"/>
-      <c r="Z173" s="41"/>
-      <c r="AA173" s="41"/>
-      <c r="AB173" s="41"/>
-      <c r="AC173" s="41"/>
-      <c r="AD173" s="41"/>
-      <c r="AE173" s="41"/>
-      <c r="AF173" s="41"/>
-      <c r="AG173" s="41"/>
-      <c r="AH173" s="41"/>
-      <c r="AI173" s="41"/>
-      <c r="AJ173" s="41"/>
-      <c r="AK173" s="41"/>
-      <c r="AL173" s="41"/>
-      <c r="AM173" s="41"/>
-      <c r="AN173" s="41"/>
-      <c r="AO173" s="41"/>
-      <c r="AP173" s="41"/>
-      <c r="AQ173" s="41"/>
-      <c r="AR173" s="41"/>
-      <c r="AS173" s="41"/>
-      <c r="AT173" s="41"/>
-      <c r="AU173" s="41"/>
-      <c r="AV173" s="41"/>
-      <c r="AW173" s="42"/>
+      <c r="M173" s="26"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="27"/>
+      <c r="S173" s="27"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
+      <c r="AA173" s="27"/>
+      <c r="AB173" s="27"/>
+      <c r="AC173" s="27"/>
+      <c r="AD173" s="27"/>
+      <c r="AE173" s="27"/>
+      <c r="AF173" s="27"/>
+      <c r="AG173" s="27"/>
+      <c r="AH173" s="27"/>
+      <c r="AI173" s="27"/>
+      <c r="AJ173" s="27"/>
+      <c r="AK173" s="27"/>
+      <c r="AL173" s="27"/>
+      <c r="AM173" s="27"/>
+      <c r="AN173" s="27"/>
+      <c r="AO173" s="27"/>
+      <c r="AP173" s="27"/>
+      <c r="AQ173" s="27"/>
+      <c r="AR173" s="27"/>
+      <c r="AS173" s="27"/>
+      <c r="AT173" s="27"/>
+      <c r="AU173" s="27"/>
+      <c r="AV173" s="27"/>
+      <c r="AW173" s="28"/>
     </row>
     <row r="174" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N174" s="6"/>
@@ -12518,55 +12654,197 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="Z33:AW33"/>
-    <mergeCell ref="E31:K33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="Z32:AW32"/>
-    <mergeCell ref="L36:AW36"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AW31"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AW29"/>
-    <mergeCell ref="E29:K30"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z27:AW27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AW28"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L25:AW25"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AW26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:AW18"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AW19"/>
-    <mergeCell ref="AE20:AW20"/>
-    <mergeCell ref="AE21:AW21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="E171:K173"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="N171:T171"/>
+    <mergeCell ref="U171:Y171"/>
+    <mergeCell ref="Z171:AW171"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="U172:Y172"/>
+    <mergeCell ref="Z172:AW172"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:T173"/>
+    <mergeCell ref="U173:Y173"/>
+    <mergeCell ref="Z173:AW173"/>
+    <mergeCell ref="E169:K170"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="N169:T169"/>
+    <mergeCell ref="U169:Y169"/>
+    <mergeCell ref="Z169:AW169"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="N170:T170"/>
+    <mergeCell ref="U170:Y170"/>
+    <mergeCell ref="Z170:AW170"/>
+    <mergeCell ref="E166:K168"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="N166:T166"/>
+    <mergeCell ref="U166:Y166"/>
+    <mergeCell ref="Z166:AW166"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="N167:T167"/>
+    <mergeCell ref="U167:Y167"/>
+    <mergeCell ref="Z167:AW167"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="N168:T168"/>
+    <mergeCell ref="U168:Y168"/>
+    <mergeCell ref="Z168:AW168"/>
+    <mergeCell ref="Z161:AW161"/>
+    <mergeCell ref="E164:K164"/>
+    <mergeCell ref="L164:AW164"/>
+    <mergeCell ref="E165:K165"/>
+    <mergeCell ref="L165:AW165"/>
+    <mergeCell ref="E157:K157"/>
+    <mergeCell ref="L157:AW157"/>
+    <mergeCell ref="E158:K158"/>
+    <mergeCell ref="L158:AW158"/>
+    <mergeCell ref="E159:K161"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:T159"/>
+    <mergeCell ref="U159:Y159"/>
+    <mergeCell ref="Z159:AW159"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:T160"/>
+    <mergeCell ref="U160:Y160"/>
+    <mergeCell ref="Z160:AW160"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:T161"/>
+    <mergeCell ref="U161:Y161"/>
+    <mergeCell ref="E106:K108"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:T106"/>
+    <mergeCell ref="U106:Y106"/>
+    <mergeCell ref="Z106:AW106"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:T107"/>
+    <mergeCell ref="U107:Y107"/>
+    <mergeCell ref="Z107:AW107"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:T108"/>
+    <mergeCell ref="U108:Y108"/>
+    <mergeCell ref="Z108:AW108"/>
+    <mergeCell ref="E104:K105"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:T104"/>
+    <mergeCell ref="U104:Y104"/>
+    <mergeCell ref="Z104:AW104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:T105"/>
+    <mergeCell ref="U105:Y105"/>
+    <mergeCell ref="Z105:AW105"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:AW99"/>
+    <mergeCell ref="E100:K100"/>
+    <mergeCell ref="L100:AW100"/>
+    <mergeCell ref="E101:K103"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:T101"/>
+    <mergeCell ref="U101:Y101"/>
+    <mergeCell ref="Z101:AW101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:T102"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="Z102:AW102"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:T103"/>
+    <mergeCell ref="U103:Y103"/>
+    <mergeCell ref="Z103:AW103"/>
+    <mergeCell ref="E94:K96"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:T94"/>
+    <mergeCell ref="U94:Y94"/>
+    <mergeCell ref="Z94:AW94"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:T95"/>
+    <mergeCell ref="U95:Y95"/>
+    <mergeCell ref="Z95:AW95"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:T96"/>
+    <mergeCell ref="U96:Y96"/>
+    <mergeCell ref="Z96:AW96"/>
+    <mergeCell ref="E92:K93"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:T92"/>
+    <mergeCell ref="U92:Y92"/>
+    <mergeCell ref="Z92:AW92"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:T93"/>
+    <mergeCell ref="U93:Y93"/>
+    <mergeCell ref="Z93:AW93"/>
+    <mergeCell ref="E87:K87"/>
+    <mergeCell ref="L87:AW87"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="L88:AW88"/>
+    <mergeCell ref="E89:K91"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:T89"/>
+    <mergeCell ref="U89:Y89"/>
+    <mergeCell ref="Z89:AW89"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:T90"/>
+    <mergeCell ref="U90:Y90"/>
+    <mergeCell ref="Z90:AW90"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:T91"/>
+    <mergeCell ref="U91:Y91"/>
+    <mergeCell ref="Z91:AW91"/>
+    <mergeCell ref="E82:K84"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:T82"/>
+    <mergeCell ref="U82:Y82"/>
+    <mergeCell ref="Z82:AW82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:T83"/>
+    <mergeCell ref="U83:Y83"/>
+    <mergeCell ref="Z83:AW83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:T84"/>
+    <mergeCell ref="U84:Y84"/>
+    <mergeCell ref="Z84:AW84"/>
+    <mergeCell ref="E80:K81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:T80"/>
+    <mergeCell ref="U80:Y80"/>
+    <mergeCell ref="Z80:AW80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:T81"/>
+    <mergeCell ref="U81:Y81"/>
+    <mergeCell ref="Z81:AW81"/>
+    <mergeCell ref="E77:K79"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="U77:Y77"/>
+    <mergeCell ref="Z77:AW77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="U78:Y78"/>
+    <mergeCell ref="Z78:AW78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="Z79:AW79"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE72:AW72"/>
+    <mergeCell ref="E75:K75"/>
+    <mergeCell ref="L75:AW75"/>
+    <mergeCell ref="E76:K76"/>
+    <mergeCell ref="L76:AW76"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="L69:AW69"/>
+    <mergeCell ref="E70:K72"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AW70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="U71:Y71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AW71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="U72:Y72"/>
     <mergeCell ref="E37:K39"/>
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="L24:AW24"/>
@@ -12591,197 +12869,55 @@
     <mergeCell ref="E26:K28"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE72:AW72"/>
-    <mergeCell ref="E75:K75"/>
-    <mergeCell ref="L75:AW75"/>
-    <mergeCell ref="E76:K76"/>
-    <mergeCell ref="L76:AW76"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="L69:AW69"/>
-    <mergeCell ref="E70:K72"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AW70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="U71:Y71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AW71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="E77:K79"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="U77:Y77"/>
-    <mergeCell ref="Z77:AW77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="U78:Y78"/>
-    <mergeCell ref="Z78:AW78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="Z79:AW79"/>
-    <mergeCell ref="E80:K81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:T80"/>
-    <mergeCell ref="U80:Y80"/>
-    <mergeCell ref="Z80:AW80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:T81"/>
-    <mergeCell ref="U81:Y81"/>
-    <mergeCell ref="Z81:AW81"/>
-    <mergeCell ref="E82:K84"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:T82"/>
-    <mergeCell ref="U82:Y82"/>
-    <mergeCell ref="Z82:AW82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="U83:Y83"/>
-    <mergeCell ref="Z83:AW83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:T84"/>
-    <mergeCell ref="U84:Y84"/>
-    <mergeCell ref="Z84:AW84"/>
-    <mergeCell ref="E87:K87"/>
-    <mergeCell ref="L87:AW87"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="L88:AW88"/>
-    <mergeCell ref="E89:K91"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:T89"/>
-    <mergeCell ref="U89:Y89"/>
-    <mergeCell ref="Z89:AW89"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:T90"/>
-    <mergeCell ref="U90:Y90"/>
-    <mergeCell ref="Z90:AW90"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:T91"/>
-    <mergeCell ref="U91:Y91"/>
-    <mergeCell ref="Z91:AW91"/>
-    <mergeCell ref="E92:K93"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:T92"/>
-    <mergeCell ref="U92:Y92"/>
-    <mergeCell ref="Z92:AW92"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:T93"/>
-    <mergeCell ref="U93:Y93"/>
-    <mergeCell ref="Z93:AW93"/>
-    <mergeCell ref="E94:K96"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:T94"/>
-    <mergeCell ref="U94:Y94"/>
-    <mergeCell ref="Z94:AW94"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:T95"/>
-    <mergeCell ref="U95:Y95"/>
-    <mergeCell ref="Z95:AW95"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:T96"/>
-    <mergeCell ref="U96:Y96"/>
-    <mergeCell ref="Z96:AW96"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:AW99"/>
-    <mergeCell ref="E100:K100"/>
-    <mergeCell ref="L100:AW100"/>
-    <mergeCell ref="E101:K103"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:T101"/>
-    <mergeCell ref="U101:Y101"/>
-    <mergeCell ref="Z101:AW101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:T102"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="Z102:AW102"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:T103"/>
-    <mergeCell ref="U103:Y103"/>
-    <mergeCell ref="Z103:AW103"/>
-    <mergeCell ref="E104:K105"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="N104:T104"/>
-    <mergeCell ref="U104:Y104"/>
-    <mergeCell ref="Z104:AW104"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:T105"/>
-    <mergeCell ref="U105:Y105"/>
-    <mergeCell ref="Z105:AW105"/>
-    <mergeCell ref="E106:K108"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:T106"/>
-    <mergeCell ref="U106:Y106"/>
-    <mergeCell ref="Z106:AW106"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:T107"/>
-    <mergeCell ref="U107:Y107"/>
-    <mergeCell ref="Z107:AW107"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:T108"/>
-    <mergeCell ref="U108:Y108"/>
-    <mergeCell ref="Z108:AW108"/>
-    <mergeCell ref="Z161:AW161"/>
-    <mergeCell ref="E164:K164"/>
-    <mergeCell ref="L164:AW164"/>
-    <mergeCell ref="E165:K165"/>
-    <mergeCell ref="L165:AW165"/>
-    <mergeCell ref="E157:K157"/>
-    <mergeCell ref="L157:AW157"/>
-    <mergeCell ref="E158:K158"/>
-    <mergeCell ref="L158:AW158"/>
-    <mergeCell ref="E159:K161"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="N159:T159"/>
-    <mergeCell ref="U159:Y159"/>
-    <mergeCell ref="Z159:AW159"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="N160:T160"/>
-    <mergeCell ref="U160:Y160"/>
-    <mergeCell ref="Z160:AW160"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="N161:T161"/>
-    <mergeCell ref="U161:Y161"/>
-    <mergeCell ref="E166:K168"/>
-    <mergeCell ref="L166:M166"/>
-    <mergeCell ref="N166:T166"/>
-    <mergeCell ref="U166:Y166"/>
-    <mergeCell ref="Z166:AW166"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="N167:T167"/>
-    <mergeCell ref="U167:Y167"/>
-    <mergeCell ref="Z167:AW167"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="N168:T168"/>
-    <mergeCell ref="U168:Y168"/>
-    <mergeCell ref="Z168:AW168"/>
-    <mergeCell ref="E169:K170"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="N169:T169"/>
-    <mergeCell ref="U169:Y169"/>
-    <mergeCell ref="Z169:AW169"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="N170:T170"/>
-    <mergeCell ref="U170:Y170"/>
-    <mergeCell ref="Z170:AW170"/>
-    <mergeCell ref="E171:K173"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="N171:T171"/>
-    <mergeCell ref="U171:Y171"/>
-    <mergeCell ref="Z171:AW171"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="U172:Y172"/>
-    <mergeCell ref="Z172:AW172"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:T173"/>
-    <mergeCell ref="U173:Y173"/>
-    <mergeCell ref="Z173:AW173"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:AW18"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AW19"/>
+    <mergeCell ref="AE20:AW20"/>
+    <mergeCell ref="AE21:AW21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:T20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AW29"/>
+    <mergeCell ref="E29:K30"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Z27:AW27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AW28"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L25:AW25"/>
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AW26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="Z33:AW33"/>
+    <mergeCell ref="E31:K33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="Z32:AW32"/>
+    <mergeCell ref="L36:AW36"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AW31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Brain/Intra-mart/docker/README.xlsx
+++ b/Brain/Intra-mart/docker/README.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="59" r:id="rId1"/>
@@ -1590,14 +1590,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1608,34 +1608,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,21 +1650,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1692,11 +1662,80 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1709,45 +1748,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2228,50 +2228,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>465124</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>237232</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38630222-9371-49EA-3D4A-C64C000E4E60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19888200" y="33337500"/>
-          <a:ext cx="12809524" cy="7142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>182</xdr:row>
@@ -2297,7 +2253,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2341,7 +2297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2379,7 +2335,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2417,7 +2373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2426,6 +2382,44 @@
         <a:xfrm>
           <a:off x="685800" y="62626875"/>
           <a:ext cx="18276190" cy="10257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>542086</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>46964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20574000" y="35480625"/>
+          <a:ext cx="6714286" cy="5285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6474,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD310"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="Q315" sqref="Q315"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ160" sqref="AQ160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6595,7 +6589,7 @@
   </sheetPr>
   <dimension ref="C1:AC849"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY215" sqref="AY215"/>
     </sheetView>
   </sheetViews>
@@ -6612,33 +6606,33 @@
       </c>
     </row>
     <row r="3" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
     </row>
     <row r="4" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E4" s="16" t="s">
@@ -6699,33 +6693,33 @@
       <c r="AC5" s="18"/>
     </row>
     <row r="6" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="15"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E7" s="16" t="s">
@@ -6873,62 +6867,62 @@
       <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="15"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="15"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E14" s="16" t="s">
@@ -7139,60 +7133,60 @@
       </c>
     </row>
     <row r="450" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E450" s="19" t="s">
+      <c r="E450" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F450" s="20"/>
-      <c r="G450" s="20"/>
-      <c r="H450" s="20"/>
-      <c r="I450" s="20"/>
-      <c r="J450" s="20"/>
-      <c r="K450" s="20"/>
-      <c r="L450" s="20"/>
-      <c r="M450" s="20"/>
-      <c r="N450" s="20"/>
-      <c r="O450" s="20"/>
-      <c r="P450" s="20"/>
-      <c r="Q450" s="20"/>
-      <c r="R450" s="20"/>
-      <c r="S450" s="20"/>
-      <c r="T450" s="20"/>
+      <c r="F450" s="23"/>
+      <c r="G450" s="23"/>
+      <c r="H450" s="23"/>
+      <c r="I450" s="23"/>
+      <c r="J450" s="23"/>
+      <c r="K450" s="23"/>
+      <c r="L450" s="23"/>
+      <c r="M450" s="23"/>
+      <c r="N450" s="23"/>
+      <c r="O450" s="23"/>
+      <c r="P450" s="23"/>
+      <c r="Q450" s="23"/>
+      <c r="R450" s="23"/>
+      <c r="S450" s="23"/>
+      <c r="T450" s="23"/>
     </row>
     <row r="451" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E451" s="20"/>
-      <c r="F451" s="20"/>
-      <c r="G451" s="20"/>
-      <c r="H451" s="20"/>
-      <c r="I451" s="20"/>
-      <c r="J451" s="20"/>
-      <c r="K451" s="20"/>
-      <c r="L451" s="20"/>
-      <c r="M451" s="20"/>
-      <c r="N451" s="20"/>
-      <c r="O451" s="20"/>
-      <c r="P451" s="20"/>
-      <c r="Q451" s="20"/>
-      <c r="R451" s="20"/>
-      <c r="S451" s="20"/>
-      <c r="T451" s="20"/>
+      <c r="E451" s="23"/>
+      <c r="F451" s="23"/>
+      <c r="G451" s="23"/>
+      <c r="H451" s="23"/>
+      <c r="I451" s="23"/>
+      <c r="J451" s="23"/>
+      <c r="K451" s="23"/>
+      <c r="L451" s="23"/>
+      <c r="M451" s="23"/>
+      <c r="N451" s="23"/>
+      <c r="O451" s="23"/>
+      <c r="P451" s="23"/>
+      <c r="Q451" s="23"/>
+      <c r="R451" s="23"/>
+      <c r="S451" s="23"/>
+      <c r="T451" s="23"/>
     </row>
     <row r="452" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E452" s="20"/>
-      <c r="F452" s="20"/>
-      <c r="G452" s="20"/>
-      <c r="H452" s="20"/>
-      <c r="I452" s="20"/>
-      <c r="J452" s="20"/>
-      <c r="K452" s="20"/>
-      <c r="L452" s="20"/>
-      <c r="M452" s="20"/>
-      <c r="N452" s="20"/>
-      <c r="O452" s="20"/>
-      <c r="P452" s="20"/>
-      <c r="Q452" s="20"/>
-      <c r="R452" s="20"/>
-      <c r="S452" s="20"/>
-      <c r="T452" s="20"/>
+      <c r="E452" s="23"/>
+      <c r="F452" s="23"/>
+      <c r="G452" s="23"/>
+      <c r="H452" s="23"/>
+      <c r="I452" s="23"/>
+      <c r="J452" s="23"/>
+      <c r="K452" s="23"/>
+      <c r="L452" s="23"/>
+      <c r="M452" s="23"/>
+      <c r="N452" s="23"/>
+      <c r="O452" s="23"/>
+      <c r="P452" s="23"/>
+      <c r="Q452" s="23"/>
+      <c r="R452" s="23"/>
+      <c r="S452" s="23"/>
+      <c r="T452" s="23"/>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E466" s="9" t="s">
@@ -7266,11 +7260,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E3:AC3"/>
-    <mergeCell ref="E4:AC4"/>
-    <mergeCell ref="E5:AC5"/>
-    <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="E7:AC7"/>
     <mergeCell ref="E13:AC13"/>
     <mergeCell ref="E14:AC14"/>
     <mergeCell ref="E15:AC15"/>
@@ -7280,6 +7269,11 @@
     <mergeCell ref="E10:AC10"/>
     <mergeCell ref="E11:AC11"/>
     <mergeCell ref="E12:AC12"/>
+    <mergeCell ref="E3:AC3"/>
+    <mergeCell ref="E4:AC4"/>
+    <mergeCell ref="E5:AC5"/>
+    <mergeCell ref="E6:AC6"/>
+    <mergeCell ref="E7:AC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7376,136 +7370,136 @@
       </c>
     </row>
     <row r="18" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="41" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="42"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="50"/>
     </row>
     <row r="19" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="43" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45" t="s">
+      <c r="M19" s="34"/>
+      <c r="N19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="43" t="s">
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="43" t="s">
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="50" t="s">
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="52"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="65"/>
     </row>
     <row r="20" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="38">
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="37">
         <v>1</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39" t="s">
+      <c r="M20" s="37"/>
+      <c r="N20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
       <c r="U20" s="16" t="s">
         <v>30</v>
       </c>
@@ -7540,64 +7534,64 @@
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
       <c r="AV20" s="17"/>
-      <c r="AW20" s="53"/>
+      <c r="AW20" s="54"/>
     </row>
     <row r="21" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="26">
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="40">
         <v>2</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="40"/>
+      <c r="N21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="54" t="s">
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="54" t="s">
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="54" t="s">
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="56"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="61"/>
     </row>
     <row r="23" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
@@ -7605,464 +7599,464 @@
       </c>
     </row>
     <row r="24" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="41" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="42"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="50"/>
     </row>
     <row r="25" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="39" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="40"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="39"/>
     </row>
     <row r="26" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="43" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45" t="s">
+      <c r="M26" s="34"/>
+      <c r="N26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45" t="s">
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45" t="s">
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="46"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="36"/>
     </row>
     <row r="27" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="38">
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="37">
         <v>1</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39" t="s">
+      <c r="M27" s="37"/>
+      <c r="N27" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39" t="s">
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39" t="s">
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="40"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="39"/>
     </row>
     <row r="28" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="38">
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="37">
         <v>2</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39" t="s">
+      <c r="M28" s="37"/>
+      <c r="N28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39" t="s">
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39" t="s">
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="39"/>
-      <c r="AW28" s="40"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="39"/>
     </row>
     <row r="29" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="43" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="34"/>
+      <c r="N29" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45" t="s">
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45" t="s">
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="46"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="36"/>
     </row>
     <row r="30" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="38">
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="37">
         <v>1</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39" t="s">
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39" t="s">
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="39"/>
-      <c r="AV30" s="39"/>
-      <c r="AW30" s="40"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="39"/>
     </row>
     <row r="31" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="43" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45" t="s">
+      <c r="M31" s="34"/>
+      <c r="N31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45" t="s">
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45" t="s">
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="46"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AT31" s="35"/>
+      <c r="AU31" s="35"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="36"/>
     </row>
     <row r="32" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="38">
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="37">
         <v>1</v>
       </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39" t="s">
+      <c r="M32" s="37"/>
+      <c r="N32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
       <c r="U32" s="4" t="s">
         <v>14</v>
       </c>
@@ -8070,54 +8064,54 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="39" t="s">
+      <c r="Z32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="40"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="38"/>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
+      <c r="AT32" s="38"/>
+      <c r="AU32" s="38"/>
+      <c r="AV32" s="38"/>
+      <c r="AW32" s="39"/>
     </row>
     <row r="33" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="26">
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="40">
         <v>2</v>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27" t="s">
+      <c r="M33" s="40"/>
+      <c r="N33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
       <c r="U33" s="5" t="s">
         <v>14</v>
       </c>
@@ -8125,32 +8119,32 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="27" t="s">
+      <c r="Z33" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="27"/>
-      <c r="AR33" s="27"/>
-      <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="28"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="42"/>
     </row>
     <row r="34" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N34" s="6"/>
@@ -8222,136 +8216,136 @@
       <c r="AW35" s="6"/>
     </row>
     <row r="36" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="41" t="s">
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="42"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="50"/>
     </row>
     <row r="37" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="43" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45" t="s">
+      <c r="M37" s="34"/>
+      <c r="N37" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="43" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="43" t="s">
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="50" t="s">
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="52"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="65"/>
     </row>
     <row r="38" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="38">
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="37">
         <v>1</v>
       </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="39" t="s">
+      <c r="M38" s="37"/>
+      <c r="N38" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
       <c r="U38" s="16" t="s">
         <v>30</v>
       </c>
@@ -8386,64 +8380,64 @@
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
       <c r="AV38" s="17"/>
-      <c r="AW38" s="53"/>
+      <c r="AW38" s="54"/>
     </row>
     <row r="39" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="26">
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="40">
         <v>2</v>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27" t="s">
+      <c r="M39" s="40"/>
+      <c r="N39" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="54" t="s">
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="54" t="s">
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="54" t="s">
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF39" s="55"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="55"/>
-      <c r="AU39" s="55"/>
-      <c r="AV39" s="55"/>
-      <c r="AW39" s="56"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="59"/>
+      <c r="AU39" s="59"/>
+      <c r="AV39" s="59"/>
+      <c r="AW39" s="61"/>
     </row>
     <row r="41" spans="3:49" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
@@ -8781,143 +8775,143 @@
       </c>
     </row>
     <row r="69" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="41" t="s">
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
-      <c r="AB69" s="41"/>
-      <c r="AC69" s="41"/>
-      <c r="AD69" s="41"/>
-      <c r="AE69" s="41"/>
-      <c r="AF69" s="41"/>
-      <c r="AG69" s="41"/>
-      <c r="AH69" s="41"/>
-      <c r="AI69" s="41"/>
-      <c r="AJ69" s="41"/>
-      <c r="AK69" s="41"/>
-      <c r="AL69" s="41"/>
-      <c r="AM69" s="41"/>
-      <c r="AN69" s="41"/>
-      <c r="AO69" s="41"/>
-      <c r="AP69" s="41"/>
-      <c r="AQ69" s="41"/>
-      <c r="AR69" s="41"/>
-      <c r="AS69" s="41"/>
-      <c r="AT69" s="41"/>
-      <c r="AU69" s="41"/>
-      <c r="AV69" s="41"/>
-      <c r="AW69" s="42"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="49"/>
+      <c r="AM69" s="49"/>
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="49"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="49"/>
+      <c r="AS69" s="49"/>
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="49"/>
+      <c r="AV69" s="49"/>
+      <c r="AW69" s="50"/>
     </row>
     <row r="70" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="43" t="s">
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M70" s="44"/>
-      <c r="N70" s="45" t="s">
+      <c r="M70" s="34"/>
+      <c r="N70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="43" t="s">
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="43" t="s">
+      <c r="V70" s="62"/>
+      <c r="W70" s="62"/>
+      <c r="X70" s="62"/>
+      <c r="Y70" s="62"/>
+      <c r="Z70" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="49"/>
-      <c r="AE70" s="50" t="s">
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="62"/>
+      <c r="AC70" s="62"/>
+      <c r="AD70" s="62"/>
+      <c r="AE70" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF70" s="51"/>
-      <c r="AG70" s="51"/>
-      <c r="AH70" s="51"/>
-      <c r="AI70" s="51"/>
-      <c r="AJ70" s="51"/>
-      <c r="AK70" s="51"/>
-      <c r="AL70" s="51"/>
-      <c r="AM70" s="51"/>
-      <c r="AN70" s="51"/>
-      <c r="AO70" s="51"/>
-      <c r="AP70" s="51"/>
-      <c r="AQ70" s="51"/>
-      <c r="AR70" s="51"/>
-      <c r="AS70" s="51"/>
-      <c r="AT70" s="51"/>
-      <c r="AU70" s="51"/>
-      <c r="AV70" s="51"/>
-      <c r="AW70" s="52"/>
+      <c r="AF70" s="64"/>
+      <c r="AG70" s="64"/>
+      <c r="AH70" s="64"/>
+      <c r="AI70" s="64"/>
+      <c r="AJ70" s="64"/>
+      <c r="AK70" s="64"/>
+      <c r="AL70" s="64"/>
+      <c r="AM70" s="64"/>
+      <c r="AN70" s="64"/>
+      <c r="AO70" s="64"/>
+      <c r="AP70" s="64"/>
+      <c r="AQ70" s="64"/>
+      <c r="AR70" s="64"/>
+      <c r="AS70" s="64"/>
+      <c r="AT70" s="64"/>
+      <c r="AU70" s="64"/>
+      <c r="AV70" s="64"/>
+      <c r="AW70" s="65"/>
     </row>
     <row r="71" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="38">
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="37">
         <v>1</v>
       </c>
-      <c r="M71" s="38"/>
-      <c r="N71" s="39" t="s">
+      <c r="M71" s="37"/>
+      <c r="N71" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="58" t="s">
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="V71" s="58"/>
-      <c r="W71" s="58"/>
-      <c r="X71" s="58"/>
-      <c r="Y71" s="58"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="57"/>
+      <c r="Y71" s="57"/>
       <c r="Z71" s="16" t="s">
         <v>49</v>
       </c>
@@ -8945,56 +8939,56 @@
       <c r="AT71" s="17"/>
       <c r="AU71" s="17"/>
       <c r="AV71" s="17"/>
-      <c r="AW71" s="53"/>
+      <c r="AW71" s="54"/>
     </row>
     <row r="72" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="26">
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="40">
         <v>2</v>
       </c>
-      <c r="M72" s="26"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="55"/>
-      <c r="X72" s="55"/>
-      <c r="Y72" s="57"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="55"/>
-      <c r="AB72" s="55"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="57"/>
-      <c r="AE72" s="54"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="55"/>
-      <c r="AI72" s="55"/>
-      <c r="AJ72" s="55"/>
-      <c r="AK72" s="55"/>
-      <c r="AL72" s="55"/>
-      <c r="AM72" s="55"/>
-      <c r="AN72" s="55"/>
-      <c r="AO72" s="55"/>
-      <c r="AP72" s="55"/>
-      <c r="AQ72" s="55"/>
-      <c r="AR72" s="55"/>
-      <c r="AS72" s="55"/>
-      <c r="AT72" s="55"/>
-      <c r="AU72" s="55"/>
-      <c r="AV72" s="55"/>
-      <c r="AW72" s="56"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="60"/>
+      <c r="Z72" s="58"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="60"/>
+      <c r="AE72" s="58"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="59"/>
+      <c r="AQ72" s="59"/>
+      <c r="AR72" s="59"/>
+      <c r="AS72" s="59"/>
+      <c r="AT72" s="59"/>
+      <c r="AU72" s="59"/>
+      <c r="AV72" s="59"/>
+      <c r="AW72" s="61"/>
     </row>
     <row r="74" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
@@ -9002,540 +8996,540 @@
       </c>
     </row>
     <row r="75" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="41" t="s">
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="41"/>
-      <c r="AC75" s="41"/>
-      <c r="AD75" s="41"/>
-      <c r="AE75" s="41"/>
-      <c r="AF75" s="41"/>
-      <c r="AG75" s="41"/>
-      <c r="AH75" s="41"/>
-      <c r="AI75" s="41"/>
-      <c r="AJ75" s="41"/>
-      <c r="AK75" s="41"/>
-      <c r="AL75" s="41"/>
-      <c r="AM75" s="41"/>
-      <c r="AN75" s="41"/>
-      <c r="AO75" s="41"/>
-      <c r="AP75" s="41"/>
-      <c r="AQ75" s="41"/>
-      <c r="AR75" s="41"/>
-      <c r="AS75" s="41"/>
-      <c r="AT75" s="41"/>
-      <c r="AU75" s="41"/>
-      <c r="AV75" s="41"/>
-      <c r="AW75" s="42"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
+      <c r="U75" s="49"/>
+      <c r="V75" s="49"/>
+      <c r="W75" s="49"/>
+      <c r="X75" s="49"/>
+      <c r="Y75" s="49"/>
+      <c r="Z75" s="49"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="49"/>
+      <c r="AC75" s="49"/>
+      <c r="AD75" s="49"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="49"/>
+      <c r="AG75" s="49"/>
+      <c r="AH75" s="49"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="49"/>
+      <c r="AK75" s="49"/>
+      <c r="AL75" s="49"/>
+      <c r="AM75" s="49"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="49"/>
+      <c r="AP75" s="49"/>
+      <c r="AQ75" s="49"/>
+      <c r="AR75" s="49"/>
+      <c r="AS75" s="49"/>
+      <c r="AT75" s="49"/>
+      <c r="AU75" s="49"/>
+      <c r="AV75" s="49"/>
+      <c r="AW75" s="50"/>
     </row>
     <row r="76" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="39" t="s">
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
-      <c r="AA76" s="39"/>
-      <c r="AB76" s="39"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="39"/>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="39"/>
-      <c r="AR76" s="39"/>
-      <c r="AS76" s="39"/>
-      <c r="AT76" s="39"/>
-      <c r="AU76" s="39"/>
-      <c r="AV76" s="39"/>
-      <c r="AW76" s="40"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="38"/>
+      <c r="AL76" s="38"/>
+      <c r="AM76" s="38"/>
+      <c r="AN76" s="38"/>
+      <c r="AO76" s="38"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="38"/>
+      <c r="AR76" s="38"/>
+      <c r="AS76" s="38"/>
+      <c r="AT76" s="38"/>
+      <c r="AU76" s="38"/>
+      <c r="AV76" s="38"/>
+      <c r="AW76" s="39"/>
     </row>
     <row r="77" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E77" s="47" t="s">
+      <c r="E77" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="43" t="s">
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M77" s="44"/>
-      <c r="N77" s="45" t="s">
+      <c r="M77" s="34"/>
+      <c r="N77" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="45" t="s">
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V77" s="45"/>
-      <c r="W77" s="45"/>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="45" t="s">
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA77" s="45"/>
-      <c r="AB77" s="45"/>
-      <c r="AC77" s="45"/>
-      <c r="AD77" s="45"/>
-      <c r="AE77" s="45"/>
-      <c r="AF77" s="45"/>
-      <c r="AG77" s="45"/>
-      <c r="AH77" s="45"/>
-      <c r="AI77" s="45"/>
-      <c r="AJ77" s="45"/>
-      <c r="AK77" s="45"/>
-      <c r="AL77" s="45"/>
-      <c r="AM77" s="45"/>
-      <c r="AN77" s="45"/>
-      <c r="AO77" s="45"/>
-      <c r="AP77" s="45"/>
-      <c r="AQ77" s="45"/>
-      <c r="AR77" s="45"/>
-      <c r="AS77" s="45"/>
-      <c r="AT77" s="45"/>
-      <c r="AU77" s="45"/>
-      <c r="AV77" s="45"/>
-      <c r="AW77" s="46"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="35"/>
+      <c r="AH77" s="35"/>
+      <c r="AI77" s="35"/>
+      <c r="AJ77" s="35"/>
+      <c r="AK77" s="35"/>
+      <c r="AL77" s="35"/>
+      <c r="AM77" s="35"/>
+      <c r="AN77" s="35"/>
+      <c r="AO77" s="35"/>
+      <c r="AP77" s="35"/>
+      <c r="AQ77" s="35"/>
+      <c r="AR77" s="35"/>
+      <c r="AS77" s="35"/>
+      <c r="AT77" s="35"/>
+      <c r="AU77" s="35"/>
+      <c r="AV77" s="35"/>
+      <c r="AW77" s="36"/>
     </row>
     <row r="78" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E78" s="47"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="38">
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="37">
         <v>1</v>
       </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="39" t="s">
+      <c r="M78" s="37"/>
+      <c r="N78" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39" t="s">
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39" t="s">
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA78" s="39"/>
-      <c r="AB78" s="39"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="39"/>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="39"/>
-      <c r="AK78" s="39"/>
-      <c r="AL78" s="39"/>
-      <c r="AM78" s="39"/>
-      <c r="AN78" s="39"/>
-      <c r="AO78" s="39"/>
-      <c r="AP78" s="39"/>
-      <c r="AQ78" s="39"/>
-      <c r="AR78" s="39"/>
-      <c r="AS78" s="39"/>
-      <c r="AT78" s="39"/>
-      <c r="AU78" s="39"/>
-      <c r="AV78" s="39"/>
-      <c r="AW78" s="40"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="38"/>
+      <c r="AL78" s="38"/>
+      <c r="AM78" s="38"/>
+      <c r="AN78" s="38"/>
+      <c r="AO78" s="38"/>
+      <c r="AP78" s="38"/>
+      <c r="AQ78" s="38"/>
+      <c r="AR78" s="38"/>
+      <c r="AS78" s="38"/>
+      <c r="AT78" s="38"/>
+      <c r="AU78" s="38"/>
+      <c r="AV78" s="38"/>
+      <c r="AW78" s="39"/>
     </row>
     <row r="79" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="38">
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="37">
         <v>2</v>
       </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
-      <c r="AA79" s="39"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="39"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="39"/>
-      <c r="AK79" s="39"/>
-      <c r="AL79" s="39"/>
-      <c r="AM79" s="39"/>
-      <c r="AN79" s="39"/>
-      <c r="AO79" s="39"/>
-      <c r="AP79" s="39"/>
-      <c r="AQ79" s="39"/>
-      <c r="AR79" s="39"/>
-      <c r="AS79" s="39"/>
-      <c r="AT79" s="39"/>
-      <c r="AU79" s="39"/>
-      <c r="AV79" s="39"/>
-      <c r="AW79" s="40"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="38"/>
+      <c r="AL79" s="38"/>
+      <c r="AM79" s="38"/>
+      <c r="AN79" s="38"/>
+      <c r="AO79" s="38"/>
+      <c r="AP79" s="38"/>
+      <c r="AQ79" s="38"/>
+      <c r="AR79" s="38"/>
+      <c r="AS79" s="38"/>
+      <c r="AT79" s="38"/>
+      <c r="AU79" s="38"/>
+      <c r="AV79" s="38"/>
+      <c r="AW79" s="39"/>
     </row>
     <row r="80" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="43" t="s">
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M80" s="44"/>
-      <c r="N80" s="45" t="s">
+      <c r="M80" s="34"/>
+      <c r="N80" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="45"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="45" t="s">
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
-      <c r="X80" s="45"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="45" t="s">
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA80" s="45"/>
-      <c r="AB80" s="45"/>
-      <c r="AC80" s="45"/>
-      <c r="AD80" s="45"/>
-      <c r="AE80" s="45"/>
-      <c r="AF80" s="45"/>
-      <c r="AG80" s="45"/>
-      <c r="AH80" s="45"/>
-      <c r="AI80" s="45"/>
-      <c r="AJ80" s="45"/>
-      <c r="AK80" s="45"/>
-      <c r="AL80" s="45"/>
-      <c r="AM80" s="45"/>
-      <c r="AN80" s="45"/>
-      <c r="AO80" s="45"/>
-      <c r="AP80" s="45"/>
-      <c r="AQ80" s="45"/>
-      <c r="AR80" s="45"/>
-      <c r="AS80" s="45"/>
-      <c r="AT80" s="45"/>
-      <c r="AU80" s="45"/>
-      <c r="AV80" s="45"/>
-      <c r="AW80" s="46"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="35"/>
+      <c r="AQ80" s="35"/>
+      <c r="AR80" s="35"/>
+      <c r="AS80" s="35"/>
+      <c r="AT80" s="35"/>
+      <c r="AU80" s="35"/>
+      <c r="AV80" s="35"/>
+      <c r="AW80" s="36"/>
     </row>
     <row r="81" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E81" s="47"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="38">
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="37">
         <v>1</v>
       </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="39" t="s">
+      <c r="M81" s="37"/>
+      <c r="N81" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="58" t="s">
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="V81" s="58"/>
-      <c r="W81" s="58"/>
-      <c r="X81" s="58"/>
-      <c r="Y81" s="58"/>
-      <c r="Z81" s="39" t="s">
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="57"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AA81" s="39"/>
-      <c r="AB81" s="39"/>
-      <c r="AC81" s="39"/>
-      <c r="AD81" s="39"/>
-      <c r="AE81" s="39"/>
-      <c r="AF81" s="39"/>
-      <c r="AG81" s="39"/>
-      <c r="AH81" s="39"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="39"/>
-      <c r="AK81" s="39"/>
-      <c r="AL81" s="39"/>
-      <c r="AM81" s="39"/>
-      <c r="AN81" s="39"/>
-      <c r="AO81" s="39"/>
-      <c r="AP81" s="39"/>
-      <c r="AQ81" s="39"/>
-      <c r="AR81" s="39"/>
-      <c r="AS81" s="39"/>
-      <c r="AT81" s="39"/>
-      <c r="AU81" s="39"/>
-      <c r="AV81" s="39"/>
-      <c r="AW81" s="40"/>
+      <c r="AA81" s="38"/>
+      <c r="AB81" s="38"/>
+      <c r="AC81" s="38"/>
+      <c r="AD81" s="38"/>
+      <c r="AE81" s="38"/>
+      <c r="AF81" s="38"/>
+      <c r="AG81" s="38"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="38"/>
+      <c r="AJ81" s="38"/>
+      <c r="AK81" s="38"/>
+      <c r="AL81" s="38"/>
+      <c r="AM81" s="38"/>
+      <c r="AN81" s="38"/>
+      <c r="AO81" s="38"/>
+      <c r="AP81" s="38"/>
+      <c r="AQ81" s="38"/>
+      <c r="AR81" s="38"/>
+      <c r="AS81" s="38"/>
+      <c r="AT81" s="38"/>
+      <c r="AU81" s="38"/>
+      <c r="AV81" s="38"/>
+      <c r="AW81" s="39"/>
     </row>
     <row r="82" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="43" t="s">
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M82" s="44"/>
-      <c r="N82" s="45" t="s">
+      <c r="M82" s="34"/>
+      <c r="N82" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="45"/>
-      <c r="S82" s="45"/>
-      <c r="T82" s="45"/>
-      <c r="U82" s="45" t="s">
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V82" s="45"/>
-      <c r="W82" s="45"/>
-      <c r="X82" s="45"/>
-      <c r="Y82" s="45"/>
-      <c r="Z82" s="45" t="s">
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA82" s="45"/>
-      <c r="AB82" s="45"/>
-      <c r="AC82" s="45"/>
-      <c r="AD82" s="45"/>
-      <c r="AE82" s="45"/>
-      <c r="AF82" s="45"/>
-      <c r="AG82" s="45"/>
-      <c r="AH82" s="45"/>
-      <c r="AI82" s="45"/>
-      <c r="AJ82" s="45"/>
-      <c r="AK82" s="45"/>
-      <c r="AL82" s="45"/>
-      <c r="AM82" s="45"/>
-      <c r="AN82" s="45"/>
-      <c r="AO82" s="45"/>
-      <c r="AP82" s="45"/>
-      <c r="AQ82" s="45"/>
-      <c r="AR82" s="45"/>
-      <c r="AS82" s="45"/>
-      <c r="AT82" s="45"/>
-      <c r="AU82" s="45"/>
-      <c r="AV82" s="45"/>
-      <c r="AW82" s="46"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="35"/>
+      <c r="AQ82" s="35"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="36"/>
     </row>
     <row r="83" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="38">
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="37">
         <v>1</v>
       </c>
-      <c r="M83" s="38"/>
-      <c r="N83" s="39" t="s">
+      <c r="M83" s="37"/>
+      <c r="N83" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39" t="s">
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39" t="s">
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA83" s="39"/>
-      <c r="AB83" s="39"/>
-      <c r="AC83" s="39"/>
-      <c r="AD83" s="39"/>
-      <c r="AE83" s="39"/>
-      <c r="AF83" s="39"/>
-      <c r="AG83" s="39"/>
-      <c r="AH83" s="39"/>
-      <c r="AI83" s="39"/>
-      <c r="AJ83" s="39"/>
-      <c r="AK83" s="39"/>
-      <c r="AL83" s="39"/>
-      <c r="AM83" s="39"/>
-      <c r="AN83" s="39"/>
-      <c r="AO83" s="39"/>
-      <c r="AP83" s="39"/>
-      <c r="AQ83" s="39"/>
-      <c r="AR83" s="39"/>
-      <c r="AS83" s="39"/>
-      <c r="AT83" s="39"/>
-      <c r="AU83" s="39"/>
-      <c r="AV83" s="39"/>
-      <c r="AW83" s="40"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="38"/>
+      <c r="AF83" s="38"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="38"/>
+      <c r="AN83" s="38"/>
+      <c r="AO83" s="38"/>
+      <c r="AP83" s="38"/>
+      <c r="AQ83" s="38"/>
+      <c r="AR83" s="38"/>
+      <c r="AS83" s="38"/>
+      <c r="AT83" s="38"/>
+      <c r="AU83" s="38"/>
+      <c r="AV83" s="38"/>
+      <c r="AW83" s="39"/>
     </row>
     <row r="84" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E84" s="35"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="26">
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="40">
         <v>2</v>
       </c>
-      <c r="M84" s="26"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="27"/>
-      <c r="AI84" s="27"/>
-      <c r="AJ84" s="27"/>
-      <c r="AK84" s="27"/>
-      <c r="AL84" s="27"/>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="27"/>
-      <c r="AO84" s="27"/>
-      <c r="AP84" s="27"/>
-      <c r="AQ84" s="27"/>
-      <c r="AR84" s="27"/>
-      <c r="AS84" s="27"/>
-      <c r="AT84" s="27"/>
-      <c r="AU84" s="27"/>
-      <c r="AV84" s="27"/>
-      <c r="AW84" s="28"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="41"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="41"/>
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="41"/>
+      <c r="AH84" s="41"/>
+      <c r="AI84" s="41"/>
+      <c r="AJ84" s="41"/>
+      <c r="AK84" s="41"/>
+      <c r="AL84" s="41"/>
+      <c r="AM84" s="41"/>
+      <c r="AN84" s="41"/>
+      <c r="AO84" s="41"/>
+      <c r="AP84" s="41"/>
+      <c r="AQ84" s="41"/>
+      <c r="AR84" s="41"/>
+      <c r="AS84" s="41"/>
+      <c r="AT84" s="41"/>
+      <c r="AU84" s="41"/>
+      <c r="AV84" s="41"/>
+      <c r="AW84" s="42"/>
     </row>
     <row r="85" spans="4:49" x14ac:dyDescent="0.4">
       <c r="N85" s="6"/>
@@ -9576,540 +9570,540 @@
       </c>
     </row>
     <row r="87" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="41" t="s">
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="41"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="41"/>
-      <c r="AF87" s="41"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="41"/>
-      <c r="AI87" s="41"/>
-      <c r="AJ87" s="41"/>
-      <c r="AK87" s="41"/>
-      <c r="AL87" s="41"/>
-      <c r="AM87" s="41"/>
-      <c r="AN87" s="41"/>
-      <c r="AO87" s="41"/>
-      <c r="AP87" s="41"/>
-      <c r="AQ87" s="41"/>
-      <c r="AR87" s="41"/>
-      <c r="AS87" s="41"/>
-      <c r="AT87" s="41"/>
-      <c r="AU87" s="41"/>
-      <c r="AV87" s="41"/>
-      <c r="AW87" s="42"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="49"/>
+      <c r="Y87" s="49"/>
+      <c r="Z87" s="49"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="49"/>
+      <c r="AC87" s="49"/>
+      <c r="AD87" s="49"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="49"/>
+      <c r="AH87" s="49"/>
+      <c r="AI87" s="49"/>
+      <c r="AJ87" s="49"/>
+      <c r="AK87" s="49"/>
+      <c r="AL87" s="49"/>
+      <c r="AM87" s="49"/>
+      <c r="AN87" s="49"/>
+      <c r="AO87" s="49"/>
+      <c r="AP87" s="49"/>
+      <c r="AQ87" s="49"/>
+      <c r="AR87" s="49"/>
+      <c r="AS87" s="49"/>
+      <c r="AT87" s="49"/>
+      <c r="AU87" s="49"/>
+      <c r="AV87" s="49"/>
+      <c r="AW87" s="50"/>
     </row>
     <row r="88" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E88" s="47" t="s">
+      <c r="E88" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="39" t="s">
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
-      <c r="AA88" s="39"/>
-      <c r="AB88" s="39"/>
-      <c r="AC88" s="39"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="39"/>
-      <c r="AI88" s="39"/>
-      <c r="AJ88" s="39"/>
-      <c r="AK88" s="39"/>
-      <c r="AL88" s="39"/>
-      <c r="AM88" s="39"/>
-      <c r="AN88" s="39"/>
-      <c r="AO88" s="39"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="39"/>
-      <c r="AR88" s="39"/>
-      <c r="AS88" s="39"/>
-      <c r="AT88" s="39"/>
-      <c r="AU88" s="39"/>
-      <c r="AV88" s="39"/>
-      <c r="AW88" s="40"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
+      <c r="AN88" s="38"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="38"/>
+      <c r="AQ88" s="38"/>
+      <c r="AR88" s="38"/>
+      <c r="AS88" s="38"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
+      <c r="AW88" s="39"/>
     </row>
     <row r="89" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E89" s="47" t="s">
+      <c r="E89" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="43" t="s">
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M89" s="44"/>
-      <c r="N89" s="45" t="s">
+      <c r="M89" s="34"/>
+      <c r="N89" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="45" t="s">
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V89" s="45"/>
-      <c r="W89" s="45"/>
-      <c r="X89" s="45"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45" t="s">
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA89" s="45"/>
-      <c r="AB89" s="45"/>
-      <c r="AC89" s="45"/>
-      <c r="AD89" s="45"/>
-      <c r="AE89" s="45"/>
-      <c r="AF89" s="45"/>
-      <c r="AG89" s="45"/>
-      <c r="AH89" s="45"/>
-      <c r="AI89" s="45"/>
-      <c r="AJ89" s="45"/>
-      <c r="AK89" s="45"/>
-      <c r="AL89" s="45"/>
-      <c r="AM89" s="45"/>
-      <c r="AN89" s="45"/>
-      <c r="AO89" s="45"/>
-      <c r="AP89" s="45"/>
-      <c r="AQ89" s="45"/>
-      <c r="AR89" s="45"/>
-      <c r="AS89" s="45"/>
-      <c r="AT89" s="45"/>
-      <c r="AU89" s="45"/>
-      <c r="AV89" s="45"/>
-      <c r="AW89" s="46"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="35"/>
+      <c r="AH89" s="35"/>
+      <c r="AI89" s="35"/>
+      <c r="AJ89" s="35"/>
+      <c r="AK89" s="35"/>
+      <c r="AL89" s="35"/>
+      <c r="AM89" s="35"/>
+      <c r="AN89" s="35"/>
+      <c r="AO89" s="35"/>
+      <c r="AP89" s="35"/>
+      <c r="AQ89" s="35"/>
+      <c r="AR89" s="35"/>
+      <c r="AS89" s="35"/>
+      <c r="AT89" s="35"/>
+      <c r="AU89" s="35"/>
+      <c r="AV89" s="35"/>
+      <c r="AW89" s="36"/>
     </row>
     <row r="90" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E90" s="47"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="38">
+      <c r="E90" s="43"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="37">
         <v>1</v>
       </c>
-      <c r="M90" s="38"/>
-      <c r="N90" s="39" t="s">
+      <c r="M90" s="37"/>
+      <c r="N90" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39" t="s">
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39" t="s">
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA90" s="39"/>
-      <c r="AB90" s="39"/>
-      <c r="AC90" s="39"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="39"/>
-      <c r="AH90" s="39"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="39"/>
-      <c r="AK90" s="39"/>
-      <c r="AL90" s="39"/>
-      <c r="AM90" s="39"/>
-      <c r="AN90" s="39"/>
-      <c r="AO90" s="39"/>
-      <c r="AP90" s="39"/>
-      <c r="AQ90" s="39"/>
-      <c r="AR90" s="39"/>
-      <c r="AS90" s="39"/>
-      <c r="AT90" s="39"/>
-      <c r="AU90" s="39"/>
-      <c r="AV90" s="39"/>
-      <c r="AW90" s="40"/>
+      <c r="AA90" s="38"/>
+      <c r="AB90" s="38"/>
+      <c r="AC90" s="38"/>
+      <c r="AD90" s="38"/>
+      <c r="AE90" s="38"/>
+      <c r="AF90" s="38"/>
+      <c r="AG90" s="38"/>
+      <c r="AH90" s="38"/>
+      <c r="AI90" s="38"/>
+      <c r="AJ90" s="38"/>
+      <c r="AK90" s="38"/>
+      <c r="AL90" s="38"/>
+      <c r="AM90" s="38"/>
+      <c r="AN90" s="38"/>
+      <c r="AO90" s="38"/>
+      <c r="AP90" s="38"/>
+      <c r="AQ90" s="38"/>
+      <c r="AR90" s="38"/>
+      <c r="AS90" s="38"/>
+      <c r="AT90" s="38"/>
+      <c r="AU90" s="38"/>
+      <c r="AV90" s="38"/>
+      <c r="AW90" s="39"/>
     </row>
     <row r="91" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E91" s="47"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="38">
+      <c r="E91" s="43"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="37">
         <v>2</v>
       </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="39"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="39"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="39"/>
-      <c r="AK91" s="39"/>
-      <c r="AL91" s="39"/>
-      <c r="AM91" s="39"/>
-      <c r="AN91" s="39"/>
-      <c r="AO91" s="39"/>
-      <c r="AP91" s="39"/>
-      <c r="AQ91" s="39"/>
-      <c r="AR91" s="39"/>
-      <c r="AS91" s="39"/>
-      <c r="AT91" s="39"/>
-      <c r="AU91" s="39"/>
-      <c r="AV91" s="39"/>
-      <c r="AW91" s="40"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="38"/>
+      <c r="Z91" s="38"/>
+      <c r="AA91" s="38"/>
+      <c r="AB91" s="38"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="38"/>
+      <c r="AE91" s="38"/>
+      <c r="AF91" s="38"/>
+      <c r="AG91" s="38"/>
+      <c r="AH91" s="38"/>
+      <c r="AI91" s="38"/>
+      <c r="AJ91" s="38"/>
+      <c r="AK91" s="38"/>
+      <c r="AL91" s="38"/>
+      <c r="AM91" s="38"/>
+      <c r="AN91" s="38"/>
+      <c r="AO91" s="38"/>
+      <c r="AP91" s="38"/>
+      <c r="AQ91" s="38"/>
+      <c r="AR91" s="38"/>
+      <c r="AS91" s="38"/>
+      <c r="AT91" s="38"/>
+      <c r="AU91" s="38"/>
+      <c r="AV91" s="38"/>
+      <c r="AW91" s="39"/>
     </row>
     <row r="92" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="43" t="s">
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M92" s="44"/>
-      <c r="N92" s="45" t="s">
+      <c r="M92" s="34"/>
+      <c r="N92" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
-      <c r="S92" s="45"/>
-      <c r="T92" s="45"/>
-      <c r="U92" s="45" t="s">
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V92" s="45"/>
-      <c r="W92" s="45"/>
-      <c r="X92" s="45"/>
-      <c r="Y92" s="45"/>
-      <c r="Z92" s="45" t="s">
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA92" s="45"/>
-      <c r="AB92" s="45"/>
-      <c r="AC92" s="45"/>
-      <c r="AD92" s="45"/>
-      <c r="AE92" s="45"/>
-      <c r="AF92" s="45"/>
-      <c r="AG92" s="45"/>
-      <c r="AH92" s="45"/>
-      <c r="AI92" s="45"/>
-      <c r="AJ92" s="45"/>
-      <c r="AK92" s="45"/>
-      <c r="AL92" s="45"/>
-      <c r="AM92" s="45"/>
-      <c r="AN92" s="45"/>
-      <c r="AO92" s="45"/>
-      <c r="AP92" s="45"/>
-      <c r="AQ92" s="45"/>
-      <c r="AR92" s="45"/>
-      <c r="AS92" s="45"/>
-      <c r="AT92" s="45"/>
-      <c r="AU92" s="45"/>
-      <c r="AV92" s="45"/>
-      <c r="AW92" s="46"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="35"/>
+      <c r="AI92" s="35"/>
+      <c r="AJ92" s="35"/>
+      <c r="AK92" s="35"/>
+      <c r="AL92" s="35"/>
+      <c r="AM92" s="35"/>
+      <c r="AN92" s="35"/>
+      <c r="AO92" s="35"/>
+      <c r="AP92" s="35"/>
+      <c r="AQ92" s="35"/>
+      <c r="AR92" s="35"/>
+      <c r="AS92" s="35"/>
+      <c r="AT92" s="35"/>
+      <c r="AU92" s="35"/>
+      <c r="AV92" s="35"/>
+      <c r="AW92" s="36"/>
     </row>
     <row r="93" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E93" s="47"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="38">
+      <c r="E93" s="43"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="37">
         <v>1</v>
       </c>
-      <c r="M93" s="38"/>
-      <c r="N93" s="39" t="s">
+      <c r="M93" s="37"/>
+      <c r="N93" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39" t="s">
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
-      <c r="Z93" s="39" t="s">
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AA93" s="39"/>
-      <c r="AB93" s="39"/>
-      <c r="AC93" s="39"/>
-      <c r="AD93" s="39"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="39"/>
-      <c r="AG93" s="39"/>
-      <c r="AH93" s="39"/>
-      <c r="AI93" s="39"/>
-      <c r="AJ93" s="39"/>
-      <c r="AK93" s="39"/>
-      <c r="AL93" s="39"/>
-      <c r="AM93" s="39"/>
-      <c r="AN93" s="39"/>
-      <c r="AO93" s="39"/>
-      <c r="AP93" s="39"/>
-      <c r="AQ93" s="39"/>
-      <c r="AR93" s="39"/>
-      <c r="AS93" s="39"/>
-      <c r="AT93" s="39"/>
-      <c r="AU93" s="39"/>
-      <c r="AV93" s="39"/>
-      <c r="AW93" s="40"/>
+      <c r="AA93" s="38"/>
+      <c r="AB93" s="38"/>
+      <c r="AC93" s="38"/>
+      <c r="AD93" s="38"/>
+      <c r="AE93" s="38"/>
+      <c r="AF93" s="38"/>
+      <c r="AG93" s="38"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="38"/>
+      <c r="AL93" s="38"/>
+      <c r="AM93" s="38"/>
+      <c r="AN93" s="38"/>
+      <c r="AO93" s="38"/>
+      <c r="AP93" s="38"/>
+      <c r="AQ93" s="38"/>
+      <c r="AR93" s="38"/>
+      <c r="AS93" s="38"/>
+      <c r="AT93" s="38"/>
+      <c r="AU93" s="38"/>
+      <c r="AV93" s="38"/>
+      <c r="AW93" s="39"/>
     </row>
     <row r="94" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="43" t="s">
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M94" s="44"/>
-      <c r="N94" s="45" t="s">
+      <c r="M94" s="34"/>
+      <c r="N94" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="45"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="45"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="45" t="s">
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V94" s="45"/>
-      <c r="W94" s="45"/>
-      <c r="X94" s="45"/>
-      <c r="Y94" s="45"/>
-      <c r="Z94" s="45" t="s">
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA94" s="45"/>
-      <c r="AB94" s="45"/>
-      <c r="AC94" s="45"/>
-      <c r="AD94" s="45"/>
-      <c r="AE94" s="45"/>
-      <c r="AF94" s="45"/>
-      <c r="AG94" s="45"/>
-      <c r="AH94" s="45"/>
-      <c r="AI94" s="45"/>
-      <c r="AJ94" s="45"/>
-      <c r="AK94" s="45"/>
-      <c r="AL94" s="45"/>
-      <c r="AM94" s="45"/>
-      <c r="AN94" s="45"/>
-      <c r="AO94" s="45"/>
-      <c r="AP94" s="45"/>
-      <c r="AQ94" s="45"/>
-      <c r="AR94" s="45"/>
-      <c r="AS94" s="45"/>
-      <c r="AT94" s="45"/>
-      <c r="AU94" s="45"/>
-      <c r="AV94" s="45"/>
-      <c r="AW94" s="46"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="35"/>
+      <c r="AF94" s="35"/>
+      <c r="AG94" s="35"/>
+      <c r="AH94" s="35"/>
+      <c r="AI94" s="35"/>
+      <c r="AJ94" s="35"/>
+      <c r="AK94" s="35"/>
+      <c r="AL94" s="35"/>
+      <c r="AM94" s="35"/>
+      <c r="AN94" s="35"/>
+      <c r="AO94" s="35"/>
+      <c r="AP94" s="35"/>
+      <c r="AQ94" s="35"/>
+      <c r="AR94" s="35"/>
+      <c r="AS94" s="35"/>
+      <c r="AT94" s="35"/>
+      <c r="AU94" s="35"/>
+      <c r="AV94" s="35"/>
+      <c r="AW94" s="36"/>
     </row>
     <row r="95" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E95" s="32"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="38">
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="37">
         <v>1</v>
       </c>
-      <c r="M95" s="38"/>
-      <c r="N95" s="39" t="s">
+      <c r="M95" s="37"/>
+      <c r="N95" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39" t="s">
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="39"/>
-      <c r="Y95" s="39"/>
-      <c r="Z95" s="39" t="s">
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AA95" s="39"/>
-      <c r="AB95" s="39"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="39"/>
-      <c r="AI95" s="39"/>
-      <c r="AJ95" s="39"/>
-      <c r="AK95" s="39"/>
-      <c r="AL95" s="39"/>
-      <c r="AM95" s="39"/>
-      <c r="AN95" s="39"/>
-      <c r="AO95" s="39"/>
-      <c r="AP95" s="39"/>
-      <c r="AQ95" s="39"/>
-      <c r="AR95" s="39"/>
-      <c r="AS95" s="39"/>
-      <c r="AT95" s="39"/>
-      <c r="AU95" s="39"/>
-      <c r="AV95" s="39"/>
-      <c r="AW95" s="40"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="38"/>
+      <c r="AD95" s="38"/>
+      <c r="AE95" s="38"/>
+      <c r="AF95" s="38"/>
+      <c r="AG95" s="38"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="38"/>
+      <c r="AN95" s="38"/>
+      <c r="AO95" s="38"/>
+      <c r="AP95" s="38"/>
+      <c r="AQ95" s="38"/>
+      <c r="AR95" s="38"/>
+      <c r="AS95" s="38"/>
+      <c r="AT95" s="38"/>
+      <c r="AU95" s="38"/>
+      <c r="AV95" s="38"/>
+      <c r="AW95" s="39"/>
     </row>
     <row r="96" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E96" s="35"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="26">
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="40">
         <v>2</v>
       </c>
-      <c r="M96" s="26"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="27"/>
-      <c r="AH96" s="27"/>
-      <c r="AI96" s="27"/>
-      <c r="AJ96" s="27"/>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="27"/>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="27"/>
-      <c r="AO96" s="27"/>
-      <c r="AP96" s="27"/>
-      <c r="AQ96" s="27"/>
-      <c r="AR96" s="27"/>
-      <c r="AS96" s="27"/>
-      <c r="AT96" s="27"/>
-      <c r="AU96" s="27"/>
-      <c r="AV96" s="27"/>
-      <c r="AW96" s="28"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="41"/>
+      <c r="AF96" s="41"/>
+      <c r="AG96" s="41"/>
+      <c r="AH96" s="41"/>
+      <c r="AI96" s="41"/>
+      <c r="AJ96" s="41"/>
+      <c r="AK96" s="41"/>
+      <c r="AL96" s="41"/>
+      <c r="AM96" s="41"/>
+      <c r="AN96" s="41"/>
+      <c r="AO96" s="41"/>
+      <c r="AP96" s="41"/>
+      <c r="AQ96" s="41"/>
+      <c r="AR96" s="41"/>
+      <c r="AS96" s="41"/>
+      <c r="AT96" s="41"/>
+      <c r="AU96" s="41"/>
+      <c r="AV96" s="41"/>
+      <c r="AW96" s="42"/>
     </row>
     <row r="97" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N97" s="6"/>
@@ -10150,546 +10144,546 @@
       </c>
     </row>
     <row r="99" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="41" t="s">
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="41"/>
-      <c r="Y99" s="41"/>
-      <c r="Z99" s="41"/>
-      <c r="AA99" s="41"/>
-      <c r="AB99" s="41"/>
-      <c r="AC99" s="41"/>
-      <c r="AD99" s="41"/>
-      <c r="AE99" s="41"/>
-      <c r="AF99" s="41"/>
-      <c r="AG99" s="41"/>
-      <c r="AH99" s="41"/>
-      <c r="AI99" s="41"/>
-      <c r="AJ99" s="41"/>
-      <c r="AK99" s="41"/>
-      <c r="AL99" s="41"/>
-      <c r="AM99" s="41"/>
-      <c r="AN99" s="41"/>
-      <c r="AO99" s="41"/>
-      <c r="AP99" s="41"/>
-      <c r="AQ99" s="41"/>
-      <c r="AR99" s="41"/>
-      <c r="AS99" s="41"/>
-      <c r="AT99" s="41"/>
-      <c r="AU99" s="41"/>
-      <c r="AV99" s="41"/>
-      <c r="AW99" s="42"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="49"/>
+      <c r="V99" s="49"/>
+      <c r="W99" s="49"/>
+      <c r="X99" s="49"/>
+      <c r="Y99" s="49"/>
+      <c r="Z99" s="49"/>
+      <c r="AA99" s="49"/>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="49"/>
+      <c r="AD99" s="49"/>
+      <c r="AE99" s="49"/>
+      <c r="AF99" s="49"/>
+      <c r="AG99" s="49"/>
+      <c r="AH99" s="49"/>
+      <c r="AI99" s="49"/>
+      <c r="AJ99" s="49"/>
+      <c r="AK99" s="49"/>
+      <c r="AL99" s="49"/>
+      <c r="AM99" s="49"/>
+      <c r="AN99" s="49"/>
+      <c r="AO99" s="49"/>
+      <c r="AP99" s="49"/>
+      <c r="AQ99" s="49"/>
+      <c r="AR99" s="49"/>
+      <c r="AS99" s="49"/>
+      <c r="AT99" s="49"/>
+      <c r="AU99" s="49"/>
+      <c r="AV99" s="49"/>
+      <c r="AW99" s="50"/>
     </row>
     <row r="100" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="39" t="s">
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="39"/>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
-      <c r="X100" s="39"/>
-      <c r="Y100" s="39"/>
-      <c r="Z100" s="39"/>
-      <c r="AA100" s="39"/>
-      <c r="AB100" s="39"/>
-      <c r="AC100" s="39"/>
-      <c r="AD100" s="39"/>
-      <c r="AE100" s="39"/>
-      <c r="AF100" s="39"/>
-      <c r="AG100" s="39"/>
-      <c r="AH100" s="39"/>
-      <c r="AI100" s="39"/>
-      <c r="AJ100" s="39"/>
-      <c r="AK100" s="39"/>
-      <c r="AL100" s="39"/>
-      <c r="AM100" s="39"/>
-      <c r="AN100" s="39"/>
-      <c r="AO100" s="39"/>
-      <c r="AP100" s="39"/>
-      <c r="AQ100" s="39"/>
-      <c r="AR100" s="39"/>
-      <c r="AS100" s="39"/>
-      <c r="AT100" s="39"/>
-      <c r="AU100" s="39"/>
-      <c r="AV100" s="39"/>
-      <c r="AW100" s="40"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="38"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="38"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="38"/>
+      <c r="X100" s="38"/>
+      <c r="Y100" s="38"/>
+      <c r="Z100" s="38"/>
+      <c r="AA100" s="38"/>
+      <c r="AB100" s="38"/>
+      <c r="AC100" s="38"/>
+      <c r="AD100" s="38"/>
+      <c r="AE100" s="38"/>
+      <c r="AF100" s="38"/>
+      <c r="AG100" s="38"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="38"/>
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="38"/>
+      <c r="AL100" s="38"/>
+      <c r="AM100" s="38"/>
+      <c r="AN100" s="38"/>
+      <c r="AO100" s="38"/>
+      <c r="AP100" s="38"/>
+      <c r="AQ100" s="38"/>
+      <c r="AR100" s="38"/>
+      <c r="AS100" s="38"/>
+      <c r="AT100" s="38"/>
+      <c r="AU100" s="38"/>
+      <c r="AV100" s="38"/>
+      <c r="AW100" s="39"/>
     </row>
     <row r="101" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="43" t="s">
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M101" s="44"/>
-      <c r="N101" s="45" t="s">
+      <c r="M101" s="34"/>
+      <c r="N101" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="45"/>
-      <c r="U101" s="45" t="s">
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V101" s="45"/>
-      <c r="W101" s="45"/>
-      <c r="X101" s="45"/>
-      <c r="Y101" s="45"/>
-      <c r="Z101" s="45" t="s">
+      <c r="V101" s="35"/>
+      <c r="W101" s="35"/>
+      <c r="X101" s="35"/>
+      <c r="Y101" s="35"/>
+      <c r="Z101" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA101" s="45"/>
-      <c r="AB101" s="45"/>
-      <c r="AC101" s="45"/>
-      <c r="AD101" s="45"/>
-      <c r="AE101" s="45"/>
-      <c r="AF101" s="45"/>
-      <c r="AG101" s="45"/>
-      <c r="AH101" s="45"/>
-      <c r="AI101" s="45"/>
-      <c r="AJ101" s="45"/>
-      <c r="AK101" s="45"/>
-      <c r="AL101" s="45"/>
-      <c r="AM101" s="45"/>
-      <c r="AN101" s="45"/>
-      <c r="AO101" s="45"/>
-      <c r="AP101" s="45"/>
-      <c r="AQ101" s="45"/>
-      <c r="AR101" s="45"/>
-      <c r="AS101" s="45"/>
-      <c r="AT101" s="45"/>
-      <c r="AU101" s="45"/>
-      <c r="AV101" s="45"/>
-      <c r="AW101" s="46"/>
+      <c r="AA101" s="35"/>
+      <c r="AB101" s="35"/>
+      <c r="AC101" s="35"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="35"/>
+      <c r="AG101" s="35"/>
+      <c r="AH101" s="35"/>
+      <c r="AI101" s="35"/>
+      <c r="AJ101" s="35"/>
+      <c r="AK101" s="35"/>
+      <c r="AL101" s="35"/>
+      <c r="AM101" s="35"/>
+      <c r="AN101" s="35"/>
+      <c r="AO101" s="35"/>
+      <c r="AP101" s="35"/>
+      <c r="AQ101" s="35"/>
+      <c r="AR101" s="35"/>
+      <c r="AS101" s="35"/>
+      <c r="AT101" s="35"/>
+      <c r="AU101" s="35"/>
+      <c r="AV101" s="35"/>
+      <c r="AW101" s="36"/>
     </row>
     <row r="102" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E102" s="47"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
-      <c r="L102" s="38">
+      <c r="E102" s="43"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="37">
         <v>1</v>
       </c>
-      <c r="M102" s="38"/>
-      <c r="N102" s="39" t="s">
+      <c r="M102" s="37"/>
+      <c r="N102" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O102" s="39"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="39"/>
-      <c r="T102" s="39"/>
-      <c r="U102" s="39" t="s">
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="38"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V102" s="39"/>
-      <c r="W102" s="39"/>
-      <c r="X102" s="39"/>
-      <c r="Y102" s="39"/>
-      <c r="Z102" s="39" t="s">
+      <c r="V102" s="38"/>
+      <c r="W102" s="38"/>
+      <c r="X102" s="38"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AA102" s="39"/>
-      <c r="AB102" s="39"/>
-      <c r="AC102" s="39"/>
-      <c r="AD102" s="39"/>
-      <c r="AE102" s="39"/>
-      <c r="AF102" s="39"/>
-      <c r="AG102" s="39"/>
-      <c r="AH102" s="39"/>
-      <c r="AI102" s="39"/>
-      <c r="AJ102" s="39"/>
-      <c r="AK102" s="39"/>
-      <c r="AL102" s="39"/>
-      <c r="AM102" s="39"/>
-      <c r="AN102" s="39"/>
-      <c r="AO102" s="39"/>
-      <c r="AP102" s="39"/>
-      <c r="AQ102" s="39"/>
-      <c r="AR102" s="39"/>
-      <c r="AS102" s="39"/>
-      <c r="AT102" s="39"/>
-      <c r="AU102" s="39"/>
-      <c r="AV102" s="39"/>
-      <c r="AW102" s="40"/>
+      <c r="AA102" s="38"/>
+      <c r="AB102" s="38"/>
+      <c r="AC102" s="38"/>
+      <c r="AD102" s="38"/>
+      <c r="AE102" s="38"/>
+      <c r="AF102" s="38"/>
+      <c r="AG102" s="38"/>
+      <c r="AH102" s="38"/>
+      <c r="AI102" s="38"/>
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="38"/>
+      <c r="AL102" s="38"/>
+      <c r="AM102" s="38"/>
+      <c r="AN102" s="38"/>
+      <c r="AO102" s="38"/>
+      <c r="AP102" s="38"/>
+      <c r="AQ102" s="38"/>
+      <c r="AR102" s="38"/>
+      <c r="AS102" s="38"/>
+      <c r="AT102" s="38"/>
+      <c r="AU102" s="38"/>
+      <c r="AV102" s="38"/>
+      <c r="AW102" s="39"/>
     </row>
     <row r="103" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E103" s="47"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="38">
+      <c r="E103" s="43"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="37">
         <v>2</v>
       </c>
-      <c r="M103" s="38"/>
-      <c r="N103" s="39" t="s">
+      <c r="M103" s="37"/>
+      <c r="N103" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="39"/>
-      <c r="T103" s="39"/>
-      <c r="U103" s="39" t="s">
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="38"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="38"/>
+      <c r="U103" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V103" s="39"/>
-      <c r="W103" s="39"/>
-      <c r="X103" s="39"/>
-      <c r="Y103" s="39"/>
-      <c r="Z103" s="39" t="s">
+      <c r="V103" s="38"/>
+      <c r="W103" s="38"/>
+      <c r="X103" s="38"/>
+      <c r="Y103" s="38"/>
+      <c r="Z103" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AA103" s="39"/>
-      <c r="AB103" s="39"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="39"/>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
-      <c r="AG103" s="39"/>
-      <c r="AH103" s="39"/>
-      <c r="AI103" s="39"/>
-      <c r="AJ103" s="39"/>
-      <c r="AK103" s="39"/>
-      <c r="AL103" s="39"/>
-      <c r="AM103" s="39"/>
-      <c r="AN103" s="39"/>
-      <c r="AO103" s="39"/>
-      <c r="AP103" s="39"/>
-      <c r="AQ103" s="39"/>
-      <c r="AR103" s="39"/>
-      <c r="AS103" s="39"/>
-      <c r="AT103" s="39"/>
-      <c r="AU103" s="39"/>
-      <c r="AV103" s="39"/>
-      <c r="AW103" s="40"/>
+      <c r="AA103" s="38"/>
+      <c r="AB103" s="38"/>
+      <c r="AC103" s="38"/>
+      <c r="AD103" s="38"/>
+      <c r="AE103" s="38"/>
+      <c r="AF103" s="38"/>
+      <c r="AG103" s="38"/>
+      <c r="AH103" s="38"/>
+      <c r="AI103" s="38"/>
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="38"/>
+      <c r="AL103" s="38"/>
+      <c r="AM103" s="38"/>
+      <c r="AN103" s="38"/>
+      <c r="AO103" s="38"/>
+      <c r="AP103" s="38"/>
+      <c r="AQ103" s="38"/>
+      <c r="AR103" s="38"/>
+      <c r="AS103" s="38"/>
+      <c r="AT103" s="38"/>
+      <c r="AU103" s="38"/>
+      <c r="AV103" s="38"/>
+      <c r="AW103" s="39"/>
     </row>
     <row r="104" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E104" s="47" t="s">
+      <c r="E104" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="43" t="s">
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M104" s="44"/>
-      <c r="N104" s="45" t="s">
+      <c r="M104" s="34"/>
+      <c r="N104" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="45"/>
-      <c r="R104" s="45"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="45" t="s">
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V104" s="45"/>
-      <c r="W104" s="45"/>
-      <c r="X104" s="45"/>
-      <c r="Y104" s="45"/>
-      <c r="Z104" s="45" t="s">
+      <c r="V104" s="35"/>
+      <c r="W104" s="35"/>
+      <c r="X104" s="35"/>
+      <c r="Y104" s="35"/>
+      <c r="Z104" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA104" s="45"/>
-      <c r="AB104" s="45"/>
-      <c r="AC104" s="45"/>
-      <c r="AD104" s="45"/>
-      <c r="AE104" s="45"/>
-      <c r="AF104" s="45"/>
-      <c r="AG104" s="45"/>
-      <c r="AH104" s="45"/>
-      <c r="AI104" s="45"/>
-      <c r="AJ104" s="45"/>
-      <c r="AK104" s="45"/>
-      <c r="AL104" s="45"/>
-      <c r="AM104" s="45"/>
-      <c r="AN104" s="45"/>
-      <c r="AO104" s="45"/>
-      <c r="AP104" s="45"/>
-      <c r="AQ104" s="45"/>
-      <c r="AR104" s="45"/>
-      <c r="AS104" s="45"/>
-      <c r="AT104" s="45"/>
-      <c r="AU104" s="45"/>
-      <c r="AV104" s="45"/>
-      <c r="AW104" s="46"/>
+      <c r="AA104" s="35"/>
+      <c r="AB104" s="35"/>
+      <c r="AC104" s="35"/>
+      <c r="AD104" s="35"/>
+      <c r="AE104" s="35"/>
+      <c r="AF104" s="35"/>
+      <c r="AG104" s="35"/>
+      <c r="AH104" s="35"/>
+      <c r="AI104" s="35"/>
+      <c r="AJ104" s="35"/>
+      <c r="AK104" s="35"/>
+      <c r="AL104" s="35"/>
+      <c r="AM104" s="35"/>
+      <c r="AN104" s="35"/>
+      <c r="AO104" s="35"/>
+      <c r="AP104" s="35"/>
+      <c r="AQ104" s="35"/>
+      <c r="AR104" s="35"/>
+      <c r="AS104" s="35"/>
+      <c r="AT104" s="35"/>
+      <c r="AU104" s="35"/>
+      <c r="AV104" s="35"/>
+      <c r="AW104" s="36"/>
     </row>
     <row r="105" spans="3:49" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E105" s="47"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="38">
+      <c r="E105" s="43"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="37">
         <v>1</v>
       </c>
-      <c r="M105" s="38"/>
-      <c r="N105" s="39" t="s">
+      <c r="M105" s="37"/>
+      <c r="N105" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O105" s="39"/>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="39"/>
-      <c r="T105" s="39"/>
-      <c r="U105" s="39" t="s">
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="V105" s="39"/>
-      <c r="W105" s="39"/>
-      <c r="X105" s="39"/>
-      <c r="Y105" s="39"/>
-      <c r="Z105" s="59" t="s">
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AA105" s="59"/>
-      <c r="AB105" s="59"/>
-      <c r="AC105" s="59"/>
-      <c r="AD105" s="59"/>
-      <c r="AE105" s="59"/>
-      <c r="AF105" s="59"/>
-      <c r="AG105" s="59"/>
-      <c r="AH105" s="59"/>
-      <c r="AI105" s="59"/>
-      <c r="AJ105" s="59"/>
-      <c r="AK105" s="59"/>
-      <c r="AL105" s="59"/>
-      <c r="AM105" s="59"/>
-      <c r="AN105" s="59"/>
-      <c r="AO105" s="59"/>
-      <c r="AP105" s="59"/>
-      <c r="AQ105" s="59"/>
-      <c r="AR105" s="59"/>
-      <c r="AS105" s="59"/>
-      <c r="AT105" s="59"/>
-      <c r="AU105" s="59"/>
-      <c r="AV105" s="59"/>
-      <c r="AW105" s="60"/>
+      <c r="AA105" s="45"/>
+      <c r="AB105" s="45"/>
+      <c r="AC105" s="45"/>
+      <c r="AD105" s="45"/>
+      <c r="AE105" s="45"/>
+      <c r="AF105" s="45"/>
+      <c r="AG105" s="45"/>
+      <c r="AH105" s="45"/>
+      <c r="AI105" s="45"/>
+      <c r="AJ105" s="45"/>
+      <c r="AK105" s="45"/>
+      <c r="AL105" s="45"/>
+      <c r="AM105" s="45"/>
+      <c r="AN105" s="45"/>
+      <c r="AO105" s="45"/>
+      <c r="AP105" s="45"/>
+      <c r="AQ105" s="45"/>
+      <c r="AR105" s="45"/>
+      <c r="AS105" s="45"/>
+      <c r="AT105" s="45"/>
+      <c r="AU105" s="45"/>
+      <c r="AV105" s="45"/>
+      <c r="AW105" s="46"/>
     </row>
     <row r="106" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="43" t="s">
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M106" s="44"/>
-      <c r="N106" s="45" t="s">
+      <c r="M106" s="34"/>
+      <c r="N106" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
-      <c r="Q106" s="45"/>
-      <c r="R106" s="45"/>
-      <c r="S106" s="45"/>
-      <c r="T106" s="45"/>
-      <c r="U106" s="45" t="s">
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="35"/>
+      <c r="R106" s="35"/>
+      <c r="S106" s="35"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V106" s="45"/>
-      <c r="W106" s="45"/>
-      <c r="X106" s="45"/>
-      <c r="Y106" s="45"/>
-      <c r="Z106" s="45" t="s">
+      <c r="V106" s="35"/>
+      <c r="W106" s="35"/>
+      <c r="X106" s="35"/>
+      <c r="Y106" s="35"/>
+      <c r="Z106" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA106" s="45"/>
-      <c r="AB106" s="45"/>
-      <c r="AC106" s="45"/>
-      <c r="AD106" s="45"/>
-      <c r="AE106" s="45"/>
-      <c r="AF106" s="45"/>
-      <c r="AG106" s="45"/>
-      <c r="AH106" s="45"/>
-      <c r="AI106" s="45"/>
-      <c r="AJ106" s="45"/>
-      <c r="AK106" s="45"/>
-      <c r="AL106" s="45"/>
-      <c r="AM106" s="45"/>
-      <c r="AN106" s="45"/>
-      <c r="AO106" s="45"/>
-      <c r="AP106" s="45"/>
-      <c r="AQ106" s="45"/>
-      <c r="AR106" s="45"/>
-      <c r="AS106" s="45"/>
-      <c r="AT106" s="45"/>
-      <c r="AU106" s="45"/>
-      <c r="AV106" s="45"/>
-      <c r="AW106" s="46"/>
+      <c r="AA106" s="35"/>
+      <c r="AB106" s="35"/>
+      <c r="AC106" s="35"/>
+      <c r="AD106" s="35"/>
+      <c r="AE106" s="35"/>
+      <c r="AF106" s="35"/>
+      <c r="AG106" s="35"/>
+      <c r="AH106" s="35"/>
+      <c r="AI106" s="35"/>
+      <c r="AJ106" s="35"/>
+      <c r="AK106" s="35"/>
+      <c r="AL106" s="35"/>
+      <c r="AM106" s="35"/>
+      <c r="AN106" s="35"/>
+      <c r="AO106" s="35"/>
+      <c r="AP106" s="35"/>
+      <c r="AQ106" s="35"/>
+      <c r="AR106" s="35"/>
+      <c r="AS106" s="35"/>
+      <c r="AT106" s="35"/>
+      <c r="AU106" s="35"/>
+      <c r="AV106" s="35"/>
+      <c r="AW106" s="36"/>
     </row>
     <row r="107" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E107" s="32"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="38">
+      <c r="E107" s="27"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="37">
         <v>1</v>
       </c>
-      <c r="M107" s="38"/>
-      <c r="N107" s="39" t="s">
+      <c r="M107" s="37"/>
+      <c r="N107" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O107" s="39"/>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="39"/>
-      <c r="T107" s="39"/>
-      <c r="U107" s="39" t="s">
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V107" s="39"/>
-      <c r="W107" s="39"/>
-      <c r="X107" s="39"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39" t="s">
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="39"/>
-      <c r="AE107" s="39"/>
-      <c r="AF107" s="39"/>
-      <c r="AG107" s="39"/>
-      <c r="AH107" s="39"/>
-      <c r="AI107" s="39"/>
-      <c r="AJ107" s="39"/>
-      <c r="AK107" s="39"/>
-      <c r="AL107" s="39"/>
-      <c r="AM107" s="39"/>
-      <c r="AN107" s="39"/>
-      <c r="AO107" s="39"/>
-      <c r="AP107" s="39"/>
-      <c r="AQ107" s="39"/>
-      <c r="AR107" s="39"/>
-      <c r="AS107" s="39"/>
-      <c r="AT107" s="39"/>
-      <c r="AU107" s="39"/>
-      <c r="AV107" s="39"/>
-      <c r="AW107" s="40"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="38"/>
+      <c r="AD107" s="38"/>
+      <c r="AE107" s="38"/>
+      <c r="AF107" s="38"/>
+      <c r="AG107" s="38"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="38"/>
+      <c r="AL107" s="38"/>
+      <c r="AM107" s="38"/>
+      <c r="AN107" s="38"/>
+      <c r="AO107" s="38"/>
+      <c r="AP107" s="38"/>
+      <c r="AQ107" s="38"/>
+      <c r="AR107" s="38"/>
+      <c r="AS107" s="38"/>
+      <c r="AT107" s="38"/>
+      <c r="AU107" s="38"/>
+      <c r="AV107" s="38"/>
+      <c r="AW107" s="39"/>
     </row>
     <row r="108" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E108" s="35"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="26">
+      <c r="E108" s="30"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="40">
         <v>2</v>
       </c>
-      <c r="M108" s="26"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="27"/>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="27"/>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27"/>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="27"/>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="27"/>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
-      <c r="AS108" s="27"/>
-      <c r="AT108" s="27"/>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="27"/>
-      <c r="AW108" s="28"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="41"/>
+      <c r="T108" s="41"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="41"/>
+      <c r="X108" s="41"/>
+      <c r="Y108" s="41"/>
+      <c r="Z108" s="41"/>
+      <c r="AA108" s="41"/>
+      <c r="AB108" s="41"/>
+      <c r="AC108" s="41"/>
+      <c r="AD108" s="41"/>
+      <c r="AE108" s="41"/>
+      <c r="AF108" s="41"/>
+      <c r="AG108" s="41"/>
+      <c r="AH108" s="41"/>
+      <c r="AI108" s="41"/>
+      <c r="AJ108" s="41"/>
+      <c r="AK108" s="41"/>
+      <c r="AL108" s="41"/>
+      <c r="AM108" s="41"/>
+      <c r="AN108" s="41"/>
+      <c r="AO108" s="41"/>
+      <c r="AP108" s="41"/>
+      <c r="AQ108" s="41"/>
+      <c r="AR108" s="41"/>
+      <c r="AS108" s="41"/>
+      <c r="AT108" s="41"/>
+      <c r="AU108" s="41"/>
+      <c r="AV108" s="41"/>
+      <c r="AW108" s="42"/>
     </row>
     <row r="109" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N109" s="6"/>
@@ -11300,66 +11294,66 @@
       </c>
     </row>
     <row r="157" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E157" s="24" t="s">
+      <c r="E157" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="41" t="s">
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="48"/>
+      <c r="J157" s="48"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M157" s="41"/>
-      <c r="N157" s="41"/>
-      <c r="O157" s="41"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="41"/>
-      <c r="R157" s="41"/>
-      <c r="S157" s="41"/>
-      <c r="T157" s="41"/>
-      <c r="U157" s="41"/>
-      <c r="V157" s="41"/>
-      <c r="W157" s="41"/>
-      <c r="X157" s="41"/>
-      <c r="Y157" s="41"/>
-      <c r="Z157" s="41"/>
-      <c r="AA157" s="41"/>
-      <c r="AB157" s="41"/>
-      <c r="AC157" s="41"/>
-      <c r="AD157" s="41"/>
-      <c r="AE157" s="41"/>
-      <c r="AF157" s="41"/>
-      <c r="AG157" s="41"/>
-      <c r="AH157" s="41"/>
-      <c r="AI157" s="41"/>
-      <c r="AJ157" s="41"/>
-      <c r="AK157" s="41"/>
-      <c r="AL157" s="41"/>
-      <c r="AM157" s="41"/>
-      <c r="AN157" s="41"/>
-      <c r="AO157" s="41"/>
-      <c r="AP157" s="41"/>
-      <c r="AQ157" s="41"/>
-      <c r="AR157" s="41"/>
-      <c r="AS157" s="41"/>
-      <c r="AT157" s="41"/>
-      <c r="AU157" s="41"/>
-      <c r="AV157" s="41"/>
-      <c r="AW157" s="42"/>
+      <c r="M157" s="49"/>
+      <c r="N157" s="49"/>
+      <c r="O157" s="49"/>
+      <c r="P157" s="49"/>
+      <c r="Q157" s="49"/>
+      <c r="R157" s="49"/>
+      <c r="S157" s="49"/>
+      <c r="T157" s="49"/>
+      <c r="U157" s="49"/>
+      <c r="V157" s="49"/>
+      <c r="W157" s="49"/>
+      <c r="X157" s="49"/>
+      <c r="Y157" s="49"/>
+      <c r="Z157" s="49"/>
+      <c r="AA157" s="49"/>
+      <c r="AB157" s="49"/>
+      <c r="AC157" s="49"/>
+      <c r="AD157" s="49"/>
+      <c r="AE157" s="49"/>
+      <c r="AF157" s="49"/>
+      <c r="AG157" s="49"/>
+      <c r="AH157" s="49"/>
+      <c r="AI157" s="49"/>
+      <c r="AJ157" s="49"/>
+      <c r="AK157" s="49"/>
+      <c r="AL157" s="49"/>
+      <c r="AM157" s="49"/>
+      <c r="AN157" s="49"/>
+      <c r="AO157" s="49"/>
+      <c r="AP157" s="49"/>
+      <c r="AQ157" s="49"/>
+      <c r="AR157" s="49"/>
+      <c r="AS157" s="49"/>
+      <c r="AT157" s="49"/>
+      <c r="AU157" s="49"/>
+      <c r="AV157" s="49"/>
+      <c r="AW157" s="50"/>
     </row>
     <row r="158" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E158" s="61" t="s">
+      <c r="E158" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F158" s="62"/>
-      <c r="G158" s="62"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="62"/>
-      <c r="J158" s="62"/>
-      <c r="K158" s="63"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="53"/>
       <c r="L158" s="16" t="s">
         <v>83</v>
       </c>
@@ -11399,174 +11393,174 @@
       <c r="AT158" s="17"/>
       <c r="AU158" s="17"/>
       <c r="AV158" s="17"/>
-      <c r="AW158" s="53"/>
+      <c r="AW158" s="54"/>
     </row>
     <row r="159" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E159" s="47" t="s">
+      <c r="E159" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F159" s="48"/>
-      <c r="G159" s="48"/>
-      <c r="H159" s="48"/>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="48"/>
-      <c r="L159" s="43" t="s">
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
+      <c r="K159" s="44"/>
+      <c r="L159" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M159" s="44"/>
-      <c r="N159" s="45" t="s">
+      <c r="M159" s="34"/>
+      <c r="N159" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O159" s="45"/>
-      <c r="P159" s="45"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="45"/>
-      <c r="S159" s="45"/>
-      <c r="T159" s="45"/>
-      <c r="U159" s="45" t="s">
+      <c r="O159" s="35"/>
+      <c r="P159" s="35"/>
+      <c r="Q159" s="35"/>
+      <c r="R159" s="35"/>
+      <c r="S159" s="35"/>
+      <c r="T159" s="35"/>
+      <c r="U159" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V159" s="45"/>
-      <c r="W159" s="45"/>
-      <c r="X159" s="45"/>
-      <c r="Y159" s="45"/>
-      <c r="Z159" s="45" t="s">
+      <c r="V159" s="35"/>
+      <c r="W159" s="35"/>
+      <c r="X159" s="35"/>
+      <c r="Y159" s="35"/>
+      <c r="Z159" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA159" s="45"/>
-      <c r="AB159" s="45"/>
-      <c r="AC159" s="45"/>
-      <c r="AD159" s="45"/>
-      <c r="AE159" s="45"/>
-      <c r="AF159" s="45"/>
-      <c r="AG159" s="45"/>
-      <c r="AH159" s="45"/>
-      <c r="AI159" s="45"/>
-      <c r="AJ159" s="45"/>
-      <c r="AK159" s="45"/>
-      <c r="AL159" s="45"/>
-      <c r="AM159" s="45"/>
-      <c r="AN159" s="45"/>
-      <c r="AO159" s="45"/>
-      <c r="AP159" s="45"/>
-      <c r="AQ159" s="45"/>
-      <c r="AR159" s="45"/>
-      <c r="AS159" s="45"/>
-      <c r="AT159" s="45"/>
-      <c r="AU159" s="45"/>
-      <c r="AV159" s="45"/>
-      <c r="AW159" s="46"/>
+      <c r="AA159" s="35"/>
+      <c r="AB159" s="35"/>
+      <c r="AC159" s="35"/>
+      <c r="AD159" s="35"/>
+      <c r="AE159" s="35"/>
+      <c r="AF159" s="35"/>
+      <c r="AG159" s="35"/>
+      <c r="AH159" s="35"/>
+      <c r="AI159" s="35"/>
+      <c r="AJ159" s="35"/>
+      <c r="AK159" s="35"/>
+      <c r="AL159" s="35"/>
+      <c r="AM159" s="35"/>
+      <c r="AN159" s="35"/>
+      <c r="AO159" s="35"/>
+      <c r="AP159" s="35"/>
+      <c r="AQ159" s="35"/>
+      <c r="AR159" s="35"/>
+      <c r="AS159" s="35"/>
+      <c r="AT159" s="35"/>
+      <c r="AU159" s="35"/>
+      <c r="AV159" s="35"/>
+      <c r="AW159" s="36"/>
     </row>
     <row r="160" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E160" s="47"/>
-      <c r="F160" s="48"/>
-      <c r="G160" s="48"/>
-      <c r="H160" s="48"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="48"/>
-      <c r="L160" s="38">
+      <c r="E160" s="43"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
+      <c r="K160" s="44"/>
+      <c r="L160" s="37">
         <v>1</v>
       </c>
-      <c r="M160" s="38"/>
-      <c r="N160" s="39" t="s">
+      <c r="M160" s="37"/>
+      <c r="N160" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O160" s="39"/>
-      <c r="P160" s="39"/>
-      <c r="Q160" s="39"/>
-      <c r="R160" s="39"/>
-      <c r="S160" s="39"/>
-      <c r="T160" s="39"/>
-      <c r="U160" s="39" t="s">
+      <c r="O160" s="38"/>
+      <c r="P160" s="38"/>
+      <c r="Q160" s="38"/>
+      <c r="R160" s="38"/>
+      <c r="S160" s="38"/>
+      <c r="T160" s="38"/>
+      <c r="U160" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="V160" s="39"/>
-      <c r="W160" s="39"/>
-      <c r="X160" s="39"/>
-      <c r="Y160" s="39"/>
-      <c r="Z160" s="39" t="s">
+      <c r="V160" s="38"/>
+      <c r="W160" s="38"/>
+      <c r="X160" s="38"/>
+      <c r="Y160" s="38"/>
+      <c r="Z160" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AA160" s="39"/>
-      <c r="AB160" s="39"/>
-      <c r="AC160" s="39"/>
-      <c r="AD160" s="39"/>
-      <c r="AE160" s="39"/>
-      <c r="AF160" s="39"/>
-      <c r="AG160" s="39"/>
-      <c r="AH160" s="39"/>
-      <c r="AI160" s="39"/>
-      <c r="AJ160" s="39"/>
-      <c r="AK160" s="39"/>
-      <c r="AL160" s="39"/>
-      <c r="AM160" s="39"/>
-      <c r="AN160" s="39"/>
-      <c r="AO160" s="39"/>
-      <c r="AP160" s="39"/>
-      <c r="AQ160" s="39"/>
-      <c r="AR160" s="39"/>
-      <c r="AS160" s="39"/>
-      <c r="AT160" s="39"/>
-      <c r="AU160" s="39"/>
-      <c r="AV160" s="39"/>
-      <c r="AW160" s="40"/>
+      <c r="AA160" s="38"/>
+      <c r="AB160" s="38"/>
+      <c r="AC160" s="38"/>
+      <c r="AD160" s="38"/>
+      <c r="AE160" s="38"/>
+      <c r="AF160" s="38"/>
+      <c r="AG160" s="38"/>
+      <c r="AH160" s="38"/>
+      <c r="AI160" s="38"/>
+      <c r="AJ160" s="38"/>
+      <c r="AK160" s="38"/>
+      <c r="AL160" s="38"/>
+      <c r="AM160" s="38"/>
+      <c r="AN160" s="38"/>
+      <c r="AO160" s="38"/>
+      <c r="AP160" s="38"/>
+      <c r="AQ160" s="38"/>
+      <c r="AR160" s="38"/>
+      <c r="AS160" s="38"/>
+      <c r="AT160" s="38"/>
+      <c r="AU160" s="38"/>
+      <c r="AV160" s="38"/>
+      <c r="AW160" s="39"/>
     </row>
     <row r="161" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E161" s="64"/>
-      <c r="F161" s="65"/>
-      <c r="G161" s="65"/>
-      <c r="H161" s="65"/>
-      <c r="I161" s="65"/>
-      <c r="J161" s="65"/>
-      <c r="K161" s="65"/>
-      <c r="L161" s="26">
+      <c r="E161" s="55"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56"/>
+      <c r="H161" s="56"/>
+      <c r="I161" s="56"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+      <c r="L161" s="40">
         <v>2</v>
       </c>
-      <c r="M161" s="26"/>
-      <c r="N161" s="27" t="s">
+      <c r="M161" s="40"/>
+      <c r="N161" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="O161" s="27"/>
-      <c r="P161" s="27"/>
-      <c r="Q161" s="27"/>
-      <c r="R161" s="27"/>
-      <c r="S161" s="27"/>
-      <c r="T161" s="27"/>
-      <c r="U161" s="27" t="s">
+      <c r="O161" s="41"/>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41"/>
+      <c r="S161" s="41"/>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="V161" s="27"/>
-      <c r="W161" s="27"/>
-      <c r="X161" s="27"/>
-      <c r="Y161" s="27"/>
-      <c r="Z161" s="27" t="s">
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
+      <c r="Y161" s="41"/>
+      <c r="Z161" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="AA161" s="27"/>
-      <c r="AB161" s="27"/>
-      <c r="AC161" s="27"/>
-      <c r="AD161" s="27"/>
-      <c r="AE161" s="27"/>
-      <c r="AF161" s="27"/>
-      <c r="AG161" s="27"/>
-      <c r="AH161" s="27"/>
-      <c r="AI161" s="27"/>
-      <c r="AJ161" s="27"/>
-      <c r="AK161" s="27"/>
-      <c r="AL161" s="27"/>
-      <c r="AM161" s="27"/>
-      <c r="AN161" s="27"/>
-      <c r="AO161" s="27"/>
-      <c r="AP161" s="27"/>
-      <c r="AQ161" s="27"/>
-      <c r="AR161" s="27"/>
-      <c r="AS161" s="27"/>
-      <c r="AT161" s="27"/>
-      <c r="AU161" s="27"/>
-      <c r="AV161" s="27"/>
-      <c r="AW161" s="28"/>
+      <c r="AA161" s="41"/>
+      <c r="AB161" s="41"/>
+      <c r="AC161" s="41"/>
+      <c r="AD161" s="41"/>
+      <c r="AE161" s="41"/>
+      <c r="AF161" s="41"/>
+      <c r="AG161" s="41"/>
+      <c r="AH161" s="41"/>
+      <c r="AI161" s="41"/>
+      <c r="AJ161" s="41"/>
+      <c r="AK161" s="41"/>
+      <c r="AL161" s="41"/>
+      <c r="AM161" s="41"/>
+      <c r="AN161" s="41"/>
+      <c r="AO161" s="41"/>
+      <c r="AP161" s="41"/>
+      <c r="AQ161" s="41"/>
+      <c r="AR161" s="41"/>
+      <c r="AS161" s="41"/>
+      <c r="AT161" s="41"/>
+      <c r="AU161" s="41"/>
+      <c r="AV161" s="41"/>
+      <c r="AW161" s="42"/>
     </row>
     <row r="162" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N162" s="6"/>
@@ -11607,546 +11601,546 @@
       </c>
     </row>
     <row r="164" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E164" s="24" t="s">
+      <c r="E164" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="25"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="41" t="s">
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48"/>
+      <c r="J164" s="48"/>
+      <c r="K164" s="48"/>
+      <c r="L164" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="M164" s="41"/>
-      <c r="N164" s="41"/>
-      <c r="O164" s="41"/>
-      <c r="P164" s="41"/>
-      <c r="Q164" s="41"/>
-      <c r="R164" s="41"/>
-      <c r="S164" s="41"/>
-      <c r="T164" s="41"/>
-      <c r="U164" s="41"/>
-      <c r="V164" s="41"/>
-      <c r="W164" s="41"/>
-      <c r="X164" s="41"/>
-      <c r="Y164" s="41"/>
-      <c r="Z164" s="41"/>
-      <c r="AA164" s="41"/>
-      <c r="AB164" s="41"/>
-      <c r="AC164" s="41"/>
-      <c r="AD164" s="41"/>
-      <c r="AE164" s="41"/>
-      <c r="AF164" s="41"/>
-      <c r="AG164" s="41"/>
-      <c r="AH164" s="41"/>
-      <c r="AI164" s="41"/>
-      <c r="AJ164" s="41"/>
-      <c r="AK164" s="41"/>
-      <c r="AL164" s="41"/>
-      <c r="AM164" s="41"/>
-      <c r="AN164" s="41"/>
-      <c r="AO164" s="41"/>
-      <c r="AP164" s="41"/>
-      <c r="AQ164" s="41"/>
-      <c r="AR164" s="41"/>
-      <c r="AS164" s="41"/>
-      <c r="AT164" s="41"/>
-      <c r="AU164" s="41"/>
-      <c r="AV164" s="41"/>
-      <c r="AW164" s="42"/>
+      <c r="M164" s="49"/>
+      <c r="N164" s="49"/>
+      <c r="O164" s="49"/>
+      <c r="P164" s="49"/>
+      <c r="Q164" s="49"/>
+      <c r="R164" s="49"/>
+      <c r="S164" s="49"/>
+      <c r="T164" s="49"/>
+      <c r="U164" s="49"/>
+      <c r="V164" s="49"/>
+      <c r="W164" s="49"/>
+      <c r="X164" s="49"/>
+      <c r="Y164" s="49"/>
+      <c r="Z164" s="49"/>
+      <c r="AA164" s="49"/>
+      <c r="AB164" s="49"/>
+      <c r="AC164" s="49"/>
+      <c r="AD164" s="49"/>
+      <c r="AE164" s="49"/>
+      <c r="AF164" s="49"/>
+      <c r="AG164" s="49"/>
+      <c r="AH164" s="49"/>
+      <c r="AI164" s="49"/>
+      <c r="AJ164" s="49"/>
+      <c r="AK164" s="49"/>
+      <c r="AL164" s="49"/>
+      <c r="AM164" s="49"/>
+      <c r="AN164" s="49"/>
+      <c r="AO164" s="49"/>
+      <c r="AP164" s="49"/>
+      <c r="AQ164" s="49"/>
+      <c r="AR164" s="49"/>
+      <c r="AS164" s="49"/>
+      <c r="AT164" s="49"/>
+      <c r="AU164" s="49"/>
+      <c r="AV164" s="49"/>
+      <c r="AW164" s="50"/>
     </row>
     <row r="165" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E165" s="47" t="s">
+      <c r="E165" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48"/>
-      <c r="K165" s="48"/>
-      <c r="L165" s="39" t="s">
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="44"/>
+      <c r="I165" s="44"/>
+      <c r="J165" s="44"/>
+      <c r="K165" s="44"/>
+      <c r="L165" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="M165" s="39"/>
-      <c r="N165" s="39"/>
-      <c r="O165" s="39"/>
-      <c r="P165" s="39"/>
-      <c r="Q165" s="39"/>
-      <c r="R165" s="39"/>
-      <c r="S165" s="39"/>
-      <c r="T165" s="39"/>
-      <c r="U165" s="39"/>
-      <c r="V165" s="39"/>
-      <c r="W165" s="39"/>
-      <c r="X165" s="39"/>
-      <c r="Y165" s="39"/>
-      <c r="Z165" s="39"/>
-      <c r="AA165" s="39"/>
-      <c r="AB165" s="39"/>
-      <c r="AC165" s="39"/>
-      <c r="AD165" s="39"/>
-      <c r="AE165" s="39"/>
-      <c r="AF165" s="39"/>
-      <c r="AG165" s="39"/>
-      <c r="AH165" s="39"/>
-      <c r="AI165" s="39"/>
-      <c r="AJ165" s="39"/>
-      <c r="AK165" s="39"/>
-      <c r="AL165" s="39"/>
-      <c r="AM165" s="39"/>
-      <c r="AN165" s="39"/>
-      <c r="AO165" s="39"/>
-      <c r="AP165" s="39"/>
-      <c r="AQ165" s="39"/>
-      <c r="AR165" s="39"/>
-      <c r="AS165" s="39"/>
-      <c r="AT165" s="39"/>
-      <c r="AU165" s="39"/>
-      <c r="AV165" s="39"/>
-      <c r="AW165" s="40"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="38"/>
+      <c r="S165" s="38"/>
+      <c r="T165" s="38"/>
+      <c r="U165" s="38"/>
+      <c r="V165" s="38"/>
+      <c r="W165" s="38"/>
+      <c r="X165" s="38"/>
+      <c r="Y165" s="38"/>
+      <c r="Z165" s="38"/>
+      <c r="AA165" s="38"/>
+      <c r="AB165" s="38"/>
+      <c r="AC165" s="38"/>
+      <c r="AD165" s="38"/>
+      <c r="AE165" s="38"/>
+      <c r="AF165" s="38"/>
+      <c r="AG165" s="38"/>
+      <c r="AH165" s="38"/>
+      <c r="AI165" s="38"/>
+      <c r="AJ165" s="38"/>
+      <c r="AK165" s="38"/>
+      <c r="AL165" s="38"/>
+      <c r="AM165" s="38"/>
+      <c r="AN165" s="38"/>
+      <c r="AO165" s="38"/>
+      <c r="AP165" s="38"/>
+      <c r="AQ165" s="38"/>
+      <c r="AR165" s="38"/>
+      <c r="AS165" s="38"/>
+      <c r="AT165" s="38"/>
+      <c r="AU165" s="38"/>
+      <c r="AV165" s="38"/>
+      <c r="AW165" s="39"/>
     </row>
     <row r="166" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E166" s="47" t="s">
+      <c r="E166" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="48"/>
-      <c r="L166" s="43" t="s">
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+      <c r="J166" s="44"/>
+      <c r="K166" s="44"/>
+      <c r="L166" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M166" s="44"/>
-      <c r="N166" s="45" t="s">
+      <c r="M166" s="34"/>
+      <c r="N166" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O166" s="45"/>
-      <c r="P166" s="45"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="45"/>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45"/>
-      <c r="U166" s="45" t="s">
+      <c r="O166" s="35"/>
+      <c r="P166" s="35"/>
+      <c r="Q166" s="35"/>
+      <c r="R166" s="35"/>
+      <c r="S166" s="35"/>
+      <c r="T166" s="35"/>
+      <c r="U166" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V166" s="45"/>
-      <c r="W166" s="45"/>
-      <c r="X166" s="45"/>
-      <c r="Y166" s="45"/>
-      <c r="Z166" s="45" t="s">
+      <c r="V166" s="35"/>
+      <c r="W166" s="35"/>
+      <c r="X166" s="35"/>
+      <c r="Y166" s="35"/>
+      <c r="Z166" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA166" s="45"/>
-      <c r="AB166" s="45"/>
-      <c r="AC166" s="45"/>
-      <c r="AD166" s="45"/>
-      <c r="AE166" s="45"/>
-      <c r="AF166" s="45"/>
-      <c r="AG166" s="45"/>
-      <c r="AH166" s="45"/>
-      <c r="AI166" s="45"/>
-      <c r="AJ166" s="45"/>
-      <c r="AK166" s="45"/>
-      <c r="AL166" s="45"/>
-      <c r="AM166" s="45"/>
-      <c r="AN166" s="45"/>
-      <c r="AO166" s="45"/>
-      <c r="AP166" s="45"/>
-      <c r="AQ166" s="45"/>
-      <c r="AR166" s="45"/>
-      <c r="AS166" s="45"/>
-      <c r="AT166" s="45"/>
-      <c r="AU166" s="45"/>
-      <c r="AV166" s="45"/>
-      <c r="AW166" s="46"/>
+      <c r="AA166" s="35"/>
+      <c r="AB166" s="35"/>
+      <c r="AC166" s="35"/>
+      <c r="AD166" s="35"/>
+      <c r="AE166" s="35"/>
+      <c r="AF166" s="35"/>
+      <c r="AG166" s="35"/>
+      <c r="AH166" s="35"/>
+      <c r="AI166" s="35"/>
+      <c r="AJ166" s="35"/>
+      <c r="AK166" s="35"/>
+      <c r="AL166" s="35"/>
+      <c r="AM166" s="35"/>
+      <c r="AN166" s="35"/>
+      <c r="AO166" s="35"/>
+      <c r="AP166" s="35"/>
+      <c r="AQ166" s="35"/>
+      <c r="AR166" s="35"/>
+      <c r="AS166" s="35"/>
+      <c r="AT166" s="35"/>
+      <c r="AU166" s="35"/>
+      <c r="AV166" s="35"/>
+      <c r="AW166" s="36"/>
     </row>
     <row r="167" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E167" s="47"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="48"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="48"/>
-      <c r="L167" s="38">
+      <c r="E167" s="43"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="44"/>
+      <c r="I167" s="44"/>
+      <c r="J167" s="44"/>
+      <c r="K167" s="44"/>
+      <c r="L167" s="37">
         <v>1</v>
       </c>
-      <c r="M167" s="38"/>
-      <c r="N167" s="39" t="s">
+      <c r="M167" s="37"/>
+      <c r="N167" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O167" s="39"/>
-      <c r="P167" s="39"/>
-      <c r="Q167" s="39"/>
-      <c r="R167" s="39"/>
-      <c r="S167" s="39"/>
-      <c r="T167" s="39"/>
-      <c r="U167" s="39" t="s">
+      <c r="O167" s="38"/>
+      <c r="P167" s="38"/>
+      <c r="Q167" s="38"/>
+      <c r="R167" s="38"/>
+      <c r="S167" s="38"/>
+      <c r="T167" s="38"/>
+      <c r="U167" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V167" s="39"/>
-      <c r="W167" s="39"/>
-      <c r="X167" s="39"/>
-      <c r="Y167" s="39"/>
-      <c r="Z167" s="39" t="s">
+      <c r="V167" s="38"/>
+      <c r="W167" s="38"/>
+      <c r="X167" s="38"/>
+      <c r="Y167" s="38"/>
+      <c r="Z167" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AA167" s="39"/>
-      <c r="AB167" s="39"/>
-      <c r="AC167" s="39"/>
-      <c r="AD167" s="39"/>
-      <c r="AE167" s="39"/>
-      <c r="AF167" s="39"/>
-      <c r="AG167" s="39"/>
-      <c r="AH167" s="39"/>
-      <c r="AI167" s="39"/>
-      <c r="AJ167" s="39"/>
-      <c r="AK167" s="39"/>
-      <c r="AL167" s="39"/>
-      <c r="AM167" s="39"/>
-      <c r="AN167" s="39"/>
-      <c r="AO167" s="39"/>
-      <c r="AP167" s="39"/>
-      <c r="AQ167" s="39"/>
-      <c r="AR167" s="39"/>
-      <c r="AS167" s="39"/>
-      <c r="AT167" s="39"/>
-      <c r="AU167" s="39"/>
-      <c r="AV167" s="39"/>
-      <c r="AW167" s="40"/>
+      <c r="AA167" s="38"/>
+      <c r="AB167" s="38"/>
+      <c r="AC167" s="38"/>
+      <c r="AD167" s="38"/>
+      <c r="AE167" s="38"/>
+      <c r="AF167" s="38"/>
+      <c r="AG167" s="38"/>
+      <c r="AH167" s="38"/>
+      <c r="AI167" s="38"/>
+      <c r="AJ167" s="38"/>
+      <c r="AK167" s="38"/>
+      <c r="AL167" s="38"/>
+      <c r="AM167" s="38"/>
+      <c r="AN167" s="38"/>
+      <c r="AO167" s="38"/>
+      <c r="AP167" s="38"/>
+      <c r="AQ167" s="38"/>
+      <c r="AR167" s="38"/>
+      <c r="AS167" s="38"/>
+      <c r="AT167" s="38"/>
+      <c r="AU167" s="38"/>
+      <c r="AV167" s="38"/>
+      <c r="AW167" s="39"/>
     </row>
     <row r="168" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E168" s="47"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="48"/>
-      <c r="J168" s="48"/>
-      <c r="K168" s="48"/>
-      <c r="L168" s="38">
+      <c r="E168" s="43"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="44"/>
+      <c r="I168" s="44"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="44"/>
+      <c r="L168" s="37">
         <v>2</v>
       </c>
-      <c r="M168" s="38"/>
-      <c r="N168" s="39" t="s">
+      <c r="M168" s="37"/>
+      <c r="N168" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O168" s="39"/>
-      <c r="P168" s="39"/>
-      <c r="Q168" s="39"/>
-      <c r="R168" s="39"/>
-      <c r="S168" s="39"/>
-      <c r="T168" s="39"/>
-      <c r="U168" s="39" t="s">
+      <c r="O168" s="38"/>
+      <c r="P168" s="38"/>
+      <c r="Q168" s="38"/>
+      <c r="R168" s="38"/>
+      <c r="S168" s="38"/>
+      <c r="T168" s="38"/>
+      <c r="U168" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V168" s="39"/>
-      <c r="W168" s="39"/>
-      <c r="X168" s="39"/>
-      <c r="Y168" s="39"/>
-      <c r="Z168" s="39" t="s">
+      <c r="V168" s="38"/>
+      <c r="W168" s="38"/>
+      <c r="X168" s="38"/>
+      <c r="Y168" s="38"/>
+      <c r="Z168" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AA168" s="39"/>
-      <c r="AB168" s="39"/>
-      <c r="AC168" s="39"/>
-      <c r="AD168" s="39"/>
-      <c r="AE168" s="39"/>
-      <c r="AF168" s="39"/>
-      <c r="AG168" s="39"/>
-      <c r="AH168" s="39"/>
-      <c r="AI168" s="39"/>
-      <c r="AJ168" s="39"/>
-      <c r="AK168" s="39"/>
-      <c r="AL168" s="39"/>
-      <c r="AM168" s="39"/>
-      <c r="AN168" s="39"/>
-      <c r="AO168" s="39"/>
-      <c r="AP168" s="39"/>
-      <c r="AQ168" s="39"/>
-      <c r="AR168" s="39"/>
-      <c r="AS168" s="39"/>
-      <c r="AT168" s="39"/>
-      <c r="AU168" s="39"/>
-      <c r="AV168" s="39"/>
-      <c r="AW168" s="40"/>
+      <c r="AA168" s="38"/>
+      <c r="AB168" s="38"/>
+      <c r="AC168" s="38"/>
+      <c r="AD168" s="38"/>
+      <c r="AE168" s="38"/>
+      <c r="AF168" s="38"/>
+      <c r="AG168" s="38"/>
+      <c r="AH168" s="38"/>
+      <c r="AI168" s="38"/>
+      <c r="AJ168" s="38"/>
+      <c r="AK168" s="38"/>
+      <c r="AL168" s="38"/>
+      <c r="AM168" s="38"/>
+      <c r="AN168" s="38"/>
+      <c r="AO168" s="38"/>
+      <c r="AP168" s="38"/>
+      <c r="AQ168" s="38"/>
+      <c r="AR168" s="38"/>
+      <c r="AS168" s="38"/>
+      <c r="AT168" s="38"/>
+      <c r="AU168" s="38"/>
+      <c r="AV168" s="38"/>
+      <c r="AW168" s="39"/>
     </row>
     <row r="169" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E169" s="47" t="s">
+      <c r="E169" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="48"/>
-      <c r="I169" s="48"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="48"/>
-      <c r="L169" s="43" t="s">
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
+      <c r="J169" s="44"/>
+      <c r="K169" s="44"/>
+      <c r="L169" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M169" s="44"/>
-      <c r="N169" s="45" t="s">
+      <c r="M169" s="34"/>
+      <c r="N169" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O169" s="45"/>
-      <c r="P169" s="45"/>
-      <c r="Q169" s="45"/>
-      <c r="R169" s="45"/>
-      <c r="S169" s="45"/>
-      <c r="T169" s="45"/>
-      <c r="U169" s="45" t="s">
+      <c r="O169" s="35"/>
+      <c r="P169" s="35"/>
+      <c r="Q169" s="35"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="35"/>
+      <c r="T169" s="35"/>
+      <c r="U169" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V169" s="45"/>
-      <c r="W169" s="45"/>
-      <c r="X169" s="45"/>
-      <c r="Y169" s="45"/>
-      <c r="Z169" s="45" t="s">
+      <c r="V169" s="35"/>
+      <c r="W169" s="35"/>
+      <c r="X169" s="35"/>
+      <c r="Y169" s="35"/>
+      <c r="Z169" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA169" s="45"/>
-      <c r="AB169" s="45"/>
-      <c r="AC169" s="45"/>
-      <c r="AD169" s="45"/>
-      <c r="AE169" s="45"/>
-      <c r="AF169" s="45"/>
-      <c r="AG169" s="45"/>
-      <c r="AH169" s="45"/>
-      <c r="AI169" s="45"/>
-      <c r="AJ169" s="45"/>
-      <c r="AK169" s="45"/>
-      <c r="AL169" s="45"/>
-      <c r="AM169" s="45"/>
-      <c r="AN169" s="45"/>
-      <c r="AO169" s="45"/>
-      <c r="AP169" s="45"/>
-      <c r="AQ169" s="45"/>
-      <c r="AR169" s="45"/>
-      <c r="AS169" s="45"/>
-      <c r="AT169" s="45"/>
-      <c r="AU169" s="45"/>
-      <c r="AV169" s="45"/>
-      <c r="AW169" s="46"/>
+      <c r="AA169" s="35"/>
+      <c r="AB169" s="35"/>
+      <c r="AC169" s="35"/>
+      <c r="AD169" s="35"/>
+      <c r="AE169" s="35"/>
+      <c r="AF169" s="35"/>
+      <c r="AG169" s="35"/>
+      <c r="AH169" s="35"/>
+      <c r="AI169" s="35"/>
+      <c r="AJ169" s="35"/>
+      <c r="AK169" s="35"/>
+      <c r="AL169" s="35"/>
+      <c r="AM169" s="35"/>
+      <c r="AN169" s="35"/>
+      <c r="AO169" s="35"/>
+      <c r="AP169" s="35"/>
+      <c r="AQ169" s="35"/>
+      <c r="AR169" s="35"/>
+      <c r="AS169" s="35"/>
+      <c r="AT169" s="35"/>
+      <c r="AU169" s="35"/>
+      <c r="AV169" s="35"/>
+      <c r="AW169" s="36"/>
     </row>
     <row r="170" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E170" s="47"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="48"/>
-      <c r="L170" s="38">
+      <c r="E170" s="43"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="44"/>
+      <c r="I170" s="44"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="44"/>
+      <c r="L170" s="37">
         <v>1</v>
       </c>
-      <c r="M170" s="38"/>
-      <c r="N170" s="39" t="s">
+      <c r="M170" s="37"/>
+      <c r="N170" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O170" s="39"/>
-      <c r="P170" s="39"/>
-      <c r="Q170" s="39"/>
-      <c r="R170" s="39"/>
-      <c r="S170" s="39"/>
-      <c r="T170" s="39"/>
-      <c r="U170" s="39" t="s">
+      <c r="O170" s="38"/>
+      <c r="P170" s="38"/>
+      <c r="Q170" s="38"/>
+      <c r="R170" s="38"/>
+      <c r="S170" s="38"/>
+      <c r="T170" s="38"/>
+      <c r="U170" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="V170" s="39"/>
-      <c r="W170" s="39"/>
-      <c r="X170" s="39"/>
-      <c r="Y170" s="39"/>
-      <c r="Z170" s="59" t="s">
+      <c r="V170" s="38"/>
+      <c r="W170" s="38"/>
+      <c r="X170" s="38"/>
+      <c r="Y170" s="38"/>
+      <c r="Z170" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AA170" s="59"/>
-      <c r="AB170" s="59"/>
-      <c r="AC170" s="59"/>
-      <c r="AD170" s="59"/>
-      <c r="AE170" s="59"/>
-      <c r="AF170" s="59"/>
-      <c r="AG170" s="59"/>
-      <c r="AH170" s="59"/>
-      <c r="AI170" s="59"/>
-      <c r="AJ170" s="59"/>
-      <c r="AK170" s="59"/>
-      <c r="AL170" s="59"/>
-      <c r="AM170" s="59"/>
-      <c r="AN170" s="59"/>
-      <c r="AO170" s="59"/>
-      <c r="AP170" s="59"/>
-      <c r="AQ170" s="59"/>
-      <c r="AR170" s="59"/>
-      <c r="AS170" s="59"/>
-      <c r="AT170" s="59"/>
-      <c r="AU170" s="59"/>
-      <c r="AV170" s="59"/>
-      <c r="AW170" s="60"/>
+      <c r="AA170" s="45"/>
+      <c r="AB170" s="45"/>
+      <c r="AC170" s="45"/>
+      <c r="AD170" s="45"/>
+      <c r="AE170" s="45"/>
+      <c r="AF170" s="45"/>
+      <c r="AG170" s="45"/>
+      <c r="AH170" s="45"/>
+      <c r="AI170" s="45"/>
+      <c r="AJ170" s="45"/>
+      <c r="AK170" s="45"/>
+      <c r="AL170" s="45"/>
+      <c r="AM170" s="45"/>
+      <c r="AN170" s="45"/>
+      <c r="AO170" s="45"/>
+      <c r="AP170" s="45"/>
+      <c r="AQ170" s="45"/>
+      <c r="AR170" s="45"/>
+      <c r="AS170" s="45"/>
+      <c r="AT170" s="45"/>
+      <c r="AU170" s="45"/>
+      <c r="AV170" s="45"/>
+      <c r="AW170" s="46"/>
     </row>
     <row r="171" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E171" s="29" t="s">
+      <c r="E171" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="30"/>
-      <c r="J171" s="30"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="43" t="s">
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M171" s="44"/>
-      <c r="N171" s="45" t="s">
+      <c r="M171" s="34"/>
+      <c r="N171" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O171" s="45"/>
-      <c r="P171" s="45"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="45"/>
-      <c r="S171" s="45"/>
-      <c r="T171" s="45"/>
-      <c r="U171" s="45" t="s">
+      <c r="O171" s="35"/>
+      <c r="P171" s="35"/>
+      <c r="Q171" s="35"/>
+      <c r="R171" s="35"/>
+      <c r="S171" s="35"/>
+      <c r="T171" s="35"/>
+      <c r="U171" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V171" s="45"/>
-      <c r="W171" s="45"/>
-      <c r="X171" s="45"/>
-      <c r="Y171" s="45"/>
-      <c r="Z171" s="45" t="s">
+      <c r="V171" s="35"/>
+      <c r="W171" s="35"/>
+      <c r="X171" s="35"/>
+      <c r="Y171" s="35"/>
+      <c r="Z171" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA171" s="45"/>
-      <c r="AB171" s="45"/>
-      <c r="AC171" s="45"/>
-      <c r="AD171" s="45"/>
-      <c r="AE171" s="45"/>
-      <c r="AF171" s="45"/>
-      <c r="AG171" s="45"/>
-      <c r="AH171" s="45"/>
-      <c r="AI171" s="45"/>
-      <c r="AJ171" s="45"/>
-      <c r="AK171" s="45"/>
-      <c r="AL171" s="45"/>
-      <c r="AM171" s="45"/>
-      <c r="AN171" s="45"/>
-      <c r="AO171" s="45"/>
-      <c r="AP171" s="45"/>
-      <c r="AQ171" s="45"/>
-      <c r="AR171" s="45"/>
-      <c r="AS171" s="45"/>
-      <c r="AT171" s="45"/>
-      <c r="AU171" s="45"/>
-      <c r="AV171" s="45"/>
-      <c r="AW171" s="46"/>
+      <c r="AA171" s="35"/>
+      <c r="AB171" s="35"/>
+      <c r="AC171" s="35"/>
+      <c r="AD171" s="35"/>
+      <c r="AE171" s="35"/>
+      <c r="AF171" s="35"/>
+      <c r="AG171" s="35"/>
+      <c r="AH171" s="35"/>
+      <c r="AI171" s="35"/>
+      <c r="AJ171" s="35"/>
+      <c r="AK171" s="35"/>
+      <c r="AL171" s="35"/>
+      <c r="AM171" s="35"/>
+      <c r="AN171" s="35"/>
+      <c r="AO171" s="35"/>
+      <c r="AP171" s="35"/>
+      <c r="AQ171" s="35"/>
+      <c r="AR171" s="35"/>
+      <c r="AS171" s="35"/>
+      <c r="AT171" s="35"/>
+      <c r="AU171" s="35"/>
+      <c r="AV171" s="35"/>
+      <c r="AW171" s="36"/>
     </row>
     <row r="172" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E172" s="32"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="33"/>
-      <c r="K172" s="34"/>
-      <c r="L172" s="38">
+      <c r="E172" s="27"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="37">
         <v>1</v>
       </c>
-      <c r="M172" s="38"/>
-      <c r="N172" s="39" t="s">
+      <c r="M172" s="37"/>
+      <c r="N172" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O172" s="39"/>
-      <c r="P172" s="39"/>
-      <c r="Q172" s="39"/>
-      <c r="R172" s="39"/>
-      <c r="S172" s="39"/>
-      <c r="T172" s="39"/>
-      <c r="U172" s="39" t="s">
+      <c r="O172" s="38"/>
+      <c r="P172" s="38"/>
+      <c r="Q172" s="38"/>
+      <c r="R172" s="38"/>
+      <c r="S172" s="38"/>
+      <c r="T172" s="38"/>
+      <c r="U172" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V172" s="39"/>
-      <c r="W172" s="39"/>
-      <c r="X172" s="39"/>
-      <c r="Y172" s="39"/>
-      <c r="Z172" s="39" t="s">
+      <c r="V172" s="38"/>
+      <c r="W172" s="38"/>
+      <c r="X172" s="38"/>
+      <c r="Y172" s="38"/>
+      <c r="Z172" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA172" s="39"/>
-      <c r="AB172" s="39"/>
-      <c r="AC172" s="39"/>
-      <c r="AD172" s="39"/>
-      <c r="AE172" s="39"/>
-      <c r="AF172" s="39"/>
-      <c r="AG172" s="39"/>
-      <c r="AH172" s="39"/>
-      <c r="AI172" s="39"/>
-      <c r="AJ172" s="39"/>
-      <c r="AK172" s="39"/>
-      <c r="AL172" s="39"/>
-      <c r="AM172" s="39"/>
-      <c r="AN172" s="39"/>
-      <c r="AO172" s="39"/>
-      <c r="AP172" s="39"/>
-      <c r="AQ172" s="39"/>
-      <c r="AR172" s="39"/>
-      <c r="AS172" s="39"/>
-      <c r="AT172" s="39"/>
-      <c r="AU172" s="39"/>
-      <c r="AV172" s="39"/>
-      <c r="AW172" s="40"/>
+      <c r="AA172" s="38"/>
+      <c r="AB172" s="38"/>
+      <c r="AC172" s="38"/>
+      <c r="AD172" s="38"/>
+      <c r="AE172" s="38"/>
+      <c r="AF172" s="38"/>
+      <c r="AG172" s="38"/>
+      <c r="AH172" s="38"/>
+      <c r="AI172" s="38"/>
+      <c r="AJ172" s="38"/>
+      <c r="AK172" s="38"/>
+      <c r="AL172" s="38"/>
+      <c r="AM172" s="38"/>
+      <c r="AN172" s="38"/>
+      <c r="AO172" s="38"/>
+      <c r="AP172" s="38"/>
+      <c r="AQ172" s="38"/>
+      <c r="AR172" s="38"/>
+      <c r="AS172" s="38"/>
+      <c r="AT172" s="38"/>
+      <c r="AU172" s="38"/>
+      <c r="AV172" s="38"/>
+      <c r="AW172" s="39"/>
     </row>
     <row r="173" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E173" s="35"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="37"/>
-      <c r="L173" s="26">
+      <c r="E173" s="30"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="32"/>
+      <c r="L173" s="40">
         <v>2</v>
       </c>
-      <c r="M173" s="26"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
-      <c r="R173" s="27"/>
-      <c r="S173" s="27"/>
-      <c r="T173" s="27"/>
-      <c r="U173" s="27"/>
-      <c r="V173" s="27"/>
-      <c r="W173" s="27"/>
-      <c r="X173" s="27"/>
-      <c r="Y173" s="27"/>
-      <c r="Z173" s="27"/>
-      <c r="AA173" s="27"/>
-      <c r="AB173" s="27"/>
-      <c r="AC173" s="27"/>
-      <c r="AD173" s="27"/>
-      <c r="AE173" s="27"/>
-      <c r="AF173" s="27"/>
-      <c r="AG173" s="27"/>
-      <c r="AH173" s="27"/>
-      <c r="AI173" s="27"/>
-      <c r="AJ173" s="27"/>
-      <c r="AK173" s="27"/>
-      <c r="AL173" s="27"/>
-      <c r="AM173" s="27"/>
-      <c r="AN173" s="27"/>
-      <c r="AO173" s="27"/>
-      <c r="AP173" s="27"/>
-      <c r="AQ173" s="27"/>
-      <c r="AR173" s="27"/>
-      <c r="AS173" s="27"/>
-      <c r="AT173" s="27"/>
-      <c r="AU173" s="27"/>
-      <c r="AV173" s="27"/>
-      <c r="AW173" s="28"/>
+      <c r="M173" s="40"/>
+      <c r="N173" s="41"/>
+      <c r="O173" s="41"/>
+      <c r="P173" s="41"/>
+      <c r="Q173" s="41"/>
+      <c r="R173" s="41"/>
+      <c r="S173" s="41"/>
+      <c r="T173" s="41"/>
+      <c r="U173" s="41"/>
+      <c r="V173" s="41"/>
+      <c r="W173" s="41"/>
+      <c r="X173" s="41"/>
+      <c r="Y173" s="41"/>
+      <c r="Z173" s="41"/>
+      <c r="AA173" s="41"/>
+      <c r="AB173" s="41"/>
+      <c r="AC173" s="41"/>
+      <c r="AD173" s="41"/>
+      <c r="AE173" s="41"/>
+      <c r="AF173" s="41"/>
+      <c r="AG173" s="41"/>
+      <c r="AH173" s="41"/>
+      <c r="AI173" s="41"/>
+      <c r="AJ173" s="41"/>
+      <c r="AK173" s="41"/>
+      <c r="AL173" s="41"/>
+      <c r="AM173" s="41"/>
+      <c r="AN173" s="41"/>
+      <c r="AO173" s="41"/>
+      <c r="AP173" s="41"/>
+      <c r="AQ173" s="41"/>
+      <c r="AR173" s="41"/>
+      <c r="AS173" s="41"/>
+      <c r="AT173" s="41"/>
+      <c r="AU173" s="41"/>
+      <c r="AV173" s="41"/>
+      <c r="AW173" s="42"/>
     </row>
     <row r="174" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N174" s="6"/>
@@ -12654,197 +12648,55 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="E171:K173"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="N171:T171"/>
-    <mergeCell ref="U171:Y171"/>
-    <mergeCell ref="Z171:AW171"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="U172:Y172"/>
-    <mergeCell ref="Z172:AW172"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:T173"/>
-    <mergeCell ref="U173:Y173"/>
-    <mergeCell ref="Z173:AW173"/>
-    <mergeCell ref="E169:K170"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="N169:T169"/>
-    <mergeCell ref="U169:Y169"/>
-    <mergeCell ref="Z169:AW169"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="N170:T170"/>
-    <mergeCell ref="U170:Y170"/>
-    <mergeCell ref="Z170:AW170"/>
-    <mergeCell ref="E166:K168"/>
-    <mergeCell ref="L166:M166"/>
-    <mergeCell ref="N166:T166"/>
-    <mergeCell ref="U166:Y166"/>
-    <mergeCell ref="Z166:AW166"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="N167:T167"/>
-    <mergeCell ref="U167:Y167"/>
-    <mergeCell ref="Z167:AW167"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="N168:T168"/>
-    <mergeCell ref="U168:Y168"/>
-    <mergeCell ref="Z168:AW168"/>
-    <mergeCell ref="Z161:AW161"/>
-    <mergeCell ref="E164:K164"/>
-    <mergeCell ref="L164:AW164"/>
-    <mergeCell ref="E165:K165"/>
-    <mergeCell ref="L165:AW165"/>
-    <mergeCell ref="E157:K157"/>
-    <mergeCell ref="L157:AW157"/>
-    <mergeCell ref="E158:K158"/>
-    <mergeCell ref="L158:AW158"/>
-    <mergeCell ref="E159:K161"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="N159:T159"/>
-    <mergeCell ref="U159:Y159"/>
-    <mergeCell ref="Z159:AW159"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="N160:T160"/>
-    <mergeCell ref="U160:Y160"/>
-    <mergeCell ref="Z160:AW160"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="N161:T161"/>
-    <mergeCell ref="U161:Y161"/>
-    <mergeCell ref="E106:K108"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:T106"/>
-    <mergeCell ref="U106:Y106"/>
-    <mergeCell ref="Z106:AW106"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:T107"/>
-    <mergeCell ref="U107:Y107"/>
-    <mergeCell ref="Z107:AW107"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:T108"/>
-    <mergeCell ref="U108:Y108"/>
-    <mergeCell ref="Z108:AW108"/>
-    <mergeCell ref="E104:K105"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="N104:T104"/>
-    <mergeCell ref="U104:Y104"/>
-    <mergeCell ref="Z104:AW104"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:T105"/>
-    <mergeCell ref="U105:Y105"/>
-    <mergeCell ref="Z105:AW105"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:AW99"/>
-    <mergeCell ref="E100:K100"/>
-    <mergeCell ref="L100:AW100"/>
-    <mergeCell ref="E101:K103"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:T101"/>
-    <mergeCell ref="U101:Y101"/>
-    <mergeCell ref="Z101:AW101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:T102"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="Z102:AW102"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:T103"/>
-    <mergeCell ref="U103:Y103"/>
-    <mergeCell ref="Z103:AW103"/>
-    <mergeCell ref="E94:K96"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:T94"/>
-    <mergeCell ref="U94:Y94"/>
-    <mergeCell ref="Z94:AW94"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:T95"/>
-    <mergeCell ref="U95:Y95"/>
-    <mergeCell ref="Z95:AW95"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:T96"/>
-    <mergeCell ref="U96:Y96"/>
-    <mergeCell ref="Z96:AW96"/>
-    <mergeCell ref="E92:K93"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:T92"/>
-    <mergeCell ref="U92:Y92"/>
-    <mergeCell ref="Z92:AW92"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:T93"/>
-    <mergeCell ref="U93:Y93"/>
-    <mergeCell ref="Z93:AW93"/>
-    <mergeCell ref="E87:K87"/>
-    <mergeCell ref="L87:AW87"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="L88:AW88"/>
-    <mergeCell ref="E89:K91"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:T89"/>
-    <mergeCell ref="U89:Y89"/>
-    <mergeCell ref="Z89:AW89"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:T90"/>
-    <mergeCell ref="U90:Y90"/>
-    <mergeCell ref="Z90:AW90"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:T91"/>
-    <mergeCell ref="U91:Y91"/>
-    <mergeCell ref="Z91:AW91"/>
-    <mergeCell ref="E82:K84"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:T82"/>
-    <mergeCell ref="U82:Y82"/>
-    <mergeCell ref="Z82:AW82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="U83:Y83"/>
-    <mergeCell ref="Z83:AW83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:T84"/>
-    <mergeCell ref="U84:Y84"/>
-    <mergeCell ref="Z84:AW84"/>
-    <mergeCell ref="E80:K81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:T80"/>
-    <mergeCell ref="U80:Y80"/>
-    <mergeCell ref="Z80:AW80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:T81"/>
-    <mergeCell ref="U81:Y81"/>
-    <mergeCell ref="Z81:AW81"/>
-    <mergeCell ref="E77:K79"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="U77:Y77"/>
-    <mergeCell ref="Z77:AW77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="U78:Y78"/>
-    <mergeCell ref="Z78:AW78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="Z79:AW79"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE72:AW72"/>
-    <mergeCell ref="E75:K75"/>
-    <mergeCell ref="L75:AW75"/>
-    <mergeCell ref="E76:K76"/>
-    <mergeCell ref="L76:AW76"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="L69:AW69"/>
-    <mergeCell ref="E70:K72"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AW70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="U71:Y71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AW71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="Z33:AW33"/>
+    <mergeCell ref="E31:K33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="Z32:AW32"/>
+    <mergeCell ref="L36:AW36"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AW31"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AW29"/>
+    <mergeCell ref="E29:K30"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Z27:AW27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AW28"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L25:AW25"/>
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AW26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:AW18"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AW19"/>
+    <mergeCell ref="AE20:AW20"/>
+    <mergeCell ref="AE21:AW21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:T20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
     <mergeCell ref="E37:K39"/>
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="L24:AW24"/>
@@ -12869,55 +12721,197 @@
     <mergeCell ref="E26:K28"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:AW18"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AW19"/>
-    <mergeCell ref="AE20:AW20"/>
-    <mergeCell ref="AE21:AW21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AW29"/>
-    <mergeCell ref="E29:K30"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z27:AW27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AW28"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L25:AW25"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AW26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="Z33:AW33"/>
-    <mergeCell ref="E31:K33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="Z32:AW32"/>
-    <mergeCell ref="L36:AW36"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AW31"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE72:AW72"/>
+    <mergeCell ref="E75:K75"/>
+    <mergeCell ref="L75:AW75"/>
+    <mergeCell ref="E76:K76"/>
+    <mergeCell ref="L76:AW76"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="L69:AW69"/>
+    <mergeCell ref="E70:K72"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AW70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="U71:Y71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AW71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="E77:K79"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="U77:Y77"/>
+    <mergeCell ref="Z77:AW77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="U78:Y78"/>
+    <mergeCell ref="Z78:AW78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="Z79:AW79"/>
+    <mergeCell ref="E80:K81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:T80"/>
+    <mergeCell ref="U80:Y80"/>
+    <mergeCell ref="Z80:AW80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:T81"/>
+    <mergeCell ref="U81:Y81"/>
+    <mergeCell ref="Z81:AW81"/>
+    <mergeCell ref="E82:K84"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:T82"/>
+    <mergeCell ref="U82:Y82"/>
+    <mergeCell ref="Z82:AW82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:T83"/>
+    <mergeCell ref="U83:Y83"/>
+    <mergeCell ref="Z83:AW83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:T84"/>
+    <mergeCell ref="U84:Y84"/>
+    <mergeCell ref="Z84:AW84"/>
+    <mergeCell ref="E87:K87"/>
+    <mergeCell ref="L87:AW87"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="L88:AW88"/>
+    <mergeCell ref="E89:K91"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:T89"/>
+    <mergeCell ref="U89:Y89"/>
+    <mergeCell ref="Z89:AW89"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:T90"/>
+    <mergeCell ref="U90:Y90"/>
+    <mergeCell ref="Z90:AW90"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:T91"/>
+    <mergeCell ref="U91:Y91"/>
+    <mergeCell ref="Z91:AW91"/>
+    <mergeCell ref="E92:K93"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:T92"/>
+    <mergeCell ref="U92:Y92"/>
+    <mergeCell ref="Z92:AW92"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:T93"/>
+    <mergeCell ref="U93:Y93"/>
+    <mergeCell ref="Z93:AW93"/>
+    <mergeCell ref="E94:K96"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:T94"/>
+    <mergeCell ref="U94:Y94"/>
+    <mergeCell ref="Z94:AW94"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:T95"/>
+    <mergeCell ref="U95:Y95"/>
+    <mergeCell ref="Z95:AW95"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:T96"/>
+    <mergeCell ref="U96:Y96"/>
+    <mergeCell ref="Z96:AW96"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:AW99"/>
+    <mergeCell ref="E100:K100"/>
+    <mergeCell ref="L100:AW100"/>
+    <mergeCell ref="E101:K103"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:T101"/>
+    <mergeCell ref="U101:Y101"/>
+    <mergeCell ref="Z101:AW101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:T102"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="Z102:AW102"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:T103"/>
+    <mergeCell ref="U103:Y103"/>
+    <mergeCell ref="Z103:AW103"/>
+    <mergeCell ref="E104:K105"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:T104"/>
+    <mergeCell ref="U104:Y104"/>
+    <mergeCell ref="Z104:AW104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:T105"/>
+    <mergeCell ref="U105:Y105"/>
+    <mergeCell ref="Z105:AW105"/>
+    <mergeCell ref="E106:K108"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:T106"/>
+    <mergeCell ref="U106:Y106"/>
+    <mergeCell ref="Z106:AW106"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:T107"/>
+    <mergeCell ref="U107:Y107"/>
+    <mergeCell ref="Z107:AW107"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:T108"/>
+    <mergeCell ref="U108:Y108"/>
+    <mergeCell ref="Z108:AW108"/>
+    <mergeCell ref="Z161:AW161"/>
+    <mergeCell ref="E164:K164"/>
+    <mergeCell ref="L164:AW164"/>
+    <mergeCell ref="E165:K165"/>
+    <mergeCell ref="L165:AW165"/>
+    <mergeCell ref="E157:K157"/>
+    <mergeCell ref="L157:AW157"/>
+    <mergeCell ref="E158:K158"/>
+    <mergeCell ref="L158:AW158"/>
+    <mergeCell ref="E159:K161"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:T159"/>
+    <mergeCell ref="U159:Y159"/>
+    <mergeCell ref="Z159:AW159"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:T160"/>
+    <mergeCell ref="U160:Y160"/>
+    <mergeCell ref="Z160:AW160"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:T161"/>
+    <mergeCell ref="U161:Y161"/>
+    <mergeCell ref="E166:K168"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="N166:T166"/>
+    <mergeCell ref="U166:Y166"/>
+    <mergeCell ref="Z166:AW166"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="N167:T167"/>
+    <mergeCell ref="U167:Y167"/>
+    <mergeCell ref="Z167:AW167"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="N168:T168"/>
+    <mergeCell ref="U168:Y168"/>
+    <mergeCell ref="Z168:AW168"/>
+    <mergeCell ref="E169:K170"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="N169:T169"/>
+    <mergeCell ref="U169:Y169"/>
+    <mergeCell ref="Z169:AW169"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="N170:T170"/>
+    <mergeCell ref="U170:Y170"/>
+    <mergeCell ref="Z170:AW170"/>
+    <mergeCell ref="E171:K173"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="N171:T171"/>
+    <mergeCell ref="U171:Y171"/>
+    <mergeCell ref="Z171:AW171"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="U172:Y172"/>
+    <mergeCell ref="Z172:AW172"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:T173"/>
+    <mergeCell ref="U173:Y173"/>
+    <mergeCell ref="Z173:AW173"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Brain/Intra-mart/docker/README.xlsx
+++ b/Brain/Intra-mart/docker/README.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="163">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -1056,6 +1056,10 @@
   </si>
   <si>
     <t>replace localhost -&gt; host.docker.internal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd resin</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1590,14 +1594,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1608,19 +1612,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,6 +1669,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,80 +1696,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1748,6 +1713,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1790,13 +1794,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>341314</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>227708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1834,13 +1838,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>45390</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>84494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1878,13 +1882,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>399314</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>123423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1922,13 +1926,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>331790</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>18155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1966,13 +1970,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>331790</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>18155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2010,13 +2014,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>227886</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>151994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2054,13 +2058,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>341314</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>227708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2098,13 +2102,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>341314</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>227708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2142,13 +2146,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>94552</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>46994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2186,13 +2190,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>465124</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>237232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2230,13 +2234,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131533</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>27678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2318,13 +2322,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>445390</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>17768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2356,13 +2360,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>445390</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>17768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2394,13 +2398,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>542086</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>46964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6466,10 +6470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD310"/>
+  <dimension ref="A1:AD311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ160" sqref="AQ160"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6501,81 +6505,86 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="30:30" x14ac:dyDescent="0.4">
-      <c r="AD118" t="s">
+    <row r="119" spans="30:30" x14ac:dyDescent="0.4">
+      <c r="AD119" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B182" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B183" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B216" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B217" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B218" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B263" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B264" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B265" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B310" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B311" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -6606,33 +6615,33 @@
       </c>
     </row>
     <row r="3" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23"/>
     </row>
     <row r="4" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E4" s="16" t="s">
@@ -6693,33 +6702,33 @@
       <c r="AC5" s="18"/>
     </row>
     <row r="6" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="21"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E7" s="16" t="s">
@@ -6867,62 +6876,62 @@
       <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="15"/>
     </row>
     <row r="13" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="21"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="15"/>
     </row>
     <row r="14" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E14" s="16" t="s">
@@ -7133,60 +7142,60 @@
       </c>
     </row>
     <row r="450" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E450" s="22" t="s">
+      <c r="E450" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F450" s="23"/>
-      <c r="G450" s="23"/>
-      <c r="H450" s="23"/>
-      <c r="I450" s="23"/>
-      <c r="J450" s="23"/>
-      <c r="K450" s="23"/>
-      <c r="L450" s="23"/>
-      <c r="M450" s="23"/>
-      <c r="N450" s="23"/>
-      <c r="O450" s="23"/>
-      <c r="P450" s="23"/>
-      <c r="Q450" s="23"/>
-      <c r="R450" s="23"/>
-      <c r="S450" s="23"/>
-      <c r="T450" s="23"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="20"/>
+      <c r="H450" s="20"/>
+      <c r="I450" s="20"/>
+      <c r="J450" s="20"/>
+      <c r="K450" s="20"/>
+      <c r="L450" s="20"/>
+      <c r="M450" s="20"/>
+      <c r="N450" s="20"/>
+      <c r="O450" s="20"/>
+      <c r="P450" s="20"/>
+      <c r="Q450" s="20"/>
+      <c r="R450" s="20"/>
+      <c r="S450" s="20"/>
+      <c r="T450" s="20"/>
     </row>
     <row r="451" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E451" s="23"/>
-      <c r="F451" s="23"/>
-      <c r="G451" s="23"/>
-      <c r="H451" s="23"/>
-      <c r="I451" s="23"/>
-      <c r="J451" s="23"/>
-      <c r="K451" s="23"/>
-      <c r="L451" s="23"/>
-      <c r="M451" s="23"/>
-      <c r="N451" s="23"/>
-      <c r="O451" s="23"/>
-      <c r="P451" s="23"/>
-      <c r="Q451" s="23"/>
-      <c r="R451" s="23"/>
-      <c r="S451" s="23"/>
-      <c r="T451" s="23"/>
+      <c r="E451" s="20"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="20"/>
+      <c r="H451" s="20"/>
+      <c r="I451" s="20"/>
+      <c r="J451" s="20"/>
+      <c r="K451" s="20"/>
+      <c r="L451" s="20"/>
+      <c r="M451" s="20"/>
+      <c r="N451" s="20"/>
+      <c r="O451" s="20"/>
+      <c r="P451" s="20"/>
+      <c r="Q451" s="20"/>
+      <c r="R451" s="20"/>
+      <c r="S451" s="20"/>
+      <c r="T451" s="20"/>
     </row>
     <row r="452" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E452" s="23"/>
-      <c r="F452" s="23"/>
-      <c r="G452" s="23"/>
-      <c r="H452" s="23"/>
-      <c r="I452" s="23"/>
-      <c r="J452" s="23"/>
-      <c r="K452" s="23"/>
-      <c r="L452" s="23"/>
-      <c r="M452" s="23"/>
-      <c r="N452" s="23"/>
-      <c r="O452" s="23"/>
-      <c r="P452" s="23"/>
-      <c r="Q452" s="23"/>
-      <c r="R452" s="23"/>
-      <c r="S452" s="23"/>
-      <c r="T452" s="23"/>
+      <c r="E452" s="20"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="20"/>
+      <c r="H452" s="20"/>
+      <c r="I452" s="20"/>
+      <c r="J452" s="20"/>
+      <c r="K452" s="20"/>
+      <c r="L452" s="20"/>
+      <c r="M452" s="20"/>
+      <c r="N452" s="20"/>
+      <c r="O452" s="20"/>
+      <c r="P452" s="20"/>
+      <c r="Q452" s="20"/>
+      <c r="R452" s="20"/>
+      <c r="S452" s="20"/>
+      <c r="T452" s="20"/>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E466" s="9" t="s">
@@ -7260,6 +7269,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E3:AC3"/>
+    <mergeCell ref="E4:AC4"/>
+    <mergeCell ref="E5:AC5"/>
+    <mergeCell ref="E6:AC6"/>
+    <mergeCell ref="E7:AC7"/>
     <mergeCell ref="E13:AC13"/>
     <mergeCell ref="E14:AC14"/>
     <mergeCell ref="E15:AC15"/>
@@ -7269,11 +7283,6 @@
     <mergeCell ref="E10:AC10"/>
     <mergeCell ref="E11:AC11"/>
     <mergeCell ref="E12:AC12"/>
-    <mergeCell ref="E3:AC3"/>
-    <mergeCell ref="E4:AC4"/>
-    <mergeCell ref="E5:AC5"/>
-    <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="E7:AC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7370,136 +7379,136 @@
       </c>
     </row>
     <row r="18" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="50"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="42"/>
     </row>
     <row r="19" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="33" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35" t="s">
+      <c r="M19" s="44"/>
+      <c r="N19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="33" t="s">
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="33" t="s">
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="63" t="s">
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="65"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="52"/>
     </row>
     <row r="20" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="37">
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="38">
         <v>1</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38" t="s">
+      <c r="M20" s="38"/>
+      <c r="N20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
       <c r="U20" s="16" t="s">
         <v>30</v>
       </c>
@@ -7534,64 +7543,64 @@
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
       <c r="AV20" s="17"/>
-      <c r="AW20" s="54"/>
+      <c r="AW20" s="53"/>
     </row>
     <row r="21" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="40">
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="26">
         <v>2</v>
       </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41" t="s">
+      <c r="M21" s="26"/>
+      <c r="N21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="58" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="58" t="s">
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="58" t="s">
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="61"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="56"/>
     </row>
     <row r="23" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
@@ -7599,464 +7608,464 @@
       </c>
     </row>
     <row r="24" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="50"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="42"/>
     </row>
     <row r="25" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="38" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="38"/>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="40"/>
     </row>
     <row r="26" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="33" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35" t="s">
+      <c r="M26" s="44"/>
+      <c r="N26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35" t="s">
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35" t="s">
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="36"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="46"/>
     </row>
     <row r="27" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="37">
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="38">
         <v>1</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38" t="s">
+      <c r="M27" s="38"/>
+      <c r="N27" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38" t="s">
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="40"/>
     </row>
     <row r="28" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="37">
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="38">
         <v>2</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38" t="s">
+      <c r="M28" s="38"/>
+      <c r="N28" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38" t="s">
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38" t="s">
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="40"/>
     </row>
     <row r="29" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="33" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35" t="s">
+      <c r="M29" s="44"/>
+      <c r="N29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35" t="s">
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35" t="s">
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="36"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="46"/>
     </row>
     <row r="30" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="37">
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="38">
         <v>1</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="38" t="s">
+      <c r="M30" s="38"/>
+      <c r="N30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38" t="s">
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38" t="s">
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="39"/>
+      <c r="AW30" s="40"/>
     </row>
     <row r="31" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="33" t="s">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35" t="s">
+      <c r="M31" s="44"/>
+      <c r="N31" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35" t="s">
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="35"/>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="36"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="46"/>
     </row>
     <row r="32" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="37">
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="38">
         <v>1</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38" t="s">
+      <c r="M32" s="38"/>
+      <c r="N32" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="4" t="s">
         <v>14</v>
       </c>
@@ -8064,54 +8073,54 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="38" t="s">
+      <c r="Z32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="40"/>
     </row>
     <row r="33" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="40">
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="26">
         <v>2</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41" t="s">
+      <c r="M33" s="26"/>
+      <c r="N33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="5" t="s">
         <v>14</v>
       </c>
@@ -8119,32 +8128,32 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="41" t="s">
+      <c r="Z33" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="42"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27"/>
+      <c r="AW33" s="28"/>
     </row>
     <row r="34" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N34" s="6"/>
@@ -8216,136 +8225,136 @@
       <c r="AW35" s="6"/>
     </row>
     <row r="36" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="49" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="50"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="41"/>
+      <c r="AT36" s="41"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="41"/>
+      <c r="AW36" s="42"/>
     </row>
     <row r="37" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="33" t="s">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35" t="s">
+      <c r="M37" s="44"/>
+      <c r="N37" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="33" t="s">
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="33" t="s">
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="63" t="s">
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="64"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="65"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="52"/>
     </row>
     <row r="38" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="37">
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="38">
         <v>1</v>
       </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="38" t="s">
+      <c r="M38" s="38"/>
+      <c r="N38" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
       <c r="U38" s="16" t="s">
         <v>30</v>
       </c>
@@ -8380,64 +8389,64 @@
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
       <c r="AV38" s="17"/>
-      <c r="AW38" s="54"/>
+      <c r="AW38" s="53"/>
     </row>
     <row r="39" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="40">
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="26">
         <v>2</v>
       </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="41" t="s">
+      <c r="M39" s="26"/>
+      <c r="N39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="58" t="s">
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="58" t="s">
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="58" t="s">
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="59"/>
-      <c r="AO39" s="59"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="59"/>
-      <c r="AR39" s="59"/>
-      <c r="AS39" s="59"/>
-      <c r="AT39" s="59"/>
-      <c r="AU39" s="59"/>
-      <c r="AV39" s="59"/>
-      <c r="AW39" s="61"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="55"/>
+      <c r="AV39" s="55"/>
+      <c r="AW39" s="56"/>
     </row>
     <row r="41" spans="3:49" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
@@ -8775,143 +8784,143 @@
       </c>
     </row>
     <row r="69" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E69" s="47" t="s">
+      <c r="E69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="49" t="s">
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="49"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
-      <c r="AD69" s="49"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="49"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="49"/>
-      <c r="AM69" s="49"/>
-      <c r="AN69" s="49"/>
-      <c r="AO69" s="49"/>
-      <c r="AP69" s="49"/>
-      <c r="AQ69" s="49"/>
-      <c r="AR69" s="49"/>
-      <c r="AS69" s="49"/>
-      <c r="AT69" s="49"/>
-      <c r="AU69" s="49"/>
-      <c r="AV69" s="49"/>
-      <c r="AW69" s="50"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
+      <c r="AB69" s="41"/>
+      <c r="AC69" s="41"/>
+      <c r="AD69" s="41"/>
+      <c r="AE69" s="41"/>
+      <c r="AF69" s="41"/>
+      <c r="AG69" s="41"/>
+      <c r="AH69" s="41"/>
+      <c r="AI69" s="41"/>
+      <c r="AJ69" s="41"/>
+      <c r="AK69" s="41"/>
+      <c r="AL69" s="41"/>
+      <c r="AM69" s="41"/>
+      <c r="AN69" s="41"/>
+      <c r="AO69" s="41"/>
+      <c r="AP69" s="41"/>
+      <c r="AQ69" s="41"/>
+      <c r="AR69" s="41"/>
+      <c r="AS69" s="41"/>
+      <c r="AT69" s="41"/>
+      <c r="AU69" s="41"/>
+      <c r="AV69" s="41"/>
+      <c r="AW69" s="42"/>
     </row>
     <row r="70" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="33" t="s">
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M70" s="34"/>
-      <c r="N70" s="35" t="s">
+      <c r="M70" s="44"/>
+      <c r="N70" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="33" t="s">
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V70" s="62"/>
-      <c r="W70" s="62"/>
-      <c r="X70" s="62"/>
-      <c r="Y70" s="62"/>
-      <c r="Z70" s="33" t="s">
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AA70" s="62"/>
-      <c r="AB70" s="62"/>
-      <c r="AC70" s="62"/>
-      <c r="AD70" s="62"/>
-      <c r="AE70" s="63" t="s">
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF70" s="64"/>
-      <c r="AG70" s="64"/>
-      <c r="AH70" s="64"/>
-      <c r="AI70" s="64"/>
-      <c r="AJ70" s="64"/>
-      <c r="AK70" s="64"/>
-      <c r="AL70" s="64"/>
-      <c r="AM70" s="64"/>
-      <c r="AN70" s="64"/>
-      <c r="AO70" s="64"/>
-      <c r="AP70" s="64"/>
-      <c r="AQ70" s="64"/>
-      <c r="AR70" s="64"/>
-      <c r="AS70" s="64"/>
-      <c r="AT70" s="64"/>
-      <c r="AU70" s="64"/>
-      <c r="AV70" s="64"/>
-      <c r="AW70" s="65"/>
+      <c r="AF70" s="51"/>
+      <c r="AG70" s="51"/>
+      <c r="AH70" s="51"/>
+      <c r="AI70" s="51"/>
+      <c r="AJ70" s="51"/>
+      <c r="AK70" s="51"/>
+      <c r="AL70" s="51"/>
+      <c r="AM70" s="51"/>
+      <c r="AN70" s="51"/>
+      <c r="AO70" s="51"/>
+      <c r="AP70" s="51"/>
+      <c r="AQ70" s="51"/>
+      <c r="AR70" s="51"/>
+      <c r="AS70" s="51"/>
+      <c r="AT70" s="51"/>
+      <c r="AU70" s="51"/>
+      <c r="AV70" s="51"/>
+      <c r="AW70" s="52"/>
     </row>
     <row r="71" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="37">
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="38">
         <v>1</v>
       </c>
-      <c r="M71" s="37"/>
-      <c r="N71" s="38" t="s">
+      <c r="M71" s="38"/>
+      <c r="N71" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="57" t="s">
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="V71" s="57"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="57"/>
-      <c r="Y71" s="57"/>
+      <c r="V71" s="58"/>
+      <c r="W71" s="58"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="58"/>
       <c r="Z71" s="16" t="s">
         <v>49</v>
       </c>
@@ -8939,56 +8948,56 @@
       <c r="AT71" s="17"/>
       <c r="AU71" s="17"/>
       <c r="AV71" s="17"/>
-      <c r="AW71" s="54"/>
+      <c r="AW71" s="53"/>
     </row>
     <row r="72" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="40">
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="26">
         <v>2</v>
       </c>
-      <c r="M72" s="40"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="58"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="60"/>
-      <c r="AE72" s="58"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="59"/>
-      <c r="AQ72" s="59"/>
-      <c r="AR72" s="59"/>
-      <c r="AS72" s="59"/>
-      <c r="AT72" s="59"/>
-      <c r="AU72" s="59"/>
-      <c r="AV72" s="59"/>
-      <c r="AW72" s="61"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="55"/>
+      <c r="X72" s="55"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="55"/>
+      <c r="AB72" s="55"/>
+      <c r="AC72" s="55"/>
+      <c r="AD72" s="57"/>
+      <c r="AE72" s="54"/>
+      <c r="AF72" s="55"/>
+      <c r="AG72" s="55"/>
+      <c r="AH72" s="55"/>
+      <c r="AI72" s="55"/>
+      <c r="AJ72" s="55"/>
+      <c r="AK72" s="55"/>
+      <c r="AL72" s="55"/>
+      <c r="AM72" s="55"/>
+      <c r="AN72" s="55"/>
+      <c r="AO72" s="55"/>
+      <c r="AP72" s="55"/>
+      <c r="AQ72" s="55"/>
+      <c r="AR72" s="55"/>
+      <c r="AS72" s="55"/>
+      <c r="AT72" s="55"/>
+      <c r="AU72" s="55"/>
+      <c r="AV72" s="55"/>
+      <c r="AW72" s="56"/>
     </row>
     <row r="74" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
@@ -8996,540 +9005,540 @@
       </c>
     </row>
     <row r="75" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="49" t="s">
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="49"/>
-      <c r="U75" s="49"/>
-      <c r="V75" s="49"/>
-      <c r="W75" s="49"/>
-      <c r="X75" s="49"/>
-      <c r="Y75" s="49"/>
-      <c r="Z75" s="49"/>
-      <c r="AA75" s="49"/>
-      <c r="AB75" s="49"/>
-      <c r="AC75" s="49"/>
-      <c r="AD75" s="49"/>
-      <c r="AE75" s="49"/>
-      <c r="AF75" s="49"/>
-      <c r="AG75" s="49"/>
-      <c r="AH75" s="49"/>
-      <c r="AI75" s="49"/>
-      <c r="AJ75" s="49"/>
-      <c r="AK75" s="49"/>
-      <c r="AL75" s="49"/>
-      <c r="AM75" s="49"/>
-      <c r="AN75" s="49"/>
-      <c r="AO75" s="49"/>
-      <c r="AP75" s="49"/>
-      <c r="AQ75" s="49"/>
-      <c r="AR75" s="49"/>
-      <c r="AS75" s="49"/>
-      <c r="AT75" s="49"/>
-      <c r="AU75" s="49"/>
-      <c r="AV75" s="49"/>
-      <c r="AW75" s="50"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
+      <c r="AB75" s="41"/>
+      <c r="AC75" s="41"/>
+      <c r="AD75" s="41"/>
+      <c r="AE75" s="41"/>
+      <c r="AF75" s="41"/>
+      <c r="AG75" s="41"/>
+      <c r="AH75" s="41"/>
+      <c r="AI75" s="41"/>
+      <c r="AJ75" s="41"/>
+      <c r="AK75" s="41"/>
+      <c r="AL75" s="41"/>
+      <c r="AM75" s="41"/>
+      <c r="AN75" s="41"/>
+      <c r="AO75" s="41"/>
+      <c r="AP75" s="41"/>
+      <c r="AQ75" s="41"/>
+      <c r="AR75" s="41"/>
+      <c r="AS75" s="41"/>
+      <c r="AT75" s="41"/>
+      <c r="AU75" s="41"/>
+      <c r="AV75" s="41"/>
+      <c r="AW75" s="42"/>
     </row>
     <row r="76" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="38" t="s">
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
-      <c r="AG76" s="38"/>
-      <c r="AH76" s="38"/>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="38"/>
-      <c r="AL76" s="38"/>
-      <c r="AM76" s="38"/>
-      <c r="AN76" s="38"/>
-      <c r="AO76" s="38"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="38"/>
-      <c r="AS76" s="38"/>
-      <c r="AT76" s="38"/>
-      <c r="AU76" s="38"/>
-      <c r="AV76" s="38"/>
-      <c r="AW76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
+      <c r="AB76" s="39"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="39"/>
+      <c r="AE76" s="39"/>
+      <c r="AF76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="39"/>
+      <c r="AL76" s="39"/>
+      <c r="AM76" s="39"/>
+      <c r="AN76" s="39"/>
+      <c r="AO76" s="39"/>
+      <c r="AP76" s="39"/>
+      <c r="AQ76" s="39"/>
+      <c r="AR76" s="39"/>
+      <c r="AS76" s="39"/>
+      <c r="AT76" s="39"/>
+      <c r="AU76" s="39"/>
+      <c r="AV76" s="39"/>
+      <c r="AW76" s="40"/>
     </row>
     <row r="77" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="33" t="s">
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M77" s="34"/>
-      <c r="N77" s="35" t="s">
+      <c r="M77" s="44"/>
+      <c r="N77" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35" t="s">
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35" t="s">
+      <c r="V77" s="45"/>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA77" s="35"/>
-      <c r="AB77" s="35"/>
-      <c r="AC77" s="35"/>
-      <c r="AD77" s="35"/>
-      <c r="AE77" s="35"/>
-      <c r="AF77" s="35"/>
-      <c r="AG77" s="35"/>
-      <c r="AH77" s="35"/>
-      <c r="AI77" s="35"/>
-      <c r="AJ77" s="35"/>
-      <c r="AK77" s="35"/>
-      <c r="AL77" s="35"/>
-      <c r="AM77" s="35"/>
-      <c r="AN77" s="35"/>
-      <c r="AO77" s="35"/>
-      <c r="AP77" s="35"/>
-      <c r="AQ77" s="35"/>
-      <c r="AR77" s="35"/>
-      <c r="AS77" s="35"/>
-      <c r="AT77" s="35"/>
-      <c r="AU77" s="35"/>
-      <c r="AV77" s="35"/>
-      <c r="AW77" s="36"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="45"/>
+      <c r="AF77" s="45"/>
+      <c r="AG77" s="45"/>
+      <c r="AH77" s="45"/>
+      <c r="AI77" s="45"/>
+      <c r="AJ77" s="45"/>
+      <c r="AK77" s="45"/>
+      <c r="AL77" s="45"/>
+      <c r="AM77" s="45"/>
+      <c r="AN77" s="45"/>
+      <c r="AO77" s="45"/>
+      <c r="AP77" s="45"/>
+      <c r="AQ77" s="45"/>
+      <c r="AR77" s="45"/>
+      <c r="AS77" s="45"/>
+      <c r="AT77" s="45"/>
+      <c r="AU77" s="45"/>
+      <c r="AV77" s="45"/>
+      <c r="AW77" s="46"/>
     </row>
     <row r="78" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E78" s="43"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="37">
+      <c r="E78" s="47"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="38">
         <v>1</v>
       </c>
-      <c r="M78" s="37"/>
-      <c r="N78" s="38" t="s">
+      <c r="M78" s="38"/>
+      <c r="N78" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38" t="s">
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38" t="s">
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="38"/>
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="38"/>
-      <c r="AH78" s="38"/>
-      <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="38"/>
-      <c r="AL78" s="38"/>
-      <c r="AM78" s="38"/>
-      <c r="AN78" s="38"/>
-      <c r="AO78" s="38"/>
-      <c r="AP78" s="38"/>
-      <c r="AQ78" s="38"/>
-      <c r="AR78" s="38"/>
-      <c r="AS78" s="38"/>
-      <c r="AT78" s="38"/>
-      <c r="AU78" s="38"/>
-      <c r="AV78" s="38"/>
-      <c r="AW78" s="39"/>
+      <c r="AA78" s="39"/>
+      <c r="AB78" s="39"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="39"/>
+      <c r="AE78" s="39"/>
+      <c r="AF78" s="39"/>
+      <c r="AG78" s="39"/>
+      <c r="AH78" s="39"/>
+      <c r="AI78" s="39"/>
+      <c r="AJ78" s="39"/>
+      <c r="AK78" s="39"/>
+      <c r="AL78" s="39"/>
+      <c r="AM78" s="39"/>
+      <c r="AN78" s="39"/>
+      <c r="AO78" s="39"/>
+      <c r="AP78" s="39"/>
+      <c r="AQ78" s="39"/>
+      <c r="AR78" s="39"/>
+      <c r="AS78" s="39"/>
+      <c r="AT78" s="39"/>
+      <c r="AU78" s="39"/>
+      <c r="AV78" s="39"/>
+      <c r="AW78" s="40"/>
     </row>
     <row r="79" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="37">
+      <c r="E79" s="47"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="38">
         <v>2</v>
       </c>
-      <c r="M79" s="37"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="38"/>
-      <c r="AF79" s="38"/>
-      <c r="AG79" s="38"/>
-      <c r="AH79" s="38"/>
-      <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="38"/>
-      <c r="AL79" s="38"/>
-      <c r="AM79" s="38"/>
-      <c r="AN79" s="38"/>
-      <c r="AO79" s="38"/>
-      <c r="AP79" s="38"/>
-      <c r="AQ79" s="38"/>
-      <c r="AR79" s="38"/>
-      <c r="AS79" s="38"/>
-      <c r="AT79" s="38"/>
-      <c r="AU79" s="38"/>
-      <c r="AV79" s="38"/>
-      <c r="AW79" s="39"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="39"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="39"/>
+      <c r="AL79" s="39"/>
+      <c r="AM79" s="39"/>
+      <c r="AN79" s="39"/>
+      <c r="AO79" s="39"/>
+      <c r="AP79" s="39"/>
+      <c r="AQ79" s="39"/>
+      <c r="AR79" s="39"/>
+      <c r="AS79" s="39"/>
+      <c r="AT79" s="39"/>
+      <c r="AU79" s="39"/>
+      <c r="AV79" s="39"/>
+      <c r="AW79" s="40"/>
     </row>
     <row r="80" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="33" t="s">
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M80" s="34"/>
-      <c r="N80" s="35" t="s">
+      <c r="M80" s="44"/>
+      <c r="N80" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35" t="s">
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35" t="s">
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
-      <c r="AN80" s="35"/>
-      <c r="AO80" s="35"/>
-      <c r="AP80" s="35"/>
-      <c r="AQ80" s="35"/>
-      <c r="AR80" s="35"/>
-      <c r="AS80" s="35"/>
-      <c r="AT80" s="35"/>
-      <c r="AU80" s="35"/>
-      <c r="AV80" s="35"/>
-      <c r="AW80" s="36"/>
+      <c r="AA80" s="45"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="45"/>
+      <c r="AF80" s="45"/>
+      <c r="AG80" s="45"/>
+      <c r="AH80" s="45"/>
+      <c r="AI80" s="45"/>
+      <c r="AJ80" s="45"/>
+      <c r="AK80" s="45"/>
+      <c r="AL80" s="45"/>
+      <c r="AM80" s="45"/>
+      <c r="AN80" s="45"/>
+      <c r="AO80" s="45"/>
+      <c r="AP80" s="45"/>
+      <c r="AQ80" s="45"/>
+      <c r="AR80" s="45"/>
+      <c r="AS80" s="45"/>
+      <c r="AT80" s="45"/>
+      <c r="AU80" s="45"/>
+      <c r="AV80" s="45"/>
+      <c r="AW80" s="46"/>
     </row>
     <row r="81" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="37">
+      <c r="E81" s="47"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="38">
         <v>1</v>
       </c>
-      <c r="M81" s="37"/>
-      <c r="N81" s="38" t="s">
+      <c r="M81" s="38"/>
+      <c r="N81" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="57" t="s">
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="V81" s="57"/>
-      <c r="W81" s="57"/>
-      <c r="X81" s="57"/>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="38" t="s">
+      <c r="V81" s="58"/>
+      <c r="W81" s="58"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="58"/>
+      <c r="Z81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AA81" s="38"/>
-      <c r="AB81" s="38"/>
-      <c r="AC81" s="38"/>
-      <c r="AD81" s="38"/>
-      <c r="AE81" s="38"/>
-      <c r="AF81" s="38"/>
-      <c r="AG81" s="38"/>
-      <c r="AH81" s="38"/>
-      <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
-      <c r="AK81" s="38"/>
-      <c r="AL81" s="38"/>
-      <c r="AM81" s="38"/>
-      <c r="AN81" s="38"/>
-      <c r="AO81" s="38"/>
-      <c r="AP81" s="38"/>
-      <c r="AQ81" s="38"/>
-      <c r="AR81" s="38"/>
-      <c r="AS81" s="38"/>
-      <c r="AT81" s="38"/>
-      <c r="AU81" s="38"/>
-      <c r="AV81" s="38"/>
-      <c r="AW81" s="39"/>
+      <c r="AA81" s="39"/>
+      <c r="AB81" s="39"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AH81" s="39"/>
+      <c r="AI81" s="39"/>
+      <c r="AJ81" s="39"/>
+      <c r="AK81" s="39"/>
+      <c r="AL81" s="39"/>
+      <c r="AM81" s="39"/>
+      <c r="AN81" s="39"/>
+      <c r="AO81" s="39"/>
+      <c r="AP81" s="39"/>
+      <c r="AQ81" s="39"/>
+      <c r="AR81" s="39"/>
+      <c r="AS81" s="39"/>
+      <c r="AT81" s="39"/>
+      <c r="AU81" s="39"/>
+      <c r="AV81" s="39"/>
+      <c r="AW81" s="40"/>
     </row>
     <row r="82" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="33" t="s">
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M82" s="34"/>
-      <c r="N82" s="35" t="s">
+      <c r="M82" s="44"/>
+      <c r="N82" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35" t="s">
+      <c r="O82" s="45"/>
+      <c r="P82" s="45"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35" t="s">
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
+      <c r="Y82" s="45"/>
+      <c r="Z82" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
-      <c r="AN82" s="35"/>
-      <c r="AO82" s="35"/>
-      <c r="AP82" s="35"/>
-      <c r="AQ82" s="35"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="35"/>
-      <c r="AT82" s="35"/>
-      <c r="AU82" s="35"/>
-      <c r="AV82" s="35"/>
-      <c r="AW82" s="36"/>
+      <c r="AA82" s="45"/>
+      <c r="AB82" s="45"/>
+      <c r="AC82" s="45"/>
+      <c r="AD82" s="45"/>
+      <c r="AE82" s="45"/>
+      <c r="AF82" s="45"/>
+      <c r="AG82" s="45"/>
+      <c r="AH82" s="45"/>
+      <c r="AI82" s="45"/>
+      <c r="AJ82" s="45"/>
+      <c r="AK82" s="45"/>
+      <c r="AL82" s="45"/>
+      <c r="AM82" s="45"/>
+      <c r="AN82" s="45"/>
+      <c r="AO82" s="45"/>
+      <c r="AP82" s="45"/>
+      <c r="AQ82" s="45"/>
+      <c r="AR82" s="45"/>
+      <c r="AS82" s="45"/>
+      <c r="AT82" s="45"/>
+      <c r="AU82" s="45"/>
+      <c r="AV82" s="45"/>
+      <c r="AW82" s="46"/>
     </row>
     <row r="83" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E83" s="27"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="37">
+      <c r="E83" s="32"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="38">
         <v>1</v>
       </c>
-      <c r="M83" s="37"/>
-      <c r="N83" s="38" t="s">
+      <c r="M83" s="38"/>
+      <c r="N83" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38" t="s">
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38" t="s">
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="38"/>
-      <c r="AF83" s="38"/>
-      <c r="AG83" s="38"/>
-      <c r="AH83" s="38"/>
-      <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
-      <c r="AK83" s="38"/>
-      <c r="AL83" s="38"/>
-      <c r="AM83" s="38"/>
-      <c r="AN83" s="38"/>
-      <c r="AO83" s="38"/>
-      <c r="AP83" s="38"/>
-      <c r="AQ83" s="38"/>
-      <c r="AR83" s="38"/>
-      <c r="AS83" s="38"/>
-      <c r="AT83" s="38"/>
-      <c r="AU83" s="38"/>
-      <c r="AV83" s="38"/>
-      <c r="AW83" s="39"/>
+      <c r="AA83" s="39"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="39"/>
+      <c r="AH83" s="39"/>
+      <c r="AI83" s="39"/>
+      <c r="AJ83" s="39"/>
+      <c r="AK83" s="39"/>
+      <c r="AL83" s="39"/>
+      <c r="AM83" s="39"/>
+      <c r="AN83" s="39"/>
+      <c r="AO83" s="39"/>
+      <c r="AP83" s="39"/>
+      <c r="AQ83" s="39"/>
+      <c r="AR83" s="39"/>
+      <c r="AS83" s="39"/>
+      <c r="AT83" s="39"/>
+      <c r="AU83" s="39"/>
+      <c r="AV83" s="39"/>
+      <c r="AW83" s="40"/>
     </row>
     <row r="84" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E84" s="30"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="40">
+      <c r="E84" s="35"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="26">
         <v>2</v>
       </c>
-      <c r="M84" s="40"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
-      <c r="V84" s="41"/>
-      <c r="W84" s="41"/>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
-      <c r="AB84" s="41"/>
-      <c r="AC84" s="41"/>
-      <c r="AD84" s="41"/>
-      <c r="AE84" s="41"/>
-      <c r="AF84" s="41"/>
-      <c r="AG84" s="41"/>
-      <c r="AH84" s="41"/>
-      <c r="AI84" s="41"/>
-      <c r="AJ84" s="41"/>
-      <c r="AK84" s="41"/>
-      <c r="AL84" s="41"/>
-      <c r="AM84" s="41"/>
-      <c r="AN84" s="41"/>
-      <c r="AO84" s="41"/>
-      <c r="AP84" s="41"/>
-      <c r="AQ84" s="41"/>
-      <c r="AR84" s="41"/>
-      <c r="AS84" s="41"/>
-      <c r="AT84" s="41"/>
-      <c r="AU84" s="41"/>
-      <c r="AV84" s="41"/>
-      <c r="AW84" s="42"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
+      <c r="AH84" s="27"/>
+      <c r="AI84" s="27"/>
+      <c r="AJ84" s="27"/>
+      <c r="AK84" s="27"/>
+      <c r="AL84" s="27"/>
+      <c r="AM84" s="27"/>
+      <c r="AN84" s="27"/>
+      <c r="AO84" s="27"/>
+      <c r="AP84" s="27"/>
+      <c r="AQ84" s="27"/>
+      <c r="AR84" s="27"/>
+      <c r="AS84" s="27"/>
+      <c r="AT84" s="27"/>
+      <c r="AU84" s="27"/>
+      <c r="AV84" s="27"/>
+      <c r="AW84" s="28"/>
     </row>
     <row r="85" spans="4:49" x14ac:dyDescent="0.4">
       <c r="N85" s="6"/>
@@ -9570,540 +9579,540 @@
       </c>
     </row>
     <row r="87" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E87" s="47" t="s">
+      <c r="E87" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="49" t="s">
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M87" s="49"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="49"/>
-      <c r="R87" s="49"/>
-      <c r="S87" s="49"/>
-      <c r="T87" s="49"/>
-      <c r="U87" s="49"/>
-      <c r="V87" s="49"/>
-      <c r="W87" s="49"/>
-      <c r="X87" s="49"/>
-      <c r="Y87" s="49"/>
-      <c r="Z87" s="49"/>
-      <c r="AA87" s="49"/>
-      <c r="AB87" s="49"/>
-      <c r="AC87" s="49"/>
-      <c r="AD87" s="49"/>
-      <c r="AE87" s="49"/>
-      <c r="AF87" s="49"/>
-      <c r="AG87" s="49"/>
-      <c r="AH87" s="49"/>
-      <c r="AI87" s="49"/>
-      <c r="AJ87" s="49"/>
-      <c r="AK87" s="49"/>
-      <c r="AL87" s="49"/>
-      <c r="AM87" s="49"/>
-      <c r="AN87" s="49"/>
-      <c r="AO87" s="49"/>
-      <c r="AP87" s="49"/>
-      <c r="AQ87" s="49"/>
-      <c r="AR87" s="49"/>
-      <c r="AS87" s="49"/>
-      <c r="AT87" s="49"/>
-      <c r="AU87" s="49"/>
-      <c r="AV87" s="49"/>
-      <c r="AW87" s="50"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
+      <c r="AH87" s="41"/>
+      <c r="AI87" s="41"/>
+      <c r="AJ87" s="41"/>
+      <c r="AK87" s="41"/>
+      <c r="AL87" s="41"/>
+      <c r="AM87" s="41"/>
+      <c r="AN87" s="41"/>
+      <c r="AO87" s="41"/>
+      <c r="AP87" s="41"/>
+      <c r="AQ87" s="41"/>
+      <c r="AR87" s="41"/>
+      <c r="AS87" s="41"/>
+      <c r="AT87" s="41"/>
+      <c r="AU87" s="41"/>
+      <c r="AV87" s="41"/>
+      <c r="AW87" s="42"/>
     </row>
     <row r="88" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="38" t="s">
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="38"/>
-      <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
-      <c r="AN88" s="38"/>
-      <c r="AO88" s="38"/>
-      <c r="AP88" s="38"/>
-      <c r="AQ88" s="38"/>
-      <c r="AR88" s="38"/>
-      <c r="AS88" s="38"/>
-      <c r="AT88" s="38"/>
-      <c r="AU88" s="38"/>
-      <c r="AV88" s="38"/>
-      <c r="AW88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="39"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="39"/>
+      <c r="AM88" s="39"/>
+      <c r="AN88" s="39"/>
+      <c r="AO88" s="39"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="39"/>
+      <c r="AR88" s="39"/>
+      <c r="AS88" s="39"/>
+      <c r="AT88" s="39"/>
+      <c r="AU88" s="39"/>
+      <c r="AV88" s="39"/>
+      <c r="AW88" s="40"/>
     </row>
     <row r="89" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="33" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M89" s="34"/>
-      <c r="N89" s="35" t="s">
+      <c r="M89" s="44"/>
+      <c r="N89" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35" t="s">
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35" t="s">
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="35"/>
-      <c r="AH89" s="35"/>
-      <c r="AI89" s="35"/>
-      <c r="AJ89" s="35"/>
-      <c r="AK89" s="35"/>
-      <c r="AL89" s="35"/>
-      <c r="AM89" s="35"/>
-      <c r="AN89" s="35"/>
-      <c r="AO89" s="35"/>
-      <c r="AP89" s="35"/>
-      <c r="AQ89" s="35"/>
-      <c r="AR89" s="35"/>
-      <c r="AS89" s="35"/>
-      <c r="AT89" s="35"/>
-      <c r="AU89" s="35"/>
-      <c r="AV89" s="35"/>
-      <c r="AW89" s="36"/>
+      <c r="AA89" s="45"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="45"/>
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="45"/>
+      <c r="AG89" s="45"/>
+      <c r="AH89" s="45"/>
+      <c r="AI89" s="45"/>
+      <c r="AJ89" s="45"/>
+      <c r="AK89" s="45"/>
+      <c r="AL89" s="45"/>
+      <c r="AM89" s="45"/>
+      <c r="AN89" s="45"/>
+      <c r="AO89" s="45"/>
+      <c r="AP89" s="45"/>
+      <c r="AQ89" s="45"/>
+      <c r="AR89" s="45"/>
+      <c r="AS89" s="45"/>
+      <c r="AT89" s="45"/>
+      <c r="AU89" s="45"/>
+      <c r="AV89" s="45"/>
+      <c r="AW89" s="46"/>
     </row>
     <row r="90" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E90" s="43"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="37">
+      <c r="E90" s="47"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="38">
         <v>1</v>
       </c>
-      <c r="M90" s="37"/>
-      <c r="N90" s="38" t="s">
+      <c r="M90" s="38"/>
+      <c r="N90" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38" t="s">
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38" t="s">
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AA90" s="38"/>
-      <c r="AB90" s="38"/>
-      <c r="AC90" s="38"/>
-      <c r="AD90" s="38"/>
-      <c r="AE90" s="38"/>
-      <c r="AF90" s="38"/>
-      <c r="AG90" s="38"/>
-      <c r="AH90" s="38"/>
-      <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
-      <c r="AK90" s="38"/>
-      <c r="AL90" s="38"/>
-      <c r="AM90" s="38"/>
-      <c r="AN90" s="38"/>
-      <c r="AO90" s="38"/>
-      <c r="AP90" s="38"/>
-      <c r="AQ90" s="38"/>
-      <c r="AR90" s="38"/>
-      <c r="AS90" s="38"/>
-      <c r="AT90" s="38"/>
-      <c r="AU90" s="38"/>
-      <c r="AV90" s="38"/>
-      <c r="AW90" s="39"/>
+      <c r="AA90" s="39"/>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
+      <c r="AI90" s="39"/>
+      <c r="AJ90" s="39"/>
+      <c r="AK90" s="39"/>
+      <c r="AL90" s="39"/>
+      <c r="AM90" s="39"/>
+      <c r="AN90" s="39"/>
+      <c r="AO90" s="39"/>
+      <c r="AP90" s="39"/>
+      <c r="AQ90" s="39"/>
+      <c r="AR90" s="39"/>
+      <c r="AS90" s="39"/>
+      <c r="AT90" s="39"/>
+      <c r="AU90" s="39"/>
+      <c r="AV90" s="39"/>
+      <c r="AW90" s="40"/>
     </row>
     <row r="91" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E91" s="43"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="37">
+      <c r="E91" s="47"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="38">
         <v>2</v>
       </c>
-      <c r="M91" s="37"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="38"/>
-      <c r="AE91" s="38"/>
-      <c r="AF91" s="38"/>
-      <c r="AG91" s="38"/>
-      <c r="AH91" s="38"/>
-      <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="38"/>
-      <c r="AL91" s="38"/>
-      <c r="AM91" s="38"/>
-      <c r="AN91" s="38"/>
-      <c r="AO91" s="38"/>
-      <c r="AP91" s="38"/>
-      <c r="AQ91" s="38"/>
-      <c r="AR91" s="38"/>
-      <c r="AS91" s="38"/>
-      <c r="AT91" s="38"/>
-      <c r="AU91" s="38"/>
-      <c r="AV91" s="38"/>
-      <c r="AW91" s="39"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="39"/>
+      <c r="AI91" s="39"/>
+      <c r="AJ91" s="39"/>
+      <c r="AK91" s="39"/>
+      <c r="AL91" s="39"/>
+      <c r="AM91" s="39"/>
+      <c r="AN91" s="39"/>
+      <c r="AO91" s="39"/>
+      <c r="AP91" s="39"/>
+      <c r="AQ91" s="39"/>
+      <c r="AR91" s="39"/>
+      <c r="AS91" s="39"/>
+      <c r="AT91" s="39"/>
+      <c r="AU91" s="39"/>
+      <c r="AV91" s="39"/>
+      <c r="AW91" s="40"/>
     </row>
     <row r="92" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="33" t="s">
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M92" s="34"/>
-      <c r="N92" s="35" t="s">
+      <c r="M92" s="44"/>
+      <c r="N92" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35" t="s">
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35" t="s">
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="35"/>
-      <c r="AI92" s="35"/>
-      <c r="AJ92" s="35"/>
-      <c r="AK92" s="35"/>
-      <c r="AL92" s="35"/>
-      <c r="AM92" s="35"/>
-      <c r="AN92" s="35"/>
-      <c r="AO92" s="35"/>
-      <c r="AP92" s="35"/>
-      <c r="AQ92" s="35"/>
-      <c r="AR92" s="35"/>
-      <c r="AS92" s="35"/>
-      <c r="AT92" s="35"/>
-      <c r="AU92" s="35"/>
-      <c r="AV92" s="35"/>
-      <c r="AW92" s="36"/>
+      <c r="AA92" s="45"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="45"/>
+      <c r="AE92" s="45"/>
+      <c r="AF92" s="45"/>
+      <c r="AG92" s="45"/>
+      <c r="AH92" s="45"/>
+      <c r="AI92" s="45"/>
+      <c r="AJ92" s="45"/>
+      <c r="AK92" s="45"/>
+      <c r="AL92" s="45"/>
+      <c r="AM92" s="45"/>
+      <c r="AN92" s="45"/>
+      <c r="AO92" s="45"/>
+      <c r="AP92" s="45"/>
+      <c r="AQ92" s="45"/>
+      <c r="AR92" s="45"/>
+      <c r="AS92" s="45"/>
+      <c r="AT92" s="45"/>
+      <c r="AU92" s="45"/>
+      <c r="AV92" s="45"/>
+      <c r="AW92" s="46"/>
     </row>
     <row r="93" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E93" s="43"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="37">
+      <c r="E93" s="47"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="38">
         <v>1</v>
       </c>
-      <c r="M93" s="37"/>
-      <c r="N93" s="38" t="s">
+      <c r="M93" s="38"/>
+      <c r="N93" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38" t="s">
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-      <c r="Y93" s="38"/>
-      <c r="Z93" s="38" t="s">
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
+      <c r="Z93" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="AA93" s="38"/>
-      <c r="AB93" s="38"/>
-      <c r="AC93" s="38"/>
-      <c r="AD93" s="38"/>
-      <c r="AE93" s="38"/>
-      <c r="AF93" s="38"/>
-      <c r="AG93" s="38"/>
-      <c r="AH93" s="38"/>
-      <c r="AI93" s="38"/>
-      <c r="AJ93" s="38"/>
-      <c r="AK93" s="38"/>
-      <c r="AL93" s="38"/>
-      <c r="AM93" s="38"/>
-      <c r="AN93" s="38"/>
-      <c r="AO93" s="38"/>
-      <c r="AP93" s="38"/>
-      <c r="AQ93" s="38"/>
-      <c r="AR93" s="38"/>
-      <c r="AS93" s="38"/>
-      <c r="AT93" s="38"/>
-      <c r="AU93" s="38"/>
-      <c r="AV93" s="38"/>
-      <c r="AW93" s="39"/>
+      <c r="AA93" s="39"/>
+      <c r="AB93" s="39"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="39"/>
+      <c r="AI93" s="39"/>
+      <c r="AJ93" s="39"/>
+      <c r="AK93" s="39"/>
+      <c r="AL93" s="39"/>
+      <c r="AM93" s="39"/>
+      <c r="AN93" s="39"/>
+      <c r="AO93" s="39"/>
+      <c r="AP93" s="39"/>
+      <c r="AQ93" s="39"/>
+      <c r="AR93" s="39"/>
+      <c r="AS93" s="39"/>
+      <c r="AT93" s="39"/>
+      <c r="AU93" s="39"/>
+      <c r="AV93" s="39"/>
+      <c r="AW93" s="40"/>
     </row>
     <row r="94" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="33" t="s">
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M94" s="34"/>
-      <c r="N94" s="35" t="s">
+      <c r="M94" s="44"/>
+      <c r="N94" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35" t="s">
+      <c r="O94" s="45"/>
+      <c r="P94" s="45"/>
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35" t="s">
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+      <c r="Z94" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA94" s="35"/>
-      <c r="AB94" s="35"/>
-      <c r="AC94" s="35"/>
-      <c r="AD94" s="35"/>
-      <c r="AE94" s="35"/>
-      <c r="AF94" s="35"/>
-      <c r="AG94" s="35"/>
-      <c r="AH94" s="35"/>
-      <c r="AI94" s="35"/>
-      <c r="AJ94" s="35"/>
-      <c r="AK94" s="35"/>
-      <c r="AL94" s="35"/>
-      <c r="AM94" s="35"/>
-      <c r="AN94" s="35"/>
-      <c r="AO94" s="35"/>
-      <c r="AP94" s="35"/>
-      <c r="AQ94" s="35"/>
-      <c r="AR94" s="35"/>
-      <c r="AS94" s="35"/>
-      <c r="AT94" s="35"/>
-      <c r="AU94" s="35"/>
-      <c r="AV94" s="35"/>
-      <c r="AW94" s="36"/>
+      <c r="AA94" s="45"/>
+      <c r="AB94" s="45"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="45"/>
+      <c r="AE94" s="45"/>
+      <c r="AF94" s="45"/>
+      <c r="AG94" s="45"/>
+      <c r="AH94" s="45"/>
+      <c r="AI94" s="45"/>
+      <c r="AJ94" s="45"/>
+      <c r="AK94" s="45"/>
+      <c r="AL94" s="45"/>
+      <c r="AM94" s="45"/>
+      <c r="AN94" s="45"/>
+      <c r="AO94" s="45"/>
+      <c r="AP94" s="45"/>
+      <c r="AQ94" s="45"/>
+      <c r="AR94" s="45"/>
+      <c r="AS94" s="45"/>
+      <c r="AT94" s="45"/>
+      <c r="AU94" s="45"/>
+      <c r="AV94" s="45"/>
+      <c r="AW94" s="46"/>
     </row>
     <row r="95" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="37">
+      <c r="E95" s="32"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="38">
         <v>1</v>
       </c>
-      <c r="M95" s="37"/>
-      <c r="N95" s="38" t="s">
+      <c r="M95" s="38"/>
+      <c r="N95" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38" t="s">
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38" t="s">
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
+      <c r="Z95" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AA95" s="38"/>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="38"/>
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="38"/>
-      <c r="AF95" s="38"/>
-      <c r="AG95" s="38"/>
-      <c r="AH95" s="38"/>
-      <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="38"/>
-      <c r="AL95" s="38"/>
-      <c r="AM95" s="38"/>
-      <c r="AN95" s="38"/>
-      <c r="AO95" s="38"/>
-      <c r="AP95" s="38"/>
-      <c r="AQ95" s="38"/>
-      <c r="AR95" s="38"/>
-      <c r="AS95" s="38"/>
-      <c r="AT95" s="38"/>
-      <c r="AU95" s="38"/>
-      <c r="AV95" s="38"/>
-      <c r="AW95" s="39"/>
+      <c r="AA95" s="39"/>
+      <c r="AB95" s="39"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
+      <c r="AI95" s="39"/>
+      <c r="AJ95" s="39"/>
+      <c r="AK95" s="39"/>
+      <c r="AL95" s="39"/>
+      <c r="AM95" s="39"/>
+      <c r="AN95" s="39"/>
+      <c r="AO95" s="39"/>
+      <c r="AP95" s="39"/>
+      <c r="AQ95" s="39"/>
+      <c r="AR95" s="39"/>
+      <c r="AS95" s="39"/>
+      <c r="AT95" s="39"/>
+      <c r="AU95" s="39"/>
+      <c r="AV95" s="39"/>
+      <c r="AW95" s="40"/>
     </row>
     <row r="96" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E96" s="30"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="40">
+      <c r="E96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="26">
         <v>2</v>
       </c>
-      <c r="M96" s="40"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="41"/>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="41"/>
-      <c r="Z96" s="41"/>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="41"/>
-      <c r="AF96" s="41"/>
-      <c r="AG96" s="41"/>
-      <c r="AH96" s="41"/>
-      <c r="AI96" s="41"/>
-      <c r="AJ96" s="41"/>
-      <c r="AK96" s="41"/>
-      <c r="AL96" s="41"/>
-      <c r="AM96" s="41"/>
-      <c r="AN96" s="41"/>
-      <c r="AO96" s="41"/>
-      <c r="AP96" s="41"/>
-      <c r="AQ96" s="41"/>
-      <c r="AR96" s="41"/>
-      <c r="AS96" s="41"/>
-      <c r="AT96" s="41"/>
-      <c r="AU96" s="41"/>
-      <c r="AV96" s="41"/>
-      <c r="AW96" s="42"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+      <c r="AF96" s="27"/>
+      <c r="AG96" s="27"/>
+      <c r="AH96" s="27"/>
+      <c r="AI96" s="27"/>
+      <c r="AJ96" s="27"/>
+      <c r="AK96" s="27"/>
+      <c r="AL96" s="27"/>
+      <c r="AM96" s="27"/>
+      <c r="AN96" s="27"/>
+      <c r="AO96" s="27"/>
+      <c r="AP96" s="27"/>
+      <c r="AQ96" s="27"/>
+      <c r="AR96" s="27"/>
+      <c r="AS96" s="27"/>
+      <c r="AT96" s="27"/>
+      <c r="AU96" s="27"/>
+      <c r="AV96" s="27"/>
+      <c r="AW96" s="28"/>
     </row>
     <row r="97" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N97" s="6"/>
@@ -10144,546 +10153,546 @@
       </c>
     </row>
     <row r="99" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="49" t="s">
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="49"/>
-      <c r="V99" s="49"/>
-      <c r="W99" s="49"/>
-      <c r="X99" s="49"/>
-      <c r="Y99" s="49"/>
-      <c r="Z99" s="49"/>
-      <c r="AA99" s="49"/>
-      <c r="AB99" s="49"/>
-      <c r="AC99" s="49"/>
-      <c r="AD99" s="49"/>
-      <c r="AE99" s="49"/>
-      <c r="AF99" s="49"/>
-      <c r="AG99" s="49"/>
-      <c r="AH99" s="49"/>
-      <c r="AI99" s="49"/>
-      <c r="AJ99" s="49"/>
-      <c r="AK99" s="49"/>
-      <c r="AL99" s="49"/>
-      <c r="AM99" s="49"/>
-      <c r="AN99" s="49"/>
-      <c r="AO99" s="49"/>
-      <c r="AP99" s="49"/>
-      <c r="AQ99" s="49"/>
-      <c r="AR99" s="49"/>
-      <c r="AS99" s="49"/>
-      <c r="AT99" s="49"/>
-      <c r="AU99" s="49"/>
-      <c r="AV99" s="49"/>
-      <c r="AW99" s="50"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="41"/>
+      <c r="U99" s="41"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="41"/>
+      <c r="X99" s="41"/>
+      <c r="Y99" s="41"/>
+      <c r="Z99" s="41"/>
+      <c r="AA99" s="41"/>
+      <c r="AB99" s="41"/>
+      <c r="AC99" s="41"/>
+      <c r="AD99" s="41"/>
+      <c r="AE99" s="41"/>
+      <c r="AF99" s="41"/>
+      <c r="AG99" s="41"/>
+      <c r="AH99" s="41"/>
+      <c r="AI99" s="41"/>
+      <c r="AJ99" s="41"/>
+      <c r="AK99" s="41"/>
+      <c r="AL99" s="41"/>
+      <c r="AM99" s="41"/>
+      <c r="AN99" s="41"/>
+      <c r="AO99" s="41"/>
+      <c r="AP99" s="41"/>
+      <c r="AQ99" s="41"/>
+      <c r="AR99" s="41"/>
+      <c r="AS99" s="41"/>
+      <c r="AT99" s="41"/>
+      <c r="AU99" s="41"/>
+      <c r="AV99" s="41"/>
+      <c r="AW99" s="42"/>
     </row>
     <row r="100" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="38" t="s">
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="38"/>
-      <c r="Q100" s="38"/>
-      <c r="R100" s="38"/>
-      <c r="S100" s="38"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="38"/>
-      <c r="W100" s="38"/>
-      <c r="X100" s="38"/>
-      <c r="Y100" s="38"/>
-      <c r="Z100" s="38"/>
-      <c r="AA100" s="38"/>
-      <c r="AB100" s="38"/>
-      <c r="AC100" s="38"/>
-      <c r="AD100" s="38"/>
-      <c r="AE100" s="38"/>
-      <c r="AF100" s="38"/>
-      <c r="AG100" s="38"/>
-      <c r="AH100" s="38"/>
-      <c r="AI100" s="38"/>
-      <c r="AJ100" s="38"/>
-      <c r="AK100" s="38"/>
-      <c r="AL100" s="38"/>
-      <c r="AM100" s="38"/>
-      <c r="AN100" s="38"/>
-      <c r="AO100" s="38"/>
-      <c r="AP100" s="38"/>
-      <c r="AQ100" s="38"/>
-      <c r="AR100" s="38"/>
-      <c r="AS100" s="38"/>
-      <c r="AT100" s="38"/>
-      <c r="AU100" s="38"/>
-      <c r="AV100" s="38"/>
-      <c r="AW100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+      <c r="Y100" s="39"/>
+      <c r="Z100" s="39"/>
+      <c r="AA100" s="39"/>
+      <c r="AB100" s="39"/>
+      <c r="AC100" s="39"/>
+      <c r="AD100" s="39"/>
+      <c r="AE100" s="39"/>
+      <c r="AF100" s="39"/>
+      <c r="AG100" s="39"/>
+      <c r="AH100" s="39"/>
+      <c r="AI100" s="39"/>
+      <c r="AJ100" s="39"/>
+      <c r="AK100" s="39"/>
+      <c r="AL100" s="39"/>
+      <c r="AM100" s="39"/>
+      <c r="AN100" s="39"/>
+      <c r="AO100" s="39"/>
+      <c r="AP100" s="39"/>
+      <c r="AQ100" s="39"/>
+      <c r="AR100" s="39"/>
+      <c r="AS100" s="39"/>
+      <c r="AT100" s="39"/>
+      <c r="AU100" s="39"/>
+      <c r="AV100" s="39"/>
+      <c r="AW100" s="40"/>
     </row>
     <row r="101" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="44"/>
-      <c r="L101" s="33" t="s">
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M101" s="34"/>
-      <c r="N101" s="35" t="s">
+      <c r="M101" s="44"/>
+      <c r="N101" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35" t="s">
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V101" s="35"/>
-      <c r="W101" s="35"/>
-      <c r="X101" s="35"/>
-      <c r="Y101" s="35"/>
-      <c r="Z101" s="35" t="s">
+      <c r="V101" s="45"/>
+      <c r="W101" s="45"/>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="45"/>
+      <c r="Z101" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA101" s="35"/>
-      <c r="AB101" s="35"/>
-      <c r="AC101" s="35"/>
-      <c r="AD101" s="35"/>
-      <c r="AE101" s="35"/>
-      <c r="AF101" s="35"/>
-      <c r="AG101" s="35"/>
-      <c r="AH101" s="35"/>
-      <c r="AI101" s="35"/>
-      <c r="AJ101" s="35"/>
-      <c r="AK101" s="35"/>
-      <c r="AL101" s="35"/>
-      <c r="AM101" s="35"/>
-      <c r="AN101" s="35"/>
-      <c r="AO101" s="35"/>
-      <c r="AP101" s="35"/>
-      <c r="AQ101" s="35"/>
-      <c r="AR101" s="35"/>
-      <c r="AS101" s="35"/>
-      <c r="AT101" s="35"/>
-      <c r="AU101" s="35"/>
-      <c r="AV101" s="35"/>
-      <c r="AW101" s="36"/>
+      <c r="AA101" s="45"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="45"/>
+      <c r="AE101" s="45"/>
+      <c r="AF101" s="45"/>
+      <c r="AG101" s="45"/>
+      <c r="AH101" s="45"/>
+      <c r="AI101" s="45"/>
+      <c r="AJ101" s="45"/>
+      <c r="AK101" s="45"/>
+      <c r="AL101" s="45"/>
+      <c r="AM101" s="45"/>
+      <c r="AN101" s="45"/>
+      <c r="AO101" s="45"/>
+      <c r="AP101" s="45"/>
+      <c r="AQ101" s="45"/>
+      <c r="AR101" s="45"/>
+      <c r="AS101" s="45"/>
+      <c r="AT101" s="45"/>
+      <c r="AU101" s="45"/>
+      <c r="AV101" s="45"/>
+      <c r="AW101" s="46"/>
     </row>
     <row r="102" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E102" s="43"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="37">
+      <c r="E102" s="47"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="38">
         <v>1</v>
       </c>
-      <c r="M102" s="37"/>
-      <c r="N102" s="38" t="s">
+      <c r="M102" s="38"/>
+      <c r="N102" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O102" s="38"/>
-      <c r="P102" s="38"/>
-      <c r="Q102" s="38"/>
-      <c r="R102" s="38"/>
-      <c r="S102" s="38"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38" t="s">
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V102" s="38"/>
-      <c r="W102" s="38"/>
-      <c r="X102" s="38"/>
-      <c r="Y102" s="38"/>
-      <c r="Z102" s="38" t="s">
+      <c r="V102" s="39"/>
+      <c r="W102" s="39"/>
+      <c r="X102" s="39"/>
+      <c r="Y102" s="39"/>
+      <c r="Z102" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AA102" s="38"/>
-      <c r="AB102" s="38"/>
-      <c r="AC102" s="38"/>
-      <c r="AD102" s="38"/>
-      <c r="AE102" s="38"/>
-      <c r="AF102" s="38"/>
-      <c r="AG102" s="38"/>
-      <c r="AH102" s="38"/>
-      <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
-      <c r="AK102" s="38"/>
-      <c r="AL102" s="38"/>
-      <c r="AM102" s="38"/>
-      <c r="AN102" s="38"/>
-      <c r="AO102" s="38"/>
-      <c r="AP102" s="38"/>
-      <c r="AQ102" s="38"/>
-      <c r="AR102" s="38"/>
-      <c r="AS102" s="38"/>
-      <c r="AT102" s="38"/>
-      <c r="AU102" s="38"/>
-      <c r="AV102" s="38"/>
-      <c r="AW102" s="39"/>
+      <c r="AA102" s="39"/>
+      <c r="AB102" s="39"/>
+      <c r="AC102" s="39"/>
+      <c r="AD102" s="39"/>
+      <c r="AE102" s="39"/>
+      <c r="AF102" s="39"/>
+      <c r="AG102" s="39"/>
+      <c r="AH102" s="39"/>
+      <c r="AI102" s="39"/>
+      <c r="AJ102" s="39"/>
+      <c r="AK102" s="39"/>
+      <c r="AL102" s="39"/>
+      <c r="AM102" s="39"/>
+      <c r="AN102" s="39"/>
+      <c r="AO102" s="39"/>
+      <c r="AP102" s="39"/>
+      <c r="AQ102" s="39"/>
+      <c r="AR102" s="39"/>
+      <c r="AS102" s="39"/>
+      <c r="AT102" s="39"/>
+      <c r="AU102" s="39"/>
+      <c r="AV102" s="39"/>
+      <c r="AW102" s="40"/>
     </row>
     <row r="103" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E103" s="43"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="37">
+      <c r="E103" s="47"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="38">
         <v>2</v>
       </c>
-      <c r="M103" s="37"/>
-      <c r="N103" s="38" t="s">
+      <c r="M103" s="38"/>
+      <c r="N103" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="O103" s="38"/>
-      <c r="P103" s="38"/>
-      <c r="Q103" s="38"/>
-      <c r="R103" s="38"/>
-      <c r="S103" s="38"/>
-      <c r="T103" s="38"/>
-      <c r="U103" s="38" t="s">
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="39"/>
+      <c r="T103" s="39"/>
+      <c r="U103" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V103" s="38"/>
-      <c r="W103" s="38"/>
-      <c r="X103" s="38"/>
-      <c r="Y103" s="38"/>
-      <c r="Z103" s="38" t="s">
+      <c r="V103" s="39"/>
+      <c r="W103" s="39"/>
+      <c r="X103" s="39"/>
+      <c r="Y103" s="39"/>
+      <c r="Z103" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AA103" s="38"/>
-      <c r="AB103" s="38"/>
-      <c r="AC103" s="38"/>
-      <c r="AD103" s="38"/>
-      <c r="AE103" s="38"/>
-      <c r="AF103" s="38"/>
-      <c r="AG103" s="38"/>
-      <c r="AH103" s="38"/>
-      <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="38"/>
-      <c r="AL103" s="38"/>
-      <c r="AM103" s="38"/>
-      <c r="AN103" s="38"/>
-      <c r="AO103" s="38"/>
-      <c r="AP103" s="38"/>
-      <c r="AQ103" s="38"/>
-      <c r="AR103" s="38"/>
-      <c r="AS103" s="38"/>
-      <c r="AT103" s="38"/>
-      <c r="AU103" s="38"/>
-      <c r="AV103" s="38"/>
-      <c r="AW103" s="39"/>
+      <c r="AA103" s="39"/>
+      <c r="AB103" s="39"/>
+      <c r="AC103" s="39"/>
+      <c r="AD103" s="39"/>
+      <c r="AE103" s="39"/>
+      <c r="AF103" s="39"/>
+      <c r="AG103" s="39"/>
+      <c r="AH103" s="39"/>
+      <c r="AI103" s="39"/>
+      <c r="AJ103" s="39"/>
+      <c r="AK103" s="39"/>
+      <c r="AL103" s="39"/>
+      <c r="AM103" s="39"/>
+      <c r="AN103" s="39"/>
+      <c r="AO103" s="39"/>
+      <c r="AP103" s="39"/>
+      <c r="AQ103" s="39"/>
+      <c r="AR103" s="39"/>
+      <c r="AS103" s="39"/>
+      <c r="AT103" s="39"/>
+      <c r="AU103" s="39"/>
+      <c r="AV103" s="39"/>
+      <c r="AW103" s="40"/>
     </row>
     <row r="104" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="33" t="s">
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M104" s="34"/>
-      <c r="N104" s="35" t="s">
+      <c r="M104" s="44"/>
+      <c r="N104" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="35" t="s">
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V104" s="35"/>
-      <c r="W104" s="35"/>
-      <c r="X104" s="35"/>
-      <c r="Y104" s="35"/>
-      <c r="Z104" s="35" t="s">
+      <c r="V104" s="45"/>
+      <c r="W104" s="45"/>
+      <c r="X104" s="45"/>
+      <c r="Y104" s="45"/>
+      <c r="Z104" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA104" s="35"/>
-      <c r="AB104" s="35"/>
-      <c r="AC104" s="35"/>
-      <c r="AD104" s="35"/>
-      <c r="AE104" s="35"/>
-      <c r="AF104" s="35"/>
-      <c r="AG104" s="35"/>
-      <c r="AH104" s="35"/>
-      <c r="AI104" s="35"/>
-      <c r="AJ104" s="35"/>
-      <c r="AK104" s="35"/>
-      <c r="AL104" s="35"/>
-      <c r="AM104" s="35"/>
-      <c r="AN104" s="35"/>
-      <c r="AO104" s="35"/>
-      <c r="AP104" s="35"/>
-      <c r="AQ104" s="35"/>
-      <c r="AR104" s="35"/>
-      <c r="AS104" s="35"/>
-      <c r="AT104" s="35"/>
-      <c r="AU104" s="35"/>
-      <c r="AV104" s="35"/>
-      <c r="AW104" s="36"/>
+      <c r="AA104" s="45"/>
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="45"/>
+      <c r="AE104" s="45"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="45"/>
+      <c r="AH104" s="45"/>
+      <c r="AI104" s="45"/>
+      <c r="AJ104" s="45"/>
+      <c r="AK104" s="45"/>
+      <c r="AL104" s="45"/>
+      <c r="AM104" s="45"/>
+      <c r="AN104" s="45"/>
+      <c r="AO104" s="45"/>
+      <c r="AP104" s="45"/>
+      <c r="AQ104" s="45"/>
+      <c r="AR104" s="45"/>
+      <c r="AS104" s="45"/>
+      <c r="AT104" s="45"/>
+      <c r="AU104" s="45"/>
+      <c r="AV104" s="45"/>
+      <c r="AW104" s="46"/>
     </row>
     <row r="105" spans="3:49" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E105" s="43"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="37">
+      <c r="E105" s="47"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="38">
         <v>1</v>
       </c>
-      <c r="M105" s="37"/>
-      <c r="N105" s="38" t="s">
+      <c r="M105" s="38"/>
+      <c r="N105" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
-      <c r="Q105" s="38"/>
-      <c r="R105" s="38"/>
-      <c r="S105" s="38"/>
-      <c r="T105" s="38"/>
-      <c r="U105" s="38" t="s">
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="39"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="V105" s="38"/>
-      <c r="W105" s="38"/>
-      <c r="X105" s="38"/>
-      <c r="Y105" s="38"/>
-      <c r="Z105" s="45" t="s">
+      <c r="V105" s="39"/>
+      <c r="W105" s="39"/>
+      <c r="X105" s="39"/>
+      <c r="Y105" s="39"/>
+      <c r="Z105" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AA105" s="45"/>
-      <c r="AB105" s="45"/>
-      <c r="AC105" s="45"/>
-      <c r="AD105" s="45"/>
-      <c r="AE105" s="45"/>
-      <c r="AF105" s="45"/>
-      <c r="AG105" s="45"/>
-      <c r="AH105" s="45"/>
-      <c r="AI105" s="45"/>
-      <c r="AJ105" s="45"/>
-      <c r="AK105" s="45"/>
-      <c r="AL105" s="45"/>
-      <c r="AM105" s="45"/>
-      <c r="AN105" s="45"/>
-      <c r="AO105" s="45"/>
-      <c r="AP105" s="45"/>
-      <c r="AQ105" s="45"/>
-      <c r="AR105" s="45"/>
-      <c r="AS105" s="45"/>
-      <c r="AT105" s="45"/>
-      <c r="AU105" s="45"/>
-      <c r="AV105" s="45"/>
-      <c r="AW105" s="46"/>
+      <c r="AA105" s="59"/>
+      <c r="AB105" s="59"/>
+      <c r="AC105" s="59"/>
+      <c r="AD105" s="59"/>
+      <c r="AE105" s="59"/>
+      <c r="AF105" s="59"/>
+      <c r="AG105" s="59"/>
+      <c r="AH105" s="59"/>
+      <c r="AI105" s="59"/>
+      <c r="AJ105" s="59"/>
+      <c r="AK105" s="59"/>
+      <c r="AL105" s="59"/>
+      <c r="AM105" s="59"/>
+      <c r="AN105" s="59"/>
+      <c r="AO105" s="59"/>
+      <c r="AP105" s="59"/>
+      <c r="AQ105" s="59"/>
+      <c r="AR105" s="59"/>
+      <c r="AS105" s="59"/>
+      <c r="AT105" s="59"/>
+      <c r="AU105" s="59"/>
+      <c r="AV105" s="59"/>
+      <c r="AW105" s="60"/>
     </row>
     <row r="106" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="33" t="s">
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M106" s="34"/>
-      <c r="N106" s="35" t="s">
+      <c r="M106" s="44"/>
+      <c r="N106" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O106" s="35"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35" t="s">
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
+      <c r="Q106" s="45"/>
+      <c r="R106" s="45"/>
+      <c r="S106" s="45"/>
+      <c r="T106" s="45"/>
+      <c r="U106" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V106" s="35"/>
-      <c r="W106" s="35"/>
-      <c r="X106" s="35"/>
-      <c r="Y106" s="35"/>
-      <c r="Z106" s="35" t="s">
+      <c r="V106" s="45"/>
+      <c r="W106" s="45"/>
+      <c r="X106" s="45"/>
+      <c r="Y106" s="45"/>
+      <c r="Z106" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA106" s="35"/>
-      <c r="AB106" s="35"/>
-      <c r="AC106" s="35"/>
-      <c r="AD106" s="35"/>
-      <c r="AE106" s="35"/>
-      <c r="AF106" s="35"/>
-      <c r="AG106" s="35"/>
-      <c r="AH106" s="35"/>
-      <c r="AI106" s="35"/>
-      <c r="AJ106" s="35"/>
-      <c r="AK106" s="35"/>
-      <c r="AL106" s="35"/>
-      <c r="AM106" s="35"/>
-      <c r="AN106" s="35"/>
-      <c r="AO106" s="35"/>
-      <c r="AP106" s="35"/>
-      <c r="AQ106" s="35"/>
-      <c r="AR106" s="35"/>
-      <c r="AS106" s="35"/>
-      <c r="AT106" s="35"/>
-      <c r="AU106" s="35"/>
-      <c r="AV106" s="35"/>
-      <c r="AW106" s="36"/>
+      <c r="AA106" s="45"/>
+      <c r="AB106" s="45"/>
+      <c r="AC106" s="45"/>
+      <c r="AD106" s="45"/>
+      <c r="AE106" s="45"/>
+      <c r="AF106" s="45"/>
+      <c r="AG106" s="45"/>
+      <c r="AH106" s="45"/>
+      <c r="AI106" s="45"/>
+      <c r="AJ106" s="45"/>
+      <c r="AK106" s="45"/>
+      <c r="AL106" s="45"/>
+      <c r="AM106" s="45"/>
+      <c r="AN106" s="45"/>
+      <c r="AO106" s="45"/>
+      <c r="AP106" s="45"/>
+      <c r="AQ106" s="45"/>
+      <c r="AR106" s="45"/>
+      <c r="AS106" s="45"/>
+      <c r="AT106" s="45"/>
+      <c r="AU106" s="45"/>
+      <c r="AV106" s="45"/>
+      <c r="AW106" s="46"/>
     </row>
     <row r="107" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E107" s="27"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="37">
+      <c r="E107" s="32"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="38">
         <v>1</v>
       </c>
-      <c r="M107" s="37"/>
-      <c r="N107" s="38" t="s">
+      <c r="M107" s="38"/>
+      <c r="N107" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O107" s="38"/>
-      <c r="P107" s="38"/>
-      <c r="Q107" s="38"/>
-      <c r="R107" s="38"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="38" t="s">
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="39"/>
+      <c r="T107" s="39"/>
+      <c r="U107" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V107" s="38"/>
-      <c r="W107" s="38"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="38" t="s">
+      <c r="V107" s="39"/>
+      <c r="W107" s="39"/>
+      <c r="X107" s="39"/>
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA107" s="38"/>
-      <c r="AB107" s="38"/>
-      <c r="AC107" s="38"/>
-      <c r="AD107" s="38"/>
-      <c r="AE107" s="38"/>
-      <c r="AF107" s="38"/>
-      <c r="AG107" s="38"/>
-      <c r="AH107" s="38"/>
-      <c r="AI107" s="38"/>
-      <c r="AJ107" s="38"/>
-      <c r="AK107" s="38"/>
-      <c r="AL107" s="38"/>
-      <c r="AM107" s="38"/>
-      <c r="AN107" s="38"/>
-      <c r="AO107" s="38"/>
-      <c r="AP107" s="38"/>
-      <c r="AQ107" s="38"/>
-      <c r="AR107" s="38"/>
-      <c r="AS107" s="38"/>
-      <c r="AT107" s="38"/>
-      <c r="AU107" s="38"/>
-      <c r="AV107" s="38"/>
-      <c r="AW107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="39"/>
+      <c r="AH107" s="39"/>
+      <c r="AI107" s="39"/>
+      <c r="AJ107" s="39"/>
+      <c r="AK107" s="39"/>
+      <c r="AL107" s="39"/>
+      <c r="AM107" s="39"/>
+      <c r="AN107" s="39"/>
+      <c r="AO107" s="39"/>
+      <c r="AP107" s="39"/>
+      <c r="AQ107" s="39"/>
+      <c r="AR107" s="39"/>
+      <c r="AS107" s="39"/>
+      <c r="AT107" s="39"/>
+      <c r="AU107" s="39"/>
+      <c r="AV107" s="39"/>
+      <c r="AW107" s="40"/>
     </row>
     <row r="108" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E108" s="30"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="40">
+      <c r="E108" s="35"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="26">
         <v>2</v>
       </c>
-      <c r="M108" s="40"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="41"/>
-      <c r="X108" s="41"/>
-      <c r="Y108" s="41"/>
-      <c r="Z108" s="41"/>
-      <c r="AA108" s="41"/>
-      <c r="AB108" s="41"/>
-      <c r="AC108" s="41"/>
-      <c r="AD108" s="41"/>
-      <c r="AE108" s="41"/>
-      <c r="AF108" s="41"/>
-      <c r="AG108" s="41"/>
-      <c r="AH108" s="41"/>
-      <c r="AI108" s="41"/>
-      <c r="AJ108" s="41"/>
-      <c r="AK108" s="41"/>
-      <c r="AL108" s="41"/>
-      <c r="AM108" s="41"/>
-      <c r="AN108" s="41"/>
-      <c r="AO108" s="41"/>
-      <c r="AP108" s="41"/>
-      <c r="AQ108" s="41"/>
-      <c r="AR108" s="41"/>
-      <c r="AS108" s="41"/>
-      <c r="AT108" s="41"/>
-      <c r="AU108" s="41"/>
-      <c r="AV108" s="41"/>
-      <c r="AW108" s="42"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="27"/>
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="27"/>
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="27"/>
+      <c r="AO108" s="27"/>
+      <c r="AP108" s="27"/>
+      <c r="AQ108" s="27"/>
+      <c r="AR108" s="27"/>
+      <c r="AS108" s="27"/>
+      <c r="AT108" s="27"/>
+      <c r="AU108" s="27"/>
+      <c r="AV108" s="27"/>
+      <c r="AW108" s="28"/>
     </row>
     <row r="109" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N109" s="6"/>
@@ -11294,66 +11303,66 @@
       </c>
     </row>
     <row r="157" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E157" s="47" t="s">
+      <c r="E157" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F157" s="48"/>
-      <c r="G157" s="48"/>
-      <c r="H157" s="48"/>
-      <c r="I157" s="48"/>
-      <c r="J157" s="48"/>
-      <c r="K157" s="48"/>
-      <c r="L157" s="49" t="s">
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="M157" s="49"/>
-      <c r="N157" s="49"/>
-      <c r="O157" s="49"/>
-      <c r="P157" s="49"/>
-      <c r="Q157" s="49"/>
-      <c r="R157" s="49"/>
-      <c r="S157" s="49"/>
-      <c r="T157" s="49"/>
-      <c r="U157" s="49"/>
-      <c r="V157" s="49"/>
-      <c r="W157" s="49"/>
-      <c r="X157" s="49"/>
-      <c r="Y157" s="49"/>
-      <c r="Z157" s="49"/>
-      <c r="AA157" s="49"/>
-      <c r="AB157" s="49"/>
-      <c r="AC157" s="49"/>
-      <c r="AD157" s="49"/>
-      <c r="AE157" s="49"/>
-      <c r="AF157" s="49"/>
-      <c r="AG157" s="49"/>
-      <c r="AH157" s="49"/>
-      <c r="AI157" s="49"/>
-      <c r="AJ157" s="49"/>
-      <c r="AK157" s="49"/>
-      <c r="AL157" s="49"/>
-      <c r="AM157" s="49"/>
-      <c r="AN157" s="49"/>
-      <c r="AO157" s="49"/>
-      <c r="AP157" s="49"/>
-      <c r="AQ157" s="49"/>
-      <c r="AR157" s="49"/>
-      <c r="AS157" s="49"/>
-      <c r="AT157" s="49"/>
-      <c r="AU157" s="49"/>
-      <c r="AV157" s="49"/>
-      <c r="AW157" s="50"/>
+      <c r="M157" s="41"/>
+      <c r="N157" s="41"/>
+      <c r="O157" s="41"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="41"/>
+      <c r="R157" s="41"/>
+      <c r="S157" s="41"/>
+      <c r="T157" s="41"/>
+      <c r="U157" s="41"/>
+      <c r="V157" s="41"/>
+      <c r="W157" s="41"/>
+      <c r="X157" s="41"/>
+      <c r="Y157" s="41"/>
+      <c r="Z157" s="41"/>
+      <c r="AA157" s="41"/>
+      <c r="AB157" s="41"/>
+      <c r="AC157" s="41"/>
+      <c r="AD157" s="41"/>
+      <c r="AE157" s="41"/>
+      <c r="AF157" s="41"/>
+      <c r="AG157" s="41"/>
+      <c r="AH157" s="41"/>
+      <c r="AI157" s="41"/>
+      <c r="AJ157" s="41"/>
+      <c r="AK157" s="41"/>
+      <c r="AL157" s="41"/>
+      <c r="AM157" s="41"/>
+      <c r="AN157" s="41"/>
+      <c r="AO157" s="41"/>
+      <c r="AP157" s="41"/>
+      <c r="AQ157" s="41"/>
+      <c r="AR157" s="41"/>
+      <c r="AS157" s="41"/>
+      <c r="AT157" s="41"/>
+      <c r="AU157" s="41"/>
+      <c r="AV157" s="41"/>
+      <c r="AW157" s="42"/>
     </row>
     <row r="158" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E158" s="51" t="s">
+      <c r="E158" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F158" s="52"/>
-      <c r="G158" s="52"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="52"/>
-      <c r="K158" s="53"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
+      <c r="I158" s="62"/>
+      <c r="J158" s="62"/>
+      <c r="K158" s="63"/>
       <c r="L158" s="16" t="s">
         <v>83</v>
       </c>
@@ -11393,174 +11402,174 @@
       <c r="AT158" s="17"/>
       <c r="AU158" s="17"/>
       <c r="AV158" s="17"/>
-      <c r="AW158" s="54"/>
+      <c r="AW158" s="53"/>
     </row>
     <row r="159" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E159" s="43" t="s">
+      <c r="E159" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
-      <c r="K159" s="44"/>
-      <c r="L159" s="33" t="s">
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="48"/>
+      <c r="K159" s="48"/>
+      <c r="L159" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M159" s="34"/>
-      <c r="N159" s="35" t="s">
+      <c r="M159" s="44"/>
+      <c r="N159" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O159" s="35"/>
-      <c r="P159" s="35"/>
-      <c r="Q159" s="35"/>
-      <c r="R159" s="35"/>
-      <c r="S159" s="35"/>
-      <c r="T159" s="35"/>
-      <c r="U159" s="35" t="s">
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="45"/>
+      <c r="R159" s="45"/>
+      <c r="S159" s="45"/>
+      <c r="T159" s="45"/>
+      <c r="U159" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V159" s="35"/>
-      <c r="W159" s="35"/>
-      <c r="X159" s="35"/>
-      <c r="Y159" s="35"/>
-      <c r="Z159" s="35" t="s">
+      <c r="V159" s="45"/>
+      <c r="W159" s="45"/>
+      <c r="X159" s="45"/>
+      <c r="Y159" s="45"/>
+      <c r="Z159" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA159" s="35"/>
-      <c r="AB159" s="35"/>
-      <c r="AC159" s="35"/>
-      <c r="AD159" s="35"/>
-      <c r="AE159" s="35"/>
-      <c r="AF159" s="35"/>
-      <c r="AG159" s="35"/>
-      <c r="AH159" s="35"/>
-      <c r="AI159" s="35"/>
-      <c r="AJ159" s="35"/>
-      <c r="AK159" s="35"/>
-      <c r="AL159" s="35"/>
-      <c r="AM159" s="35"/>
-      <c r="AN159" s="35"/>
-      <c r="AO159" s="35"/>
-      <c r="AP159" s="35"/>
-      <c r="AQ159" s="35"/>
-      <c r="AR159" s="35"/>
-      <c r="AS159" s="35"/>
-      <c r="AT159" s="35"/>
-      <c r="AU159" s="35"/>
-      <c r="AV159" s="35"/>
-      <c r="AW159" s="36"/>
+      <c r="AA159" s="45"/>
+      <c r="AB159" s="45"/>
+      <c r="AC159" s="45"/>
+      <c r="AD159" s="45"/>
+      <c r="AE159" s="45"/>
+      <c r="AF159" s="45"/>
+      <c r="AG159" s="45"/>
+      <c r="AH159" s="45"/>
+      <c r="AI159" s="45"/>
+      <c r="AJ159" s="45"/>
+      <c r="AK159" s="45"/>
+      <c r="AL159" s="45"/>
+      <c r="AM159" s="45"/>
+      <c r="AN159" s="45"/>
+      <c r="AO159" s="45"/>
+      <c r="AP159" s="45"/>
+      <c r="AQ159" s="45"/>
+      <c r="AR159" s="45"/>
+      <c r="AS159" s="45"/>
+      <c r="AT159" s="45"/>
+      <c r="AU159" s="45"/>
+      <c r="AV159" s="45"/>
+      <c r="AW159" s="46"/>
     </row>
     <row r="160" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E160" s="43"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="44"/>
-      <c r="L160" s="37">
+      <c r="E160" s="47"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="48"/>
+      <c r="K160" s="48"/>
+      <c r="L160" s="38">
         <v>1</v>
       </c>
-      <c r="M160" s="37"/>
-      <c r="N160" s="38" t="s">
+      <c r="M160" s="38"/>
+      <c r="N160" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O160" s="38"/>
-      <c r="P160" s="38"/>
-      <c r="Q160" s="38"/>
-      <c r="R160" s="38"/>
-      <c r="S160" s="38"/>
-      <c r="T160" s="38"/>
-      <c r="U160" s="38" t="s">
+      <c r="O160" s="39"/>
+      <c r="P160" s="39"/>
+      <c r="Q160" s="39"/>
+      <c r="R160" s="39"/>
+      <c r="S160" s="39"/>
+      <c r="T160" s="39"/>
+      <c r="U160" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="V160" s="38"/>
-      <c r="W160" s="38"/>
-      <c r="X160" s="38"/>
-      <c r="Y160" s="38"/>
-      <c r="Z160" s="38" t="s">
+      <c r="V160" s="39"/>
+      <c r="W160" s="39"/>
+      <c r="X160" s="39"/>
+      <c r="Y160" s="39"/>
+      <c r="Z160" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AA160" s="38"/>
-      <c r="AB160" s="38"/>
-      <c r="AC160" s="38"/>
-      <c r="AD160" s="38"/>
-      <c r="AE160" s="38"/>
-      <c r="AF160" s="38"/>
-      <c r="AG160" s="38"/>
-      <c r="AH160" s="38"/>
-      <c r="AI160" s="38"/>
-      <c r="AJ160" s="38"/>
-      <c r="AK160" s="38"/>
-      <c r="AL160" s="38"/>
-      <c r="AM160" s="38"/>
-      <c r="AN160" s="38"/>
-      <c r="AO160" s="38"/>
-      <c r="AP160" s="38"/>
-      <c r="AQ160" s="38"/>
-      <c r="AR160" s="38"/>
-      <c r="AS160" s="38"/>
-      <c r="AT160" s="38"/>
-      <c r="AU160" s="38"/>
-      <c r="AV160" s="38"/>
-      <c r="AW160" s="39"/>
+      <c r="AA160" s="39"/>
+      <c r="AB160" s="39"/>
+      <c r="AC160" s="39"/>
+      <c r="AD160" s="39"/>
+      <c r="AE160" s="39"/>
+      <c r="AF160" s="39"/>
+      <c r="AG160" s="39"/>
+      <c r="AH160" s="39"/>
+      <c r="AI160" s="39"/>
+      <c r="AJ160" s="39"/>
+      <c r="AK160" s="39"/>
+      <c r="AL160" s="39"/>
+      <c r="AM160" s="39"/>
+      <c r="AN160" s="39"/>
+      <c r="AO160" s="39"/>
+      <c r="AP160" s="39"/>
+      <c r="AQ160" s="39"/>
+      <c r="AR160" s="39"/>
+      <c r="AS160" s="39"/>
+      <c r="AT160" s="39"/>
+      <c r="AU160" s="39"/>
+      <c r="AV160" s="39"/>
+      <c r="AW160" s="40"/>
     </row>
     <row r="161" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E161" s="55"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="56"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-      <c r="L161" s="40">
+      <c r="E161" s="64"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
+      <c r="H161" s="65"/>
+      <c r="I161" s="65"/>
+      <c r="J161" s="65"/>
+      <c r="K161" s="65"/>
+      <c r="L161" s="26">
         <v>2</v>
       </c>
-      <c r="M161" s="40"/>
-      <c r="N161" s="41" t="s">
+      <c r="M161" s="26"/>
+      <c r="N161" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O161" s="41"/>
-      <c r="P161" s="41"/>
-      <c r="Q161" s="41"/>
-      <c r="R161" s="41"/>
-      <c r="S161" s="41"/>
-      <c r="T161" s="41"/>
-      <c r="U161" s="41" t="s">
+      <c r="O161" s="27"/>
+      <c r="P161" s="27"/>
+      <c r="Q161" s="27"/>
+      <c r="R161" s="27"/>
+      <c r="S161" s="27"/>
+      <c r="T161" s="27"/>
+      <c r="U161" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="V161" s="41"/>
-      <c r="W161" s="41"/>
-      <c r="X161" s="41"/>
-      <c r="Y161" s="41"/>
-      <c r="Z161" s="41" t="s">
+      <c r="V161" s="27"/>
+      <c r="W161" s="27"/>
+      <c r="X161" s="27"/>
+      <c r="Y161" s="27"/>
+      <c r="Z161" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AA161" s="41"/>
-      <c r="AB161" s="41"/>
-      <c r="AC161" s="41"/>
-      <c r="AD161" s="41"/>
-      <c r="AE161" s="41"/>
-      <c r="AF161" s="41"/>
-      <c r="AG161" s="41"/>
-      <c r="AH161" s="41"/>
-      <c r="AI161" s="41"/>
-      <c r="AJ161" s="41"/>
-      <c r="AK161" s="41"/>
-      <c r="AL161" s="41"/>
-      <c r="AM161" s="41"/>
-      <c r="AN161" s="41"/>
-      <c r="AO161" s="41"/>
-      <c r="AP161" s="41"/>
-      <c r="AQ161" s="41"/>
-      <c r="AR161" s="41"/>
-      <c r="AS161" s="41"/>
-      <c r="AT161" s="41"/>
-      <c r="AU161" s="41"/>
-      <c r="AV161" s="41"/>
-      <c r="AW161" s="42"/>
+      <c r="AA161" s="27"/>
+      <c r="AB161" s="27"/>
+      <c r="AC161" s="27"/>
+      <c r="AD161" s="27"/>
+      <c r="AE161" s="27"/>
+      <c r="AF161" s="27"/>
+      <c r="AG161" s="27"/>
+      <c r="AH161" s="27"/>
+      <c r="AI161" s="27"/>
+      <c r="AJ161" s="27"/>
+      <c r="AK161" s="27"/>
+      <c r="AL161" s="27"/>
+      <c r="AM161" s="27"/>
+      <c r="AN161" s="27"/>
+      <c r="AO161" s="27"/>
+      <c r="AP161" s="27"/>
+      <c r="AQ161" s="27"/>
+      <c r="AR161" s="27"/>
+      <c r="AS161" s="27"/>
+      <c r="AT161" s="27"/>
+      <c r="AU161" s="27"/>
+      <c r="AV161" s="27"/>
+      <c r="AW161" s="28"/>
     </row>
     <row r="162" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N162" s="6"/>
@@ -11601,546 +11610,546 @@
       </c>
     </row>
     <row r="164" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E164" s="47" t="s">
+      <c r="E164" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48"/>
-      <c r="K164" s="48"/>
-      <c r="L164" s="49" t="s">
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="M164" s="49"/>
-      <c r="N164" s="49"/>
-      <c r="O164" s="49"/>
-      <c r="P164" s="49"/>
-      <c r="Q164" s="49"/>
-      <c r="R164" s="49"/>
-      <c r="S164" s="49"/>
-      <c r="T164" s="49"/>
-      <c r="U164" s="49"/>
-      <c r="V164" s="49"/>
-      <c r="W164" s="49"/>
-      <c r="X164" s="49"/>
-      <c r="Y164" s="49"/>
-      <c r="Z164" s="49"/>
-      <c r="AA164" s="49"/>
-      <c r="AB164" s="49"/>
-      <c r="AC164" s="49"/>
-      <c r="AD164" s="49"/>
-      <c r="AE164" s="49"/>
-      <c r="AF164" s="49"/>
-      <c r="AG164" s="49"/>
-      <c r="AH164" s="49"/>
-      <c r="AI164" s="49"/>
-      <c r="AJ164" s="49"/>
-      <c r="AK164" s="49"/>
-      <c r="AL164" s="49"/>
-      <c r="AM164" s="49"/>
-      <c r="AN164" s="49"/>
-      <c r="AO164" s="49"/>
-      <c r="AP164" s="49"/>
-      <c r="AQ164" s="49"/>
-      <c r="AR164" s="49"/>
-      <c r="AS164" s="49"/>
-      <c r="AT164" s="49"/>
-      <c r="AU164" s="49"/>
-      <c r="AV164" s="49"/>
-      <c r="AW164" s="50"/>
+      <c r="M164" s="41"/>
+      <c r="N164" s="41"/>
+      <c r="O164" s="41"/>
+      <c r="P164" s="41"/>
+      <c r="Q164" s="41"/>
+      <c r="R164" s="41"/>
+      <c r="S164" s="41"/>
+      <c r="T164" s="41"/>
+      <c r="U164" s="41"/>
+      <c r="V164" s="41"/>
+      <c r="W164" s="41"/>
+      <c r="X164" s="41"/>
+      <c r="Y164" s="41"/>
+      <c r="Z164" s="41"/>
+      <c r="AA164" s="41"/>
+      <c r="AB164" s="41"/>
+      <c r="AC164" s="41"/>
+      <c r="AD164" s="41"/>
+      <c r="AE164" s="41"/>
+      <c r="AF164" s="41"/>
+      <c r="AG164" s="41"/>
+      <c r="AH164" s="41"/>
+      <c r="AI164" s="41"/>
+      <c r="AJ164" s="41"/>
+      <c r="AK164" s="41"/>
+      <c r="AL164" s="41"/>
+      <c r="AM164" s="41"/>
+      <c r="AN164" s="41"/>
+      <c r="AO164" s="41"/>
+      <c r="AP164" s="41"/>
+      <c r="AQ164" s="41"/>
+      <c r="AR164" s="41"/>
+      <c r="AS164" s="41"/>
+      <c r="AT164" s="41"/>
+      <c r="AU164" s="41"/>
+      <c r="AV164" s="41"/>
+      <c r="AW164" s="42"/>
     </row>
     <row r="165" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E165" s="43" t="s">
+      <c r="E165" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="44"/>
-      <c r="L165" s="38" t="s">
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48"/>
+      <c r="J165" s="48"/>
+      <c r="K165" s="48"/>
+      <c r="L165" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="M165" s="38"/>
-      <c r="N165" s="38"/>
-      <c r="O165" s="38"/>
-      <c r="P165" s="38"/>
-      <c r="Q165" s="38"/>
-      <c r="R165" s="38"/>
-      <c r="S165" s="38"/>
-      <c r="T165" s="38"/>
-      <c r="U165" s="38"/>
-      <c r="V165" s="38"/>
-      <c r="W165" s="38"/>
-      <c r="X165" s="38"/>
-      <c r="Y165" s="38"/>
-      <c r="Z165" s="38"/>
-      <c r="AA165" s="38"/>
-      <c r="AB165" s="38"/>
-      <c r="AC165" s="38"/>
-      <c r="AD165" s="38"/>
-      <c r="AE165" s="38"/>
-      <c r="AF165" s="38"/>
-      <c r="AG165" s="38"/>
-      <c r="AH165" s="38"/>
-      <c r="AI165" s="38"/>
-      <c r="AJ165" s="38"/>
-      <c r="AK165" s="38"/>
-      <c r="AL165" s="38"/>
-      <c r="AM165" s="38"/>
-      <c r="AN165" s="38"/>
-      <c r="AO165" s="38"/>
-      <c r="AP165" s="38"/>
-      <c r="AQ165" s="38"/>
-      <c r="AR165" s="38"/>
-      <c r="AS165" s="38"/>
-      <c r="AT165" s="38"/>
-      <c r="AU165" s="38"/>
-      <c r="AV165" s="38"/>
-      <c r="AW165" s="39"/>
+      <c r="M165" s="39"/>
+      <c r="N165" s="39"/>
+      <c r="O165" s="39"/>
+      <c r="P165" s="39"/>
+      <c r="Q165" s="39"/>
+      <c r="R165" s="39"/>
+      <c r="S165" s="39"/>
+      <c r="T165" s="39"/>
+      <c r="U165" s="39"/>
+      <c r="V165" s="39"/>
+      <c r="W165" s="39"/>
+      <c r="X165" s="39"/>
+      <c r="Y165" s="39"/>
+      <c r="Z165" s="39"/>
+      <c r="AA165" s="39"/>
+      <c r="AB165" s="39"/>
+      <c r="AC165" s="39"/>
+      <c r="AD165" s="39"/>
+      <c r="AE165" s="39"/>
+      <c r="AF165" s="39"/>
+      <c r="AG165" s="39"/>
+      <c r="AH165" s="39"/>
+      <c r="AI165" s="39"/>
+      <c r="AJ165" s="39"/>
+      <c r="AK165" s="39"/>
+      <c r="AL165" s="39"/>
+      <c r="AM165" s="39"/>
+      <c r="AN165" s="39"/>
+      <c r="AO165" s="39"/>
+      <c r="AP165" s="39"/>
+      <c r="AQ165" s="39"/>
+      <c r="AR165" s="39"/>
+      <c r="AS165" s="39"/>
+      <c r="AT165" s="39"/>
+      <c r="AU165" s="39"/>
+      <c r="AV165" s="39"/>
+      <c r="AW165" s="40"/>
     </row>
     <row r="166" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E166" s="43" t="s">
+      <c r="E166" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="44"/>
-      <c r="I166" s="44"/>
-      <c r="J166" s="44"/>
-      <c r="K166" s="44"/>
-      <c r="L166" s="33" t="s">
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48"/>
+      <c r="J166" s="48"/>
+      <c r="K166" s="48"/>
+      <c r="L166" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M166" s="34"/>
-      <c r="N166" s="35" t="s">
+      <c r="M166" s="44"/>
+      <c r="N166" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="35"/>
-      <c r="S166" s="35"/>
-      <c r="T166" s="35"/>
-      <c r="U166" s="35" t="s">
+      <c r="O166" s="45"/>
+      <c r="P166" s="45"/>
+      <c r="Q166" s="45"/>
+      <c r="R166" s="45"/>
+      <c r="S166" s="45"/>
+      <c r="T166" s="45"/>
+      <c r="U166" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V166" s="35"/>
-      <c r="W166" s="35"/>
-      <c r="X166" s="35"/>
-      <c r="Y166" s="35"/>
-      <c r="Z166" s="35" t="s">
+      <c r="V166" s="45"/>
+      <c r="W166" s="45"/>
+      <c r="X166" s="45"/>
+      <c r="Y166" s="45"/>
+      <c r="Z166" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA166" s="35"/>
-      <c r="AB166" s="35"/>
-      <c r="AC166" s="35"/>
-      <c r="AD166" s="35"/>
-      <c r="AE166" s="35"/>
-      <c r="AF166" s="35"/>
-      <c r="AG166" s="35"/>
-      <c r="AH166" s="35"/>
-      <c r="AI166" s="35"/>
-      <c r="AJ166" s="35"/>
-      <c r="AK166" s="35"/>
-      <c r="AL166" s="35"/>
-      <c r="AM166" s="35"/>
-      <c r="AN166" s="35"/>
-      <c r="AO166" s="35"/>
-      <c r="AP166" s="35"/>
-      <c r="AQ166" s="35"/>
-      <c r="AR166" s="35"/>
-      <c r="AS166" s="35"/>
-      <c r="AT166" s="35"/>
-      <c r="AU166" s="35"/>
-      <c r="AV166" s="35"/>
-      <c r="AW166" s="36"/>
+      <c r="AA166" s="45"/>
+      <c r="AB166" s="45"/>
+      <c r="AC166" s="45"/>
+      <c r="AD166" s="45"/>
+      <c r="AE166" s="45"/>
+      <c r="AF166" s="45"/>
+      <c r="AG166" s="45"/>
+      <c r="AH166" s="45"/>
+      <c r="AI166" s="45"/>
+      <c r="AJ166" s="45"/>
+      <c r="AK166" s="45"/>
+      <c r="AL166" s="45"/>
+      <c r="AM166" s="45"/>
+      <c r="AN166" s="45"/>
+      <c r="AO166" s="45"/>
+      <c r="AP166" s="45"/>
+      <c r="AQ166" s="45"/>
+      <c r="AR166" s="45"/>
+      <c r="AS166" s="45"/>
+      <c r="AT166" s="45"/>
+      <c r="AU166" s="45"/>
+      <c r="AV166" s="45"/>
+      <c r="AW166" s="46"/>
     </row>
     <row r="167" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E167" s="43"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="44"/>
-      <c r="L167" s="37">
+      <c r="E167" s="47"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="48"/>
+      <c r="J167" s="48"/>
+      <c r="K167" s="48"/>
+      <c r="L167" s="38">
         <v>1</v>
       </c>
-      <c r="M167" s="37"/>
-      <c r="N167" s="38" t="s">
+      <c r="M167" s="38"/>
+      <c r="N167" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O167" s="38"/>
-      <c r="P167" s="38"/>
-      <c r="Q167" s="38"/>
-      <c r="R167" s="38"/>
-      <c r="S167" s="38"/>
-      <c r="T167" s="38"/>
-      <c r="U167" s="38" t="s">
+      <c r="O167" s="39"/>
+      <c r="P167" s="39"/>
+      <c r="Q167" s="39"/>
+      <c r="R167" s="39"/>
+      <c r="S167" s="39"/>
+      <c r="T167" s="39"/>
+      <c r="U167" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V167" s="38"/>
-      <c r="W167" s="38"/>
-      <c r="X167" s="38"/>
-      <c r="Y167" s="38"/>
-      <c r="Z167" s="38" t="s">
+      <c r="V167" s="39"/>
+      <c r="W167" s="39"/>
+      <c r="X167" s="39"/>
+      <c r="Y167" s="39"/>
+      <c r="Z167" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AA167" s="38"/>
-      <c r="AB167" s="38"/>
-      <c r="AC167" s="38"/>
-      <c r="AD167" s="38"/>
-      <c r="AE167" s="38"/>
-      <c r="AF167" s="38"/>
-      <c r="AG167" s="38"/>
-      <c r="AH167" s="38"/>
-      <c r="AI167" s="38"/>
-      <c r="AJ167" s="38"/>
-      <c r="AK167" s="38"/>
-      <c r="AL167" s="38"/>
-      <c r="AM167" s="38"/>
-      <c r="AN167" s="38"/>
-      <c r="AO167" s="38"/>
-      <c r="AP167" s="38"/>
-      <c r="AQ167" s="38"/>
-      <c r="AR167" s="38"/>
-      <c r="AS167" s="38"/>
-      <c r="AT167" s="38"/>
-      <c r="AU167" s="38"/>
-      <c r="AV167" s="38"/>
-      <c r="AW167" s="39"/>
+      <c r="AA167" s="39"/>
+      <c r="AB167" s="39"/>
+      <c r="AC167" s="39"/>
+      <c r="AD167" s="39"/>
+      <c r="AE167" s="39"/>
+      <c r="AF167" s="39"/>
+      <c r="AG167" s="39"/>
+      <c r="AH167" s="39"/>
+      <c r="AI167" s="39"/>
+      <c r="AJ167" s="39"/>
+      <c r="AK167" s="39"/>
+      <c r="AL167" s="39"/>
+      <c r="AM167" s="39"/>
+      <c r="AN167" s="39"/>
+      <c r="AO167" s="39"/>
+      <c r="AP167" s="39"/>
+      <c r="AQ167" s="39"/>
+      <c r="AR167" s="39"/>
+      <c r="AS167" s="39"/>
+      <c r="AT167" s="39"/>
+      <c r="AU167" s="39"/>
+      <c r="AV167" s="39"/>
+      <c r="AW167" s="40"/>
     </row>
     <row r="168" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E168" s="43"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="44"/>
-      <c r="I168" s="44"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="44"/>
-      <c r="L168" s="37">
+      <c r="E168" s="47"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="48"/>
+      <c r="I168" s="48"/>
+      <c r="J168" s="48"/>
+      <c r="K168" s="48"/>
+      <c r="L168" s="38">
         <v>2</v>
       </c>
-      <c r="M168" s="37"/>
-      <c r="N168" s="38" t="s">
+      <c r="M168" s="38"/>
+      <c r="N168" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="O168" s="38"/>
-      <c r="P168" s="38"/>
-      <c r="Q168" s="38"/>
-      <c r="R168" s="38"/>
-      <c r="S168" s="38"/>
-      <c r="T168" s="38"/>
-      <c r="U168" s="38" t="s">
+      <c r="O168" s="39"/>
+      <c r="P168" s="39"/>
+      <c r="Q168" s="39"/>
+      <c r="R168" s="39"/>
+      <c r="S168" s="39"/>
+      <c r="T168" s="39"/>
+      <c r="U168" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V168" s="38"/>
-      <c r="W168" s="38"/>
-      <c r="X168" s="38"/>
-      <c r="Y168" s="38"/>
-      <c r="Z168" s="38" t="s">
+      <c r="V168" s="39"/>
+      <c r="W168" s="39"/>
+      <c r="X168" s="39"/>
+      <c r="Y168" s="39"/>
+      <c r="Z168" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AA168" s="38"/>
-      <c r="AB168" s="38"/>
-      <c r="AC168" s="38"/>
-      <c r="AD168" s="38"/>
-      <c r="AE168" s="38"/>
-      <c r="AF168" s="38"/>
-      <c r="AG168" s="38"/>
-      <c r="AH168" s="38"/>
-      <c r="AI168" s="38"/>
-      <c r="AJ168" s="38"/>
-      <c r="AK168" s="38"/>
-      <c r="AL168" s="38"/>
-      <c r="AM168" s="38"/>
-      <c r="AN168" s="38"/>
-      <c r="AO168" s="38"/>
-      <c r="AP168" s="38"/>
-      <c r="AQ168" s="38"/>
-      <c r="AR168" s="38"/>
-      <c r="AS168" s="38"/>
-      <c r="AT168" s="38"/>
-      <c r="AU168" s="38"/>
-      <c r="AV168" s="38"/>
-      <c r="AW168" s="39"/>
+      <c r="AA168" s="39"/>
+      <c r="AB168" s="39"/>
+      <c r="AC168" s="39"/>
+      <c r="AD168" s="39"/>
+      <c r="AE168" s="39"/>
+      <c r="AF168" s="39"/>
+      <c r="AG168" s="39"/>
+      <c r="AH168" s="39"/>
+      <c r="AI168" s="39"/>
+      <c r="AJ168" s="39"/>
+      <c r="AK168" s="39"/>
+      <c r="AL168" s="39"/>
+      <c r="AM168" s="39"/>
+      <c r="AN168" s="39"/>
+      <c r="AO168" s="39"/>
+      <c r="AP168" s="39"/>
+      <c r="AQ168" s="39"/>
+      <c r="AR168" s="39"/>
+      <c r="AS168" s="39"/>
+      <c r="AT168" s="39"/>
+      <c r="AU168" s="39"/>
+      <c r="AV168" s="39"/>
+      <c r="AW168" s="40"/>
     </row>
     <row r="169" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E169" s="43" t="s">
+      <c r="E169" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="44"/>
-      <c r="I169" s="44"/>
-      <c r="J169" s="44"/>
-      <c r="K169" s="44"/>
-      <c r="L169" s="33" t="s">
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48"/>
+      <c r="K169" s="48"/>
+      <c r="L169" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M169" s="34"/>
-      <c r="N169" s="35" t="s">
+      <c r="M169" s="44"/>
+      <c r="N169" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O169" s="35"/>
-      <c r="P169" s="35"/>
-      <c r="Q169" s="35"/>
-      <c r="R169" s="35"/>
-      <c r="S169" s="35"/>
-      <c r="T169" s="35"/>
-      <c r="U169" s="35" t="s">
+      <c r="O169" s="45"/>
+      <c r="P169" s="45"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="45"/>
+      <c r="S169" s="45"/>
+      <c r="T169" s="45"/>
+      <c r="U169" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V169" s="35"/>
-      <c r="W169" s="35"/>
-      <c r="X169" s="35"/>
-      <c r="Y169" s="35"/>
-      <c r="Z169" s="35" t="s">
+      <c r="V169" s="45"/>
+      <c r="W169" s="45"/>
+      <c r="X169" s="45"/>
+      <c r="Y169" s="45"/>
+      <c r="Z169" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA169" s="35"/>
-      <c r="AB169" s="35"/>
-      <c r="AC169" s="35"/>
-      <c r="AD169" s="35"/>
-      <c r="AE169" s="35"/>
-      <c r="AF169" s="35"/>
-      <c r="AG169" s="35"/>
-      <c r="AH169" s="35"/>
-      <c r="AI169" s="35"/>
-      <c r="AJ169" s="35"/>
-      <c r="AK169" s="35"/>
-      <c r="AL169" s="35"/>
-      <c r="AM169" s="35"/>
-      <c r="AN169" s="35"/>
-      <c r="AO169" s="35"/>
-      <c r="AP169" s="35"/>
-      <c r="AQ169" s="35"/>
-      <c r="AR169" s="35"/>
-      <c r="AS169" s="35"/>
-      <c r="AT169" s="35"/>
-      <c r="AU169" s="35"/>
-      <c r="AV169" s="35"/>
-      <c r="AW169" s="36"/>
+      <c r="AA169" s="45"/>
+      <c r="AB169" s="45"/>
+      <c r="AC169" s="45"/>
+      <c r="AD169" s="45"/>
+      <c r="AE169" s="45"/>
+      <c r="AF169" s="45"/>
+      <c r="AG169" s="45"/>
+      <c r="AH169" s="45"/>
+      <c r="AI169" s="45"/>
+      <c r="AJ169" s="45"/>
+      <c r="AK169" s="45"/>
+      <c r="AL169" s="45"/>
+      <c r="AM169" s="45"/>
+      <c r="AN169" s="45"/>
+      <c r="AO169" s="45"/>
+      <c r="AP169" s="45"/>
+      <c r="AQ169" s="45"/>
+      <c r="AR169" s="45"/>
+      <c r="AS169" s="45"/>
+      <c r="AT169" s="45"/>
+      <c r="AU169" s="45"/>
+      <c r="AV169" s="45"/>
+      <c r="AW169" s="46"/>
     </row>
     <row r="170" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E170" s="43"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="44"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="44"/>
-      <c r="L170" s="37">
+      <c r="E170" s="47"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48"/>
+      <c r="K170" s="48"/>
+      <c r="L170" s="38">
         <v>1</v>
       </c>
-      <c r="M170" s="37"/>
-      <c r="N170" s="38" t="s">
+      <c r="M170" s="38"/>
+      <c r="N170" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O170" s="38"/>
-      <c r="P170" s="38"/>
-      <c r="Q170" s="38"/>
-      <c r="R170" s="38"/>
-      <c r="S170" s="38"/>
-      <c r="T170" s="38"/>
-      <c r="U170" s="38" t="s">
+      <c r="O170" s="39"/>
+      <c r="P170" s="39"/>
+      <c r="Q170" s="39"/>
+      <c r="R170" s="39"/>
+      <c r="S170" s="39"/>
+      <c r="T170" s="39"/>
+      <c r="U170" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="V170" s="38"/>
-      <c r="W170" s="38"/>
-      <c r="X170" s="38"/>
-      <c r="Y170" s="38"/>
-      <c r="Z170" s="45" t="s">
+      <c r="V170" s="39"/>
+      <c r="W170" s="39"/>
+      <c r="X170" s="39"/>
+      <c r="Y170" s="39"/>
+      <c r="Z170" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AA170" s="45"/>
-      <c r="AB170" s="45"/>
-      <c r="AC170" s="45"/>
-      <c r="AD170" s="45"/>
-      <c r="AE170" s="45"/>
-      <c r="AF170" s="45"/>
-      <c r="AG170" s="45"/>
-      <c r="AH170" s="45"/>
-      <c r="AI170" s="45"/>
-      <c r="AJ170" s="45"/>
-      <c r="AK170" s="45"/>
-      <c r="AL170" s="45"/>
-      <c r="AM170" s="45"/>
-      <c r="AN170" s="45"/>
-      <c r="AO170" s="45"/>
-      <c r="AP170" s="45"/>
-      <c r="AQ170" s="45"/>
-      <c r="AR170" s="45"/>
-      <c r="AS170" s="45"/>
-      <c r="AT170" s="45"/>
-      <c r="AU170" s="45"/>
-      <c r="AV170" s="45"/>
-      <c r="AW170" s="46"/>
+      <c r="AA170" s="59"/>
+      <c r="AB170" s="59"/>
+      <c r="AC170" s="59"/>
+      <c r="AD170" s="59"/>
+      <c r="AE170" s="59"/>
+      <c r="AF170" s="59"/>
+      <c r="AG170" s="59"/>
+      <c r="AH170" s="59"/>
+      <c r="AI170" s="59"/>
+      <c r="AJ170" s="59"/>
+      <c r="AK170" s="59"/>
+      <c r="AL170" s="59"/>
+      <c r="AM170" s="59"/>
+      <c r="AN170" s="59"/>
+      <c r="AO170" s="59"/>
+      <c r="AP170" s="59"/>
+      <c r="AQ170" s="59"/>
+      <c r="AR170" s="59"/>
+      <c r="AS170" s="59"/>
+      <c r="AT170" s="59"/>
+      <c r="AU170" s="59"/>
+      <c r="AV170" s="59"/>
+      <c r="AW170" s="60"/>
     </row>
     <row r="171" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E171" s="24" t="s">
+      <c r="E171" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
-      <c r="I171" s="25"/>
-      <c r="J171" s="25"/>
-      <c r="K171" s="26"/>
-      <c r="L171" s="33" t="s">
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="31"/>
+      <c r="L171" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M171" s="34"/>
-      <c r="N171" s="35" t="s">
+      <c r="M171" s="44"/>
+      <c r="N171" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O171" s="35"/>
-      <c r="P171" s="35"/>
-      <c r="Q171" s="35"/>
-      <c r="R171" s="35"/>
-      <c r="S171" s="35"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="35" t="s">
+      <c r="O171" s="45"/>
+      <c r="P171" s="45"/>
+      <c r="Q171" s="45"/>
+      <c r="R171" s="45"/>
+      <c r="S171" s="45"/>
+      <c r="T171" s="45"/>
+      <c r="U171" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V171" s="35"/>
-      <c r="W171" s="35"/>
-      <c r="X171" s="35"/>
-      <c r="Y171" s="35"/>
-      <c r="Z171" s="35" t="s">
+      <c r="V171" s="45"/>
+      <c r="W171" s="45"/>
+      <c r="X171" s="45"/>
+      <c r="Y171" s="45"/>
+      <c r="Z171" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA171" s="35"/>
-      <c r="AB171" s="35"/>
-      <c r="AC171" s="35"/>
-      <c r="AD171" s="35"/>
-      <c r="AE171" s="35"/>
-      <c r="AF171" s="35"/>
-      <c r="AG171" s="35"/>
-      <c r="AH171" s="35"/>
-      <c r="AI171" s="35"/>
-      <c r="AJ171" s="35"/>
-      <c r="AK171" s="35"/>
-      <c r="AL171" s="35"/>
-      <c r="AM171" s="35"/>
-      <c r="AN171" s="35"/>
-      <c r="AO171" s="35"/>
-      <c r="AP171" s="35"/>
-      <c r="AQ171" s="35"/>
-      <c r="AR171" s="35"/>
-      <c r="AS171" s="35"/>
-      <c r="AT171" s="35"/>
-      <c r="AU171" s="35"/>
-      <c r="AV171" s="35"/>
-      <c r="AW171" s="36"/>
+      <c r="AA171" s="45"/>
+      <c r="AB171" s="45"/>
+      <c r="AC171" s="45"/>
+      <c r="AD171" s="45"/>
+      <c r="AE171" s="45"/>
+      <c r="AF171" s="45"/>
+      <c r="AG171" s="45"/>
+      <c r="AH171" s="45"/>
+      <c r="AI171" s="45"/>
+      <c r="AJ171" s="45"/>
+      <c r="AK171" s="45"/>
+      <c r="AL171" s="45"/>
+      <c r="AM171" s="45"/>
+      <c r="AN171" s="45"/>
+      <c r="AO171" s="45"/>
+      <c r="AP171" s="45"/>
+      <c r="AQ171" s="45"/>
+      <c r="AR171" s="45"/>
+      <c r="AS171" s="45"/>
+      <c r="AT171" s="45"/>
+      <c r="AU171" s="45"/>
+      <c r="AV171" s="45"/>
+      <c r="AW171" s="46"/>
     </row>
     <row r="172" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E172" s="27"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="37">
+      <c r="E172" s="32"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="34"/>
+      <c r="L172" s="38">
         <v>1</v>
       </c>
-      <c r="M172" s="37"/>
-      <c r="N172" s="38" t="s">
+      <c r="M172" s="38"/>
+      <c r="N172" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O172" s="38"/>
-      <c r="P172" s="38"/>
-      <c r="Q172" s="38"/>
-      <c r="R172" s="38"/>
-      <c r="S172" s="38"/>
-      <c r="T172" s="38"/>
-      <c r="U172" s="38" t="s">
+      <c r="O172" s="39"/>
+      <c r="P172" s="39"/>
+      <c r="Q172" s="39"/>
+      <c r="R172" s="39"/>
+      <c r="S172" s="39"/>
+      <c r="T172" s="39"/>
+      <c r="U172" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="V172" s="38"/>
-      <c r="W172" s="38"/>
-      <c r="X172" s="38"/>
-      <c r="Y172" s="38"/>
-      <c r="Z172" s="38" t="s">
+      <c r="V172" s="39"/>
+      <c r="W172" s="39"/>
+      <c r="X172" s="39"/>
+      <c r="Y172" s="39"/>
+      <c r="Z172" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AA172" s="38"/>
-      <c r="AB172" s="38"/>
-      <c r="AC172" s="38"/>
-      <c r="AD172" s="38"/>
-      <c r="AE172" s="38"/>
-      <c r="AF172" s="38"/>
-      <c r="AG172" s="38"/>
-      <c r="AH172" s="38"/>
-      <c r="AI172" s="38"/>
-      <c r="AJ172" s="38"/>
-      <c r="AK172" s="38"/>
-      <c r="AL172" s="38"/>
-      <c r="AM172" s="38"/>
-      <c r="AN172" s="38"/>
-      <c r="AO172" s="38"/>
-      <c r="AP172" s="38"/>
-      <c r="AQ172" s="38"/>
-      <c r="AR172" s="38"/>
-      <c r="AS172" s="38"/>
-      <c r="AT172" s="38"/>
-      <c r="AU172" s="38"/>
-      <c r="AV172" s="38"/>
-      <c r="AW172" s="39"/>
+      <c r="AA172" s="39"/>
+      <c r="AB172" s="39"/>
+      <c r="AC172" s="39"/>
+      <c r="AD172" s="39"/>
+      <c r="AE172" s="39"/>
+      <c r="AF172" s="39"/>
+      <c r="AG172" s="39"/>
+      <c r="AH172" s="39"/>
+      <c r="AI172" s="39"/>
+      <c r="AJ172" s="39"/>
+      <c r="AK172" s="39"/>
+      <c r="AL172" s="39"/>
+      <c r="AM172" s="39"/>
+      <c r="AN172" s="39"/>
+      <c r="AO172" s="39"/>
+      <c r="AP172" s="39"/>
+      <c r="AQ172" s="39"/>
+      <c r="AR172" s="39"/>
+      <c r="AS172" s="39"/>
+      <c r="AT172" s="39"/>
+      <c r="AU172" s="39"/>
+      <c r="AV172" s="39"/>
+      <c r="AW172" s="40"/>
     </row>
     <row r="173" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E173" s="30"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="31"/>
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="32"/>
-      <c r="L173" s="40">
+      <c r="E173" s="35"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="37"/>
+      <c r="L173" s="26">
         <v>2</v>
       </c>
-      <c r="M173" s="40"/>
-      <c r="N173" s="41"/>
-      <c r="O173" s="41"/>
-      <c r="P173" s="41"/>
-      <c r="Q173" s="41"/>
-      <c r="R173" s="41"/>
-      <c r="S173" s="41"/>
-      <c r="T173" s="41"/>
-      <c r="U173" s="41"/>
-      <c r="V173" s="41"/>
-      <c r="W173" s="41"/>
-      <c r="X173" s="41"/>
-      <c r="Y173" s="41"/>
-      <c r="Z173" s="41"/>
-      <c r="AA173" s="41"/>
-      <c r="AB173" s="41"/>
-      <c r="AC173" s="41"/>
-      <c r="AD173" s="41"/>
-      <c r="AE173" s="41"/>
-      <c r="AF173" s="41"/>
-      <c r="AG173" s="41"/>
-      <c r="AH173" s="41"/>
-      <c r="AI173" s="41"/>
-      <c r="AJ173" s="41"/>
-      <c r="AK173" s="41"/>
-      <c r="AL173" s="41"/>
-      <c r="AM173" s="41"/>
-      <c r="AN173" s="41"/>
-      <c r="AO173" s="41"/>
-      <c r="AP173" s="41"/>
-      <c r="AQ173" s="41"/>
-      <c r="AR173" s="41"/>
-      <c r="AS173" s="41"/>
-      <c r="AT173" s="41"/>
-      <c r="AU173" s="41"/>
-      <c r="AV173" s="41"/>
-      <c r="AW173" s="42"/>
+      <c r="M173" s="26"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="27"/>
+      <c r="S173" s="27"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
+      <c r="AA173" s="27"/>
+      <c r="AB173" s="27"/>
+      <c r="AC173" s="27"/>
+      <c r="AD173" s="27"/>
+      <c r="AE173" s="27"/>
+      <c r="AF173" s="27"/>
+      <c r="AG173" s="27"/>
+      <c r="AH173" s="27"/>
+      <c r="AI173" s="27"/>
+      <c r="AJ173" s="27"/>
+      <c r="AK173" s="27"/>
+      <c r="AL173" s="27"/>
+      <c r="AM173" s="27"/>
+      <c r="AN173" s="27"/>
+      <c r="AO173" s="27"/>
+      <c r="AP173" s="27"/>
+      <c r="AQ173" s="27"/>
+      <c r="AR173" s="27"/>
+      <c r="AS173" s="27"/>
+      <c r="AT173" s="27"/>
+      <c r="AU173" s="27"/>
+      <c r="AV173" s="27"/>
+      <c r="AW173" s="28"/>
     </row>
     <row r="174" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N174" s="6"/>
@@ -12648,55 +12657,197 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="Z33:AW33"/>
-    <mergeCell ref="E31:K33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="Z32:AW32"/>
-    <mergeCell ref="L36:AW36"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AW31"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AW29"/>
-    <mergeCell ref="E29:K30"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z27:AW27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AW28"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L25:AW25"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AW26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:AW18"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AW19"/>
-    <mergeCell ref="AE20:AW20"/>
-    <mergeCell ref="AE21:AW21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="E171:K173"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="N171:T171"/>
+    <mergeCell ref="U171:Y171"/>
+    <mergeCell ref="Z171:AW171"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="U172:Y172"/>
+    <mergeCell ref="Z172:AW172"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:T173"/>
+    <mergeCell ref="U173:Y173"/>
+    <mergeCell ref="Z173:AW173"/>
+    <mergeCell ref="E169:K170"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="N169:T169"/>
+    <mergeCell ref="U169:Y169"/>
+    <mergeCell ref="Z169:AW169"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="N170:T170"/>
+    <mergeCell ref="U170:Y170"/>
+    <mergeCell ref="Z170:AW170"/>
+    <mergeCell ref="E166:K168"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="N166:T166"/>
+    <mergeCell ref="U166:Y166"/>
+    <mergeCell ref="Z166:AW166"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="N167:T167"/>
+    <mergeCell ref="U167:Y167"/>
+    <mergeCell ref="Z167:AW167"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="N168:T168"/>
+    <mergeCell ref="U168:Y168"/>
+    <mergeCell ref="Z168:AW168"/>
+    <mergeCell ref="Z161:AW161"/>
+    <mergeCell ref="E164:K164"/>
+    <mergeCell ref="L164:AW164"/>
+    <mergeCell ref="E165:K165"/>
+    <mergeCell ref="L165:AW165"/>
+    <mergeCell ref="E157:K157"/>
+    <mergeCell ref="L157:AW157"/>
+    <mergeCell ref="E158:K158"/>
+    <mergeCell ref="L158:AW158"/>
+    <mergeCell ref="E159:K161"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:T159"/>
+    <mergeCell ref="U159:Y159"/>
+    <mergeCell ref="Z159:AW159"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:T160"/>
+    <mergeCell ref="U160:Y160"/>
+    <mergeCell ref="Z160:AW160"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:T161"/>
+    <mergeCell ref="U161:Y161"/>
+    <mergeCell ref="E106:K108"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:T106"/>
+    <mergeCell ref="U106:Y106"/>
+    <mergeCell ref="Z106:AW106"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:T107"/>
+    <mergeCell ref="U107:Y107"/>
+    <mergeCell ref="Z107:AW107"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:T108"/>
+    <mergeCell ref="U108:Y108"/>
+    <mergeCell ref="Z108:AW108"/>
+    <mergeCell ref="E104:K105"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:T104"/>
+    <mergeCell ref="U104:Y104"/>
+    <mergeCell ref="Z104:AW104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:T105"/>
+    <mergeCell ref="U105:Y105"/>
+    <mergeCell ref="Z105:AW105"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:AW99"/>
+    <mergeCell ref="E100:K100"/>
+    <mergeCell ref="L100:AW100"/>
+    <mergeCell ref="E101:K103"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:T101"/>
+    <mergeCell ref="U101:Y101"/>
+    <mergeCell ref="Z101:AW101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:T102"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="Z102:AW102"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:T103"/>
+    <mergeCell ref="U103:Y103"/>
+    <mergeCell ref="Z103:AW103"/>
+    <mergeCell ref="E94:K96"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:T94"/>
+    <mergeCell ref="U94:Y94"/>
+    <mergeCell ref="Z94:AW94"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:T95"/>
+    <mergeCell ref="U95:Y95"/>
+    <mergeCell ref="Z95:AW95"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:T96"/>
+    <mergeCell ref="U96:Y96"/>
+    <mergeCell ref="Z96:AW96"/>
+    <mergeCell ref="E92:K93"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:T92"/>
+    <mergeCell ref="U92:Y92"/>
+    <mergeCell ref="Z92:AW92"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:T93"/>
+    <mergeCell ref="U93:Y93"/>
+    <mergeCell ref="Z93:AW93"/>
+    <mergeCell ref="E87:K87"/>
+    <mergeCell ref="L87:AW87"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="L88:AW88"/>
+    <mergeCell ref="E89:K91"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:T89"/>
+    <mergeCell ref="U89:Y89"/>
+    <mergeCell ref="Z89:AW89"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:T90"/>
+    <mergeCell ref="U90:Y90"/>
+    <mergeCell ref="Z90:AW90"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:T91"/>
+    <mergeCell ref="U91:Y91"/>
+    <mergeCell ref="Z91:AW91"/>
+    <mergeCell ref="E82:K84"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:T82"/>
+    <mergeCell ref="U82:Y82"/>
+    <mergeCell ref="Z82:AW82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:T83"/>
+    <mergeCell ref="U83:Y83"/>
+    <mergeCell ref="Z83:AW83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:T84"/>
+    <mergeCell ref="U84:Y84"/>
+    <mergeCell ref="Z84:AW84"/>
+    <mergeCell ref="E80:K81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:T80"/>
+    <mergeCell ref="U80:Y80"/>
+    <mergeCell ref="Z80:AW80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:T81"/>
+    <mergeCell ref="U81:Y81"/>
+    <mergeCell ref="Z81:AW81"/>
+    <mergeCell ref="E77:K79"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="U77:Y77"/>
+    <mergeCell ref="Z77:AW77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="U78:Y78"/>
+    <mergeCell ref="Z78:AW78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="Z79:AW79"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE72:AW72"/>
+    <mergeCell ref="E75:K75"/>
+    <mergeCell ref="L75:AW75"/>
+    <mergeCell ref="E76:K76"/>
+    <mergeCell ref="L76:AW76"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="L69:AW69"/>
+    <mergeCell ref="E70:K72"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AW70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="U71:Y71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AW71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="U72:Y72"/>
     <mergeCell ref="E37:K39"/>
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="L24:AW24"/>
@@ -12721,197 +12872,55 @@
     <mergeCell ref="E26:K28"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE72:AW72"/>
-    <mergeCell ref="E75:K75"/>
-    <mergeCell ref="L75:AW75"/>
-    <mergeCell ref="E76:K76"/>
-    <mergeCell ref="L76:AW76"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="L69:AW69"/>
-    <mergeCell ref="E70:K72"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AW70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="U71:Y71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AW71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="E77:K79"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="U77:Y77"/>
-    <mergeCell ref="Z77:AW77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="U78:Y78"/>
-    <mergeCell ref="Z78:AW78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="Z79:AW79"/>
-    <mergeCell ref="E80:K81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:T80"/>
-    <mergeCell ref="U80:Y80"/>
-    <mergeCell ref="Z80:AW80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:T81"/>
-    <mergeCell ref="U81:Y81"/>
-    <mergeCell ref="Z81:AW81"/>
-    <mergeCell ref="E82:K84"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:T82"/>
-    <mergeCell ref="U82:Y82"/>
-    <mergeCell ref="Z82:AW82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="U83:Y83"/>
-    <mergeCell ref="Z83:AW83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:T84"/>
-    <mergeCell ref="U84:Y84"/>
-    <mergeCell ref="Z84:AW84"/>
-    <mergeCell ref="E87:K87"/>
-    <mergeCell ref="L87:AW87"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="L88:AW88"/>
-    <mergeCell ref="E89:K91"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:T89"/>
-    <mergeCell ref="U89:Y89"/>
-    <mergeCell ref="Z89:AW89"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:T90"/>
-    <mergeCell ref="U90:Y90"/>
-    <mergeCell ref="Z90:AW90"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:T91"/>
-    <mergeCell ref="U91:Y91"/>
-    <mergeCell ref="Z91:AW91"/>
-    <mergeCell ref="E92:K93"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:T92"/>
-    <mergeCell ref="U92:Y92"/>
-    <mergeCell ref="Z92:AW92"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:T93"/>
-    <mergeCell ref="U93:Y93"/>
-    <mergeCell ref="Z93:AW93"/>
-    <mergeCell ref="E94:K96"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:T94"/>
-    <mergeCell ref="U94:Y94"/>
-    <mergeCell ref="Z94:AW94"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:T95"/>
-    <mergeCell ref="U95:Y95"/>
-    <mergeCell ref="Z95:AW95"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:T96"/>
-    <mergeCell ref="U96:Y96"/>
-    <mergeCell ref="Z96:AW96"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:AW99"/>
-    <mergeCell ref="E100:K100"/>
-    <mergeCell ref="L100:AW100"/>
-    <mergeCell ref="E101:K103"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:T101"/>
-    <mergeCell ref="U101:Y101"/>
-    <mergeCell ref="Z101:AW101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:T102"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="Z102:AW102"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:T103"/>
-    <mergeCell ref="U103:Y103"/>
-    <mergeCell ref="Z103:AW103"/>
-    <mergeCell ref="E104:K105"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="N104:T104"/>
-    <mergeCell ref="U104:Y104"/>
-    <mergeCell ref="Z104:AW104"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:T105"/>
-    <mergeCell ref="U105:Y105"/>
-    <mergeCell ref="Z105:AW105"/>
-    <mergeCell ref="E106:K108"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:T106"/>
-    <mergeCell ref="U106:Y106"/>
-    <mergeCell ref="Z106:AW106"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:T107"/>
-    <mergeCell ref="U107:Y107"/>
-    <mergeCell ref="Z107:AW107"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:T108"/>
-    <mergeCell ref="U108:Y108"/>
-    <mergeCell ref="Z108:AW108"/>
-    <mergeCell ref="Z161:AW161"/>
-    <mergeCell ref="E164:K164"/>
-    <mergeCell ref="L164:AW164"/>
-    <mergeCell ref="E165:K165"/>
-    <mergeCell ref="L165:AW165"/>
-    <mergeCell ref="E157:K157"/>
-    <mergeCell ref="L157:AW157"/>
-    <mergeCell ref="E158:K158"/>
-    <mergeCell ref="L158:AW158"/>
-    <mergeCell ref="E159:K161"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="N159:T159"/>
-    <mergeCell ref="U159:Y159"/>
-    <mergeCell ref="Z159:AW159"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="N160:T160"/>
-    <mergeCell ref="U160:Y160"/>
-    <mergeCell ref="Z160:AW160"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="N161:T161"/>
-    <mergeCell ref="U161:Y161"/>
-    <mergeCell ref="E166:K168"/>
-    <mergeCell ref="L166:M166"/>
-    <mergeCell ref="N166:T166"/>
-    <mergeCell ref="U166:Y166"/>
-    <mergeCell ref="Z166:AW166"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="N167:T167"/>
-    <mergeCell ref="U167:Y167"/>
-    <mergeCell ref="Z167:AW167"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="N168:T168"/>
-    <mergeCell ref="U168:Y168"/>
-    <mergeCell ref="Z168:AW168"/>
-    <mergeCell ref="E169:K170"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="N169:T169"/>
-    <mergeCell ref="U169:Y169"/>
-    <mergeCell ref="Z169:AW169"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="N170:T170"/>
-    <mergeCell ref="U170:Y170"/>
-    <mergeCell ref="Z170:AW170"/>
-    <mergeCell ref="E171:K173"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="N171:T171"/>
-    <mergeCell ref="U171:Y171"/>
-    <mergeCell ref="Z171:AW171"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="U172:Y172"/>
-    <mergeCell ref="Z172:AW172"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:T173"/>
-    <mergeCell ref="U173:Y173"/>
-    <mergeCell ref="Z173:AW173"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:AW18"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AW19"/>
+    <mergeCell ref="AE20:AW20"/>
+    <mergeCell ref="AE21:AW21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:T20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AW29"/>
+    <mergeCell ref="E29:K30"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Z27:AW27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AW28"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L25:AW25"/>
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AW26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="Z33:AW33"/>
+    <mergeCell ref="E31:K33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="Z32:AW32"/>
+    <mergeCell ref="L36:AW36"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AW31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Brain/Intra-mart/docker/README.xlsx
+++ b/Brain/Intra-mart/docker/README.xlsx
@@ -1047,10 +1047,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>jvm_args : -Dfile.encoding=UTF-8 -Djava.io.tmpdir=tmp -Xmx1500m -Xms1500m -XX:+UseConcMarkSweepGC -XX:CMSInitiatingOccupancyFraction=30 -XX:NewSize=512m -XX:MaxNewSize=512m -XX:+CMSClassUnloadingEnabled -verbose:gc -XX:+PrintGCDetails -XX:+PrintGCDateStamps -XX:+HeapDumpOnOutOfMemoryError -Xloggc:log/gc.log -XX:+UseGCLogFileRotation -XX:NumberOfGCLogFiles=5 -XX:GCLogFileSize=10M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://localhost:8080/imart/system/login</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,6 +1056,10 @@
   </si>
   <si>
     <t>cd resin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jvm_args : -Dfile.encoding=UTF-8 -Dsun.jnu.encoding=UTF-8 -Djava.io.tmpdir=tmp -Xmx1500m -Xms1500m -XX:+UseConcMarkSweepGC -XX:CMSInitiatingOccupancyFraction=30 -XX:NewSize=512m -XX:MaxNewSize=512m -XX:+CMSClassUnloadingEnabled -verbose:gc -XX:+PrintGCDetails -XX:+PrintGCDateStamps -XX:+HeapDumpOnOutOfMemoryError -Xloggc:log/gc.log -XX:+UseGCLogFileRotation -XX:NumberOfGCLogFiles=5 -XX:GCLogFileSize=10M</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1594,14 +1594,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1612,34 +1612,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,21 +1654,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,11 +1666,80 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1713,45 +1752,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6472,8 +6472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -6543,7 +6543,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
@@ -6568,7 +6568,7 @@
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B265" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.4">
@@ -6615,33 +6615,33 @@
       </c>
     </row>
     <row r="3" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
     </row>
     <row r="4" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E4" s="16" t="s">
@@ -6702,33 +6702,33 @@
       <c r="AC5" s="18"/>
     </row>
     <row r="6" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="15"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E7" s="16" t="s">
@@ -6876,62 +6876,62 @@
       <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="15"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="15"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="3:29" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E14" s="16" t="s">
@@ -7003,7 +7003,7 @@
     </row>
     <row r="20" spans="4:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E20" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.4">
@@ -7142,60 +7142,60 @@
       </c>
     </row>
     <row r="450" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E450" s="19" t="s">
+      <c r="E450" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F450" s="20"/>
-      <c r="G450" s="20"/>
-      <c r="H450" s="20"/>
-      <c r="I450" s="20"/>
-      <c r="J450" s="20"/>
-      <c r="K450" s="20"/>
-      <c r="L450" s="20"/>
-      <c r="M450" s="20"/>
-      <c r="N450" s="20"/>
-      <c r="O450" s="20"/>
-      <c r="P450" s="20"/>
-      <c r="Q450" s="20"/>
-      <c r="R450" s="20"/>
-      <c r="S450" s="20"/>
-      <c r="T450" s="20"/>
+      <c r="F450" s="23"/>
+      <c r="G450" s="23"/>
+      <c r="H450" s="23"/>
+      <c r="I450" s="23"/>
+      <c r="J450" s="23"/>
+      <c r="K450" s="23"/>
+      <c r="L450" s="23"/>
+      <c r="M450" s="23"/>
+      <c r="N450" s="23"/>
+      <c r="O450" s="23"/>
+      <c r="P450" s="23"/>
+      <c r="Q450" s="23"/>
+      <c r="R450" s="23"/>
+      <c r="S450" s="23"/>
+      <c r="T450" s="23"/>
     </row>
     <row r="451" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E451" s="20"/>
-      <c r="F451" s="20"/>
-      <c r="G451" s="20"/>
-      <c r="H451" s="20"/>
-      <c r="I451" s="20"/>
-      <c r="J451" s="20"/>
-      <c r="K451" s="20"/>
-      <c r="L451" s="20"/>
-      <c r="M451" s="20"/>
-      <c r="N451" s="20"/>
-      <c r="O451" s="20"/>
-      <c r="P451" s="20"/>
-      <c r="Q451" s="20"/>
-      <c r="R451" s="20"/>
-      <c r="S451" s="20"/>
-      <c r="T451" s="20"/>
+      <c r="E451" s="23"/>
+      <c r="F451" s="23"/>
+      <c r="G451" s="23"/>
+      <c r="H451" s="23"/>
+      <c r="I451" s="23"/>
+      <c r="J451" s="23"/>
+      <c r="K451" s="23"/>
+      <c r="L451" s="23"/>
+      <c r="M451" s="23"/>
+      <c r="N451" s="23"/>
+      <c r="O451" s="23"/>
+      <c r="P451" s="23"/>
+      <c r="Q451" s="23"/>
+      <c r="R451" s="23"/>
+      <c r="S451" s="23"/>
+      <c r="T451" s="23"/>
     </row>
     <row r="452" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E452" s="20"/>
-      <c r="F452" s="20"/>
-      <c r="G452" s="20"/>
-      <c r="H452" s="20"/>
-      <c r="I452" s="20"/>
-      <c r="J452" s="20"/>
-      <c r="K452" s="20"/>
-      <c r="L452" s="20"/>
-      <c r="M452" s="20"/>
-      <c r="N452" s="20"/>
-      <c r="O452" s="20"/>
-      <c r="P452" s="20"/>
-      <c r="Q452" s="20"/>
-      <c r="R452" s="20"/>
-      <c r="S452" s="20"/>
-      <c r="T452" s="20"/>
+      <c r="E452" s="23"/>
+      <c r="F452" s="23"/>
+      <c r="G452" s="23"/>
+      <c r="H452" s="23"/>
+      <c r="I452" s="23"/>
+      <c r="J452" s="23"/>
+      <c r="K452" s="23"/>
+      <c r="L452" s="23"/>
+      <c r="M452" s="23"/>
+      <c r="N452" s="23"/>
+      <c r="O452" s="23"/>
+      <c r="P452" s="23"/>
+      <c r="Q452" s="23"/>
+      <c r="R452" s="23"/>
+      <c r="S452" s="23"/>
+      <c r="T452" s="23"/>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E466" s="9" t="s">
@@ -7269,11 +7269,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E3:AC3"/>
-    <mergeCell ref="E4:AC4"/>
-    <mergeCell ref="E5:AC5"/>
-    <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="E7:AC7"/>
     <mergeCell ref="E13:AC13"/>
     <mergeCell ref="E14:AC14"/>
     <mergeCell ref="E15:AC15"/>
@@ -7283,6 +7278,11 @@
     <mergeCell ref="E10:AC10"/>
     <mergeCell ref="E11:AC11"/>
     <mergeCell ref="E12:AC12"/>
+    <mergeCell ref="E3:AC3"/>
+    <mergeCell ref="E4:AC4"/>
+    <mergeCell ref="E5:AC5"/>
+    <mergeCell ref="E6:AC6"/>
+    <mergeCell ref="E7:AC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7379,136 +7379,136 @@
       </c>
     </row>
     <row r="18" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="41" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="42"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="50"/>
     </row>
     <row r="19" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="43" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45" t="s">
+      <c r="M19" s="34"/>
+      <c r="N19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="43" t="s">
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="43" t="s">
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="50" t="s">
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="52"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="65"/>
     </row>
     <row r="20" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="38">
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="37">
         <v>1</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39" t="s">
+      <c r="M20" s="37"/>
+      <c r="N20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
       <c r="U20" s="16" t="s">
         <v>30</v>
       </c>
@@ -7543,64 +7543,64 @@
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
       <c r="AV20" s="17"/>
-      <c r="AW20" s="53"/>
+      <c r="AW20" s="54"/>
     </row>
     <row r="21" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="26">
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="40">
         <v>2</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="40"/>
+      <c r="N21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="54" t="s">
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="54" t="s">
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="54" t="s">
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="56"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="61"/>
     </row>
     <row r="23" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
@@ -7608,464 +7608,464 @@
       </c>
     </row>
     <row r="24" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="41" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="42"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="50"/>
     </row>
     <row r="25" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="39" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="40"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="39"/>
     </row>
     <row r="26" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="43" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45" t="s">
+      <c r="M26" s="34"/>
+      <c r="N26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45" t="s">
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45" t="s">
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="46"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="36"/>
     </row>
     <row r="27" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="38">
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="37">
         <v>1</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39" t="s">
+      <c r="M27" s="37"/>
+      <c r="N27" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39" t="s">
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39" t="s">
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="40"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="39"/>
     </row>
     <row r="28" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="38">
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="37">
         <v>2</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39" t="s">
+      <c r="M28" s="37"/>
+      <c r="N28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39" t="s">
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39" t="s">
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="39"/>
-      <c r="AW28" s="40"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="39"/>
     </row>
     <row r="29" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="43" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="34"/>
+      <c r="N29" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45" t="s">
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45" t="s">
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="46"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="36"/>
     </row>
     <row r="30" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="38">
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="37">
         <v>1</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39" t="s">
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39" t="s">
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="39"/>
-      <c r="AV30" s="39"/>
-      <c r="AW30" s="40"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="39"/>
     </row>
     <row r="31" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="43" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45" t="s">
+      <c r="M31" s="34"/>
+      <c r="N31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45" t="s">
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45" t="s">
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="46"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AT31" s="35"/>
+      <c r="AU31" s="35"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="36"/>
     </row>
     <row r="32" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="38">
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="37">
         <v>1</v>
       </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39" t="s">
+      <c r="M32" s="37"/>
+      <c r="N32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
       <c r="U32" s="4" t="s">
         <v>14</v>
       </c>
@@ -8073,54 +8073,54 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="39" t="s">
+      <c r="Z32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="40"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="38"/>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
+      <c r="AT32" s="38"/>
+      <c r="AU32" s="38"/>
+      <c r="AV32" s="38"/>
+      <c r="AW32" s="39"/>
     </row>
     <row r="33" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="26">
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="40">
         <v>2</v>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27" t="s">
+      <c r="M33" s="40"/>
+      <c r="N33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
       <c r="U33" s="5" t="s">
         <v>14</v>
       </c>
@@ -8128,32 +8128,32 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="27" t="s">
+      <c r="Z33" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="27"/>
-      <c r="AR33" s="27"/>
-      <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="28"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="42"/>
     </row>
     <row r="34" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N34" s="6"/>
@@ -8225,136 +8225,136 @@
       <c r="AW35" s="6"/>
     </row>
     <row r="36" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="41" t="s">
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="42"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="50"/>
     </row>
     <row r="37" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="43" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45" t="s">
+      <c r="M37" s="34"/>
+      <c r="N37" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="43" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="43" t="s">
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="50" t="s">
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="52"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="65"/>
     </row>
     <row r="38" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="38">
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="37">
         <v>1</v>
       </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="39" t="s">
+      <c r="M38" s="37"/>
+      <c r="N38" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
       <c r="U38" s="16" t="s">
         <v>30</v>
       </c>
@@ -8389,64 +8389,64 @@
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
       <c r="AV38" s="17"/>
-      <c r="AW38" s="53"/>
+      <c r="AW38" s="54"/>
     </row>
     <row r="39" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="26">
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="40">
         <v>2</v>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27" t="s">
+      <c r="M39" s="40"/>
+      <c r="N39" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="54" t="s">
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="54" t="s">
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="54" t="s">
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF39" s="55"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="55"/>
-      <c r="AU39" s="55"/>
-      <c r="AV39" s="55"/>
-      <c r="AW39" s="56"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="59"/>
+      <c r="AU39" s="59"/>
+      <c r="AV39" s="59"/>
+      <c r="AW39" s="61"/>
     </row>
     <row r="41" spans="3:49" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
@@ -8784,143 +8784,143 @@
       </c>
     </row>
     <row r="69" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="41" t="s">
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
-      <c r="AB69" s="41"/>
-      <c r="AC69" s="41"/>
-      <c r="AD69" s="41"/>
-      <c r="AE69" s="41"/>
-      <c r="AF69" s="41"/>
-      <c r="AG69" s="41"/>
-      <c r="AH69" s="41"/>
-      <c r="AI69" s="41"/>
-      <c r="AJ69" s="41"/>
-      <c r="AK69" s="41"/>
-      <c r="AL69" s="41"/>
-      <c r="AM69" s="41"/>
-      <c r="AN69" s="41"/>
-      <c r="AO69" s="41"/>
-      <c r="AP69" s="41"/>
-      <c r="AQ69" s="41"/>
-      <c r="AR69" s="41"/>
-      <c r="AS69" s="41"/>
-      <c r="AT69" s="41"/>
-      <c r="AU69" s="41"/>
-      <c r="AV69" s="41"/>
-      <c r="AW69" s="42"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="49"/>
+      <c r="AM69" s="49"/>
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="49"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="49"/>
+      <c r="AS69" s="49"/>
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="49"/>
+      <c r="AV69" s="49"/>
+      <c r="AW69" s="50"/>
     </row>
     <row r="70" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="43" t="s">
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M70" s="44"/>
-      <c r="N70" s="45" t="s">
+      <c r="M70" s="34"/>
+      <c r="N70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="43" t="s">
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="43" t="s">
+      <c r="V70" s="62"/>
+      <c r="W70" s="62"/>
+      <c r="X70" s="62"/>
+      <c r="Y70" s="62"/>
+      <c r="Z70" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="49"/>
-      <c r="AE70" s="50" t="s">
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="62"/>
+      <c r="AC70" s="62"/>
+      <c r="AD70" s="62"/>
+      <c r="AE70" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF70" s="51"/>
-      <c r="AG70" s="51"/>
-      <c r="AH70" s="51"/>
-      <c r="AI70" s="51"/>
-      <c r="AJ70" s="51"/>
-      <c r="AK70" s="51"/>
-      <c r="AL70" s="51"/>
-      <c r="AM70" s="51"/>
-      <c r="AN70" s="51"/>
-      <c r="AO70" s="51"/>
-      <c r="AP70" s="51"/>
-      <c r="AQ70" s="51"/>
-      <c r="AR70" s="51"/>
-      <c r="AS70" s="51"/>
-      <c r="AT70" s="51"/>
-      <c r="AU70" s="51"/>
-      <c r="AV70" s="51"/>
-      <c r="AW70" s="52"/>
+      <c r="AF70" s="64"/>
+      <c r="AG70" s="64"/>
+      <c r="AH70" s="64"/>
+      <c r="AI70" s="64"/>
+      <c r="AJ70" s="64"/>
+      <c r="AK70" s="64"/>
+      <c r="AL70" s="64"/>
+      <c r="AM70" s="64"/>
+      <c r="AN70" s="64"/>
+      <c r="AO70" s="64"/>
+      <c r="AP70" s="64"/>
+      <c r="AQ70" s="64"/>
+      <c r="AR70" s="64"/>
+      <c r="AS70" s="64"/>
+      <c r="AT70" s="64"/>
+      <c r="AU70" s="64"/>
+      <c r="AV70" s="64"/>
+      <c r="AW70" s="65"/>
     </row>
     <row r="71" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="38">
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="37">
         <v>1</v>
       </c>
-      <c r="M71" s="38"/>
-      <c r="N71" s="39" t="s">
+      <c r="M71" s="37"/>
+      <c r="N71" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="58" t="s">
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="V71" s="58"/>
-      <c r="W71" s="58"/>
-      <c r="X71" s="58"/>
-      <c r="Y71" s="58"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="57"/>
+      <c r="Y71" s="57"/>
       <c r="Z71" s="16" t="s">
         <v>49</v>
       </c>
@@ -8948,56 +8948,56 @@
       <c r="AT71" s="17"/>
       <c r="AU71" s="17"/>
       <c r="AV71" s="17"/>
-      <c r="AW71" s="53"/>
+      <c r="AW71" s="54"/>
     </row>
     <row r="72" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="26">
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="40">
         <v>2</v>
       </c>
-      <c r="M72" s="26"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="55"/>
-      <c r="X72" s="55"/>
-      <c r="Y72" s="57"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="55"/>
-      <c r="AB72" s="55"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="57"/>
-      <c r="AE72" s="54"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="55"/>
-      <c r="AI72" s="55"/>
-      <c r="AJ72" s="55"/>
-      <c r="AK72" s="55"/>
-      <c r="AL72" s="55"/>
-      <c r="AM72" s="55"/>
-      <c r="AN72" s="55"/>
-      <c r="AO72" s="55"/>
-      <c r="AP72" s="55"/>
-      <c r="AQ72" s="55"/>
-      <c r="AR72" s="55"/>
-      <c r="AS72" s="55"/>
-      <c r="AT72" s="55"/>
-      <c r="AU72" s="55"/>
-      <c r="AV72" s="55"/>
-      <c r="AW72" s="56"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="60"/>
+      <c r="Z72" s="58"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="60"/>
+      <c r="AE72" s="58"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="59"/>
+      <c r="AQ72" s="59"/>
+      <c r="AR72" s="59"/>
+      <c r="AS72" s="59"/>
+      <c r="AT72" s="59"/>
+      <c r="AU72" s="59"/>
+      <c r="AV72" s="59"/>
+      <c r="AW72" s="61"/>
     </row>
     <row r="74" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
@@ -9005,540 +9005,540 @@
       </c>
     </row>
     <row r="75" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="41" t="s">
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="41"/>
-      <c r="AC75" s="41"/>
-      <c r="AD75" s="41"/>
-      <c r="AE75" s="41"/>
-      <c r="AF75" s="41"/>
-      <c r="AG75" s="41"/>
-      <c r="AH75" s="41"/>
-      <c r="AI75" s="41"/>
-      <c r="AJ75" s="41"/>
-      <c r="AK75" s="41"/>
-      <c r="AL75" s="41"/>
-      <c r="AM75" s="41"/>
-      <c r="AN75" s="41"/>
-      <c r="AO75" s="41"/>
-      <c r="AP75" s="41"/>
-      <c r="AQ75" s="41"/>
-      <c r="AR75" s="41"/>
-      <c r="AS75" s="41"/>
-      <c r="AT75" s="41"/>
-      <c r="AU75" s="41"/>
-      <c r="AV75" s="41"/>
-      <c r="AW75" s="42"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
+      <c r="U75" s="49"/>
+      <c r="V75" s="49"/>
+      <c r="W75" s="49"/>
+      <c r="X75" s="49"/>
+      <c r="Y75" s="49"/>
+      <c r="Z75" s="49"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="49"/>
+      <c r="AC75" s="49"/>
+      <c r="AD75" s="49"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="49"/>
+      <c r="AG75" s="49"/>
+      <c r="AH75" s="49"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="49"/>
+      <c r="AK75" s="49"/>
+      <c r="AL75" s="49"/>
+      <c r="AM75" s="49"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="49"/>
+      <c r="AP75" s="49"/>
+      <c r="AQ75" s="49"/>
+      <c r="AR75" s="49"/>
+      <c r="AS75" s="49"/>
+      <c r="AT75" s="49"/>
+      <c r="AU75" s="49"/>
+      <c r="AV75" s="49"/>
+      <c r="AW75" s="50"/>
     </row>
     <row r="76" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="39" t="s">
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
-      <c r="AA76" s="39"/>
-      <c r="AB76" s="39"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="39"/>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="39"/>
-      <c r="AR76" s="39"/>
-      <c r="AS76" s="39"/>
-      <c r="AT76" s="39"/>
-      <c r="AU76" s="39"/>
-      <c r="AV76" s="39"/>
-      <c r="AW76" s="40"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="38"/>
+      <c r="AL76" s="38"/>
+      <c r="AM76" s="38"/>
+      <c r="AN76" s="38"/>
+      <c r="AO76" s="38"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="38"/>
+      <c r="AR76" s="38"/>
+      <c r="AS76" s="38"/>
+      <c r="AT76" s="38"/>
+      <c r="AU76" s="38"/>
+      <c r="AV76" s="38"/>
+      <c r="AW76" s="39"/>
     </row>
     <row r="77" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E77" s="47" t="s">
+      <c r="E77" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="43" t="s">
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M77" s="44"/>
-      <c r="N77" s="45" t="s">
+      <c r="M77" s="34"/>
+      <c r="N77" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="45" t="s">
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V77" s="45"/>
-      <c r="W77" s="45"/>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="45" t="s">
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA77" s="45"/>
-      <c r="AB77" s="45"/>
-      <c r="AC77" s="45"/>
-      <c r="AD77" s="45"/>
-      <c r="AE77" s="45"/>
-      <c r="AF77" s="45"/>
-      <c r="AG77" s="45"/>
-      <c r="AH77" s="45"/>
-      <c r="AI77" s="45"/>
-      <c r="AJ77" s="45"/>
-      <c r="AK77" s="45"/>
-      <c r="AL77" s="45"/>
-      <c r="AM77" s="45"/>
-      <c r="AN77" s="45"/>
-      <c r="AO77" s="45"/>
-      <c r="AP77" s="45"/>
-      <c r="AQ77" s="45"/>
-      <c r="AR77" s="45"/>
-      <c r="AS77" s="45"/>
-      <c r="AT77" s="45"/>
-      <c r="AU77" s="45"/>
-      <c r="AV77" s="45"/>
-      <c r="AW77" s="46"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="35"/>
+      <c r="AH77" s="35"/>
+      <c r="AI77" s="35"/>
+      <c r="AJ77" s="35"/>
+      <c r="AK77" s="35"/>
+      <c r="AL77" s="35"/>
+      <c r="AM77" s="35"/>
+      <c r="AN77" s="35"/>
+      <c r="AO77" s="35"/>
+      <c r="AP77" s="35"/>
+      <c r="AQ77" s="35"/>
+      <c r="AR77" s="35"/>
+      <c r="AS77" s="35"/>
+      <c r="AT77" s="35"/>
+      <c r="AU77" s="35"/>
+      <c r="AV77" s="35"/>
+      <c r="AW77" s="36"/>
     </row>
     <row r="78" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E78" s="47"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="38">
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="37">
         <v>1</v>
       </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="39" t="s">
+      <c r="M78" s="37"/>
+      <c r="N78" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39" t="s">
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39" t="s">
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA78" s="39"/>
-      <c r="AB78" s="39"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="39"/>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="39"/>
-      <c r="AK78" s="39"/>
-      <c r="AL78" s="39"/>
-      <c r="AM78" s="39"/>
-      <c r="AN78" s="39"/>
-      <c r="AO78" s="39"/>
-      <c r="AP78" s="39"/>
-      <c r="AQ78" s="39"/>
-      <c r="AR78" s="39"/>
-      <c r="AS78" s="39"/>
-      <c r="AT78" s="39"/>
-      <c r="AU78" s="39"/>
-      <c r="AV78" s="39"/>
-      <c r="AW78" s="40"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="38"/>
+      <c r="AL78" s="38"/>
+      <c r="AM78" s="38"/>
+      <c r="AN78" s="38"/>
+      <c r="AO78" s="38"/>
+      <c r="AP78" s="38"/>
+      <c r="AQ78" s="38"/>
+      <c r="AR78" s="38"/>
+      <c r="AS78" s="38"/>
+      <c r="AT78" s="38"/>
+      <c r="AU78" s="38"/>
+      <c r="AV78" s="38"/>
+      <c r="AW78" s="39"/>
     </row>
     <row r="79" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="38">
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="37">
         <v>2</v>
       </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
-      <c r="AA79" s="39"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="39"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="39"/>
-      <c r="AK79" s="39"/>
-      <c r="AL79" s="39"/>
-      <c r="AM79" s="39"/>
-      <c r="AN79" s="39"/>
-      <c r="AO79" s="39"/>
-      <c r="AP79" s="39"/>
-      <c r="AQ79" s="39"/>
-      <c r="AR79" s="39"/>
-      <c r="AS79" s="39"/>
-      <c r="AT79" s="39"/>
-      <c r="AU79" s="39"/>
-      <c r="AV79" s="39"/>
-      <c r="AW79" s="40"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="38"/>
+      <c r="AL79" s="38"/>
+      <c r="AM79" s="38"/>
+      <c r="AN79" s="38"/>
+      <c r="AO79" s="38"/>
+      <c r="AP79" s="38"/>
+      <c r="AQ79" s="38"/>
+      <c r="AR79" s="38"/>
+      <c r="AS79" s="38"/>
+      <c r="AT79" s="38"/>
+      <c r="AU79" s="38"/>
+      <c r="AV79" s="38"/>
+      <c r="AW79" s="39"/>
     </row>
     <row r="80" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="43" t="s">
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M80" s="44"/>
-      <c r="N80" s="45" t="s">
+      <c r="M80" s="34"/>
+      <c r="N80" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="45"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="45" t="s">
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
-      <c r="X80" s="45"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="45" t="s">
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA80" s="45"/>
-      <c r="AB80" s="45"/>
-      <c r="AC80" s="45"/>
-      <c r="AD80" s="45"/>
-      <c r="AE80" s="45"/>
-      <c r="AF80" s="45"/>
-      <c r="AG80" s="45"/>
-      <c r="AH80" s="45"/>
-      <c r="AI80" s="45"/>
-      <c r="AJ80" s="45"/>
-      <c r="AK80" s="45"/>
-      <c r="AL80" s="45"/>
-      <c r="AM80" s="45"/>
-      <c r="AN80" s="45"/>
-      <c r="AO80" s="45"/>
-      <c r="AP80" s="45"/>
-      <c r="AQ80" s="45"/>
-      <c r="AR80" s="45"/>
-      <c r="AS80" s="45"/>
-      <c r="AT80" s="45"/>
-      <c r="AU80" s="45"/>
-      <c r="AV80" s="45"/>
-      <c r="AW80" s="46"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="35"/>
+      <c r="AQ80" s="35"/>
+      <c r="AR80" s="35"/>
+      <c r="AS80" s="35"/>
+      <c r="AT80" s="35"/>
+      <c r="AU80" s="35"/>
+      <c r="AV80" s="35"/>
+      <c r="AW80" s="36"/>
     </row>
     <row r="81" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E81" s="47"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="38">
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="37">
         <v>1</v>
       </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="39" t="s">
+      <c r="M81" s="37"/>
+      <c r="N81" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="58" t="s">
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="V81" s="58"/>
-      <c r="W81" s="58"/>
-      <c r="X81" s="58"/>
-      <c r="Y81" s="58"/>
-      <c r="Z81" s="39" t="s">
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="57"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AA81" s="39"/>
-      <c r="AB81" s="39"/>
-      <c r="AC81" s="39"/>
-      <c r="AD81" s="39"/>
-      <c r="AE81" s="39"/>
-      <c r="AF81" s="39"/>
-      <c r="AG81" s="39"/>
-      <c r="AH81" s="39"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="39"/>
-      <c r="AK81" s="39"/>
-      <c r="AL81" s="39"/>
-      <c r="AM81" s="39"/>
-      <c r="AN81" s="39"/>
-      <c r="AO81" s="39"/>
-      <c r="AP81" s="39"/>
-      <c r="AQ81" s="39"/>
-      <c r="AR81" s="39"/>
-      <c r="AS81" s="39"/>
-      <c r="AT81" s="39"/>
-      <c r="AU81" s="39"/>
-      <c r="AV81" s="39"/>
-      <c r="AW81" s="40"/>
+      <c r="AA81" s="38"/>
+      <c r="AB81" s="38"/>
+      <c r="AC81" s="38"/>
+      <c r="AD81" s="38"/>
+      <c r="AE81" s="38"/>
+      <c r="AF81" s="38"/>
+      <c r="AG81" s="38"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="38"/>
+      <c r="AJ81" s="38"/>
+      <c r="AK81" s="38"/>
+      <c r="AL81" s="38"/>
+      <c r="AM81" s="38"/>
+      <c r="AN81" s="38"/>
+      <c r="AO81" s="38"/>
+      <c r="AP81" s="38"/>
+      <c r="AQ81" s="38"/>
+      <c r="AR81" s="38"/>
+      <c r="AS81" s="38"/>
+      <c r="AT81" s="38"/>
+      <c r="AU81" s="38"/>
+      <c r="AV81" s="38"/>
+      <c r="AW81" s="39"/>
     </row>
     <row r="82" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="43" t="s">
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M82" s="44"/>
-      <c r="N82" s="45" t="s">
+      <c r="M82" s="34"/>
+      <c r="N82" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="45"/>
-      <c r="S82" s="45"/>
-      <c r="T82" s="45"/>
-      <c r="U82" s="45" t="s">
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V82" s="45"/>
-      <c r="W82" s="45"/>
-      <c r="X82" s="45"/>
-      <c r="Y82" s="45"/>
-      <c r="Z82" s="45" t="s">
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA82" s="45"/>
-      <c r="AB82" s="45"/>
-      <c r="AC82" s="45"/>
-      <c r="AD82" s="45"/>
-      <c r="AE82" s="45"/>
-      <c r="AF82" s="45"/>
-      <c r="AG82" s="45"/>
-      <c r="AH82" s="45"/>
-      <c r="AI82" s="45"/>
-      <c r="AJ82" s="45"/>
-      <c r="AK82" s="45"/>
-      <c r="AL82" s="45"/>
-      <c r="AM82" s="45"/>
-      <c r="AN82" s="45"/>
-      <c r="AO82" s="45"/>
-      <c r="AP82" s="45"/>
-      <c r="AQ82" s="45"/>
-      <c r="AR82" s="45"/>
-      <c r="AS82" s="45"/>
-      <c r="AT82" s="45"/>
-      <c r="AU82" s="45"/>
-      <c r="AV82" s="45"/>
-      <c r="AW82" s="46"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="35"/>
+      <c r="AQ82" s="35"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="36"/>
     </row>
     <row r="83" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="38">
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="37">
         <v>1</v>
       </c>
-      <c r="M83" s="38"/>
-      <c r="N83" s="39" t="s">
+      <c r="M83" s="37"/>
+      <c r="N83" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39" t="s">
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39" t="s">
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA83" s="39"/>
-      <c r="AB83" s="39"/>
-      <c r="AC83" s="39"/>
-      <c r="AD83" s="39"/>
-      <c r="AE83" s="39"/>
-      <c r="AF83" s="39"/>
-      <c r="AG83" s="39"/>
-      <c r="AH83" s="39"/>
-      <c r="AI83" s="39"/>
-      <c r="AJ83" s="39"/>
-      <c r="AK83" s="39"/>
-      <c r="AL83" s="39"/>
-      <c r="AM83" s="39"/>
-      <c r="AN83" s="39"/>
-      <c r="AO83" s="39"/>
-      <c r="AP83" s="39"/>
-      <c r="AQ83" s="39"/>
-      <c r="AR83" s="39"/>
-      <c r="AS83" s="39"/>
-      <c r="AT83" s="39"/>
-      <c r="AU83" s="39"/>
-      <c r="AV83" s="39"/>
-      <c r="AW83" s="40"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="38"/>
+      <c r="AF83" s="38"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="38"/>
+      <c r="AN83" s="38"/>
+      <c r="AO83" s="38"/>
+      <c r="AP83" s="38"/>
+      <c r="AQ83" s="38"/>
+      <c r="AR83" s="38"/>
+      <c r="AS83" s="38"/>
+      <c r="AT83" s="38"/>
+      <c r="AU83" s="38"/>
+      <c r="AV83" s="38"/>
+      <c r="AW83" s="39"/>
     </row>
     <row r="84" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E84" s="35"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="26">
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="40">
         <v>2</v>
       </c>
-      <c r="M84" s="26"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="27"/>
-      <c r="AI84" s="27"/>
-      <c r="AJ84" s="27"/>
-      <c r="AK84" s="27"/>
-      <c r="AL84" s="27"/>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="27"/>
-      <c r="AO84" s="27"/>
-      <c r="AP84" s="27"/>
-      <c r="AQ84" s="27"/>
-      <c r="AR84" s="27"/>
-      <c r="AS84" s="27"/>
-      <c r="AT84" s="27"/>
-      <c r="AU84" s="27"/>
-      <c r="AV84" s="27"/>
-      <c r="AW84" s="28"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="41"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="41"/>
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="41"/>
+      <c r="AH84" s="41"/>
+      <c r="AI84" s="41"/>
+      <c r="AJ84" s="41"/>
+      <c r="AK84" s="41"/>
+      <c r="AL84" s="41"/>
+      <c r="AM84" s="41"/>
+      <c r="AN84" s="41"/>
+      <c r="AO84" s="41"/>
+      <c r="AP84" s="41"/>
+      <c r="AQ84" s="41"/>
+      <c r="AR84" s="41"/>
+      <c r="AS84" s="41"/>
+      <c r="AT84" s="41"/>
+      <c r="AU84" s="41"/>
+      <c r="AV84" s="41"/>
+      <c r="AW84" s="42"/>
     </row>
     <row r="85" spans="4:49" x14ac:dyDescent="0.4">
       <c r="N85" s="6"/>
@@ -9579,540 +9579,540 @@
       </c>
     </row>
     <row r="87" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="41" t="s">
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="41"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="41"/>
-      <c r="AF87" s="41"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="41"/>
-      <c r="AI87" s="41"/>
-      <c r="AJ87" s="41"/>
-      <c r="AK87" s="41"/>
-      <c r="AL87" s="41"/>
-      <c r="AM87" s="41"/>
-      <c r="AN87" s="41"/>
-      <c r="AO87" s="41"/>
-      <c r="AP87" s="41"/>
-      <c r="AQ87" s="41"/>
-      <c r="AR87" s="41"/>
-      <c r="AS87" s="41"/>
-      <c r="AT87" s="41"/>
-      <c r="AU87" s="41"/>
-      <c r="AV87" s="41"/>
-      <c r="AW87" s="42"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="49"/>
+      <c r="Y87" s="49"/>
+      <c r="Z87" s="49"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="49"/>
+      <c r="AC87" s="49"/>
+      <c r="AD87" s="49"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="49"/>
+      <c r="AH87" s="49"/>
+      <c r="AI87" s="49"/>
+      <c r="AJ87" s="49"/>
+      <c r="AK87" s="49"/>
+      <c r="AL87" s="49"/>
+      <c r="AM87" s="49"/>
+      <c r="AN87" s="49"/>
+      <c r="AO87" s="49"/>
+      <c r="AP87" s="49"/>
+      <c r="AQ87" s="49"/>
+      <c r="AR87" s="49"/>
+      <c r="AS87" s="49"/>
+      <c r="AT87" s="49"/>
+      <c r="AU87" s="49"/>
+      <c r="AV87" s="49"/>
+      <c r="AW87" s="50"/>
     </row>
     <row r="88" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E88" s="47" t="s">
+      <c r="E88" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="39" t="s">
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
-      <c r="AA88" s="39"/>
-      <c r="AB88" s="39"/>
-      <c r="AC88" s="39"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="39"/>
-      <c r="AI88" s="39"/>
-      <c r="AJ88" s="39"/>
-      <c r="AK88" s="39"/>
-      <c r="AL88" s="39"/>
-      <c r="AM88" s="39"/>
-      <c r="AN88" s="39"/>
-      <c r="AO88" s="39"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="39"/>
-      <c r="AR88" s="39"/>
-      <c r="AS88" s="39"/>
-      <c r="AT88" s="39"/>
-      <c r="AU88" s="39"/>
-      <c r="AV88" s="39"/>
-      <c r="AW88" s="40"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
+      <c r="AN88" s="38"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="38"/>
+      <c r="AQ88" s="38"/>
+      <c r="AR88" s="38"/>
+      <c r="AS88" s="38"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
+      <c r="AW88" s="39"/>
     </row>
     <row r="89" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E89" s="47" t="s">
+      <c r="E89" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="43" t="s">
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M89" s="44"/>
-      <c r="N89" s="45" t="s">
+      <c r="M89" s="34"/>
+      <c r="N89" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="45" t="s">
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V89" s="45"/>
-      <c r="W89" s="45"/>
-      <c r="X89" s="45"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45" t="s">
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA89" s="45"/>
-      <c r="AB89" s="45"/>
-      <c r="AC89" s="45"/>
-      <c r="AD89" s="45"/>
-      <c r="AE89" s="45"/>
-      <c r="AF89" s="45"/>
-      <c r="AG89" s="45"/>
-      <c r="AH89" s="45"/>
-      <c r="AI89" s="45"/>
-      <c r="AJ89" s="45"/>
-      <c r="AK89" s="45"/>
-      <c r="AL89" s="45"/>
-      <c r="AM89" s="45"/>
-      <c r="AN89" s="45"/>
-      <c r="AO89" s="45"/>
-      <c r="AP89" s="45"/>
-      <c r="AQ89" s="45"/>
-      <c r="AR89" s="45"/>
-      <c r="AS89" s="45"/>
-      <c r="AT89" s="45"/>
-      <c r="AU89" s="45"/>
-      <c r="AV89" s="45"/>
-      <c r="AW89" s="46"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="35"/>
+      <c r="AH89" s="35"/>
+      <c r="AI89" s="35"/>
+      <c r="AJ89" s="35"/>
+      <c r="AK89" s="35"/>
+      <c r="AL89" s="35"/>
+      <c r="AM89" s="35"/>
+      <c r="AN89" s="35"/>
+      <c r="AO89" s="35"/>
+      <c r="AP89" s="35"/>
+      <c r="AQ89" s="35"/>
+      <c r="AR89" s="35"/>
+      <c r="AS89" s="35"/>
+      <c r="AT89" s="35"/>
+      <c r="AU89" s="35"/>
+      <c r="AV89" s="35"/>
+      <c r="AW89" s="36"/>
     </row>
     <row r="90" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E90" s="47"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="38">
+      <c r="E90" s="43"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="37">
         <v>1</v>
       </c>
-      <c r="M90" s="38"/>
-      <c r="N90" s="39" t="s">
+      <c r="M90" s="37"/>
+      <c r="N90" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39" t="s">
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39" t="s">
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA90" s="39"/>
-      <c r="AB90" s="39"/>
-      <c r="AC90" s="39"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="39"/>
-      <c r="AH90" s="39"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="39"/>
-      <c r="AK90" s="39"/>
-      <c r="AL90" s="39"/>
-      <c r="AM90" s="39"/>
-      <c r="AN90" s="39"/>
-      <c r="AO90" s="39"/>
-      <c r="AP90" s="39"/>
-      <c r="AQ90" s="39"/>
-      <c r="AR90" s="39"/>
-      <c r="AS90" s="39"/>
-      <c r="AT90" s="39"/>
-      <c r="AU90" s="39"/>
-      <c r="AV90" s="39"/>
-      <c r="AW90" s="40"/>
+      <c r="AA90" s="38"/>
+      <c r="AB90" s="38"/>
+      <c r="AC90" s="38"/>
+      <c r="AD90" s="38"/>
+      <c r="AE90" s="38"/>
+      <c r="AF90" s="38"/>
+      <c r="AG90" s="38"/>
+      <c r="AH90" s="38"/>
+      <c r="AI90" s="38"/>
+      <c r="AJ90" s="38"/>
+      <c r="AK90" s="38"/>
+      <c r="AL90" s="38"/>
+      <c r="AM90" s="38"/>
+      <c r="AN90" s="38"/>
+      <c r="AO90" s="38"/>
+      <c r="AP90" s="38"/>
+      <c r="AQ90" s="38"/>
+      <c r="AR90" s="38"/>
+      <c r="AS90" s="38"/>
+      <c r="AT90" s="38"/>
+      <c r="AU90" s="38"/>
+      <c r="AV90" s="38"/>
+      <c r="AW90" s="39"/>
     </row>
     <row r="91" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E91" s="47"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="38">
+      <c r="E91" s="43"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="37">
         <v>2</v>
       </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="39"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="39"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="39"/>
-      <c r="AK91" s="39"/>
-      <c r="AL91" s="39"/>
-      <c r="AM91" s="39"/>
-      <c r="AN91" s="39"/>
-      <c r="AO91" s="39"/>
-      <c r="AP91" s="39"/>
-      <c r="AQ91" s="39"/>
-      <c r="AR91" s="39"/>
-      <c r="AS91" s="39"/>
-      <c r="AT91" s="39"/>
-      <c r="AU91" s="39"/>
-      <c r="AV91" s="39"/>
-      <c r="AW91" s="40"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="38"/>
+      <c r="Z91" s="38"/>
+      <c r="AA91" s="38"/>
+      <c r="AB91" s="38"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="38"/>
+      <c r="AE91" s="38"/>
+      <c r="AF91" s="38"/>
+      <c r="AG91" s="38"/>
+      <c r="AH91" s="38"/>
+      <c r="AI91" s="38"/>
+      <c r="AJ91" s="38"/>
+      <c r="AK91" s="38"/>
+      <c r="AL91" s="38"/>
+      <c r="AM91" s="38"/>
+      <c r="AN91" s="38"/>
+      <c r="AO91" s="38"/>
+      <c r="AP91" s="38"/>
+      <c r="AQ91" s="38"/>
+      <c r="AR91" s="38"/>
+      <c r="AS91" s="38"/>
+      <c r="AT91" s="38"/>
+      <c r="AU91" s="38"/>
+      <c r="AV91" s="38"/>
+      <c r="AW91" s="39"/>
     </row>
     <row r="92" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="43" t="s">
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M92" s="44"/>
-      <c r="N92" s="45" t="s">
+      <c r="M92" s="34"/>
+      <c r="N92" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
-      <c r="S92" s="45"/>
-      <c r="T92" s="45"/>
-      <c r="U92" s="45" t="s">
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V92" s="45"/>
-      <c r="W92" s="45"/>
-      <c r="X92" s="45"/>
-      <c r="Y92" s="45"/>
-      <c r="Z92" s="45" t="s">
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA92" s="45"/>
-      <c r="AB92" s="45"/>
-      <c r="AC92" s="45"/>
-      <c r="AD92" s="45"/>
-      <c r="AE92" s="45"/>
-      <c r="AF92" s="45"/>
-      <c r="AG92" s="45"/>
-      <c r="AH92" s="45"/>
-      <c r="AI92" s="45"/>
-      <c r="AJ92" s="45"/>
-      <c r="AK92" s="45"/>
-      <c r="AL92" s="45"/>
-      <c r="AM92" s="45"/>
-      <c r="AN92" s="45"/>
-      <c r="AO92" s="45"/>
-      <c r="AP92" s="45"/>
-      <c r="AQ92" s="45"/>
-      <c r="AR92" s="45"/>
-      <c r="AS92" s="45"/>
-      <c r="AT92" s="45"/>
-      <c r="AU92" s="45"/>
-      <c r="AV92" s="45"/>
-      <c r="AW92" s="46"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="35"/>
+      <c r="AI92" s="35"/>
+      <c r="AJ92" s="35"/>
+      <c r="AK92" s="35"/>
+      <c r="AL92" s="35"/>
+      <c r="AM92" s="35"/>
+      <c r="AN92" s="35"/>
+      <c r="AO92" s="35"/>
+      <c r="AP92" s="35"/>
+      <c r="AQ92" s="35"/>
+      <c r="AR92" s="35"/>
+      <c r="AS92" s="35"/>
+      <c r="AT92" s="35"/>
+      <c r="AU92" s="35"/>
+      <c r="AV92" s="35"/>
+      <c r="AW92" s="36"/>
     </row>
     <row r="93" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E93" s="47"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="38">
+      <c r="E93" s="43"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="37">
         <v>1</v>
       </c>
-      <c r="M93" s="38"/>
-      <c r="N93" s="39" t="s">
+      <c r="M93" s="37"/>
+      <c r="N93" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39" t="s">
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
-      <c r="Z93" s="39" t="s">
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AA93" s="39"/>
-      <c r="AB93" s="39"/>
-      <c r="AC93" s="39"/>
-      <c r="AD93" s="39"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="39"/>
-      <c r="AG93" s="39"/>
-      <c r="AH93" s="39"/>
-      <c r="AI93" s="39"/>
-      <c r="AJ93" s="39"/>
-      <c r="AK93" s="39"/>
-      <c r="AL93" s="39"/>
-      <c r="AM93" s="39"/>
-      <c r="AN93" s="39"/>
-      <c r="AO93" s="39"/>
-      <c r="AP93" s="39"/>
-      <c r="AQ93" s="39"/>
-      <c r="AR93" s="39"/>
-      <c r="AS93" s="39"/>
-      <c r="AT93" s="39"/>
-      <c r="AU93" s="39"/>
-      <c r="AV93" s="39"/>
-      <c r="AW93" s="40"/>
+      <c r="AA93" s="38"/>
+      <c r="AB93" s="38"/>
+      <c r="AC93" s="38"/>
+      <c r="AD93" s="38"/>
+      <c r="AE93" s="38"/>
+      <c r="AF93" s="38"/>
+      <c r="AG93" s="38"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="38"/>
+      <c r="AL93" s="38"/>
+      <c r="AM93" s="38"/>
+      <c r="AN93" s="38"/>
+      <c r="AO93" s="38"/>
+      <c r="AP93" s="38"/>
+      <c r="AQ93" s="38"/>
+      <c r="AR93" s="38"/>
+      <c r="AS93" s="38"/>
+      <c r="AT93" s="38"/>
+      <c r="AU93" s="38"/>
+      <c r="AV93" s="38"/>
+      <c r="AW93" s="39"/>
     </row>
     <row r="94" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="43" t="s">
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M94" s="44"/>
-      <c r="N94" s="45" t="s">
+      <c r="M94" s="34"/>
+      <c r="N94" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="45"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="45"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="45" t="s">
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V94" s="45"/>
-      <c r="W94" s="45"/>
-      <c r="X94" s="45"/>
-      <c r="Y94" s="45"/>
-      <c r="Z94" s="45" t="s">
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA94" s="45"/>
-      <c r="AB94" s="45"/>
-      <c r="AC94" s="45"/>
-      <c r="AD94" s="45"/>
-      <c r="AE94" s="45"/>
-      <c r="AF94" s="45"/>
-      <c r="AG94" s="45"/>
-      <c r="AH94" s="45"/>
-      <c r="AI94" s="45"/>
-      <c r="AJ94" s="45"/>
-      <c r="AK94" s="45"/>
-      <c r="AL94" s="45"/>
-      <c r="AM94" s="45"/>
-      <c r="AN94" s="45"/>
-      <c r="AO94" s="45"/>
-      <c r="AP94" s="45"/>
-      <c r="AQ94" s="45"/>
-      <c r="AR94" s="45"/>
-      <c r="AS94" s="45"/>
-      <c r="AT94" s="45"/>
-      <c r="AU94" s="45"/>
-      <c r="AV94" s="45"/>
-      <c r="AW94" s="46"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="35"/>
+      <c r="AF94" s="35"/>
+      <c r="AG94" s="35"/>
+      <c r="AH94" s="35"/>
+      <c r="AI94" s="35"/>
+      <c r="AJ94" s="35"/>
+      <c r="AK94" s="35"/>
+      <c r="AL94" s="35"/>
+      <c r="AM94" s="35"/>
+      <c r="AN94" s="35"/>
+      <c r="AO94" s="35"/>
+      <c r="AP94" s="35"/>
+      <c r="AQ94" s="35"/>
+      <c r="AR94" s="35"/>
+      <c r="AS94" s="35"/>
+      <c r="AT94" s="35"/>
+      <c r="AU94" s="35"/>
+      <c r="AV94" s="35"/>
+      <c r="AW94" s="36"/>
     </row>
     <row r="95" spans="4:49" x14ac:dyDescent="0.4">
-      <c r="E95" s="32"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="38">
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="37">
         <v>1</v>
       </c>
-      <c r="M95" s="38"/>
-      <c r="N95" s="39" t="s">
+      <c r="M95" s="37"/>
+      <c r="N95" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39" t="s">
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="39"/>
-      <c r="Y95" s="39"/>
-      <c r="Z95" s="39" t="s">
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AA95" s="39"/>
-      <c r="AB95" s="39"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="39"/>
-      <c r="AI95" s="39"/>
-      <c r="AJ95" s="39"/>
-      <c r="AK95" s="39"/>
-      <c r="AL95" s="39"/>
-      <c r="AM95" s="39"/>
-      <c r="AN95" s="39"/>
-      <c r="AO95" s="39"/>
-      <c r="AP95" s="39"/>
-      <c r="AQ95" s="39"/>
-      <c r="AR95" s="39"/>
-      <c r="AS95" s="39"/>
-      <c r="AT95" s="39"/>
-      <c r="AU95" s="39"/>
-      <c r="AV95" s="39"/>
-      <c r="AW95" s="40"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="38"/>
+      <c r="AD95" s="38"/>
+      <c r="AE95" s="38"/>
+      <c r="AF95" s="38"/>
+      <c r="AG95" s="38"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="38"/>
+      <c r="AN95" s="38"/>
+      <c r="AO95" s="38"/>
+      <c r="AP95" s="38"/>
+      <c r="AQ95" s="38"/>
+      <c r="AR95" s="38"/>
+      <c r="AS95" s="38"/>
+      <c r="AT95" s="38"/>
+      <c r="AU95" s="38"/>
+      <c r="AV95" s="38"/>
+      <c r="AW95" s="39"/>
     </row>
     <row r="96" spans="4:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E96" s="35"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="26">
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="40">
         <v>2</v>
       </c>
-      <c r="M96" s="26"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="27"/>
-      <c r="AH96" s="27"/>
-      <c r="AI96" s="27"/>
-      <c r="AJ96" s="27"/>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="27"/>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="27"/>
-      <c r="AO96" s="27"/>
-      <c r="AP96" s="27"/>
-      <c r="AQ96" s="27"/>
-      <c r="AR96" s="27"/>
-      <c r="AS96" s="27"/>
-      <c r="AT96" s="27"/>
-      <c r="AU96" s="27"/>
-      <c r="AV96" s="27"/>
-      <c r="AW96" s="28"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="41"/>
+      <c r="AF96" s="41"/>
+      <c r="AG96" s="41"/>
+      <c r="AH96" s="41"/>
+      <c r="AI96" s="41"/>
+      <c r="AJ96" s="41"/>
+      <c r="AK96" s="41"/>
+      <c r="AL96" s="41"/>
+      <c r="AM96" s="41"/>
+      <c r="AN96" s="41"/>
+      <c r="AO96" s="41"/>
+      <c r="AP96" s="41"/>
+      <c r="AQ96" s="41"/>
+      <c r="AR96" s="41"/>
+      <c r="AS96" s="41"/>
+      <c r="AT96" s="41"/>
+      <c r="AU96" s="41"/>
+      <c r="AV96" s="41"/>
+      <c r="AW96" s="42"/>
     </row>
     <row r="97" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N97" s="6"/>
@@ -10153,546 +10153,546 @@
       </c>
     </row>
     <row r="99" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="41" t="s">
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="41"/>
-      <c r="Y99" s="41"/>
-      <c r="Z99" s="41"/>
-      <c r="AA99" s="41"/>
-      <c r="AB99" s="41"/>
-      <c r="AC99" s="41"/>
-      <c r="AD99" s="41"/>
-      <c r="AE99" s="41"/>
-      <c r="AF99" s="41"/>
-      <c r="AG99" s="41"/>
-      <c r="AH99" s="41"/>
-      <c r="AI99" s="41"/>
-      <c r="AJ99" s="41"/>
-      <c r="AK99" s="41"/>
-      <c r="AL99" s="41"/>
-      <c r="AM99" s="41"/>
-      <c r="AN99" s="41"/>
-      <c r="AO99" s="41"/>
-      <c r="AP99" s="41"/>
-      <c r="AQ99" s="41"/>
-      <c r="AR99" s="41"/>
-      <c r="AS99" s="41"/>
-      <c r="AT99" s="41"/>
-      <c r="AU99" s="41"/>
-      <c r="AV99" s="41"/>
-      <c r="AW99" s="42"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="49"/>
+      <c r="V99" s="49"/>
+      <c r="W99" s="49"/>
+      <c r="X99" s="49"/>
+      <c r="Y99" s="49"/>
+      <c r="Z99" s="49"/>
+      <c r="AA99" s="49"/>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="49"/>
+      <c r="AD99" s="49"/>
+      <c r="AE99" s="49"/>
+      <c r="AF99" s="49"/>
+      <c r="AG99" s="49"/>
+      <c r="AH99" s="49"/>
+      <c r="AI99" s="49"/>
+      <c r="AJ99" s="49"/>
+      <c r="AK99" s="49"/>
+      <c r="AL99" s="49"/>
+      <c r="AM99" s="49"/>
+      <c r="AN99" s="49"/>
+      <c r="AO99" s="49"/>
+      <c r="AP99" s="49"/>
+      <c r="AQ99" s="49"/>
+      <c r="AR99" s="49"/>
+      <c r="AS99" s="49"/>
+      <c r="AT99" s="49"/>
+      <c r="AU99" s="49"/>
+      <c r="AV99" s="49"/>
+      <c r="AW99" s="50"/>
     </row>
     <row r="100" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="39" t="s">
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="39"/>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
-      <c r="X100" s="39"/>
-      <c r="Y100" s="39"/>
-      <c r="Z100" s="39"/>
-      <c r="AA100" s="39"/>
-      <c r="AB100" s="39"/>
-      <c r="AC100" s="39"/>
-      <c r="AD100" s="39"/>
-      <c r="AE100" s="39"/>
-      <c r="AF100" s="39"/>
-      <c r="AG100" s="39"/>
-      <c r="AH100" s="39"/>
-      <c r="AI100" s="39"/>
-      <c r="AJ100" s="39"/>
-      <c r="AK100" s="39"/>
-      <c r="AL100" s="39"/>
-      <c r="AM100" s="39"/>
-      <c r="AN100" s="39"/>
-      <c r="AO100" s="39"/>
-      <c r="AP100" s="39"/>
-      <c r="AQ100" s="39"/>
-      <c r="AR100" s="39"/>
-      <c r="AS100" s="39"/>
-      <c r="AT100" s="39"/>
-      <c r="AU100" s="39"/>
-      <c r="AV100" s="39"/>
-      <c r="AW100" s="40"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="38"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="38"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="38"/>
+      <c r="X100" s="38"/>
+      <c r="Y100" s="38"/>
+      <c r="Z100" s="38"/>
+      <c r="AA100" s="38"/>
+      <c r="AB100" s="38"/>
+      <c r="AC100" s="38"/>
+      <c r="AD100" s="38"/>
+      <c r="AE100" s="38"/>
+      <c r="AF100" s="38"/>
+      <c r="AG100" s="38"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="38"/>
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="38"/>
+      <c r="AL100" s="38"/>
+      <c r="AM100" s="38"/>
+      <c r="AN100" s="38"/>
+      <c r="AO100" s="38"/>
+      <c r="AP100" s="38"/>
+      <c r="AQ100" s="38"/>
+      <c r="AR100" s="38"/>
+      <c r="AS100" s="38"/>
+      <c r="AT100" s="38"/>
+      <c r="AU100" s="38"/>
+      <c r="AV100" s="38"/>
+      <c r="AW100" s="39"/>
     </row>
     <row r="101" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="43" t="s">
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M101" s="44"/>
-      <c r="N101" s="45" t="s">
+      <c r="M101" s="34"/>
+      <c r="N101" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="45"/>
-      <c r="U101" s="45" t="s">
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V101" s="45"/>
-      <c r="W101" s="45"/>
-      <c r="X101" s="45"/>
-      <c r="Y101" s="45"/>
-      <c r="Z101" s="45" t="s">
+      <c r="V101" s="35"/>
+      <c r="W101" s="35"/>
+      <c r="X101" s="35"/>
+      <c r="Y101" s="35"/>
+      <c r="Z101" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA101" s="45"/>
-      <c r="AB101" s="45"/>
-      <c r="AC101" s="45"/>
-      <c r="AD101" s="45"/>
-      <c r="AE101" s="45"/>
-      <c r="AF101" s="45"/>
-      <c r="AG101" s="45"/>
-      <c r="AH101" s="45"/>
-      <c r="AI101" s="45"/>
-      <c r="AJ101" s="45"/>
-      <c r="AK101" s="45"/>
-      <c r="AL101" s="45"/>
-      <c r="AM101" s="45"/>
-      <c r="AN101" s="45"/>
-      <c r="AO101" s="45"/>
-      <c r="AP101" s="45"/>
-      <c r="AQ101" s="45"/>
-      <c r="AR101" s="45"/>
-      <c r="AS101" s="45"/>
-      <c r="AT101" s="45"/>
-      <c r="AU101" s="45"/>
-      <c r="AV101" s="45"/>
-      <c r="AW101" s="46"/>
+      <c r="AA101" s="35"/>
+      <c r="AB101" s="35"/>
+      <c r="AC101" s="35"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="35"/>
+      <c r="AG101" s="35"/>
+      <c r="AH101" s="35"/>
+      <c r="AI101" s="35"/>
+      <c r="AJ101" s="35"/>
+      <c r="AK101" s="35"/>
+      <c r="AL101" s="35"/>
+      <c r="AM101" s="35"/>
+      <c r="AN101" s="35"/>
+      <c r="AO101" s="35"/>
+      <c r="AP101" s="35"/>
+      <c r="AQ101" s="35"/>
+      <c r="AR101" s="35"/>
+      <c r="AS101" s="35"/>
+      <c r="AT101" s="35"/>
+      <c r="AU101" s="35"/>
+      <c r="AV101" s="35"/>
+      <c r="AW101" s="36"/>
     </row>
     <row r="102" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E102" s="47"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
-      <c r="L102" s="38">
+      <c r="E102" s="43"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="37">
         <v>1</v>
       </c>
-      <c r="M102" s="38"/>
-      <c r="N102" s="39" t="s">
+      <c r="M102" s="37"/>
+      <c r="N102" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O102" s="39"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="39"/>
-      <c r="T102" s="39"/>
-      <c r="U102" s="39" t="s">
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="38"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V102" s="39"/>
-      <c r="W102" s="39"/>
-      <c r="X102" s="39"/>
-      <c r="Y102" s="39"/>
-      <c r="Z102" s="39" t="s">
+      <c r="V102" s="38"/>
+      <c r="W102" s="38"/>
+      <c r="X102" s="38"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AA102" s="39"/>
-      <c r="AB102" s="39"/>
-      <c r="AC102" s="39"/>
-      <c r="AD102" s="39"/>
-      <c r="AE102" s="39"/>
-      <c r="AF102" s="39"/>
-      <c r="AG102" s="39"/>
-      <c r="AH102" s="39"/>
-      <c r="AI102" s="39"/>
-      <c r="AJ102" s="39"/>
-      <c r="AK102" s="39"/>
-      <c r="AL102" s="39"/>
-      <c r="AM102" s="39"/>
-      <c r="AN102" s="39"/>
-      <c r="AO102" s="39"/>
-      <c r="AP102" s="39"/>
-      <c r="AQ102" s="39"/>
-      <c r="AR102" s="39"/>
-      <c r="AS102" s="39"/>
-      <c r="AT102" s="39"/>
-      <c r="AU102" s="39"/>
-      <c r="AV102" s="39"/>
-      <c r="AW102" s="40"/>
+      <c r="AA102" s="38"/>
+      <c r="AB102" s="38"/>
+      <c r="AC102" s="38"/>
+      <c r="AD102" s="38"/>
+      <c r="AE102" s="38"/>
+      <c r="AF102" s="38"/>
+      <c r="AG102" s="38"/>
+      <c r="AH102" s="38"/>
+      <c r="AI102" s="38"/>
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="38"/>
+      <c r="AL102" s="38"/>
+      <c r="AM102" s="38"/>
+      <c r="AN102" s="38"/>
+      <c r="AO102" s="38"/>
+      <c r="AP102" s="38"/>
+      <c r="AQ102" s="38"/>
+      <c r="AR102" s="38"/>
+      <c r="AS102" s="38"/>
+      <c r="AT102" s="38"/>
+      <c r="AU102" s="38"/>
+      <c r="AV102" s="38"/>
+      <c r="AW102" s="39"/>
     </row>
     <row r="103" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E103" s="47"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="38">
+      <c r="E103" s="43"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="37">
         <v>2</v>
       </c>
-      <c r="M103" s="38"/>
-      <c r="N103" s="39" t="s">
+      <c r="M103" s="37"/>
+      <c r="N103" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="39"/>
-      <c r="T103" s="39"/>
-      <c r="U103" s="39" t="s">
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="38"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="38"/>
+      <c r="U103" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V103" s="39"/>
-      <c r="W103" s="39"/>
-      <c r="X103" s="39"/>
-      <c r="Y103" s="39"/>
-      <c r="Z103" s="39" t="s">
+      <c r="V103" s="38"/>
+      <c r="W103" s="38"/>
+      <c r="X103" s="38"/>
+      <c r="Y103" s="38"/>
+      <c r="Z103" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AA103" s="39"/>
-      <c r="AB103" s="39"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="39"/>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
-      <c r="AG103" s="39"/>
-      <c r="AH103" s="39"/>
-      <c r="AI103" s="39"/>
-      <c r="AJ103" s="39"/>
-      <c r="AK103" s="39"/>
-      <c r="AL103" s="39"/>
-      <c r="AM103" s="39"/>
-      <c r="AN103" s="39"/>
-      <c r="AO103" s="39"/>
-      <c r="AP103" s="39"/>
-      <c r="AQ103" s="39"/>
-      <c r="AR103" s="39"/>
-      <c r="AS103" s="39"/>
-      <c r="AT103" s="39"/>
-      <c r="AU103" s="39"/>
-      <c r="AV103" s="39"/>
-      <c r="AW103" s="40"/>
+      <c r="AA103" s="38"/>
+      <c r="AB103" s="38"/>
+      <c r="AC103" s="38"/>
+      <c r="AD103" s="38"/>
+      <c r="AE103" s="38"/>
+      <c r="AF103" s="38"/>
+      <c r="AG103" s="38"/>
+      <c r="AH103" s="38"/>
+      <c r="AI103" s="38"/>
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="38"/>
+      <c r="AL103" s="38"/>
+      <c r="AM103" s="38"/>
+      <c r="AN103" s="38"/>
+      <c r="AO103" s="38"/>
+      <c r="AP103" s="38"/>
+      <c r="AQ103" s="38"/>
+      <c r="AR103" s="38"/>
+      <c r="AS103" s="38"/>
+      <c r="AT103" s="38"/>
+      <c r="AU103" s="38"/>
+      <c r="AV103" s="38"/>
+      <c r="AW103" s="39"/>
     </row>
     <row r="104" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E104" s="47" t="s">
+      <c r="E104" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="43" t="s">
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M104" s="44"/>
-      <c r="N104" s="45" t="s">
+      <c r="M104" s="34"/>
+      <c r="N104" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="45"/>
-      <c r="R104" s="45"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="45" t="s">
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V104" s="45"/>
-      <c r="W104" s="45"/>
-      <c r="X104" s="45"/>
-      <c r="Y104" s="45"/>
-      <c r="Z104" s="45" t="s">
+      <c r="V104" s="35"/>
+      <c r="W104" s="35"/>
+      <c r="X104" s="35"/>
+      <c r="Y104" s="35"/>
+      <c r="Z104" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA104" s="45"/>
-      <c r="AB104" s="45"/>
-      <c r="AC104" s="45"/>
-      <c r="AD104" s="45"/>
-      <c r="AE104" s="45"/>
-      <c r="AF104" s="45"/>
-      <c r="AG104" s="45"/>
-      <c r="AH104" s="45"/>
-      <c r="AI104" s="45"/>
-      <c r="AJ104" s="45"/>
-      <c r="AK104" s="45"/>
-      <c r="AL104" s="45"/>
-      <c r="AM104" s="45"/>
-      <c r="AN104" s="45"/>
-      <c r="AO104" s="45"/>
-      <c r="AP104" s="45"/>
-      <c r="AQ104" s="45"/>
-      <c r="AR104" s="45"/>
-      <c r="AS104" s="45"/>
-      <c r="AT104" s="45"/>
-      <c r="AU104" s="45"/>
-      <c r="AV104" s="45"/>
-      <c r="AW104" s="46"/>
+      <c r="AA104" s="35"/>
+      <c r="AB104" s="35"/>
+      <c r="AC104" s="35"/>
+      <c r="AD104" s="35"/>
+      <c r="AE104" s="35"/>
+      <c r="AF104" s="35"/>
+      <c r="AG104" s="35"/>
+      <c r="AH104" s="35"/>
+      <c r="AI104" s="35"/>
+      <c r="AJ104" s="35"/>
+      <c r="AK104" s="35"/>
+      <c r="AL104" s="35"/>
+      <c r="AM104" s="35"/>
+      <c r="AN104" s="35"/>
+      <c r="AO104" s="35"/>
+      <c r="AP104" s="35"/>
+      <c r="AQ104" s="35"/>
+      <c r="AR104" s="35"/>
+      <c r="AS104" s="35"/>
+      <c r="AT104" s="35"/>
+      <c r="AU104" s="35"/>
+      <c r="AV104" s="35"/>
+      <c r="AW104" s="36"/>
     </row>
     <row r="105" spans="3:49" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E105" s="47"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="38">
+      <c r="E105" s="43"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="37">
         <v>1</v>
       </c>
-      <c r="M105" s="38"/>
-      <c r="N105" s="39" t="s">
+      <c r="M105" s="37"/>
+      <c r="N105" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O105" s="39"/>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="39"/>
-      <c r="T105" s="39"/>
-      <c r="U105" s="39" t="s">
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="V105" s="39"/>
-      <c r="W105" s="39"/>
-      <c r="X105" s="39"/>
-      <c r="Y105" s="39"/>
-      <c r="Z105" s="59" t="s">
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AA105" s="59"/>
-      <c r="AB105" s="59"/>
-      <c r="AC105" s="59"/>
-      <c r="AD105" s="59"/>
-      <c r="AE105" s="59"/>
-      <c r="AF105" s="59"/>
-      <c r="AG105" s="59"/>
-      <c r="AH105" s="59"/>
-      <c r="AI105" s="59"/>
-      <c r="AJ105" s="59"/>
-      <c r="AK105" s="59"/>
-      <c r="AL105" s="59"/>
-      <c r="AM105" s="59"/>
-      <c r="AN105" s="59"/>
-      <c r="AO105" s="59"/>
-      <c r="AP105" s="59"/>
-      <c r="AQ105" s="59"/>
-      <c r="AR105" s="59"/>
-      <c r="AS105" s="59"/>
-      <c r="AT105" s="59"/>
-      <c r="AU105" s="59"/>
-      <c r="AV105" s="59"/>
-      <c r="AW105" s="60"/>
+      <c r="AA105" s="45"/>
+      <c r="AB105" s="45"/>
+      <c r="AC105" s="45"/>
+      <c r="AD105" s="45"/>
+      <c r="AE105" s="45"/>
+      <c r="AF105" s="45"/>
+      <c r="AG105" s="45"/>
+      <c r="AH105" s="45"/>
+      <c r="AI105" s="45"/>
+      <c r="AJ105" s="45"/>
+      <c r="AK105" s="45"/>
+      <c r="AL105" s="45"/>
+      <c r="AM105" s="45"/>
+      <c r="AN105" s="45"/>
+      <c r="AO105" s="45"/>
+      <c r="AP105" s="45"/>
+      <c r="AQ105" s="45"/>
+      <c r="AR105" s="45"/>
+      <c r="AS105" s="45"/>
+      <c r="AT105" s="45"/>
+      <c r="AU105" s="45"/>
+      <c r="AV105" s="45"/>
+      <c r="AW105" s="46"/>
     </row>
     <row r="106" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="43" t="s">
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M106" s="44"/>
-      <c r="N106" s="45" t="s">
+      <c r="M106" s="34"/>
+      <c r="N106" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
-      <c r="Q106" s="45"/>
-      <c r="R106" s="45"/>
-      <c r="S106" s="45"/>
-      <c r="T106" s="45"/>
-      <c r="U106" s="45" t="s">
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="35"/>
+      <c r="R106" s="35"/>
+      <c r="S106" s="35"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V106" s="45"/>
-      <c r="W106" s="45"/>
-      <c r="X106" s="45"/>
-      <c r="Y106" s="45"/>
-      <c r="Z106" s="45" t="s">
+      <c r="V106" s="35"/>
+      <c r="W106" s="35"/>
+      <c r="X106" s="35"/>
+      <c r="Y106" s="35"/>
+      <c r="Z106" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA106" s="45"/>
-      <c r="AB106" s="45"/>
-      <c r="AC106" s="45"/>
-      <c r="AD106" s="45"/>
-      <c r="AE106" s="45"/>
-      <c r="AF106" s="45"/>
-      <c r="AG106" s="45"/>
-      <c r="AH106" s="45"/>
-      <c r="AI106" s="45"/>
-      <c r="AJ106" s="45"/>
-      <c r="AK106" s="45"/>
-      <c r="AL106" s="45"/>
-      <c r="AM106" s="45"/>
-      <c r="AN106" s="45"/>
-      <c r="AO106" s="45"/>
-      <c r="AP106" s="45"/>
-      <c r="AQ106" s="45"/>
-      <c r="AR106" s="45"/>
-      <c r="AS106" s="45"/>
-      <c r="AT106" s="45"/>
-      <c r="AU106" s="45"/>
-      <c r="AV106" s="45"/>
-      <c r="AW106" s="46"/>
+      <c r="AA106" s="35"/>
+      <c r="AB106" s="35"/>
+      <c r="AC106" s="35"/>
+      <c r="AD106" s="35"/>
+      <c r="AE106" s="35"/>
+      <c r="AF106" s="35"/>
+      <c r="AG106" s="35"/>
+      <c r="AH106" s="35"/>
+      <c r="AI106" s="35"/>
+      <c r="AJ106" s="35"/>
+      <c r="AK106" s="35"/>
+      <c r="AL106" s="35"/>
+      <c r="AM106" s="35"/>
+      <c r="AN106" s="35"/>
+      <c r="AO106" s="35"/>
+      <c r="AP106" s="35"/>
+      <c r="AQ106" s="35"/>
+      <c r="AR106" s="35"/>
+      <c r="AS106" s="35"/>
+      <c r="AT106" s="35"/>
+      <c r="AU106" s="35"/>
+      <c r="AV106" s="35"/>
+      <c r="AW106" s="36"/>
     </row>
     <row r="107" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E107" s="32"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="38">
+      <c r="E107" s="27"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="37">
         <v>1</v>
       </c>
-      <c r="M107" s="38"/>
-      <c r="N107" s="39" t="s">
+      <c r="M107" s="37"/>
+      <c r="N107" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O107" s="39"/>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="39"/>
-      <c r="T107" s="39"/>
-      <c r="U107" s="39" t="s">
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V107" s="39"/>
-      <c r="W107" s="39"/>
-      <c r="X107" s="39"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39" t="s">
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="39"/>
-      <c r="AE107" s="39"/>
-      <c r="AF107" s="39"/>
-      <c r="AG107" s="39"/>
-      <c r="AH107" s="39"/>
-      <c r="AI107" s="39"/>
-      <c r="AJ107" s="39"/>
-      <c r="AK107" s="39"/>
-      <c r="AL107" s="39"/>
-      <c r="AM107" s="39"/>
-      <c r="AN107" s="39"/>
-      <c r="AO107" s="39"/>
-      <c r="AP107" s="39"/>
-      <c r="AQ107" s="39"/>
-      <c r="AR107" s="39"/>
-      <c r="AS107" s="39"/>
-      <c r="AT107" s="39"/>
-      <c r="AU107" s="39"/>
-      <c r="AV107" s="39"/>
-      <c r="AW107" s="40"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="38"/>
+      <c r="AD107" s="38"/>
+      <c r="AE107" s="38"/>
+      <c r="AF107" s="38"/>
+      <c r="AG107" s="38"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="38"/>
+      <c r="AL107" s="38"/>
+      <c r="AM107" s="38"/>
+      <c r="AN107" s="38"/>
+      <c r="AO107" s="38"/>
+      <c r="AP107" s="38"/>
+      <c r="AQ107" s="38"/>
+      <c r="AR107" s="38"/>
+      <c r="AS107" s="38"/>
+      <c r="AT107" s="38"/>
+      <c r="AU107" s="38"/>
+      <c r="AV107" s="38"/>
+      <c r="AW107" s="39"/>
     </row>
     <row r="108" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E108" s="35"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="26">
+      <c r="E108" s="30"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="40">
         <v>2</v>
       </c>
-      <c r="M108" s="26"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="27"/>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="27"/>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27"/>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="27"/>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="27"/>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
-      <c r="AS108" s="27"/>
-      <c r="AT108" s="27"/>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="27"/>
-      <c r="AW108" s="28"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="41"/>
+      <c r="T108" s="41"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="41"/>
+      <c r="X108" s="41"/>
+      <c r="Y108" s="41"/>
+      <c r="Z108" s="41"/>
+      <c r="AA108" s="41"/>
+      <c r="AB108" s="41"/>
+      <c r="AC108" s="41"/>
+      <c r="AD108" s="41"/>
+      <c r="AE108" s="41"/>
+      <c r="AF108" s="41"/>
+      <c r="AG108" s="41"/>
+      <c r="AH108" s="41"/>
+      <c r="AI108" s="41"/>
+      <c r="AJ108" s="41"/>
+      <c r="AK108" s="41"/>
+      <c r="AL108" s="41"/>
+      <c r="AM108" s="41"/>
+      <c r="AN108" s="41"/>
+      <c r="AO108" s="41"/>
+      <c r="AP108" s="41"/>
+      <c r="AQ108" s="41"/>
+      <c r="AR108" s="41"/>
+      <c r="AS108" s="41"/>
+      <c r="AT108" s="41"/>
+      <c r="AU108" s="41"/>
+      <c r="AV108" s="41"/>
+      <c r="AW108" s="42"/>
     </row>
     <row r="109" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N109" s="6"/>
@@ -11303,66 +11303,66 @@
       </c>
     </row>
     <row r="157" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E157" s="24" t="s">
+      <c r="E157" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="41" t="s">
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="48"/>
+      <c r="J157" s="48"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M157" s="41"/>
-      <c r="N157" s="41"/>
-      <c r="O157" s="41"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="41"/>
-      <c r="R157" s="41"/>
-      <c r="S157" s="41"/>
-      <c r="T157" s="41"/>
-      <c r="U157" s="41"/>
-      <c r="V157" s="41"/>
-      <c r="W157" s="41"/>
-      <c r="X157" s="41"/>
-      <c r="Y157" s="41"/>
-      <c r="Z157" s="41"/>
-      <c r="AA157" s="41"/>
-      <c r="AB157" s="41"/>
-      <c r="AC157" s="41"/>
-      <c r="AD157" s="41"/>
-      <c r="AE157" s="41"/>
-      <c r="AF157" s="41"/>
-      <c r="AG157" s="41"/>
-      <c r="AH157" s="41"/>
-      <c r="AI157" s="41"/>
-      <c r="AJ157" s="41"/>
-      <c r="AK157" s="41"/>
-      <c r="AL157" s="41"/>
-      <c r="AM157" s="41"/>
-      <c r="AN157" s="41"/>
-      <c r="AO157" s="41"/>
-      <c r="AP157" s="41"/>
-      <c r="AQ157" s="41"/>
-      <c r="AR157" s="41"/>
-      <c r="AS157" s="41"/>
-      <c r="AT157" s="41"/>
-      <c r="AU157" s="41"/>
-      <c r="AV157" s="41"/>
-      <c r="AW157" s="42"/>
+      <c r="M157" s="49"/>
+      <c r="N157" s="49"/>
+      <c r="O157" s="49"/>
+      <c r="P157" s="49"/>
+      <c r="Q157" s="49"/>
+      <c r="R157" s="49"/>
+      <c r="S157" s="49"/>
+      <c r="T157" s="49"/>
+      <c r="U157" s="49"/>
+      <c r="V157" s="49"/>
+      <c r="W157" s="49"/>
+      <c r="X157" s="49"/>
+      <c r="Y157" s="49"/>
+      <c r="Z157" s="49"/>
+      <c r="AA157" s="49"/>
+      <c r="AB157" s="49"/>
+      <c r="AC157" s="49"/>
+      <c r="AD157" s="49"/>
+      <c r="AE157" s="49"/>
+      <c r="AF157" s="49"/>
+      <c r="AG157" s="49"/>
+      <c r="AH157" s="49"/>
+      <c r="AI157" s="49"/>
+      <c r="AJ157" s="49"/>
+      <c r="AK157" s="49"/>
+      <c r="AL157" s="49"/>
+      <c r="AM157" s="49"/>
+      <c r="AN157" s="49"/>
+      <c r="AO157" s="49"/>
+      <c r="AP157" s="49"/>
+      <c r="AQ157" s="49"/>
+      <c r="AR157" s="49"/>
+      <c r="AS157" s="49"/>
+      <c r="AT157" s="49"/>
+      <c r="AU157" s="49"/>
+      <c r="AV157" s="49"/>
+      <c r="AW157" s="50"/>
     </row>
     <row r="158" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E158" s="61" t="s">
+      <c r="E158" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F158" s="62"/>
-      <c r="G158" s="62"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="62"/>
-      <c r="J158" s="62"/>
-      <c r="K158" s="63"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="53"/>
       <c r="L158" s="16" t="s">
         <v>83</v>
       </c>
@@ -11402,174 +11402,174 @@
       <c r="AT158" s="17"/>
       <c r="AU158" s="17"/>
       <c r="AV158" s="17"/>
-      <c r="AW158" s="53"/>
+      <c r="AW158" s="54"/>
     </row>
     <row r="159" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E159" s="47" t="s">
+      <c r="E159" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F159" s="48"/>
-      <c r="G159" s="48"/>
-      <c r="H159" s="48"/>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="48"/>
-      <c r="L159" s="43" t="s">
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
+      <c r="K159" s="44"/>
+      <c r="L159" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M159" s="44"/>
-      <c r="N159" s="45" t="s">
+      <c r="M159" s="34"/>
+      <c r="N159" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O159" s="45"/>
-      <c r="P159" s="45"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="45"/>
-      <c r="S159" s="45"/>
-      <c r="T159" s="45"/>
-      <c r="U159" s="45" t="s">
+      <c r="O159" s="35"/>
+      <c r="P159" s="35"/>
+      <c r="Q159" s="35"/>
+      <c r="R159" s="35"/>
+      <c r="S159" s="35"/>
+      <c r="T159" s="35"/>
+      <c r="U159" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V159" s="45"/>
-      <c r="W159" s="45"/>
-      <c r="X159" s="45"/>
-      <c r="Y159" s="45"/>
-      <c r="Z159" s="45" t="s">
+      <c r="V159" s="35"/>
+      <c r="W159" s="35"/>
+      <c r="X159" s="35"/>
+      <c r="Y159" s="35"/>
+      <c r="Z159" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA159" s="45"/>
-      <c r="AB159" s="45"/>
-      <c r="AC159" s="45"/>
-      <c r="AD159" s="45"/>
-      <c r="AE159" s="45"/>
-      <c r="AF159" s="45"/>
-      <c r="AG159" s="45"/>
-      <c r="AH159" s="45"/>
-      <c r="AI159" s="45"/>
-      <c r="AJ159" s="45"/>
-      <c r="AK159" s="45"/>
-      <c r="AL159" s="45"/>
-      <c r="AM159" s="45"/>
-      <c r="AN159" s="45"/>
-      <c r="AO159" s="45"/>
-      <c r="AP159" s="45"/>
-      <c r="AQ159" s="45"/>
-      <c r="AR159" s="45"/>
-      <c r="AS159" s="45"/>
-      <c r="AT159" s="45"/>
-      <c r="AU159" s="45"/>
-      <c r="AV159" s="45"/>
-      <c r="AW159" s="46"/>
+      <c r="AA159" s="35"/>
+      <c r="AB159" s="35"/>
+      <c r="AC159" s="35"/>
+      <c r="AD159" s="35"/>
+      <c r="AE159" s="35"/>
+      <c r="AF159" s="35"/>
+      <c r="AG159" s="35"/>
+      <c r="AH159" s="35"/>
+      <c r="AI159" s="35"/>
+      <c r="AJ159" s="35"/>
+      <c r="AK159" s="35"/>
+      <c r="AL159" s="35"/>
+      <c r="AM159" s="35"/>
+      <c r="AN159" s="35"/>
+      <c r="AO159" s="35"/>
+      <c r="AP159" s="35"/>
+      <c r="AQ159" s="35"/>
+      <c r="AR159" s="35"/>
+      <c r="AS159" s="35"/>
+      <c r="AT159" s="35"/>
+      <c r="AU159" s="35"/>
+      <c r="AV159" s="35"/>
+      <c r="AW159" s="36"/>
     </row>
     <row r="160" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E160" s="47"/>
-      <c r="F160" s="48"/>
-      <c r="G160" s="48"/>
-      <c r="H160" s="48"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="48"/>
-      <c r="L160" s="38">
+      <c r="E160" s="43"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
+      <c r="K160" s="44"/>
+      <c r="L160" s="37">
         <v>1</v>
       </c>
-      <c r="M160" s="38"/>
-      <c r="N160" s="39" t="s">
+      <c r="M160" s="37"/>
+      <c r="N160" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O160" s="39"/>
-      <c r="P160" s="39"/>
-      <c r="Q160" s="39"/>
-      <c r="R160" s="39"/>
-      <c r="S160" s="39"/>
-      <c r="T160" s="39"/>
-      <c r="U160" s="39" t="s">
+      <c r="O160" s="38"/>
+      <c r="P160" s="38"/>
+      <c r="Q160" s="38"/>
+      <c r="R160" s="38"/>
+      <c r="S160" s="38"/>
+      <c r="T160" s="38"/>
+      <c r="U160" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="V160" s="39"/>
-      <c r="W160" s="39"/>
-      <c r="X160" s="39"/>
-      <c r="Y160" s="39"/>
-      <c r="Z160" s="39" t="s">
+      <c r="V160" s="38"/>
+      <c r="W160" s="38"/>
+      <c r="X160" s="38"/>
+      <c r="Y160" s="38"/>
+      <c r="Z160" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AA160" s="39"/>
-      <c r="AB160" s="39"/>
-      <c r="AC160" s="39"/>
-      <c r="AD160" s="39"/>
-      <c r="AE160" s="39"/>
-      <c r="AF160" s="39"/>
-      <c r="AG160" s="39"/>
-      <c r="AH160" s="39"/>
-      <c r="AI160" s="39"/>
-      <c r="AJ160" s="39"/>
-      <c r="AK160" s="39"/>
-      <c r="AL160" s="39"/>
-      <c r="AM160" s="39"/>
-      <c r="AN160" s="39"/>
-      <c r="AO160" s="39"/>
-      <c r="AP160" s="39"/>
-      <c r="AQ160" s="39"/>
-      <c r="AR160" s="39"/>
-      <c r="AS160" s="39"/>
-      <c r="AT160" s="39"/>
-      <c r="AU160" s="39"/>
-      <c r="AV160" s="39"/>
-      <c r="AW160" s="40"/>
+      <c r="AA160" s="38"/>
+      <c r="AB160" s="38"/>
+      <c r="AC160" s="38"/>
+      <c r="AD160" s="38"/>
+      <c r="AE160" s="38"/>
+      <c r="AF160" s="38"/>
+      <c r="AG160" s="38"/>
+      <c r="AH160" s="38"/>
+      <c r="AI160" s="38"/>
+      <c r="AJ160" s="38"/>
+      <c r="AK160" s="38"/>
+      <c r="AL160" s="38"/>
+      <c r="AM160" s="38"/>
+      <c r="AN160" s="38"/>
+      <c r="AO160" s="38"/>
+      <c r="AP160" s="38"/>
+      <c r="AQ160" s="38"/>
+      <c r="AR160" s="38"/>
+      <c r="AS160" s="38"/>
+      <c r="AT160" s="38"/>
+      <c r="AU160" s="38"/>
+      <c r="AV160" s="38"/>
+      <c r="AW160" s="39"/>
     </row>
     <row r="161" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E161" s="64"/>
-      <c r="F161" s="65"/>
-      <c r="G161" s="65"/>
-      <c r="H161" s="65"/>
-      <c r="I161" s="65"/>
-      <c r="J161" s="65"/>
-      <c r="K161" s="65"/>
-      <c r="L161" s="26">
+      <c r="E161" s="55"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56"/>
+      <c r="H161" s="56"/>
+      <c r="I161" s="56"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+      <c r="L161" s="40">
         <v>2</v>
       </c>
-      <c r="M161" s="26"/>
-      <c r="N161" s="27" t="s">
+      <c r="M161" s="40"/>
+      <c r="N161" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="O161" s="27"/>
-      <c r="P161" s="27"/>
-      <c r="Q161" s="27"/>
-      <c r="R161" s="27"/>
-      <c r="S161" s="27"/>
-      <c r="T161" s="27"/>
-      <c r="U161" s="27" t="s">
+      <c r="O161" s="41"/>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41"/>
+      <c r="S161" s="41"/>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="V161" s="27"/>
-      <c r="W161" s="27"/>
-      <c r="X161" s="27"/>
-      <c r="Y161" s="27"/>
-      <c r="Z161" s="27" t="s">
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
+      <c r="Y161" s="41"/>
+      <c r="Z161" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="AA161" s="27"/>
-      <c r="AB161" s="27"/>
-      <c r="AC161" s="27"/>
-      <c r="AD161" s="27"/>
-      <c r="AE161" s="27"/>
-      <c r="AF161" s="27"/>
-      <c r="AG161" s="27"/>
-      <c r="AH161" s="27"/>
-      <c r="AI161" s="27"/>
-      <c r="AJ161" s="27"/>
-      <c r="AK161" s="27"/>
-      <c r="AL161" s="27"/>
-      <c r="AM161" s="27"/>
-      <c r="AN161" s="27"/>
-      <c r="AO161" s="27"/>
-      <c r="AP161" s="27"/>
-      <c r="AQ161" s="27"/>
-      <c r="AR161" s="27"/>
-      <c r="AS161" s="27"/>
-      <c r="AT161" s="27"/>
-      <c r="AU161" s="27"/>
-      <c r="AV161" s="27"/>
-      <c r="AW161" s="28"/>
+      <c r="AA161" s="41"/>
+      <c r="AB161" s="41"/>
+      <c r="AC161" s="41"/>
+      <c r="AD161" s="41"/>
+      <c r="AE161" s="41"/>
+      <c r="AF161" s="41"/>
+      <c r="AG161" s="41"/>
+      <c r="AH161" s="41"/>
+      <c r="AI161" s="41"/>
+      <c r="AJ161" s="41"/>
+      <c r="AK161" s="41"/>
+      <c r="AL161" s="41"/>
+      <c r="AM161" s="41"/>
+      <c r="AN161" s="41"/>
+      <c r="AO161" s="41"/>
+      <c r="AP161" s="41"/>
+      <c r="AQ161" s="41"/>
+      <c r="AR161" s="41"/>
+      <c r="AS161" s="41"/>
+      <c r="AT161" s="41"/>
+      <c r="AU161" s="41"/>
+      <c r="AV161" s="41"/>
+      <c r="AW161" s="42"/>
     </row>
     <row r="162" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N162" s="6"/>
@@ -11610,546 +11610,546 @@
       </c>
     </row>
     <row r="164" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E164" s="24" t="s">
+      <c r="E164" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="25"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="41" t="s">
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48"/>
+      <c r="J164" s="48"/>
+      <c r="K164" s="48"/>
+      <c r="L164" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="M164" s="41"/>
-      <c r="N164" s="41"/>
-      <c r="O164" s="41"/>
-      <c r="P164" s="41"/>
-      <c r="Q164" s="41"/>
-      <c r="R164" s="41"/>
-      <c r="S164" s="41"/>
-      <c r="T164" s="41"/>
-      <c r="U164" s="41"/>
-      <c r="V164" s="41"/>
-      <c r="W164" s="41"/>
-      <c r="X164" s="41"/>
-      <c r="Y164" s="41"/>
-      <c r="Z164" s="41"/>
-      <c r="AA164" s="41"/>
-      <c r="AB164" s="41"/>
-      <c r="AC164" s="41"/>
-      <c r="AD164" s="41"/>
-      <c r="AE164" s="41"/>
-      <c r="AF164" s="41"/>
-      <c r="AG164" s="41"/>
-      <c r="AH164" s="41"/>
-      <c r="AI164" s="41"/>
-      <c r="AJ164" s="41"/>
-      <c r="AK164" s="41"/>
-      <c r="AL164" s="41"/>
-      <c r="AM164" s="41"/>
-      <c r="AN164" s="41"/>
-      <c r="AO164" s="41"/>
-      <c r="AP164" s="41"/>
-      <c r="AQ164" s="41"/>
-      <c r="AR164" s="41"/>
-      <c r="AS164" s="41"/>
-      <c r="AT164" s="41"/>
-      <c r="AU164" s="41"/>
-      <c r="AV164" s="41"/>
-      <c r="AW164" s="42"/>
+      <c r="M164" s="49"/>
+      <c r="N164" s="49"/>
+      <c r="O164" s="49"/>
+      <c r="P164" s="49"/>
+      <c r="Q164" s="49"/>
+      <c r="R164" s="49"/>
+      <c r="S164" s="49"/>
+      <c r="T164" s="49"/>
+      <c r="U164" s="49"/>
+      <c r="V164" s="49"/>
+      <c r="W164" s="49"/>
+      <c r="X164" s="49"/>
+      <c r="Y164" s="49"/>
+      <c r="Z164" s="49"/>
+      <c r="AA164" s="49"/>
+      <c r="AB164" s="49"/>
+      <c r="AC164" s="49"/>
+      <c r="AD164" s="49"/>
+      <c r="AE164" s="49"/>
+      <c r="AF164" s="49"/>
+      <c r="AG164" s="49"/>
+      <c r="AH164" s="49"/>
+      <c r="AI164" s="49"/>
+      <c r="AJ164" s="49"/>
+      <c r="AK164" s="49"/>
+      <c r="AL164" s="49"/>
+      <c r="AM164" s="49"/>
+      <c r="AN164" s="49"/>
+      <c r="AO164" s="49"/>
+      <c r="AP164" s="49"/>
+      <c r="AQ164" s="49"/>
+      <c r="AR164" s="49"/>
+      <c r="AS164" s="49"/>
+      <c r="AT164" s="49"/>
+      <c r="AU164" s="49"/>
+      <c r="AV164" s="49"/>
+      <c r="AW164" s="50"/>
     </row>
     <row r="165" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E165" s="47" t="s">
+      <c r="E165" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48"/>
-      <c r="K165" s="48"/>
-      <c r="L165" s="39" t="s">
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="44"/>
+      <c r="I165" s="44"/>
+      <c r="J165" s="44"/>
+      <c r="K165" s="44"/>
+      <c r="L165" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="M165" s="39"/>
-      <c r="N165" s="39"/>
-      <c r="O165" s="39"/>
-      <c r="P165" s="39"/>
-      <c r="Q165" s="39"/>
-      <c r="R165" s="39"/>
-      <c r="S165" s="39"/>
-      <c r="T165" s="39"/>
-      <c r="U165" s="39"/>
-      <c r="V165" s="39"/>
-      <c r="W165" s="39"/>
-      <c r="X165" s="39"/>
-      <c r="Y165" s="39"/>
-      <c r="Z165" s="39"/>
-      <c r="AA165" s="39"/>
-      <c r="AB165" s="39"/>
-      <c r="AC165" s="39"/>
-      <c r="AD165" s="39"/>
-      <c r="AE165" s="39"/>
-      <c r="AF165" s="39"/>
-      <c r="AG165" s="39"/>
-      <c r="AH165" s="39"/>
-      <c r="AI165" s="39"/>
-      <c r="AJ165" s="39"/>
-      <c r="AK165" s="39"/>
-      <c r="AL165" s="39"/>
-      <c r="AM165" s="39"/>
-      <c r="AN165" s="39"/>
-      <c r="AO165" s="39"/>
-      <c r="AP165" s="39"/>
-      <c r="AQ165" s="39"/>
-      <c r="AR165" s="39"/>
-      <c r="AS165" s="39"/>
-      <c r="AT165" s="39"/>
-      <c r="AU165" s="39"/>
-      <c r="AV165" s="39"/>
-      <c r="AW165" s="40"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="38"/>
+      <c r="S165" s="38"/>
+      <c r="T165" s="38"/>
+      <c r="U165" s="38"/>
+      <c r="V165" s="38"/>
+      <c r="W165" s="38"/>
+      <c r="X165" s="38"/>
+      <c r="Y165" s="38"/>
+      <c r="Z165" s="38"/>
+      <c r="AA165" s="38"/>
+      <c r="AB165" s="38"/>
+      <c r="AC165" s="38"/>
+      <c r="AD165" s="38"/>
+      <c r="AE165" s="38"/>
+      <c r="AF165" s="38"/>
+      <c r="AG165" s="38"/>
+      <c r="AH165" s="38"/>
+      <c r="AI165" s="38"/>
+      <c r="AJ165" s="38"/>
+      <c r="AK165" s="38"/>
+      <c r="AL165" s="38"/>
+      <c r="AM165" s="38"/>
+      <c r="AN165" s="38"/>
+      <c r="AO165" s="38"/>
+      <c r="AP165" s="38"/>
+      <c r="AQ165" s="38"/>
+      <c r="AR165" s="38"/>
+      <c r="AS165" s="38"/>
+      <c r="AT165" s="38"/>
+      <c r="AU165" s="38"/>
+      <c r="AV165" s="38"/>
+      <c r="AW165" s="39"/>
     </row>
     <row r="166" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E166" s="47" t="s">
+      <c r="E166" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="48"/>
-      <c r="L166" s="43" t="s">
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+      <c r="J166" s="44"/>
+      <c r="K166" s="44"/>
+      <c r="L166" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M166" s="44"/>
-      <c r="N166" s="45" t="s">
+      <c r="M166" s="34"/>
+      <c r="N166" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O166" s="45"/>
-      <c r="P166" s="45"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="45"/>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45"/>
-      <c r="U166" s="45" t="s">
+      <c r="O166" s="35"/>
+      <c r="P166" s="35"/>
+      <c r="Q166" s="35"/>
+      <c r="R166" s="35"/>
+      <c r="S166" s="35"/>
+      <c r="T166" s="35"/>
+      <c r="U166" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V166" s="45"/>
-      <c r="W166" s="45"/>
-      <c r="X166" s="45"/>
-      <c r="Y166" s="45"/>
-      <c r="Z166" s="45" t="s">
+      <c r="V166" s="35"/>
+      <c r="W166" s="35"/>
+      <c r="X166" s="35"/>
+      <c r="Y166" s="35"/>
+      <c r="Z166" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA166" s="45"/>
-      <c r="AB166" s="45"/>
-      <c r="AC166" s="45"/>
-      <c r="AD166" s="45"/>
-      <c r="AE166" s="45"/>
-      <c r="AF166" s="45"/>
-      <c r="AG166" s="45"/>
-      <c r="AH166" s="45"/>
-      <c r="AI166" s="45"/>
-      <c r="AJ166" s="45"/>
-      <c r="AK166" s="45"/>
-      <c r="AL166" s="45"/>
-      <c r="AM166" s="45"/>
-      <c r="AN166" s="45"/>
-      <c r="AO166" s="45"/>
-      <c r="AP166" s="45"/>
-      <c r="AQ166" s="45"/>
-      <c r="AR166" s="45"/>
-      <c r="AS166" s="45"/>
-      <c r="AT166" s="45"/>
-      <c r="AU166" s="45"/>
-      <c r="AV166" s="45"/>
-      <c r="AW166" s="46"/>
+      <c r="AA166" s="35"/>
+      <c r="AB166" s="35"/>
+      <c r="AC166" s="35"/>
+      <c r="AD166" s="35"/>
+      <c r="AE166" s="35"/>
+      <c r="AF166" s="35"/>
+      <c r="AG166" s="35"/>
+      <c r="AH166" s="35"/>
+      <c r="AI166" s="35"/>
+      <c r="AJ166" s="35"/>
+      <c r="AK166" s="35"/>
+      <c r="AL166" s="35"/>
+      <c r="AM166" s="35"/>
+      <c r="AN166" s="35"/>
+      <c r="AO166" s="35"/>
+      <c r="AP166" s="35"/>
+      <c r="AQ166" s="35"/>
+      <c r="AR166" s="35"/>
+      <c r="AS166" s="35"/>
+      <c r="AT166" s="35"/>
+      <c r="AU166" s="35"/>
+      <c r="AV166" s="35"/>
+      <c r="AW166" s="36"/>
     </row>
     <row r="167" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E167" s="47"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="48"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="48"/>
-      <c r="L167" s="38">
+      <c r="E167" s="43"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="44"/>
+      <c r="I167" s="44"/>
+      <c r="J167" s="44"/>
+      <c r="K167" s="44"/>
+      <c r="L167" s="37">
         <v>1</v>
       </c>
-      <c r="M167" s="38"/>
-      <c r="N167" s="39" t="s">
+      <c r="M167" s="37"/>
+      <c r="N167" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O167" s="39"/>
-      <c r="P167" s="39"/>
-      <c r="Q167" s="39"/>
-      <c r="R167" s="39"/>
-      <c r="S167" s="39"/>
-      <c r="T167" s="39"/>
-      <c r="U167" s="39" t="s">
+      <c r="O167" s="38"/>
+      <c r="P167" s="38"/>
+      <c r="Q167" s="38"/>
+      <c r="R167" s="38"/>
+      <c r="S167" s="38"/>
+      <c r="T167" s="38"/>
+      <c r="U167" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V167" s="39"/>
-      <c r="W167" s="39"/>
-      <c r="X167" s="39"/>
-      <c r="Y167" s="39"/>
-      <c r="Z167" s="39" t="s">
+      <c r="V167" s="38"/>
+      <c r="W167" s="38"/>
+      <c r="X167" s="38"/>
+      <c r="Y167" s="38"/>
+      <c r="Z167" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AA167" s="39"/>
-      <c r="AB167" s="39"/>
-      <c r="AC167" s="39"/>
-      <c r="AD167" s="39"/>
-      <c r="AE167" s="39"/>
-      <c r="AF167" s="39"/>
-      <c r="AG167" s="39"/>
-      <c r="AH167" s="39"/>
-      <c r="AI167" s="39"/>
-      <c r="AJ167" s="39"/>
-      <c r="AK167" s="39"/>
-      <c r="AL167" s="39"/>
-      <c r="AM167" s="39"/>
-      <c r="AN167" s="39"/>
-      <c r="AO167" s="39"/>
-      <c r="AP167" s="39"/>
-      <c r="AQ167" s="39"/>
-      <c r="AR167" s="39"/>
-      <c r="AS167" s="39"/>
-      <c r="AT167" s="39"/>
-      <c r="AU167" s="39"/>
-      <c r="AV167" s="39"/>
-      <c r="AW167" s="40"/>
+      <c r="AA167" s="38"/>
+      <c r="AB167" s="38"/>
+      <c r="AC167" s="38"/>
+      <c r="AD167" s="38"/>
+      <c r="AE167" s="38"/>
+      <c r="AF167" s="38"/>
+      <c r="AG167" s="38"/>
+      <c r="AH167" s="38"/>
+      <c r="AI167" s="38"/>
+      <c r="AJ167" s="38"/>
+      <c r="AK167" s="38"/>
+      <c r="AL167" s="38"/>
+      <c r="AM167" s="38"/>
+      <c r="AN167" s="38"/>
+      <c r="AO167" s="38"/>
+      <c r="AP167" s="38"/>
+      <c r="AQ167" s="38"/>
+      <c r="AR167" s="38"/>
+      <c r="AS167" s="38"/>
+      <c r="AT167" s="38"/>
+      <c r="AU167" s="38"/>
+      <c r="AV167" s="38"/>
+      <c r="AW167" s="39"/>
     </row>
     <row r="168" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E168" s="47"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="48"/>
-      <c r="J168" s="48"/>
-      <c r="K168" s="48"/>
-      <c r="L168" s="38">
+      <c r="E168" s="43"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="44"/>
+      <c r="I168" s="44"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="44"/>
+      <c r="L168" s="37">
         <v>2</v>
       </c>
-      <c r="M168" s="38"/>
-      <c r="N168" s="39" t="s">
+      <c r="M168" s="37"/>
+      <c r="N168" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O168" s="39"/>
-      <c r="P168" s="39"/>
-      <c r="Q168" s="39"/>
-      <c r="R168" s="39"/>
-      <c r="S168" s="39"/>
-      <c r="T168" s="39"/>
-      <c r="U168" s="39" t="s">
+      <c r="O168" s="38"/>
+      <c r="P168" s="38"/>
+      <c r="Q168" s="38"/>
+      <c r="R168" s="38"/>
+      <c r="S168" s="38"/>
+      <c r="T168" s="38"/>
+      <c r="U168" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="V168" s="39"/>
-      <c r="W168" s="39"/>
-      <c r="X168" s="39"/>
-      <c r="Y168" s="39"/>
-      <c r="Z168" s="39" t="s">
+      <c r="V168" s="38"/>
+      <c r="W168" s="38"/>
+      <c r="X168" s="38"/>
+      <c r="Y168" s="38"/>
+      <c r="Z168" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AA168" s="39"/>
-      <c r="AB168" s="39"/>
-      <c r="AC168" s="39"/>
-      <c r="AD168" s="39"/>
-      <c r="AE168" s="39"/>
-      <c r="AF168" s="39"/>
-      <c r="AG168" s="39"/>
-      <c r="AH168" s="39"/>
-      <c r="AI168" s="39"/>
-      <c r="AJ168" s="39"/>
-      <c r="AK168" s="39"/>
-      <c r="AL168" s="39"/>
-      <c r="AM168" s="39"/>
-      <c r="AN168" s="39"/>
-      <c r="AO168" s="39"/>
-      <c r="AP168" s="39"/>
-      <c r="AQ168" s="39"/>
-      <c r="AR168" s="39"/>
-      <c r="AS168" s="39"/>
-      <c r="AT168" s="39"/>
-      <c r="AU168" s="39"/>
-      <c r="AV168" s="39"/>
-      <c r="AW168" s="40"/>
+      <c r="AA168" s="38"/>
+      <c r="AB168" s="38"/>
+      <c r="AC168" s="38"/>
+      <c r="AD168" s="38"/>
+      <c r="AE168" s="38"/>
+      <c r="AF168" s="38"/>
+      <c r="AG168" s="38"/>
+      <c r="AH168" s="38"/>
+      <c r="AI168" s="38"/>
+      <c r="AJ168" s="38"/>
+      <c r="AK168" s="38"/>
+      <c r="AL168" s="38"/>
+      <c r="AM168" s="38"/>
+      <c r="AN168" s="38"/>
+      <c r="AO168" s="38"/>
+      <c r="AP168" s="38"/>
+      <c r="AQ168" s="38"/>
+      <c r="AR168" s="38"/>
+      <c r="AS168" s="38"/>
+      <c r="AT168" s="38"/>
+      <c r="AU168" s="38"/>
+      <c r="AV168" s="38"/>
+      <c r="AW168" s="39"/>
     </row>
     <row r="169" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E169" s="47" t="s">
+      <c r="E169" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="48"/>
-      <c r="I169" s="48"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="48"/>
-      <c r="L169" s="43" t="s">
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
+      <c r="J169" s="44"/>
+      <c r="K169" s="44"/>
+      <c r="L169" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M169" s="44"/>
-      <c r="N169" s="45" t="s">
+      <c r="M169" s="34"/>
+      <c r="N169" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O169" s="45"/>
-      <c r="P169" s="45"/>
-      <c r="Q169" s="45"/>
-      <c r="R169" s="45"/>
-      <c r="S169" s="45"/>
-      <c r="T169" s="45"/>
-      <c r="U169" s="45" t="s">
+      <c r="O169" s="35"/>
+      <c r="P169" s="35"/>
+      <c r="Q169" s="35"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="35"/>
+      <c r="T169" s="35"/>
+      <c r="U169" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V169" s="45"/>
-      <c r="W169" s="45"/>
-      <c r="X169" s="45"/>
-      <c r="Y169" s="45"/>
-      <c r="Z169" s="45" t="s">
+      <c r="V169" s="35"/>
+      <c r="W169" s="35"/>
+      <c r="X169" s="35"/>
+      <c r="Y169" s="35"/>
+      <c r="Z169" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA169" s="45"/>
-      <c r="AB169" s="45"/>
-      <c r="AC169" s="45"/>
-      <c r="AD169" s="45"/>
-      <c r="AE169" s="45"/>
-      <c r="AF169" s="45"/>
-      <c r="AG169" s="45"/>
-      <c r="AH169" s="45"/>
-      <c r="AI169" s="45"/>
-      <c r="AJ169" s="45"/>
-      <c r="AK169" s="45"/>
-      <c r="AL169" s="45"/>
-      <c r="AM169" s="45"/>
-      <c r="AN169" s="45"/>
-      <c r="AO169" s="45"/>
-      <c r="AP169" s="45"/>
-      <c r="AQ169" s="45"/>
-      <c r="AR169" s="45"/>
-      <c r="AS169" s="45"/>
-      <c r="AT169" s="45"/>
-      <c r="AU169" s="45"/>
-      <c r="AV169" s="45"/>
-      <c r="AW169" s="46"/>
+      <c r="AA169" s="35"/>
+      <c r="AB169" s="35"/>
+      <c r="AC169" s="35"/>
+      <c r="AD169" s="35"/>
+      <c r="AE169" s="35"/>
+      <c r="AF169" s="35"/>
+      <c r="AG169" s="35"/>
+      <c r="AH169" s="35"/>
+      <c r="AI169" s="35"/>
+      <c r="AJ169" s="35"/>
+      <c r="AK169" s="35"/>
+      <c r="AL169" s="35"/>
+      <c r="AM169" s="35"/>
+      <c r="AN169" s="35"/>
+      <c r="AO169" s="35"/>
+      <c r="AP169" s="35"/>
+      <c r="AQ169" s="35"/>
+      <c r="AR169" s="35"/>
+      <c r="AS169" s="35"/>
+      <c r="AT169" s="35"/>
+      <c r="AU169" s="35"/>
+      <c r="AV169" s="35"/>
+      <c r="AW169" s="36"/>
     </row>
     <row r="170" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E170" s="47"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="48"/>
-      <c r="L170" s="38">
+      <c r="E170" s="43"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="44"/>
+      <c r="I170" s="44"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="44"/>
+      <c r="L170" s="37">
         <v>1</v>
       </c>
-      <c r="M170" s="38"/>
-      <c r="N170" s="39" t="s">
+      <c r="M170" s="37"/>
+      <c r="N170" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O170" s="39"/>
-      <c r="P170" s="39"/>
-      <c r="Q170" s="39"/>
-      <c r="R170" s="39"/>
-      <c r="S170" s="39"/>
-      <c r="T170" s="39"/>
-      <c r="U170" s="39" t="s">
+      <c r="O170" s="38"/>
+      <c r="P170" s="38"/>
+      <c r="Q170" s="38"/>
+      <c r="R170" s="38"/>
+      <c r="S170" s="38"/>
+      <c r="T170" s="38"/>
+      <c r="U170" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="V170" s="39"/>
-      <c r="W170" s="39"/>
-      <c r="X170" s="39"/>
-      <c r="Y170" s="39"/>
-      <c r="Z170" s="59" t="s">
+      <c r="V170" s="38"/>
+      <c r="W170" s="38"/>
+      <c r="X170" s="38"/>
+      <c r="Y170" s="38"/>
+      <c r="Z170" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AA170" s="59"/>
-      <c r="AB170" s="59"/>
-      <c r="AC170" s="59"/>
-      <c r="AD170" s="59"/>
-      <c r="AE170" s="59"/>
-      <c r="AF170" s="59"/>
-      <c r="AG170" s="59"/>
-      <c r="AH170" s="59"/>
-      <c r="AI170" s="59"/>
-      <c r="AJ170" s="59"/>
-      <c r="AK170" s="59"/>
-      <c r="AL170" s="59"/>
-      <c r="AM170" s="59"/>
-      <c r="AN170" s="59"/>
-      <c r="AO170" s="59"/>
-      <c r="AP170" s="59"/>
-      <c r="AQ170" s="59"/>
-      <c r="AR170" s="59"/>
-      <c r="AS170" s="59"/>
-      <c r="AT170" s="59"/>
-      <c r="AU170" s="59"/>
-      <c r="AV170" s="59"/>
-      <c r="AW170" s="60"/>
+      <c r="AA170" s="45"/>
+      <c r="AB170" s="45"/>
+      <c r="AC170" s="45"/>
+      <c r="AD170" s="45"/>
+      <c r="AE170" s="45"/>
+      <c r="AF170" s="45"/>
+      <c r="AG170" s="45"/>
+      <c r="AH170" s="45"/>
+      <c r="AI170" s="45"/>
+      <c r="AJ170" s="45"/>
+      <c r="AK170" s="45"/>
+      <c r="AL170" s="45"/>
+      <c r="AM170" s="45"/>
+      <c r="AN170" s="45"/>
+      <c r="AO170" s="45"/>
+      <c r="AP170" s="45"/>
+      <c r="AQ170" s="45"/>
+      <c r="AR170" s="45"/>
+      <c r="AS170" s="45"/>
+      <c r="AT170" s="45"/>
+      <c r="AU170" s="45"/>
+      <c r="AV170" s="45"/>
+      <c r="AW170" s="46"/>
     </row>
     <row r="171" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E171" s="29" t="s">
+      <c r="E171" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="30"/>
-      <c r="J171" s="30"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="43" t="s">
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M171" s="44"/>
-      <c r="N171" s="45" t="s">
+      <c r="M171" s="34"/>
+      <c r="N171" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O171" s="45"/>
-      <c r="P171" s="45"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="45"/>
-      <c r="S171" s="45"/>
-      <c r="T171" s="45"/>
-      <c r="U171" s="45" t="s">
+      <c r="O171" s="35"/>
+      <c r="P171" s="35"/>
+      <c r="Q171" s="35"/>
+      <c r="R171" s="35"/>
+      <c r="S171" s="35"/>
+      <c r="T171" s="35"/>
+      <c r="U171" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V171" s="45"/>
-      <c r="W171" s="45"/>
-      <c r="X171" s="45"/>
-      <c r="Y171" s="45"/>
-      <c r="Z171" s="45" t="s">
+      <c r="V171" s="35"/>
+      <c r="W171" s="35"/>
+      <c r="X171" s="35"/>
+      <c r="Y171" s="35"/>
+      <c r="Z171" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA171" s="45"/>
-      <c r="AB171" s="45"/>
-      <c r="AC171" s="45"/>
-      <c r="AD171" s="45"/>
-      <c r="AE171" s="45"/>
-      <c r="AF171" s="45"/>
-      <c r="AG171" s="45"/>
-      <c r="AH171" s="45"/>
-      <c r="AI171" s="45"/>
-      <c r="AJ171" s="45"/>
-      <c r="AK171" s="45"/>
-      <c r="AL171" s="45"/>
-      <c r="AM171" s="45"/>
-      <c r="AN171" s="45"/>
-      <c r="AO171" s="45"/>
-      <c r="AP171" s="45"/>
-      <c r="AQ171" s="45"/>
-      <c r="AR171" s="45"/>
-      <c r="AS171" s="45"/>
-      <c r="AT171" s="45"/>
-      <c r="AU171" s="45"/>
-      <c r="AV171" s="45"/>
-      <c r="AW171" s="46"/>
+      <c r="AA171" s="35"/>
+      <c r="AB171" s="35"/>
+      <c r="AC171" s="35"/>
+      <c r="AD171" s="35"/>
+      <c r="AE171" s="35"/>
+      <c r="AF171" s="35"/>
+      <c r="AG171" s="35"/>
+      <c r="AH171" s="35"/>
+      <c r="AI171" s="35"/>
+      <c r="AJ171" s="35"/>
+      <c r="AK171" s="35"/>
+      <c r="AL171" s="35"/>
+      <c r="AM171" s="35"/>
+      <c r="AN171" s="35"/>
+      <c r="AO171" s="35"/>
+      <c r="AP171" s="35"/>
+      <c r="AQ171" s="35"/>
+      <c r="AR171" s="35"/>
+      <c r="AS171" s="35"/>
+      <c r="AT171" s="35"/>
+      <c r="AU171" s="35"/>
+      <c r="AV171" s="35"/>
+      <c r="AW171" s="36"/>
     </row>
     <row r="172" spans="3:49" x14ac:dyDescent="0.4">
-      <c r="E172" s="32"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="33"/>
-      <c r="K172" s="34"/>
-      <c r="L172" s="38">
+      <c r="E172" s="27"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="37">
         <v>1</v>
       </c>
-      <c r="M172" s="38"/>
-      <c r="N172" s="39" t="s">
+      <c r="M172" s="37"/>
+      <c r="N172" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O172" s="39"/>
-      <c r="P172" s="39"/>
-      <c r="Q172" s="39"/>
-      <c r="R172" s="39"/>
-      <c r="S172" s="39"/>
-      <c r="T172" s="39"/>
-      <c r="U172" s="39" t="s">
+      <c r="O172" s="38"/>
+      <c r="P172" s="38"/>
+      <c r="Q172" s="38"/>
+      <c r="R172" s="38"/>
+      <c r="S172" s="38"/>
+      <c r="T172" s="38"/>
+      <c r="U172" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="V172" s="39"/>
-      <c r="W172" s="39"/>
-      <c r="X172" s="39"/>
-      <c r="Y172" s="39"/>
-      <c r="Z172" s="39" t="s">
+      <c r="V172" s="38"/>
+      <c r="W172" s="38"/>
+      <c r="X172" s="38"/>
+      <c r="Y172" s="38"/>
+      <c r="Z172" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA172" s="39"/>
-      <c r="AB172" s="39"/>
-      <c r="AC172" s="39"/>
-      <c r="AD172" s="39"/>
-      <c r="AE172" s="39"/>
-      <c r="AF172" s="39"/>
-      <c r="AG172" s="39"/>
-      <c r="AH172" s="39"/>
-      <c r="AI172" s="39"/>
-      <c r="AJ172" s="39"/>
-      <c r="AK172" s="39"/>
-      <c r="AL172" s="39"/>
-      <c r="AM172" s="39"/>
-      <c r="AN172" s="39"/>
-      <c r="AO172" s="39"/>
-      <c r="AP172" s="39"/>
-      <c r="AQ172" s="39"/>
-      <c r="AR172" s="39"/>
-      <c r="AS172" s="39"/>
-      <c r="AT172" s="39"/>
-      <c r="AU172" s="39"/>
-      <c r="AV172" s="39"/>
-      <c r="AW172" s="40"/>
+      <c r="AA172" s="38"/>
+      <c r="AB172" s="38"/>
+      <c r="AC172" s="38"/>
+      <c r="AD172" s="38"/>
+      <c r="AE172" s="38"/>
+      <c r="AF172" s="38"/>
+      <c r="AG172" s="38"/>
+      <c r="AH172" s="38"/>
+      <c r="AI172" s="38"/>
+      <c r="AJ172" s="38"/>
+      <c r="AK172" s="38"/>
+      <c r="AL172" s="38"/>
+      <c r="AM172" s="38"/>
+      <c r="AN172" s="38"/>
+      <c r="AO172" s="38"/>
+      <c r="AP172" s="38"/>
+      <c r="AQ172" s="38"/>
+      <c r="AR172" s="38"/>
+      <c r="AS172" s="38"/>
+      <c r="AT172" s="38"/>
+      <c r="AU172" s="38"/>
+      <c r="AV172" s="38"/>
+      <c r="AW172" s="39"/>
     </row>
     <row r="173" spans="3:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E173" s="35"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="37"/>
-      <c r="L173" s="26">
+      <c r="E173" s="30"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="32"/>
+      <c r="L173" s="40">
         <v>2</v>
       </c>
-      <c r="M173" s="26"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
-      <c r="R173" s="27"/>
-      <c r="S173" s="27"/>
-      <c r="T173" s="27"/>
-      <c r="U173" s="27"/>
-      <c r="V173" s="27"/>
-      <c r="W173" s="27"/>
-      <c r="X173" s="27"/>
-      <c r="Y173" s="27"/>
-      <c r="Z173" s="27"/>
-      <c r="AA173" s="27"/>
-      <c r="AB173" s="27"/>
-      <c r="AC173" s="27"/>
-      <c r="AD173" s="27"/>
-      <c r="AE173" s="27"/>
-      <c r="AF173" s="27"/>
-      <c r="AG173" s="27"/>
-      <c r="AH173" s="27"/>
-      <c r="AI173" s="27"/>
-      <c r="AJ173" s="27"/>
-      <c r="AK173" s="27"/>
-      <c r="AL173" s="27"/>
-      <c r="AM173" s="27"/>
-      <c r="AN173" s="27"/>
-      <c r="AO173" s="27"/>
-      <c r="AP173" s="27"/>
-      <c r="AQ173" s="27"/>
-      <c r="AR173" s="27"/>
-      <c r="AS173" s="27"/>
-      <c r="AT173" s="27"/>
-      <c r="AU173" s="27"/>
-      <c r="AV173" s="27"/>
-      <c r="AW173" s="28"/>
+      <c r="M173" s="40"/>
+      <c r="N173" s="41"/>
+      <c r="O173" s="41"/>
+      <c r="P173" s="41"/>
+      <c r="Q173" s="41"/>
+      <c r="R173" s="41"/>
+      <c r="S173" s="41"/>
+      <c r="T173" s="41"/>
+      <c r="U173" s="41"/>
+      <c r="V173" s="41"/>
+      <c r="W173" s="41"/>
+      <c r="X173" s="41"/>
+      <c r="Y173" s="41"/>
+      <c r="Z173" s="41"/>
+      <c r="AA173" s="41"/>
+      <c r="AB173" s="41"/>
+      <c r="AC173" s="41"/>
+      <c r="AD173" s="41"/>
+      <c r="AE173" s="41"/>
+      <c r="AF173" s="41"/>
+      <c r="AG173" s="41"/>
+      <c r="AH173" s="41"/>
+      <c r="AI173" s="41"/>
+      <c r="AJ173" s="41"/>
+      <c r="AK173" s="41"/>
+      <c r="AL173" s="41"/>
+      <c r="AM173" s="41"/>
+      <c r="AN173" s="41"/>
+      <c r="AO173" s="41"/>
+      <c r="AP173" s="41"/>
+      <c r="AQ173" s="41"/>
+      <c r="AR173" s="41"/>
+      <c r="AS173" s="41"/>
+      <c r="AT173" s="41"/>
+      <c r="AU173" s="41"/>
+      <c r="AV173" s="41"/>
+      <c r="AW173" s="42"/>
     </row>
     <row r="174" spans="3:49" x14ac:dyDescent="0.4">
       <c r="N174" s="6"/>
@@ -12657,197 +12657,55 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="E171:K173"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="N171:T171"/>
-    <mergeCell ref="U171:Y171"/>
-    <mergeCell ref="Z171:AW171"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="U172:Y172"/>
-    <mergeCell ref="Z172:AW172"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:T173"/>
-    <mergeCell ref="U173:Y173"/>
-    <mergeCell ref="Z173:AW173"/>
-    <mergeCell ref="E169:K170"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="N169:T169"/>
-    <mergeCell ref="U169:Y169"/>
-    <mergeCell ref="Z169:AW169"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="N170:T170"/>
-    <mergeCell ref="U170:Y170"/>
-    <mergeCell ref="Z170:AW170"/>
-    <mergeCell ref="E166:K168"/>
-    <mergeCell ref="L166:M166"/>
-    <mergeCell ref="N166:T166"/>
-    <mergeCell ref="U166:Y166"/>
-    <mergeCell ref="Z166:AW166"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="N167:T167"/>
-    <mergeCell ref="U167:Y167"/>
-    <mergeCell ref="Z167:AW167"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="N168:T168"/>
-    <mergeCell ref="U168:Y168"/>
-    <mergeCell ref="Z168:AW168"/>
-    <mergeCell ref="Z161:AW161"/>
-    <mergeCell ref="E164:K164"/>
-    <mergeCell ref="L164:AW164"/>
-    <mergeCell ref="E165:K165"/>
-    <mergeCell ref="L165:AW165"/>
-    <mergeCell ref="E157:K157"/>
-    <mergeCell ref="L157:AW157"/>
-    <mergeCell ref="E158:K158"/>
-    <mergeCell ref="L158:AW158"/>
-    <mergeCell ref="E159:K161"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="N159:T159"/>
-    <mergeCell ref="U159:Y159"/>
-    <mergeCell ref="Z159:AW159"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="N160:T160"/>
-    <mergeCell ref="U160:Y160"/>
-    <mergeCell ref="Z160:AW160"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="N161:T161"/>
-    <mergeCell ref="U161:Y161"/>
-    <mergeCell ref="E106:K108"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:T106"/>
-    <mergeCell ref="U106:Y106"/>
-    <mergeCell ref="Z106:AW106"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:T107"/>
-    <mergeCell ref="U107:Y107"/>
-    <mergeCell ref="Z107:AW107"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:T108"/>
-    <mergeCell ref="U108:Y108"/>
-    <mergeCell ref="Z108:AW108"/>
-    <mergeCell ref="E104:K105"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="N104:T104"/>
-    <mergeCell ref="U104:Y104"/>
-    <mergeCell ref="Z104:AW104"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:T105"/>
-    <mergeCell ref="U105:Y105"/>
-    <mergeCell ref="Z105:AW105"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:AW99"/>
-    <mergeCell ref="E100:K100"/>
-    <mergeCell ref="L100:AW100"/>
-    <mergeCell ref="E101:K103"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:T101"/>
-    <mergeCell ref="U101:Y101"/>
-    <mergeCell ref="Z101:AW101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:T102"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="Z102:AW102"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:T103"/>
-    <mergeCell ref="U103:Y103"/>
-    <mergeCell ref="Z103:AW103"/>
-    <mergeCell ref="E94:K96"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:T94"/>
-    <mergeCell ref="U94:Y94"/>
-    <mergeCell ref="Z94:AW94"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:T95"/>
-    <mergeCell ref="U95:Y95"/>
-    <mergeCell ref="Z95:AW95"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:T96"/>
-    <mergeCell ref="U96:Y96"/>
-    <mergeCell ref="Z96:AW96"/>
-    <mergeCell ref="E92:K93"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:T92"/>
-    <mergeCell ref="U92:Y92"/>
-    <mergeCell ref="Z92:AW92"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:T93"/>
-    <mergeCell ref="U93:Y93"/>
-    <mergeCell ref="Z93:AW93"/>
-    <mergeCell ref="E87:K87"/>
-    <mergeCell ref="L87:AW87"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="L88:AW88"/>
-    <mergeCell ref="E89:K91"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:T89"/>
-    <mergeCell ref="U89:Y89"/>
-    <mergeCell ref="Z89:AW89"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:T90"/>
-    <mergeCell ref="U90:Y90"/>
-    <mergeCell ref="Z90:AW90"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:T91"/>
-    <mergeCell ref="U91:Y91"/>
-    <mergeCell ref="Z91:AW91"/>
-    <mergeCell ref="E82:K84"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:T82"/>
-    <mergeCell ref="U82:Y82"/>
-    <mergeCell ref="Z82:AW82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="U83:Y83"/>
-    <mergeCell ref="Z83:AW83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:T84"/>
-    <mergeCell ref="U84:Y84"/>
-    <mergeCell ref="Z84:AW84"/>
-    <mergeCell ref="E80:K81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:T80"/>
-    <mergeCell ref="U80:Y80"/>
-    <mergeCell ref="Z80:AW80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:T81"/>
-    <mergeCell ref="U81:Y81"/>
-    <mergeCell ref="Z81:AW81"/>
-    <mergeCell ref="E77:K79"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="U77:Y77"/>
-    <mergeCell ref="Z77:AW77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="U78:Y78"/>
-    <mergeCell ref="Z78:AW78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="Z79:AW79"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE72:AW72"/>
-    <mergeCell ref="E75:K75"/>
-    <mergeCell ref="L75:AW75"/>
-    <mergeCell ref="E76:K76"/>
-    <mergeCell ref="L76:AW76"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="L69:AW69"/>
-    <mergeCell ref="E70:K72"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AW70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="U71:Y71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AW71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="Z33:AW33"/>
+    <mergeCell ref="E31:K33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="Z32:AW32"/>
+    <mergeCell ref="L36:AW36"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AW31"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AW29"/>
+    <mergeCell ref="E29:K30"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Z27:AW27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AW28"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L25:AW25"/>
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AW26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:AW18"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AW19"/>
+    <mergeCell ref="AE20:AW20"/>
+    <mergeCell ref="AE21:AW21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:T20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
     <mergeCell ref="E37:K39"/>
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="L24:AW24"/>
@@ -12872,55 +12730,197 @@
     <mergeCell ref="E26:K28"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:AW18"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AW19"/>
-    <mergeCell ref="AE20:AW20"/>
-    <mergeCell ref="AE21:AW21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AW29"/>
-    <mergeCell ref="E29:K30"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z27:AW27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AW28"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L25:AW25"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AW26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="Z33:AW33"/>
-    <mergeCell ref="E31:K33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="Z32:AW32"/>
-    <mergeCell ref="L36:AW36"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AW31"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE72:AW72"/>
+    <mergeCell ref="E75:K75"/>
+    <mergeCell ref="L75:AW75"/>
+    <mergeCell ref="E76:K76"/>
+    <mergeCell ref="L76:AW76"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="L69:AW69"/>
+    <mergeCell ref="E70:K72"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AW70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="U71:Y71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AW71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="E77:K79"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="U77:Y77"/>
+    <mergeCell ref="Z77:AW77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="U78:Y78"/>
+    <mergeCell ref="Z78:AW78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="Z79:AW79"/>
+    <mergeCell ref="E80:K81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:T80"/>
+    <mergeCell ref="U80:Y80"/>
+    <mergeCell ref="Z80:AW80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:T81"/>
+    <mergeCell ref="U81:Y81"/>
+    <mergeCell ref="Z81:AW81"/>
+    <mergeCell ref="E82:K84"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:T82"/>
+    <mergeCell ref="U82:Y82"/>
+    <mergeCell ref="Z82:AW82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:T83"/>
+    <mergeCell ref="U83:Y83"/>
+    <mergeCell ref="Z83:AW83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:T84"/>
+    <mergeCell ref="U84:Y84"/>
+    <mergeCell ref="Z84:AW84"/>
+    <mergeCell ref="E87:K87"/>
+    <mergeCell ref="L87:AW87"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="L88:AW88"/>
+    <mergeCell ref="E89:K91"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:T89"/>
+    <mergeCell ref="U89:Y89"/>
+    <mergeCell ref="Z89:AW89"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:T90"/>
+    <mergeCell ref="U90:Y90"/>
+    <mergeCell ref="Z90:AW90"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:T91"/>
+    <mergeCell ref="U91:Y91"/>
+    <mergeCell ref="Z91:AW91"/>
+    <mergeCell ref="E92:K93"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:T92"/>
+    <mergeCell ref="U92:Y92"/>
+    <mergeCell ref="Z92:AW92"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:T93"/>
+    <mergeCell ref="U93:Y93"/>
+    <mergeCell ref="Z93:AW93"/>
+    <mergeCell ref="E94:K96"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:T94"/>
+    <mergeCell ref="U94:Y94"/>
+    <mergeCell ref="Z94:AW94"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:T95"/>
+    <mergeCell ref="U95:Y95"/>
+    <mergeCell ref="Z95:AW95"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:T96"/>
+    <mergeCell ref="U96:Y96"/>
+    <mergeCell ref="Z96:AW96"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:AW99"/>
+    <mergeCell ref="E100:K100"/>
+    <mergeCell ref="L100:AW100"/>
+    <mergeCell ref="E101:K103"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:T101"/>
+    <mergeCell ref="U101:Y101"/>
+    <mergeCell ref="Z101:AW101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:T102"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="Z102:AW102"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:T103"/>
+    <mergeCell ref="U103:Y103"/>
+    <mergeCell ref="Z103:AW103"/>
+    <mergeCell ref="E104:K105"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:T104"/>
+    <mergeCell ref="U104:Y104"/>
+    <mergeCell ref="Z104:AW104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:T105"/>
+    <mergeCell ref="U105:Y105"/>
+    <mergeCell ref="Z105:AW105"/>
+    <mergeCell ref="E106:K108"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:T106"/>
+    <mergeCell ref="U106:Y106"/>
+    <mergeCell ref="Z106:AW106"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:T107"/>
+    <mergeCell ref="U107:Y107"/>
+    <mergeCell ref="Z107:AW107"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:T108"/>
+    <mergeCell ref="U108:Y108"/>
+    <mergeCell ref="Z108:AW108"/>
+    <mergeCell ref="Z161:AW161"/>
+    <mergeCell ref="E164:K164"/>
+    <mergeCell ref="L164:AW164"/>
+    <mergeCell ref="E165:K165"/>
+    <mergeCell ref="L165:AW165"/>
+    <mergeCell ref="E157:K157"/>
+    <mergeCell ref="L157:AW157"/>
+    <mergeCell ref="E158:K158"/>
+    <mergeCell ref="L158:AW158"/>
+    <mergeCell ref="E159:K161"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:T159"/>
+    <mergeCell ref="U159:Y159"/>
+    <mergeCell ref="Z159:AW159"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:T160"/>
+    <mergeCell ref="U160:Y160"/>
+    <mergeCell ref="Z160:AW160"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:T161"/>
+    <mergeCell ref="U161:Y161"/>
+    <mergeCell ref="E166:K168"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="N166:T166"/>
+    <mergeCell ref="U166:Y166"/>
+    <mergeCell ref="Z166:AW166"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="N167:T167"/>
+    <mergeCell ref="U167:Y167"/>
+    <mergeCell ref="Z167:AW167"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="N168:T168"/>
+    <mergeCell ref="U168:Y168"/>
+    <mergeCell ref="Z168:AW168"/>
+    <mergeCell ref="E169:K170"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="N169:T169"/>
+    <mergeCell ref="U169:Y169"/>
+    <mergeCell ref="Z169:AW169"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="N170:T170"/>
+    <mergeCell ref="U170:Y170"/>
+    <mergeCell ref="Z170:AW170"/>
+    <mergeCell ref="E171:K173"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="N171:T171"/>
+    <mergeCell ref="U171:Y171"/>
+    <mergeCell ref="Z171:AW171"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="U172:Y172"/>
+    <mergeCell ref="Z172:AW172"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:T173"/>
+    <mergeCell ref="U173:Y173"/>
+    <mergeCell ref="Z173:AW173"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
